--- a/font/freetype2.xlsx
+++ b/font/freetype2.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="目录结构" sheetId="1" r:id="rId1"/>
-    <sheet name="编译系统" sheetId="2" r:id="rId2"/>
+    <sheet name="编译系统" sheetId="2" r:id="rId1"/>
+    <sheet name="目录结构" sheetId="1" r:id="rId2"/>
+    <sheet name="bzip2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="511">
   <si>
     <t>freetype2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1923,6 +1924,109 @@
   <si>
     <t>bdf.h</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function &amp; 数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef void *(* alloc_func)(void*, int, int);</t>
+  </si>
+  <si>
+    <t>typedef void (* free_func)(void*, void*);</t>
+  </si>
+  <si>
+    <t>static void* ft_bzip2_alloc( FT_Memory  memory, int items, int size )</t>
+  </si>
+  <si>
+    <t>static void ft_bzip2_free( FT_Memory  memory, void* address )</t>
+  </si>
+  <si>
+    <t>#define FT_BZIP2_BUFFER_SIZE  4096</t>
+  </si>
+  <si>
+    <t>typedef struct  FT_BZip2FileRec_</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_Stream  source;         /* parent/source stream        */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_Stream  stream;         /* embedding stream            */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_Memory  memory;         /* memory allocator            */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bz_stream  bzstream;       /* bzlib input stream          */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_Byte    input[FT_BZIP2_BUFFER_SIZE];  /* input read buffer  */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_Byte    buffer[FT_BZIP2_BUFFER_SIZE]; /* output buffer      */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_ULong   pos;                          /* position in output */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_Byte*   cursor;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FT_Byte*   limit;</t>
+  </si>
+  <si>
+    <t>} FT_BZip2FileRec, *FT_BZip2File;</t>
+  </si>
+  <si>
+    <t>内存管理定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FT_Error ft_bzip2_check_header( FT_Stream stream )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static FT_Error ft_bzip2_file_init( FT_BZip2File zip, FT_Stream stream, FT_Stream source ) </t>
+  </si>
+  <si>
+    <t>static void ft_bzip2_file_done( FT_BZip2File zip )</t>
+  </si>
+  <si>
+    <t>static FT_Error ft_bzip2_file_reset( FT_BZip2File zip )</t>
+  </si>
+  <si>
+    <t>static FT_Error ft_bzip2_file_fill_input( FT_BZip2File zip )</t>
+  </si>
+  <si>
+    <t>static FT_Error ft_bzip2_file_fill_output( FT_BZip2File zip )</t>
+  </si>
+  <si>
+    <t>static FT_Error ft_bzip2_file_skip_output( FT_BZip2File zip, FT_ULong count )</t>
+  </si>
+  <si>
+    <t>static FT_ULong ft_bzip2_file_io( FT_BZip2File zip, FT_ULong pos, FT_Byte* buffer, FT_ULong count )</t>
+  </si>
+  <si>
+    <t>static void ft_bzip2_stream_close( FT_Stream stream )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static unsigned long ft_bzip2_stream_io( FT_Stream stream, unsigned long offset, unsigned char*  buffer, unsigned long   count )  </t>
+  </si>
+  <si>
+    <t>FT_EXPORT_DEF( FT_Error ) FT_Stream_OpenBzip2( FT_Stream stream, FT_Stream source )</t>
   </si>
 </sst>
 </file>
@@ -1955,12 +2059,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="33">
@@ -2381,7 +2497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2418,12 +2534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2439,22 +2549,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2466,8 +2573,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2476,6 +2583,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2487,28 +2615,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2520,20 +2642,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2829,10 +2954,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:CK131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CR27" sqref="CR27:DC35"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP50" sqref="AP50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -3201,117 +3341,117 @@
     <row r="6" spans="3:89">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="13" t="s">
+      <c r="AC6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="13" t="s">
+      <c r="AI6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="13" t="s">
+      <c r="AO6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
       <c r="AT6" s="11"/>
-      <c r="AU6" s="13" t="s">
+      <c r="AU6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="50"/>
       <c r="AZ6" s="4"/>
-      <c r="BA6" s="13" t="s">
+      <c r="BA6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BE6" s="13"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="50"/>
+      <c r="BE6" s="50"/>
       <c r="BF6" s="4"/>
-      <c r="BG6" s="13" t="s">
+      <c r="BG6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="BH6" s="13"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="13"/>
-      <c r="BK6" s="13"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
+      <c r="BK6" s="50"/>
       <c r="BL6" s="4"/>
-      <c r="BM6" s="13" t="s">
+      <c r="BM6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="13"/>
-      <c r="BO6" s="13"/>
-      <c r="BP6" s="13"/>
-      <c r="BQ6" s="13"/>
+      <c r="BN6" s="50"/>
+      <c r="BO6" s="50"/>
+      <c r="BP6" s="50"/>
+      <c r="BQ6" s="50"/>
       <c r="BR6" s="4"/>
-      <c r="BS6" s="13" t="s">
+      <c r="BS6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="BT6" s="13"/>
-      <c r="BU6" s="13"/>
-      <c r="BV6" s="13"/>
-      <c r="BW6" s="13"/>
+      <c r="BT6" s="50"/>
+      <c r="BU6" s="50"/>
+      <c r="BV6" s="50"/>
+      <c r="BW6" s="50"/>
       <c r="BX6" s="4"/>
-      <c r="BY6" s="13" t="s">
+      <c r="BY6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="BZ6" s="13"/>
-      <c r="CA6" s="13"/>
-      <c r="CB6" s="13"/>
-      <c r="CC6" s="13"/>
+      <c r="BZ6" s="50"/>
+      <c r="CA6" s="50"/>
+      <c r="CB6" s="50"/>
+      <c r="CC6" s="50"/>
       <c r="CD6" s="4"/>
-      <c r="CE6" s="13" t="s">
+      <c r="CE6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="CF6" s="13"/>
-      <c r="CG6" s="13"/>
-      <c r="CH6" s="13"/>
-      <c r="CI6" s="13"/>
+      <c r="CF6" s="50"/>
+      <c r="CG6" s="50"/>
+      <c r="CH6" s="50"/>
+      <c r="CI6" s="50"/>
       <c r="CJ6" s="5"/>
       <c r="CK6" s="5"/>
     </row>
@@ -3407,117 +3547,117 @@
     <row r="8" spans="3:89">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="13" t="s">
+      <c r="W8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="13" t="s">
+      <c r="AC8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="13" t="s">
+      <c r="AI8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="13" t="s">
+      <c r="AO8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AT8" s="11"/>
-      <c r="AU8" s="13" t="s">
+      <c r="AU8" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="50"/>
+      <c r="AY8" s="50"/>
       <c r="AZ8" s="4"/>
-      <c r="BA8" s="13" t="s">
+      <c r="BA8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
       <c r="BF8" s="4"/>
-      <c r="BG8" s="13" t="s">
+      <c r="BG8" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="50"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="13" t="s">
+      <c r="BM8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="13"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
       <c r="BR8" s="4"/>
-      <c r="BS8" s="13" t="s">
+      <c r="BS8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="BT8" s="13"/>
-      <c r="BU8" s="13"/>
-      <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
+      <c r="BT8" s="50"/>
+      <c r="BU8" s="50"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="50"/>
       <c r="BX8" s="4"/>
-      <c r="BY8" s="13" t="s">
+      <c r="BY8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BZ8" s="13"/>
-      <c r="CA8" s="13"/>
-      <c r="CB8" s="13"/>
-      <c r="CC8" s="13"/>
+      <c r="BZ8" s="50"/>
+      <c r="CA8" s="50"/>
+      <c r="CB8" s="50"/>
+      <c r="CC8" s="50"/>
       <c r="CD8" s="4"/>
-      <c r="CE8" s="13" t="s">
+      <c r="CE8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="CF8" s="13"/>
-      <c r="CG8" s="13"/>
-      <c r="CH8" s="13"/>
-      <c r="CI8" s="13"/>
+      <c r="CF8" s="50"/>
+      <c r="CG8" s="50"/>
+      <c r="CH8" s="50"/>
+      <c r="CI8" s="50"/>
       <c r="CJ8" s="5"/>
       <c r="CK8" s="5"/>
     </row>
@@ -3613,117 +3753,117 @@
     <row r="10" spans="3:89">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="13" t="s">
+      <c r="W10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="13" t="s">
+      <c r="AC10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="13" t="s">
+      <c r="AI10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="13" t="s">
+      <c r="AO10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
       <c r="AT10" s="11"/>
-      <c r="AU10" s="13" t="s">
+      <c r="AU10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
       <c r="AZ10" s="4"/>
-      <c r="BA10" s="13" t="s">
+      <c r="BA10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="13"/>
-      <c r="BD10" s="13"/>
-      <c r="BE10" s="13"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
       <c r="BF10" s="4"/>
-      <c r="BG10" s="13" t="s">
+      <c r="BG10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="13"/>
-      <c r="BK10" s="13"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="50"/>
+      <c r="BK10" s="50"/>
       <c r="BL10" s="4"/>
-      <c r="BM10" s="13" t="s">
+      <c r="BM10" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="BN10" s="13"/>
-      <c r="BO10" s="13"/>
-      <c r="BP10" s="13"/>
-      <c r="BQ10" s="13"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
+      <c r="BQ10" s="50"/>
       <c r="BR10" s="4"/>
-      <c r="BS10" s="13" t="s">
+      <c r="BS10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="BT10" s="13"/>
-      <c r="BU10" s="13"/>
-      <c r="BV10" s="13"/>
-      <c r="BW10" s="13"/>
+      <c r="BT10" s="50"/>
+      <c r="BU10" s="50"/>
+      <c r="BV10" s="50"/>
+      <c r="BW10" s="50"/>
       <c r="BX10" s="4"/>
-      <c r="BY10" s="13" t="s">
+      <c r="BY10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="BZ10" s="13"/>
-      <c r="CA10" s="13"/>
-      <c r="CB10" s="13"/>
-      <c r="CC10" s="13"/>
+      <c r="BZ10" s="50"/>
+      <c r="CA10" s="50"/>
+      <c r="CB10" s="50"/>
+      <c r="CC10" s="50"/>
       <c r="CD10" s="4"/>
-      <c r="CE10" s="13" t="s">
+      <c r="CE10" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="CF10" s="13"/>
-      <c r="CG10" s="13"/>
-      <c r="CH10" s="13"/>
-      <c r="CI10" s="13"/>
+      <c r="CF10" s="50"/>
+      <c r="CG10" s="50"/>
+      <c r="CH10" s="50"/>
+      <c r="CI10" s="50"/>
       <c r="CJ10" s="5"/>
       <c r="CK10" s="5"/>
     </row>
@@ -3819,21 +3959,21 @@
     <row r="12" spans="3:89">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
       <c r="AT12" s="11"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
@@ -4019,19 +4159,19 @@
     <row r="15" spans="3:89">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -4110,7 +4250,7 @@
     <row r="16" spans="3:89">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -4167,101 +4307,101 @@
     <row r="17" spans="3:89">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
-      <c r="R17" s="35" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="49"/>
+      <c r="R17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
-      <c r="X17" s="35" t="s">
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="49"/>
+      <c r="X17" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="37"/>
-      <c r="AD17" s="35" t="s">
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="49"/>
+      <c r="AD17" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="37"/>
-      <c r="AJ17" s="35" t="s">
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="49"/>
+      <c r="AJ17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="37"/>
-      <c r="AP17" s="35" t="s">
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="49"/>
+      <c r="AP17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="37"/>
-      <c r="AV17" s="13" t="s">
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="49"/>
+      <c r="AV17" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BB17" s="13" t="s">
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BB17" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="BC17" s="13"/>
-      <c r="BD17" s="13"/>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="13"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
       <c r="BG17" s="4"/>
-      <c r="BH17" s="13" t="s">
+      <c r="BH17" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="BI17" s="13"/>
-      <c r="BJ17" s="13"/>
-      <c r="BK17" s="13"/>
-      <c r="BL17" s="13"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
       <c r="BM17" s="4"/>
-      <c r="BN17" s="13" t="s">
+      <c r="BN17" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="BO17" s="13"/>
-      <c r="BP17" s="13"/>
-      <c r="BQ17" s="13"/>
-      <c r="BR17" s="13"/>
-      <c r="BT17" s="13" t="s">
+      <c r="BO17" s="50"/>
+      <c r="BP17" s="50"/>
+      <c r="BQ17" s="50"/>
+      <c r="BR17" s="50"/>
+      <c r="BT17" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="BU17" s="13"/>
-      <c r="BV17" s="13"/>
-      <c r="BW17" s="13"/>
-      <c r="BX17" s="13"/>
-      <c r="BZ17" s="13" t="s">
+      <c r="BU17" s="50"/>
+      <c r="BV17" s="50"/>
+      <c r="BW17" s="50"/>
+      <c r="BX17" s="50"/>
+      <c r="BZ17" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="CA17" s="13"/>
-      <c r="CB17" s="13"/>
-      <c r="CC17" s="13"/>
-      <c r="CD17" s="13"/>
+      <c r="CA17" s="50"/>
+      <c r="CB17" s="50"/>
+      <c r="CC17" s="50"/>
+      <c r="CD17" s="50"/>
       <c r="CG17" s="4"/>
       <c r="CH17" s="4"/>
       <c r="CI17" s="5"/>
@@ -4271,7 +4411,7 @@
     <row r="18" spans="3:89">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -4360,71 +4500,71 @@
     <row r="19" spans="3:89">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="R19" s="13" t="s">
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="X19" s="13" t="s">
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="X19" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AD19" s="13" t="s">
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AD19" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AJ19" s="13" t="s">
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AJ19" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AP19" s="13" t="s">
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AP19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AV19" s="13" t="s">
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AV19" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BB19" s="13" t="s">
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BB19" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
       <c r="BG19" s="4"/>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4"/>
@@ -4450,7 +4590,7 @@
     <row r="20" spans="3:89">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="13"/>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -4500,7 +4640,7 @@
     <row r="21" spans="3:89" ht="14.25" thickBot="1">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -4589,35 +4729,35 @@
     <row r="22" spans="3:89">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -4680,8 +4820,8 @@
     <row r="23" spans="3:89">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -4769,104 +4909,104 @@
     <row r="24" spans="3:89">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="S24" s="35" t="s">
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="49"/>
+      <c r="S24" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37"/>
-      <c r="Y24" s="13" t="s">
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="49"/>
+      <c r="Y24" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
       <c r="AD24" s="11"/>
-      <c r="AE24" s="13" t="s">
+      <c r="AE24" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
       <c r="AJ24" s="4"/>
-      <c r="AK24" s="13" t="s">
+      <c r="AK24" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AQ24" s="13" t="s">
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AQ24" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AW24" s="13" t="s">
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AW24" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BC24" s="13" t="s">
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BC24" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
       <c r="BH24" s="11"/>
-      <c r="BI24" s="13" t="s">
+      <c r="BI24" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="BJ24" s="13"/>
-      <c r="BK24" s="13"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="13"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+      <c r="BM24" s="50"/>
       <c r="BN24" s="11"/>
-      <c r="BO24" s="13" t="s">
+      <c r="BO24" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="BP24" s="13"/>
-      <c r="BQ24" s="13"/>
-      <c r="BR24" s="13"/>
-      <c r="BS24" s="13"/>
-      <c r="BU24" s="13" t="s">
+      <c r="BP24" s="50"/>
+      <c r="BQ24" s="50"/>
+      <c r="BR24" s="50"/>
+      <c r="BS24" s="50"/>
+      <c r="BU24" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="BV24" s="13"/>
-      <c r="BW24" s="13"/>
-      <c r="BX24" s="13"/>
-      <c r="BY24" s="13"/>
-      <c r="CA24" s="13" t="s">
+      <c r="BV24" s="50"/>
+      <c r="BW24" s="50"/>
+      <c r="BX24" s="50"/>
+      <c r="BY24" s="50"/>
+      <c r="CA24" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="CB24" s="13"/>
-      <c r="CC24" s="13"/>
-      <c r="CD24" s="13"/>
-      <c r="CE24" s="13"/>
+      <c r="CB24" s="50"/>
+      <c r="CC24" s="50"/>
+      <c r="CD24" s="50"/>
+      <c r="CE24" s="50"/>
       <c r="CF24" s="4"/>
       <c r="CG24" s="4"/>
       <c r="CH24" s="5"/>
@@ -4877,8 +5017,8 @@
     <row r="25" spans="3:89">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -4966,60 +5106,60 @@
     <row r="26" spans="3:89">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="S26" s="13" t="s">
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="S26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="Y26" s="13" t="s">
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="Y26" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="13" t="s">
+      <c r="AE26" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="13" t="s">
+      <c r="AK26" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AQ26" s="13" t="s">
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AQ26" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
@@ -5044,33 +5184,33 @@
     <row r="27" spans="3:89" ht="14.25" thickBot="1">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
@@ -5133,17 +5273,17 @@
     <row r="28" spans="3:89" ht="14.25" thickBot="1">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -5765,104 +5905,104 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="R35" s="38" t="s">
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="R35" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="40"/>
-      <c r="X35" s="32" t="s">
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="21"/>
+      <c r="X35" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="34"/>
-      <c r="AD35" s="38" t="s">
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="38"/>
+      <c r="AD35" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="40"/>
-      <c r="AJ35" s="32" t="s">
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="21"/>
+      <c r="AJ35" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="34"/>
-      <c r="AP35" s="38" t="s">
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="38"/>
+      <c r="AP35" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39"/>
-      <c r="AT35" s="40"/>
-      <c r="AV35" s="38" t="s">
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+      <c r="AS35" s="20"/>
+      <c r="AT35" s="21"/>
+      <c r="AV35" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AW35" s="39"/>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="40"/>
-      <c r="BB35" s="19" t="s">
+      <c r="AW35" s="20"/>
+      <c r="AX35" s="20"/>
+      <c r="AY35" s="20"/>
+      <c r="AZ35" s="21"/>
+      <c r="BB35" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="BC35" s="20"/>
-      <c r="BD35" s="20"/>
-      <c r="BE35" s="20"/>
-      <c r="BF35" s="21"/>
-      <c r="BH35" s="19" t="s">
+      <c r="BC35" s="34"/>
+      <c r="BD35" s="34"/>
+      <c r="BE35" s="34"/>
+      <c r="BF35" s="35"/>
+      <c r="BH35" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="BI35" s="20"/>
-      <c r="BJ35" s="20"/>
-      <c r="BK35" s="20"/>
-      <c r="BL35" s="21"/>
+      <c r="BI35" s="34"/>
+      <c r="BJ35" s="34"/>
+      <c r="BK35" s="34"/>
+      <c r="BL35" s="35"/>
       <c r="BM35" s="4"/>
       <c r="BN35" s="3"/>
       <c r="BO35" s="3"/>
-      <c r="BP35" s="32" t="s">
+      <c r="BP35" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="BQ35" s="33"/>
-      <c r="BR35" s="33"/>
-      <c r="BS35" s="33"/>
-      <c r="BT35" s="34"/>
-      <c r="BV35" s="32" t="s">
+      <c r="BQ35" s="37"/>
+      <c r="BR35" s="37"/>
+      <c r="BS35" s="37"/>
+      <c r="BT35" s="38"/>
+      <c r="BV35" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="BW35" s="33"/>
-      <c r="BX35" s="33"/>
-      <c r="BY35" s="33"/>
-      <c r="BZ35" s="34"/>
+      <c r="BW35" s="37"/>
+      <c r="BX35" s="37"/>
+      <c r="BY35" s="37"/>
+      <c r="BZ35" s="38"/>
       <c r="CA35" s="5"/>
       <c r="CB35" s="3"/>
       <c r="CC35" s="3"/>
-      <c r="CD35" s="29" t="s">
+      <c r="CD35" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="CE35" s="30"/>
-      <c r="CF35" s="30"/>
-      <c r="CG35" s="30"/>
-      <c r="CH35" s="31"/>
+      <c r="CE35" s="27"/>
+      <c r="CF35" s="27"/>
+      <c r="CG35" s="27"/>
+      <c r="CH35" s="28"/>
       <c r="CI35" s="5"/>
       <c r="CJ35" s="5"/>
       <c r="CK35" s="5"/>
@@ -5871,71 +6011,71 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
       <c r="P36" s="42"/>
-      <c r="R36" s="25" t="s">
+      <c r="R36" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="27"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="24"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="25" t="s">
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="27"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="24"/>
       <c r="AM36" s="4"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="25" t="s">
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="27"/>
-      <c r="AV36" s="25" t="s">
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AS36" s="23"/>
+      <c r="AT36" s="24"/>
+      <c r="AV36" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="27"/>
-      <c r="BB36" s="22" t="s">
+      <c r="AW36" s="23"/>
+      <c r="AX36" s="23"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="24"/>
+      <c r="BB36" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="BC36" s="23"/>
-      <c r="BD36" s="23"/>
-      <c r="BE36" s="23"/>
-      <c r="BF36" s="24"/>
-      <c r="BH36" s="22" t="s">
+      <c r="BC36" s="31"/>
+      <c r="BD36" s="31"/>
+      <c r="BE36" s="31"/>
+      <c r="BF36" s="32"/>
+      <c r="BH36" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="BI36" s="23"/>
-      <c r="BJ36" s="23"/>
-      <c r="BK36" s="23"/>
-      <c r="BL36" s="24"/>
+      <c r="BI36" s="31"/>
+      <c r="BJ36" s="31"/>
+      <c r="BK36" s="31"/>
+      <c r="BL36" s="32"/>
       <c r="BM36" s="4"/>
       <c r="BN36" s="3"/>
       <c r="BO36" s="3"/>
@@ -5972,12 +6112,12 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="41" t="s">
+      <c r="L37" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
       <c r="P37" s="42"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -5985,13 +6125,13 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="29" t="s">
+      <c r="X37" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="31"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="28"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
@@ -5999,13 +6139,13 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
-      <c r="AJ37" s="29" t="s">
+      <c r="AJ37" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="31"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="28"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
@@ -6033,21 +6173,21 @@
       <c r="BM37" s="4"/>
       <c r="BN37" s="3"/>
       <c r="BO37" s="3"/>
-      <c r="BP37" s="38" t="s">
+      <c r="BP37" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="BQ37" s="39"/>
-      <c r="BR37" s="39"/>
-      <c r="BS37" s="39"/>
-      <c r="BT37" s="40"/>
+      <c r="BQ37" s="20"/>
+      <c r="BR37" s="20"/>
+      <c r="BS37" s="20"/>
+      <c r="BT37" s="21"/>
       <c r="BU37" s="4"/>
-      <c r="BV37" s="38" t="s">
+      <c r="BV37" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="BW37" s="39"/>
-      <c r="BX37" s="39"/>
-      <c r="BY37" s="39"/>
-      <c r="BZ37" s="40"/>
+      <c r="BW37" s="20"/>
+      <c r="BX37" s="20"/>
+      <c r="BY37" s="20"/>
+      <c r="BZ37" s="21"/>
       <c r="CA37" s="5"/>
       <c r="CB37" s="3"/>
       <c r="CC37" s="6"/>
@@ -6064,84 +6204,84 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="41" t="s">
+      <c r="L38" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
       <c r="P38" s="42"/>
-      <c r="R38" s="29" t="s">
+      <c r="R38" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="31"/>
-      <c r="AD38" s="38" t="s">
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="28"/>
+      <c r="AD38" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="40"/>
-      <c r="AP38" s="19" t="s">
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="21"/>
+      <c r="AP38" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="21"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="35"/>
       <c r="AU38" s="4"/>
-      <c r="AV38" s="19" t="s">
+      <c r="AV38" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AW38" s="20"/>
-      <c r="AX38" s="20"/>
-      <c r="AY38" s="20"/>
-      <c r="AZ38" s="21"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="35"/>
       <c r="BA38" s="4"/>
-      <c r="BB38" s="19" t="s">
+      <c r="BB38" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="BC38" s="20"/>
-      <c r="BD38" s="20"/>
-      <c r="BE38" s="20"/>
-      <c r="BF38" s="21"/>
+      <c r="BC38" s="34"/>
+      <c r="BD38" s="34"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="35"/>
       <c r="BG38" s="4"/>
-      <c r="BH38" s="19" t="s">
+      <c r="BH38" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BI38" s="20"/>
-      <c r="BJ38" s="20"/>
-      <c r="BK38" s="20"/>
-      <c r="BL38" s="21"/>
+      <c r="BI38" s="34"/>
+      <c r="BJ38" s="34"/>
+      <c r="BK38" s="34"/>
+      <c r="BL38" s="35"/>
       <c r="BM38" s="4"/>
       <c r="BN38" s="3"/>
       <c r="BO38" s="3"/>
-      <c r="BP38" s="25" t="s">
+      <c r="BP38" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="BQ38" s="26"/>
-      <c r="BR38" s="26"/>
-      <c r="BS38" s="26"/>
-      <c r="BT38" s="27"/>
+      <c r="BQ38" s="23"/>
+      <c r="BR38" s="23"/>
+      <c r="BS38" s="23"/>
+      <c r="BT38" s="24"/>
       <c r="BU38" s="4"/>
-      <c r="BV38" s="25" t="s">
+      <c r="BV38" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="BW38" s="26"/>
-      <c r="BX38" s="26"/>
-      <c r="BY38" s="26"/>
-      <c r="BZ38" s="27"/>
+      <c r="BW38" s="23"/>
+      <c r="BX38" s="23"/>
+      <c r="BY38" s="23"/>
+      <c r="BZ38" s="24"/>
       <c r="CA38" s="5"/>
       <c r="CB38" s="3"/>
       <c r="CC38" s="4"/>
@@ -6158,75 +6298,75 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="24"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="X39" s="29" t="s">
+      <c r="X39" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="31"/>
-      <c r="AD39" s="25" t="s">
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="28"/>
+      <c r="AD39" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="27"/>
-      <c r="AJ39" s="29" t="s">
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="24"/>
+      <c r="AJ39" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="AK39" s="30"/>
-      <c r="AL39" s="30"/>
-      <c r="AM39" s="30"/>
-      <c r="AN39" s="31"/>
-      <c r="AP39" s="22" t="s">
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="27"/>
+      <c r="AN39" s="28"/>
+      <c r="AP39" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AQ39" s="23"/>
-      <c r="AR39" s="23"/>
-      <c r="AS39" s="23"/>
-      <c r="AT39" s="24"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="32"/>
       <c r="AU39" s="4"/>
-      <c r="AV39" s="22" t="s">
+      <c r="AV39" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AW39" s="23"/>
-      <c r="AX39" s="23"/>
-      <c r="AY39" s="23"/>
-      <c r="AZ39" s="24"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="32"/>
       <c r="BA39" s="4"/>
-      <c r="BB39" s="22" t="s">
+      <c r="BB39" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="BC39" s="23"/>
-      <c r="BD39" s="23"/>
-      <c r="BE39" s="23"/>
-      <c r="BF39" s="24"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="31"/>
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="32"/>
       <c r="BG39" s="4"/>
-      <c r="BH39" s="22" t="s">
+      <c r="BH39" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="BI39" s="23"/>
-      <c r="BJ39" s="23"/>
-      <c r="BK39" s="23"/>
-      <c r="BL39" s="24"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="32"/>
       <c r="BM39" s="4"/>
       <c r="BN39" s="3"/>
       <c r="BO39" s="3"/>
@@ -6594,110 +6734,110 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="R44" s="32" t="s">
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="R44" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="34"/>
-      <c r="X44" s="32" t="s">
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="38"/>
+      <c r="X44" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="34"/>
-      <c r="AD44" s="32" t="s">
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="38"/>
+      <c r="AD44" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="34"/>
-      <c r="AJ44" s="32" t="s">
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="38"/>
+      <c r="AJ44" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="33"/>
-      <c r="AM44" s="33"/>
-      <c r="AN44" s="34"/>
-      <c r="AP44" s="29" t="s">
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="38"/>
+      <c r="AP44" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="30"/>
-      <c r="AS44" s="30"/>
-      <c r="AT44" s="31"/>
+      <c r="AQ44" s="27"/>
+      <c r="AR44" s="27"/>
+      <c r="AS44" s="27"/>
+      <c r="AT44" s="28"/>
       <c r="AU44" s="4"/>
-      <c r="AV44" s="29" t="s">
+      <c r="AV44" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="AW44" s="30"/>
-      <c r="AX44" s="30"/>
-      <c r="AY44" s="30"/>
-      <c r="AZ44" s="31"/>
+      <c r="AW44" s="27"/>
+      <c r="AX44" s="27"/>
+      <c r="AY44" s="27"/>
+      <c r="AZ44" s="28"/>
       <c r="BA44" s="4"/>
-      <c r="BB44" s="29" t="s">
+      <c r="BB44" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BC44" s="30"/>
-      <c r="BD44" s="30"/>
-      <c r="BE44" s="30"/>
-      <c r="BF44" s="31"/>
+      <c r="BC44" s="27"/>
+      <c r="BD44" s="27"/>
+      <c r="BE44" s="27"/>
+      <c r="BF44" s="28"/>
       <c r="BG44" s="4"/>
-      <c r="BH44" s="29" t="s">
+      <c r="BH44" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="BI44" s="30"/>
-      <c r="BJ44" s="30"/>
-      <c r="BK44" s="30"/>
-      <c r="BL44" s="31"/>
+      <c r="BI44" s="27"/>
+      <c r="BJ44" s="27"/>
+      <c r="BK44" s="27"/>
+      <c r="BL44" s="28"/>
       <c r="BM44" s="4"/>
-      <c r="BN44" s="29" t="s">
+      <c r="BN44" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="BO44" s="30"/>
-      <c r="BP44" s="30"/>
-      <c r="BQ44" s="30"/>
-      <c r="BR44" s="31"/>
+      <c r="BO44" s="27"/>
+      <c r="BP44" s="27"/>
+      <c r="BQ44" s="27"/>
+      <c r="BR44" s="28"/>
       <c r="BS44" s="4"/>
-      <c r="BT44" s="29" t="s">
+      <c r="BT44" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="BU44" s="30"/>
-      <c r="BV44" s="30"/>
-      <c r="BW44" s="30"/>
-      <c r="BX44" s="31"/>
+      <c r="BU44" s="27"/>
+      <c r="BV44" s="27"/>
+      <c r="BW44" s="27"/>
+      <c r="BX44" s="28"/>
       <c r="BY44" s="4"/>
-      <c r="BZ44" s="29" t="s">
+      <c r="BZ44" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="CA44" s="30"/>
-      <c r="CB44" s="30"/>
-      <c r="CC44" s="30"/>
-      <c r="CD44" s="31"/>
+      <c r="CA44" s="27"/>
+      <c r="CB44" s="27"/>
+      <c r="CC44" s="27"/>
+      <c r="CD44" s="28"/>
       <c r="CE44" s="4"/>
-      <c r="CF44" s="43" t="s">
+      <c r="CF44" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="CG44" s="44"/>
-      <c r="CH44" s="45"/>
+      <c r="CG44" s="46"/>
+      <c r="CH44" s="47"/>
       <c r="CI44" s="5"/>
       <c r="CJ44" s="5"/>
       <c r="CK44" s="5"/>
@@ -6712,13 +6852,13 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -6785,11 +6925,11 @@
       <c r="CC45" s="4"/>
       <c r="CD45" s="4"/>
       <c r="CE45" s="4"/>
-      <c r="CF45" s="25" t="s">
+      <c r="CF45" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="CG45" s="26"/>
-      <c r="CH45" s="27"/>
+      <c r="CG45" s="23"/>
+      <c r="CH45" s="24"/>
       <c r="CI45" s="5"/>
       <c r="CJ45" s="5"/>
       <c r="CK45" s="5"/>
@@ -6798,13 +6938,13 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -6812,91 +6952,91 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="32" t="s">
+      <c r="R46" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="34"/>
-      <c r="X46" s="32" t="s">
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="38"/>
+      <c r="X46" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="34"/>
-      <c r="AD46" s="29" t="s">
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="38"/>
+      <c r="AD46" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
-      <c r="AG46" s="30"/>
-      <c r="AH46" s="31"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="28"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="29" t="s">
+      <c r="AJ46" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="30"/>
-      <c r="AM46" s="30"/>
-      <c r="AN46" s="31"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="28"/>
       <c r="AO46" s="4"/>
-      <c r="AP46" s="29" t="s">
+      <c r="AP46" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="AQ46" s="30"/>
-      <c r="AR46" s="30"/>
-      <c r="AS46" s="30"/>
-      <c r="AT46" s="31"/>
+      <c r="AQ46" s="27"/>
+      <c r="AR46" s="27"/>
+      <c r="AS46" s="27"/>
+      <c r="AT46" s="28"/>
       <c r="AU46" s="4"/>
-      <c r="AV46" s="29" t="s">
+      <c r="AV46" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="AW46" s="30"/>
-      <c r="AX46" s="30"/>
-      <c r="AY46" s="30"/>
-      <c r="AZ46" s="31"/>
+      <c r="AW46" s="27"/>
+      <c r="AX46" s="27"/>
+      <c r="AY46" s="27"/>
+      <c r="AZ46" s="28"/>
       <c r="BA46" s="4"/>
-      <c r="BB46" s="29" t="s">
+      <c r="BB46" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BC46" s="30"/>
-      <c r="BD46" s="30"/>
-      <c r="BE46" s="30"/>
-      <c r="BF46" s="31"/>
+      <c r="BC46" s="27"/>
+      <c r="BD46" s="27"/>
+      <c r="BE46" s="27"/>
+      <c r="BF46" s="28"/>
       <c r="BG46" s="4"/>
-      <c r="BH46" s="29" t="s">
+      <c r="BH46" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="BI46" s="30"/>
-      <c r="BJ46" s="30"/>
-      <c r="BK46" s="30"/>
-      <c r="BL46" s="31"/>
+      <c r="BI46" s="27"/>
+      <c r="BJ46" s="27"/>
+      <c r="BK46" s="27"/>
+      <c r="BL46" s="28"/>
       <c r="BM46" s="4"/>
-      <c r="BN46" s="29" t="s">
+      <c r="BN46" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="BO46" s="30"/>
-      <c r="BP46" s="30"/>
-      <c r="BQ46" s="30"/>
-      <c r="BR46" s="31"/>
+      <c r="BO46" s="27"/>
+      <c r="BP46" s="27"/>
+      <c r="BQ46" s="27"/>
+      <c r="BR46" s="28"/>
       <c r="BS46" s="4"/>
-      <c r="BT46" s="29" t="s">
+      <c r="BT46" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="BU46" s="30"/>
-      <c r="BV46" s="30"/>
-      <c r="BW46" s="30"/>
-      <c r="BX46" s="31"/>
+      <c r="BU46" s="27"/>
+      <c r="BV46" s="27"/>
+      <c r="BW46" s="27"/>
+      <c r="BX46" s="28"/>
       <c r="BY46" s="4"/>
-      <c r="BZ46" s="29" t="s">
+      <c r="BZ46" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="CA46" s="30"/>
-      <c r="CB46" s="30"/>
-      <c r="CC46" s="30"/>
-      <c r="CD46" s="31"/>
+      <c r="CA46" s="27"/>
+      <c r="CB46" s="27"/>
+      <c r="CC46" s="27"/>
+      <c r="CD46" s="28"/>
       <c r="CE46" s="4"/>
       <c r="CF46" s="4"/>
       <c r="CG46" s="4"/>
@@ -6910,13 +7050,13 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="32" t="s">
+      <c r="L47" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="34"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="38"/>
       <c r="CE47" s="4"/>
       <c r="CF47" s="4"/>
       <c r="CG47" s="4"/>
@@ -6929,102 +7069,102 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="R48" s="29" t="s">
+      <c r="R48" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="31"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="28"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="29" t="s">
+      <c r="X48" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="31"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="28"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="29" t="s">
+      <c r="AD48" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="31"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="28"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="29" t="s">
+      <c r="AJ48" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
-      <c r="AM48" s="30"/>
-      <c r="AN48" s="31"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="27"/>
+      <c r="AM48" s="27"/>
+      <c r="AN48" s="28"/>
       <c r="AO48" s="4"/>
-      <c r="AP48" s="29" t="s">
+      <c r="AP48" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="AQ48" s="30"/>
-      <c r="AR48" s="30"/>
-      <c r="AS48" s="30"/>
-      <c r="AT48" s="31"/>
+      <c r="AQ48" s="27"/>
+      <c r="AR48" s="27"/>
+      <c r="AS48" s="27"/>
+      <c r="AT48" s="28"/>
       <c r="AU48" s="4"/>
-      <c r="AV48" s="29" t="s">
+      <c r="AV48" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="AW48" s="30"/>
-      <c r="AX48" s="30"/>
-      <c r="AY48" s="30"/>
-      <c r="AZ48" s="31"/>
+      <c r="AW48" s="27"/>
+      <c r="AX48" s="27"/>
+      <c r="AY48" s="27"/>
+      <c r="AZ48" s="28"/>
       <c r="BA48" s="4"/>
-      <c r="BB48" s="29" t="s">
+      <c r="BB48" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="BC48" s="30"/>
-      <c r="BD48" s="30"/>
-      <c r="BE48" s="30"/>
-      <c r="BF48" s="31"/>
+      <c r="BC48" s="27"/>
+      <c r="BD48" s="27"/>
+      <c r="BE48" s="27"/>
+      <c r="BF48" s="28"/>
       <c r="BG48" s="4"/>
-      <c r="BH48" s="29" t="s">
+      <c r="BH48" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="BI48" s="30"/>
-      <c r="BJ48" s="30"/>
-      <c r="BK48" s="30"/>
-      <c r="BL48" s="31"/>
+      <c r="BI48" s="27"/>
+      <c r="BJ48" s="27"/>
+      <c r="BK48" s="27"/>
+      <c r="BL48" s="28"/>
       <c r="BM48" s="4"/>
-      <c r="BN48" s="29" t="s">
+      <c r="BN48" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="BO48" s="30"/>
-      <c r="BP48" s="30"/>
-      <c r="BQ48" s="30"/>
-      <c r="BR48" s="31"/>
+      <c r="BO48" s="27"/>
+      <c r="BP48" s="27"/>
+      <c r="BQ48" s="27"/>
+      <c r="BR48" s="28"/>
       <c r="BS48" s="4"/>
-      <c r="BT48" s="29" t="s">
+      <c r="BT48" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="BU48" s="30"/>
-      <c r="BV48" s="30"/>
-      <c r="BW48" s="30"/>
-      <c r="BX48" s="31"/>
+      <c r="BU48" s="27"/>
+      <c r="BV48" s="27"/>
+      <c r="BW48" s="27"/>
+      <c r="BX48" s="28"/>
       <c r="BY48" s="4"/>
-      <c r="BZ48" s="29" t="s">
+      <c r="BZ48" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="CA48" s="30"/>
-      <c r="CB48" s="30"/>
-      <c r="CC48" s="30"/>
-      <c r="CD48" s="31"/>
+      <c r="CA48" s="27"/>
+      <c r="CB48" s="27"/>
+      <c r="CC48" s="27"/>
+      <c r="CD48" s="28"/>
       <c r="CE48" s="4"/>
       <c r="CF48" s="4"/>
       <c r="CG48" s="4"/>
@@ -7038,13 +7178,13 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="31"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="4"/>
       <c r="CE49" s="4"/>
       <c r="CF49" s="4"/>
@@ -7416,111 +7556,111 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="31"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="32" t="s">
+      <c r="L54" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="34"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="38"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="32" t="s">
+      <c r="R54" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="34"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="38"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="32" t="s">
+      <c r="X54" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="34"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="38"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="32" t="s">
+      <c r="AD54" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="34"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="38"/>
       <c r="AI54" s="4"/>
-      <c r="AJ54" s="19" t="s">
+      <c r="AJ54" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="21"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="34"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="35"/>
       <c r="AO54" s="5"/>
       <c r="AQ54" s="3"/>
-      <c r="AR54" s="29" t="s">
+      <c r="AR54" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="AS54" s="30"/>
-      <c r="AT54" s="30"/>
-      <c r="AU54" s="30"/>
-      <c r="AV54" s="31"/>
+      <c r="AS54" s="27"/>
+      <c r="AT54" s="27"/>
+      <c r="AU54" s="27"/>
+      <c r="AV54" s="28"/>
       <c r="AW54" s="4"/>
-      <c r="AX54" s="29" t="s">
+      <c r="AX54" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="AY54" s="30"/>
-      <c r="AZ54" s="30"/>
-      <c r="BA54" s="30"/>
-      <c r="BB54" s="31"/>
+      <c r="AY54" s="27"/>
+      <c r="AZ54" s="27"/>
+      <c r="BA54" s="27"/>
+      <c r="BB54" s="28"/>
       <c r="BC54" s="4"/>
-      <c r="BD54" s="29" t="s">
+      <c r="BD54" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="BE54" s="30"/>
-      <c r="BF54" s="30"/>
-      <c r="BG54" s="30"/>
-      <c r="BH54" s="31"/>
+      <c r="BE54" s="27"/>
+      <c r="BF54" s="27"/>
+      <c r="BG54" s="27"/>
+      <c r="BH54" s="28"/>
       <c r="BI54" s="5"/>
       <c r="BK54" s="3"/>
-      <c r="BL54" s="32" t="s">
+      <c r="BL54" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="BM54" s="33"/>
-      <c r="BN54" s="33"/>
-      <c r="BO54" s="33"/>
-      <c r="BP54" s="34"/>
+      <c r="BM54" s="37"/>
+      <c r="BN54" s="37"/>
+      <c r="BO54" s="37"/>
+      <c r="BP54" s="38"/>
       <c r="BQ54" s="4"/>
-      <c r="BR54" s="32" t="s">
+      <c r="BR54" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="BS54" s="33"/>
-      <c r="BT54" s="33"/>
-      <c r="BU54" s="33"/>
-      <c r="BV54" s="34"/>
+      <c r="BS54" s="37"/>
+      <c r="BT54" s="37"/>
+      <c r="BU54" s="37"/>
+      <c r="BV54" s="38"/>
       <c r="BW54" s="4"/>
-      <c r="BX54" s="19" t="s">
+      <c r="BX54" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="BY54" s="20"/>
-      <c r="BZ54" s="20"/>
-      <c r="CA54" s="20"/>
-      <c r="CB54" s="21"/>
+      <c r="BY54" s="34"/>
+      <c r="BZ54" s="34"/>
+      <c r="CA54" s="34"/>
+      <c r="CB54" s="35"/>
       <c r="CC54" s="4"/>
-      <c r="CD54" s="19" t="s">
+      <c r="CD54" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="CE54" s="20"/>
-      <c r="CF54" s="20"/>
-      <c r="CG54" s="20"/>
-      <c r="CH54" s="21"/>
+      <c r="CE54" s="34"/>
+      <c r="CF54" s="34"/>
+      <c r="CG54" s="34"/>
+      <c r="CH54" s="35"/>
       <c r="CI54" s="5"/>
       <c r="CJ54" s="5"/>
       <c r="CK54" s="5"/>
@@ -7559,13 +7699,13 @@
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
-      <c r="AJ55" s="22" t="s">
+      <c r="AJ55" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="24"/>
+      <c r="AK55" s="31"/>
+      <c r="AL55" s="31"/>
+      <c r="AM55" s="31"/>
+      <c r="AN55" s="32"/>
       <c r="AO55" s="5"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="4"/>
@@ -7599,21 +7739,21 @@
       <c r="BU55" s="4"/>
       <c r="BV55" s="4"/>
       <c r="BW55" s="4"/>
-      <c r="BX55" s="22" t="s">
+      <c r="BX55" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="BY55" s="23"/>
-      <c r="BZ55" s="23"/>
-      <c r="CA55" s="23"/>
-      <c r="CB55" s="24"/>
+      <c r="BY55" s="31"/>
+      <c r="BZ55" s="31"/>
+      <c r="CA55" s="31"/>
+      <c r="CB55" s="32"/>
       <c r="CC55" s="4"/>
-      <c r="CD55" s="22" t="s">
+      <c r="CD55" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="CE55" s="23"/>
-      <c r="CF55" s="23"/>
-      <c r="CG55" s="23"/>
-      <c r="CH55" s="24"/>
+      <c r="CE55" s="31"/>
+      <c r="CF55" s="31"/>
+      <c r="CG55" s="31"/>
+      <c r="CH55" s="32"/>
       <c r="CI55" s="5"/>
       <c r="CJ55" s="5"/>
       <c r="CK55" s="5"/>
@@ -7622,45 +7762,45 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="19" t="s">
+      <c r="L56" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="21"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="35"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="38" t="s">
+      <c r="R56" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="40"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="21"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="19" t="s">
+      <c r="X56" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="21"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="35"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="19" t="s">
+      <c r="AD56" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="20"/>
-      <c r="AH56" s="21"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="34"/>
+      <c r="AH56" s="35"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
@@ -7669,46 +7809,46 @@
       <c r="AN56" s="4"/>
       <c r="AO56" s="5"/>
       <c r="AQ56" s="3"/>
-      <c r="AR56" s="19" t="s">
+      <c r="AR56" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="AS56" s="20"/>
-      <c r="AT56" s="20"/>
-      <c r="AU56" s="20"/>
-      <c r="AV56" s="21"/>
+      <c r="AS56" s="34"/>
+      <c r="AT56" s="34"/>
+      <c r="AU56" s="34"/>
+      <c r="AV56" s="35"/>
       <c r="AW56" s="4"/>
-      <c r="AX56" s="19" t="s">
+      <c r="AX56" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="AY56" s="20"/>
-      <c r="AZ56" s="20"/>
-      <c r="BA56" s="20"/>
-      <c r="BB56" s="21"/>
+      <c r="AY56" s="34"/>
+      <c r="AZ56" s="34"/>
+      <c r="BA56" s="34"/>
+      <c r="BB56" s="35"/>
       <c r="BC56" s="4"/>
-      <c r="BD56" s="19" t="s">
+      <c r="BD56" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="BE56" s="20"/>
-      <c r="BF56" s="20"/>
-      <c r="BG56" s="20"/>
-      <c r="BH56" s="21"/>
+      <c r="BE56" s="34"/>
+      <c r="BF56" s="34"/>
+      <c r="BG56" s="34"/>
+      <c r="BH56" s="35"/>
       <c r="BI56" s="5"/>
       <c r="BK56" s="3"/>
-      <c r="BL56" s="32" t="s">
+      <c r="BL56" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="BM56" s="33"/>
-      <c r="BN56" s="33"/>
-      <c r="BO56" s="33"/>
-      <c r="BP56" s="34"/>
+      <c r="BM56" s="37"/>
+      <c r="BN56" s="37"/>
+      <c r="BO56" s="37"/>
+      <c r="BP56" s="38"/>
       <c r="BQ56" s="4"/>
-      <c r="BR56" s="19" t="s">
+      <c r="BR56" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="BS56" s="20"/>
-      <c r="BT56" s="20"/>
-      <c r="BU56" s="20"/>
-      <c r="BV56" s="21"/>
+      <c r="BS56" s="34"/>
+      <c r="BT56" s="34"/>
+      <c r="BU56" s="34"/>
+      <c r="BV56" s="35"/>
       <c r="BW56" s="4"/>
       <c r="BX56" s="4"/>
       <c r="BY56" s="4"/>
@@ -7729,45 +7869,45 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="22" t="s">
+      <c r="L57" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="24"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="32"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="25" t="s">
+      <c r="R57" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="27"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="24"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="22" t="s">
+      <c r="X57" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="Y57" s="23"/>
-      <c r="Z57" s="23"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="24"/>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="31"/>
+      <c r="AB57" s="32"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="22" t="s">
+      <c r="AD57" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AE57" s="23"/>
-      <c r="AF57" s="23"/>
-      <c r="AG57" s="23"/>
-      <c r="AH57" s="24"/>
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="31"/>
+      <c r="AG57" s="31"/>
+      <c r="AH57" s="32"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
@@ -7776,29 +7916,29 @@
       <c r="AN57" s="4"/>
       <c r="AO57" s="5"/>
       <c r="AQ57" s="3"/>
-      <c r="AR57" s="22" t="s">
+      <c r="AR57" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AS57" s="23"/>
-      <c r="AT57" s="23"/>
-      <c r="AU57" s="23"/>
-      <c r="AV57" s="24"/>
+      <c r="AS57" s="31"/>
+      <c r="AT57" s="31"/>
+      <c r="AU57" s="31"/>
+      <c r="AV57" s="32"/>
       <c r="AW57" s="4"/>
-      <c r="AX57" s="22" t="s">
+      <c r="AX57" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="AY57" s="23"/>
-      <c r="AZ57" s="23"/>
-      <c r="BA57" s="23"/>
-      <c r="BB57" s="24"/>
+      <c r="AY57" s="31"/>
+      <c r="AZ57" s="31"/>
+      <c r="BA57" s="31"/>
+      <c r="BB57" s="32"/>
       <c r="BC57" s="4"/>
-      <c r="BD57" s="22" t="s">
+      <c r="BD57" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="BE57" s="23"/>
-      <c r="BF57" s="23"/>
-      <c r="BG57" s="23"/>
-      <c r="BH57" s="24"/>
+      <c r="BE57" s="31"/>
+      <c r="BF57" s="31"/>
+      <c r="BG57" s="31"/>
+      <c r="BH57" s="32"/>
       <c r="BI57" s="5"/>
       <c r="BK57" s="3"/>
       <c r="BL57" s="4"/>
@@ -7807,29 +7947,29 @@
       <c r="BO57" s="4"/>
       <c r="BP57" s="4"/>
       <c r="BQ57" s="4"/>
-      <c r="BR57" s="22" t="s">
+      <c r="BR57" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="BS57" s="23"/>
-      <c r="BT57" s="23"/>
-      <c r="BU57" s="23"/>
-      <c r="BV57" s="24"/>
+      <c r="BS57" s="31"/>
+      <c r="BT57" s="31"/>
+      <c r="BU57" s="31"/>
+      <c r="BV57" s="32"/>
       <c r="BW57" s="4"/>
-      <c r="BX57" s="19" t="s">
+      <c r="BX57" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="BY57" s="20"/>
-      <c r="BZ57" s="20"/>
-      <c r="CA57" s="20"/>
-      <c r="CB57" s="21"/>
+      <c r="BY57" s="34"/>
+      <c r="BZ57" s="34"/>
+      <c r="CA57" s="34"/>
+      <c r="CB57" s="35"/>
       <c r="CC57" s="4"/>
-      <c r="CD57" s="19" t="s">
+      <c r="CD57" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="CE57" s="20"/>
-      <c r="CF57" s="20"/>
-      <c r="CG57" s="20"/>
-      <c r="CH57" s="21"/>
+      <c r="CE57" s="34"/>
+      <c r="CF57" s="34"/>
+      <c r="CG57" s="34"/>
+      <c r="CH57" s="35"/>
       <c r="CI57" s="5"/>
       <c r="CJ57" s="5"/>
       <c r="CK57" s="5"/>
@@ -7894,13 +8034,13 @@
       <c r="BH58" s="4"/>
       <c r="BI58" s="5"/>
       <c r="BK58" s="3"/>
-      <c r="BL58" s="32" t="s">
+      <c r="BL58" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="BM58" s="33"/>
-      <c r="BN58" s="33"/>
-      <c r="BO58" s="33"/>
-      <c r="BP58" s="34"/>
+      <c r="BM58" s="37"/>
+      <c r="BN58" s="37"/>
+      <c r="BO58" s="37"/>
+      <c r="BP58" s="38"/>
       <c r="BQ58" s="4"/>
       <c r="BR58" s="4"/>
       <c r="BS58" s="4"/>
@@ -7908,21 +8048,21 @@
       <c r="BU58" s="4"/>
       <c r="BV58" s="4"/>
       <c r="BW58" s="4"/>
-      <c r="BX58" s="22" t="s">
+      <c r="BX58" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="BY58" s="23"/>
-      <c r="BZ58" s="23"/>
-      <c r="CA58" s="23"/>
-      <c r="CB58" s="24"/>
+      <c r="BY58" s="31"/>
+      <c r="BZ58" s="31"/>
+      <c r="CA58" s="31"/>
+      <c r="CB58" s="32"/>
       <c r="CC58" s="4"/>
-      <c r="CD58" s="22" t="s">
+      <c r="CD58" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="CE58" s="23"/>
-      <c r="CF58" s="23"/>
-      <c r="CG58" s="23"/>
-      <c r="CH58" s="24"/>
+      <c r="CE58" s="31"/>
+      <c r="CF58" s="31"/>
+      <c r="CG58" s="31"/>
+      <c r="CH58" s="32"/>
       <c r="CI58" s="5"/>
       <c r="CJ58" s="5"/>
       <c r="CK58" s="5"/>
@@ -7937,21 +8077,21 @@
       <c r="AO59" s="4"/>
       <c r="AP59" s="4"/>
       <c r="AQ59" s="3"/>
-      <c r="AR59" s="19" t="s">
+      <c r="AR59" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="AS59" s="20"/>
-      <c r="AT59" s="20"/>
-      <c r="AU59" s="20"/>
-      <c r="AV59" s="21"/>
+      <c r="AS59" s="34"/>
+      <c r="AT59" s="34"/>
+      <c r="AU59" s="34"/>
+      <c r="AV59" s="35"/>
       <c r="AW59" s="4"/>
-      <c r="AX59" s="19" t="s">
+      <c r="AX59" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="AY59" s="20"/>
-      <c r="AZ59" s="20"/>
-      <c r="BA59" s="20"/>
-      <c r="BB59" s="21"/>
+      <c r="AY59" s="34"/>
+      <c r="AZ59" s="34"/>
+      <c r="BA59" s="34"/>
+      <c r="BB59" s="35"/>
       <c r="BC59" s="4"/>
       <c r="BD59" s="4"/>
       <c r="BE59" s="4"/>
@@ -7967,13 +8107,13 @@
       <c r="BO59" s="4"/>
       <c r="BP59" s="4"/>
       <c r="BQ59" s="4"/>
-      <c r="BR59" s="32" t="s">
+      <c r="BR59" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="BS59" s="33"/>
-      <c r="BT59" s="33"/>
-      <c r="BU59" s="33"/>
-      <c r="BV59" s="34"/>
+      <c r="BS59" s="37"/>
+      <c r="BT59" s="37"/>
+      <c r="BU59" s="37"/>
+      <c r="BV59" s="38"/>
       <c r="BW59" s="4"/>
       <c r="BX59" s="4"/>
       <c r="BY59" s="4"/>
@@ -7994,21 +8134,21 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="AQ60" s="3"/>
-      <c r="AR60" s="22" t="s">
+      <c r="AR60" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AS60" s="23"/>
-      <c r="AT60" s="23"/>
-      <c r="AU60" s="23"/>
-      <c r="AV60" s="24"/>
+      <c r="AS60" s="31"/>
+      <c r="AT60" s="31"/>
+      <c r="AU60" s="31"/>
+      <c r="AV60" s="32"/>
       <c r="AW60" s="4"/>
-      <c r="AX60" s="22" t="s">
+      <c r="AX60" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="AY60" s="23"/>
-      <c r="AZ60" s="23"/>
-      <c r="BA60" s="23"/>
-      <c r="BB60" s="24"/>
+      <c r="AY60" s="31"/>
+      <c r="AZ60" s="31"/>
+      <c r="BA60" s="31"/>
+      <c r="BB60" s="32"/>
       <c r="BC60" s="4"/>
       <c r="BD60" s="4"/>
       <c r="BE60" s="4"/>
@@ -8017,13 +8157,13 @@
       <c r="BH60" s="4"/>
       <c r="BI60" s="5"/>
       <c r="BK60" s="3"/>
-      <c r="BL60" s="32" t="s">
+      <c r="BL60" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="BM60" s="33"/>
-      <c r="BN60" s="33"/>
-      <c r="BO60" s="33"/>
-      <c r="BP60" s="34"/>
+      <c r="BM60" s="37"/>
+      <c r="BN60" s="37"/>
+      <c r="BO60" s="37"/>
+      <c r="BP60" s="38"/>
       <c r="BQ60" s="4"/>
       <c r="BW60" s="4"/>
       <c r="BX60" s="4"/>
@@ -8190,45 +8330,45 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="31"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="28"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="38" t="s">
+      <c r="L63" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="40"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="21"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="29" t="s">
+      <c r="R63" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="31"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="28"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="32" t="s">
+      <c r="X63" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="34"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
+      <c r="AB63" s="38"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="38" t="s">
+      <c r="AD63" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="40"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="21"/>
       <c r="AI63" s="5"/>
       <c r="AK63" s="9" t="s">
         <v>277</v>
@@ -8299,13 +8439,13 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="25" t="s">
+      <c r="L64" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="27"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="24"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -8319,13 +8459,13 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
-      <c r="AD64" s="25" t="s">
+      <c r="AD64" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="AE64" s="26"/>
-      <c r="AF64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AH64" s="27"/>
+      <c r="AE64" s="23"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="23"/>
+      <c r="AH64" s="24"/>
       <c r="AI64" s="5"/>
       <c r="AK64" s="3"/>
       <c r="AL64" s="4"/>
@@ -8384,13 +8524,13 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="35"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -8398,21 +8538,21 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="38" t="s">
+      <c r="R65" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="40"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="21"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="38" t="s">
+      <c r="X65" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="39"/>
-      <c r="AB65" s="40"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="21"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
@@ -8421,64 +8561,64 @@
       <c r="AH65" s="4"/>
       <c r="AI65" s="5"/>
       <c r="AK65" s="3"/>
-      <c r="AL65" s="29" t="s">
+      <c r="AL65" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="AM65" s="30"/>
-      <c r="AN65" s="30"/>
-      <c r="AO65" s="30"/>
-      <c r="AP65" s="31"/>
+      <c r="AM65" s="27"/>
+      <c r="AN65" s="27"/>
+      <c r="AO65" s="27"/>
+      <c r="AP65" s="28"/>
       <c r="AQ65" s="5"/>
       <c r="AS65" s="3"/>
-      <c r="AT65" s="29" t="s">
+      <c r="AT65" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="AU65" s="30"/>
-      <c r="AV65" s="30"/>
-      <c r="AW65" s="30"/>
-      <c r="AX65" s="31"/>
+      <c r="AU65" s="27"/>
+      <c r="AV65" s="27"/>
+      <c r="AW65" s="27"/>
+      <c r="AX65" s="28"/>
       <c r="AY65" s="4"/>
-      <c r="AZ65" s="29" t="s">
+      <c r="AZ65" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="BA65" s="30"/>
-      <c r="BB65" s="30"/>
-      <c r="BC65" s="30"/>
-      <c r="BD65" s="31"/>
+      <c r="BA65" s="27"/>
+      <c r="BB65" s="27"/>
+      <c r="BC65" s="27"/>
+      <c r="BD65" s="28"/>
       <c r="BE65" s="4"/>
-      <c r="BF65" s="29" t="s">
+      <c r="BF65" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="BG65" s="30"/>
-      <c r="BH65" s="30"/>
-      <c r="BI65" s="30"/>
-      <c r="BJ65" s="31"/>
+      <c r="BG65" s="27"/>
+      <c r="BH65" s="27"/>
+      <c r="BI65" s="27"/>
+      <c r="BJ65" s="28"/>
       <c r="BK65" s="4"/>
-      <c r="BL65" s="29" t="s">
+      <c r="BL65" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="BM65" s="30"/>
-      <c r="BN65" s="30"/>
-      <c r="BO65" s="30"/>
-      <c r="BP65" s="31"/>
+      <c r="BM65" s="27"/>
+      <c r="BN65" s="27"/>
+      <c r="BO65" s="27"/>
+      <c r="BP65" s="28"/>
       <c r="BQ65" s="4"/>
-      <c r="BR65" s="29" t="s">
+      <c r="BR65" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="BS65" s="30"/>
-      <c r="BT65" s="30"/>
-      <c r="BU65" s="30"/>
-      <c r="BV65" s="31"/>
+      <c r="BS65" s="27"/>
+      <c r="BT65" s="27"/>
+      <c r="BU65" s="27"/>
+      <c r="BV65" s="28"/>
       <c r="BW65" s="4"/>
       <c r="BX65" s="3"/>
       <c r="BY65" s="3"/>
-      <c r="BZ65" s="29" t="s">
+      <c r="BZ65" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="CA65" s="30"/>
-      <c r="CB65" s="30"/>
-      <c r="CC65" s="30"/>
-      <c r="CD65" s="31"/>
+      <c r="CA65" s="27"/>
+      <c r="CB65" s="27"/>
+      <c r="CC65" s="27"/>
+      <c r="CD65" s="28"/>
       <c r="CE65" s="5"/>
       <c r="CF65" s="4"/>
       <c r="CG65" s="4"/>
@@ -8491,37 +8631,37 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="24"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="19" t="s">
+      <c r="L66" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="21"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="35"/>
       <c r="Q66" s="4"/>
-      <c r="R66" s="25" t="s">
+      <c r="R66" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="27"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="24"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="25" t="s">
+      <c r="X66" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="27"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="24"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
@@ -8592,13 +8732,13 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="22" t="s">
+      <c r="L67" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="32"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -8620,64 +8760,64 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="3"/>
-      <c r="AL67" s="19" t="s">
+      <c r="AL67" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="AM67" s="20"/>
-      <c r="AN67" s="20"/>
-      <c r="AO67" s="20"/>
-      <c r="AP67" s="21"/>
+      <c r="AM67" s="34"/>
+      <c r="AN67" s="34"/>
+      <c r="AO67" s="34"/>
+      <c r="AP67" s="35"/>
       <c r="AQ67" s="5"/>
       <c r="AS67" s="3"/>
-      <c r="AT67" s="19" t="s">
+      <c r="AT67" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="AU67" s="20"/>
-      <c r="AV67" s="20"/>
-      <c r="AW67" s="20"/>
-      <c r="AX67" s="21"/>
+      <c r="AU67" s="34"/>
+      <c r="AV67" s="34"/>
+      <c r="AW67" s="34"/>
+      <c r="AX67" s="35"/>
       <c r="AY67" s="4"/>
-      <c r="AZ67" s="19" t="s">
+      <c r="AZ67" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="BA67" s="20"/>
-      <c r="BB67" s="20"/>
-      <c r="BC67" s="20"/>
-      <c r="BD67" s="21"/>
+      <c r="BA67" s="34"/>
+      <c r="BB67" s="34"/>
+      <c r="BC67" s="34"/>
+      <c r="BD67" s="35"/>
       <c r="BE67" s="4"/>
-      <c r="BF67" s="19" t="s">
+      <c r="BF67" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="BG67" s="20"/>
-      <c r="BH67" s="20"/>
-      <c r="BI67" s="20"/>
-      <c r="BJ67" s="21"/>
+      <c r="BG67" s="34"/>
+      <c r="BH67" s="34"/>
+      <c r="BI67" s="34"/>
+      <c r="BJ67" s="35"/>
       <c r="BK67" s="4"/>
-      <c r="BL67" s="19" t="s">
+      <c r="BL67" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="BM67" s="20"/>
-      <c r="BN67" s="20"/>
-      <c r="BO67" s="20"/>
-      <c r="BP67" s="21"/>
+      <c r="BM67" s="34"/>
+      <c r="BN67" s="34"/>
+      <c r="BO67" s="34"/>
+      <c r="BP67" s="35"/>
       <c r="BQ67" s="4"/>
-      <c r="BR67" s="29" t="s">
+      <c r="BR67" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="BS67" s="30"/>
-      <c r="BT67" s="30"/>
-      <c r="BU67" s="30"/>
-      <c r="BV67" s="31"/>
+      <c r="BS67" s="27"/>
+      <c r="BT67" s="27"/>
+      <c r="BU67" s="27"/>
+      <c r="BV67" s="28"/>
       <c r="BW67" s="4"/>
       <c r="BX67" s="3"/>
       <c r="BY67" s="3"/>
-      <c r="BZ67" s="19" t="s">
+      <c r="BZ67" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="CA67" s="20"/>
-      <c r="CB67" s="20"/>
-      <c r="CC67" s="20"/>
-      <c r="CD67" s="21"/>
+      <c r="CA67" s="34"/>
+      <c r="CB67" s="34"/>
+      <c r="CC67" s="34"/>
+      <c r="CD67" s="35"/>
       <c r="CE67" s="5"/>
       <c r="CF67" s="4"/>
       <c r="CG67" s="4"/>
@@ -8722,57 +8862,57 @@
       <c r="AI68" s="8"/>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="3"/>
-      <c r="AL68" s="22" t="s">
+      <c r="AL68" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="AM68" s="23"/>
-      <c r="AN68" s="23"/>
-      <c r="AO68" s="23"/>
-      <c r="AP68" s="24"/>
+      <c r="AM68" s="31"/>
+      <c r="AN68" s="31"/>
+      <c r="AO68" s="31"/>
+      <c r="AP68" s="32"/>
       <c r="AQ68" s="5"/>
       <c r="AS68" s="3"/>
-      <c r="AT68" s="22" t="s">
+      <c r="AT68" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="AU68" s="23"/>
-      <c r="AV68" s="23"/>
-      <c r="AW68" s="23"/>
-      <c r="AX68" s="24"/>
+      <c r="AU68" s="31"/>
+      <c r="AV68" s="31"/>
+      <c r="AW68" s="31"/>
+      <c r="AX68" s="32"/>
       <c r="AY68" s="4"/>
-      <c r="AZ68" s="22" t="s">
+      <c r="AZ68" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="BA68" s="23"/>
-      <c r="BB68" s="23"/>
-      <c r="BC68" s="23"/>
-      <c r="BD68" s="24"/>
+      <c r="BA68" s="31"/>
+      <c r="BB68" s="31"/>
+      <c r="BC68" s="31"/>
+      <c r="BD68" s="32"/>
       <c r="BE68" s="4"/>
-      <c r="BF68" s="22" t="s">
+      <c r="BF68" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="BG68" s="23"/>
-      <c r="BH68" s="23"/>
-      <c r="BI68" s="23"/>
-      <c r="BJ68" s="24"/>
+      <c r="BG68" s="31"/>
+      <c r="BH68" s="31"/>
+      <c r="BI68" s="31"/>
+      <c r="BJ68" s="32"/>
       <c r="BK68" s="4"/>
-      <c r="BL68" s="22" t="s">
+      <c r="BL68" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="BM68" s="23"/>
-      <c r="BN68" s="23"/>
-      <c r="BO68" s="23"/>
-      <c r="BP68" s="24"/>
+      <c r="BM68" s="31"/>
+      <c r="BN68" s="31"/>
+      <c r="BO68" s="31"/>
+      <c r="BP68" s="32"/>
       <c r="BQ68" s="4"/>
       <c r="BW68" s="4"/>
       <c r="BX68" s="3"/>
       <c r="BY68" s="3"/>
-      <c r="BZ68" s="22" t="s">
+      <c r="BZ68" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="CA68" s="23"/>
-      <c r="CB68" s="23"/>
-      <c r="CC68" s="23"/>
-      <c r="CD68" s="24"/>
+      <c r="CA68" s="31"/>
+      <c r="CB68" s="31"/>
+      <c r="CC68" s="31"/>
+      <c r="CD68" s="32"/>
       <c r="CE68" s="5"/>
       <c r="CF68" s="4"/>
       <c r="CG68" s="4"/>
@@ -8786,11 +8926,11 @@
       <c r="D69" s="3"/>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="3"/>
-      <c r="AL69" s="12"/>
-      <c r="AM69" s="12"/>
-      <c r="AN69" s="12"/>
-      <c r="AO69" s="12"/>
-      <c r="AP69" s="12"/>
+      <c r="AL69" s="39"/>
+      <c r="AM69" s="39"/>
+      <c r="AN69" s="39"/>
+      <c r="AO69" s="39"/>
+      <c r="AP69" s="39"/>
       <c r="AQ69" s="5"/>
       <c r="AS69" s="6"/>
       <c r="AT69" s="7"/>
@@ -8825,11 +8965,11 @@
       <c r="BW69" s="7"/>
       <c r="BX69" s="3"/>
       <c r="BY69" s="6"/>
-      <c r="BZ69" s="47"/>
-      <c r="CA69" s="47"/>
-      <c r="CB69" s="47"/>
-      <c r="CC69" s="47"/>
-      <c r="CD69" s="47"/>
+      <c r="BZ69" s="25"/>
+      <c r="CA69" s="25"/>
+      <c r="CB69" s="25"/>
+      <c r="CC69" s="25"/>
+      <c r="CD69" s="25"/>
       <c r="CE69" s="8"/>
       <c r="CF69" s="4"/>
       <c r="CG69" s="4"/>
@@ -9003,45 +9143,45 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="31"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="29" t="s">
+      <c r="L72" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="31"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="28"/>
       <c r="Q72" s="4"/>
-      <c r="R72" s="38" t="s">
+      <c r="R72" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="40"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="21"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="43" t="s">
+      <c r="X72" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="Y72" s="44"/>
-      <c r="Z72" s="44"/>
-      <c r="AA72" s="44"/>
-      <c r="AB72" s="45"/>
+      <c r="Y72" s="46"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="47"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="43" t="s">
+      <c r="AD72" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="AE72" s="44"/>
-      <c r="AF72" s="44"/>
-      <c r="AG72" s="44"/>
-      <c r="AH72" s="45"/>
+      <c r="AE72" s="46"/>
+      <c r="AF72" s="46"/>
+      <c r="AG72" s="46"/>
+      <c r="AH72" s="47"/>
       <c r="AI72" s="5"/>
       <c r="AJ72" s="4"/>
       <c r="AK72" s="3"/>
@@ -9114,91 +9254,91 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="25" t="s">
+      <c r="R73" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="27"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="24"/>
       <c r="W73" s="4"/>
-      <c r="X73" s="41" t="s">
+      <c r="X73" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="36"/>
-      <c r="AA73" s="36"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="41"/>
       <c r="AB73" s="42"/>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="41" t="s">
+      <c r="AD73" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="AE73" s="36"/>
-      <c r="AF73" s="36"/>
-      <c r="AG73" s="36"/>
+      <c r="AE73" s="41"/>
+      <c r="AF73" s="41"/>
+      <c r="AG73" s="41"/>
       <c r="AH73" s="42"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="4"/>
       <c r="AK73" s="3"/>
-      <c r="AL73" s="29" t="s">
+      <c r="AL73" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="AM73" s="30"/>
-      <c r="AN73" s="30"/>
-      <c r="AO73" s="30"/>
-      <c r="AP73" s="31"/>
+      <c r="AM73" s="27"/>
+      <c r="AN73" s="27"/>
+      <c r="AO73" s="27"/>
+      <c r="AP73" s="28"/>
       <c r="AQ73" s="4"/>
-      <c r="AR73" s="19" t="s">
+      <c r="AR73" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="AS73" s="20"/>
-      <c r="AT73" s="20"/>
-      <c r="AU73" s="20"/>
-      <c r="AV73" s="21"/>
+      <c r="AS73" s="34"/>
+      <c r="AT73" s="34"/>
+      <c r="AU73" s="34"/>
+      <c r="AV73" s="35"/>
       <c r="AW73" s="5"/>
       <c r="AX73" s="3"/>
       <c r="AY73" s="3"/>
-      <c r="AZ73" s="29" t="s">
+      <c r="AZ73" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="BA73" s="30"/>
-      <c r="BB73" s="30"/>
-      <c r="BC73" s="30"/>
-      <c r="BD73" s="31"/>
+      <c r="BA73" s="27"/>
+      <c r="BB73" s="27"/>
+      <c r="BC73" s="27"/>
+      <c r="BD73" s="28"/>
       <c r="BE73" s="4"/>
-      <c r="BF73" s="29" t="s">
+      <c r="BF73" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="BG73" s="30"/>
-      <c r="BH73" s="30"/>
-      <c r="BI73" s="30"/>
-      <c r="BJ73" s="31"/>
+      <c r="BG73" s="27"/>
+      <c r="BH73" s="27"/>
+      <c r="BI73" s="27"/>
+      <c r="BJ73" s="28"/>
       <c r="BK73" s="4"/>
-      <c r="BL73" s="29" t="s">
+      <c r="BL73" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="BM73" s="30"/>
-      <c r="BN73" s="30"/>
-      <c r="BO73" s="30"/>
-      <c r="BP73" s="31"/>
+      <c r="BM73" s="27"/>
+      <c r="BN73" s="27"/>
+      <c r="BO73" s="27"/>
+      <c r="BP73" s="28"/>
       <c r="BQ73" s="4"/>
       <c r="BR73" s="3"/>
       <c r="BS73" s="3"/>
-      <c r="BT73" s="29" t="s">
+      <c r="BT73" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="BU73" s="30"/>
-      <c r="BV73" s="30"/>
-      <c r="BW73" s="30"/>
-      <c r="BX73" s="31"/>
+      <c r="BU73" s="27"/>
+      <c r="BV73" s="27"/>
+      <c r="BW73" s="27"/>
+      <c r="BX73" s="28"/>
       <c r="BY73" s="4"/>
-      <c r="BZ73" s="29" t="s">
+      <c r="BZ73" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="CA73" s="30"/>
-      <c r="CB73" s="30"/>
-      <c r="CC73" s="30"/>
-      <c r="CD73" s="31"/>
+      <c r="CA73" s="27"/>
+      <c r="CB73" s="27"/>
+      <c r="CC73" s="27"/>
+      <c r="CD73" s="28"/>
       <c r="CE73" s="5"/>
       <c r="CF73" s="4"/>
       <c r="CG73" s="4"/>
@@ -9211,21 +9351,21 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="31"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="28"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="29" t="s">
+      <c r="L74" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="31"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="28"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -9233,20 +9373,20 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
-      <c r="X74" s="41" t="s">
+      <c r="X74" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="Y74" s="36"/>
-      <c r="Z74" s="36"/>
-      <c r="AA74" s="36"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
       <c r="AB74" s="42"/>
       <c r="AC74" s="4"/>
-      <c r="AD74" s="41" t="s">
+      <c r="AD74" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="AE74" s="36"/>
-      <c r="AF74" s="36"/>
-      <c r="AG74" s="36"/>
+      <c r="AE74" s="41"/>
+      <c r="AF74" s="41"/>
+      <c r="AG74" s="41"/>
       <c r="AH74" s="42"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="4"/>
@@ -9257,13 +9397,13 @@
       <c r="AO74" s="4"/>
       <c r="AP74" s="4"/>
       <c r="AQ74" s="4"/>
-      <c r="AR74" s="22" t="s">
+      <c r="AR74" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="AS74" s="23"/>
-      <c r="AT74" s="23"/>
-      <c r="AU74" s="23"/>
-      <c r="AV74" s="24"/>
+      <c r="AS74" s="31"/>
+      <c r="AT74" s="31"/>
+      <c r="AU74" s="31"/>
+      <c r="AV74" s="32"/>
       <c r="AW74" s="5"/>
       <c r="AX74" s="3"/>
       <c r="AY74" s="3"/>
@@ -9322,39 +9462,39 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
-      <c r="R75" s="38" t="s">
+      <c r="R75" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="40"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="21"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="41" t="s">
+      <c r="X75" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="Y75" s="36"/>
-      <c r="Z75" s="36"/>
-      <c r="AA75" s="36"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+      <c r="AA75" s="41"/>
       <c r="AB75" s="42"/>
       <c r="AC75" s="4"/>
-      <c r="AD75" s="41" t="s">
+      <c r="AD75" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="AE75" s="36"/>
-      <c r="AF75" s="36"/>
-      <c r="AG75" s="36"/>
+      <c r="AE75" s="41"/>
+      <c r="AF75" s="41"/>
+      <c r="AG75" s="41"/>
       <c r="AH75" s="42"/>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="4"/>
       <c r="AK75" s="3"/>
-      <c r="AL75" s="19" t="s">
+      <c r="AL75" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="AM75" s="20"/>
-      <c r="AN75" s="20"/>
-      <c r="AO75" s="20"/>
-      <c r="AP75" s="21"/>
+      <c r="AM75" s="34"/>
+      <c r="AN75" s="34"/>
+      <c r="AO75" s="34"/>
+      <c r="AP75" s="35"/>
       <c r="AQ75" s="4"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
@@ -9364,47 +9504,47 @@
       <c r="AW75" s="5"/>
       <c r="AX75" s="3"/>
       <c r="AY75" s="3"/>
-      <c r="AZ75" s="19" t="s">
+      <c r="AZ75" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="BA75" s="20"/>
-      <c r="BB75" s="20"/>
-      <c r="BC75" s="20"/>
-      <c r="BD75" s="21"/>
+      <c r="BA75" s="34"/>
+      <c r="BB75" s="34"/>
+      <c r="BC75" s="34"/>
+      <c r="BD75" s="35"/>
       <c r="BE75" s="4"/>
-      <c r="BF75" s="19" t="s">
+      <c r="BF75" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="BG75" s="20"/>
-      <c r="BH75" s="20"/>
-      <c r="BI75" s="20"/>
-      <c r="BJ75" s="21"/>
+      <c r="BG75" s="34"/>
+      <c r="BH75" s="34"/>
+      <c r="BI75" s="34"/>
+      <c r="BJ75" s="35"/>
       <c r="BK75" s="4"/>
-      <c r="BL75" s="19" t="s">
+      <c r="BL75" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="BM75" s="20"/>
-      <c r="BN75" s="20"/>
-      <c r="BO75" s="20"/>
-      <c r="BP75" s="21"/>
+      <c r="BM75" s="34"/>
+      <c r="BN75" s="34"/>
+      <c r="BO75" s="34"/>
+      <c r="BP75" s="35"/>
       <c r="BQ75" s="4"/>
       <c r="BR75" s="3"/>
       <c r="BS75" s="3"/>
-      <c r="BT75" s="19" t="s">
+      <c r="BT75" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="BU75" s="20"/>
-      <c r="BV75" s="20"/>
-      <c r="BW75" s="20"/>
-      <c r="BX75" s="21"/>
+      <c r="BU75" s="34"/>
+      <c r="BV75" s="34"/>
+      <c r="BW75" s="34"/>
+      <c r="BX75" s="35"/>
       <c r="BY75" s="4"/>
-      <c r="BZ75" s="19" t="s">
+      <c r="BZ75" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="CA75" s="20"/>
-      <c r="CB75" s="20"/>
-      <c r="CC75" s="20"/>
-      <c r="CD75" s="21"/>
+      <c r="CA75" s="34"/>
+      <c r="CB75" s="34"/>
+      <c r="CC75" s="34"/>
+      <c r="CD75" s="35"/>
       <c r="CE75" s="5"/>
       <c r="CF75" s="4"/>
       <c r="CG75" s="4"/>
@@ -9417,107 +9557,107 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="31"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="28"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="29" t="s">
+      <c r="L76" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="31"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="28"/>
       <c r="Q76" s="4"/>
-      <c r="R76" s="25" t="s">
+      <c r="R76" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="27"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="24"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="41" t="s">
+      <c r="X76" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="Y76" s="36"/>
-      <c r="Z76" s="36"/>
-      <c r="AA76" s="36"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+      <c r="AA76" s="41"/>
       <c r="AB76" s="42"/>
       <c r="AC76" s="4"/>
-      <c r="AD76" s="41" t="s">
+      <c r="AD76" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="AE76" s="36"/>
-      <c r="AF76" s="36"/>
-      <c r="AG76" s="36"/>
+      <c r="AE76" s="41"/>
+      <c r="AF76" s="41"/>
+      <c r="AG76" s="41"/>
       <c r="AH76" s="42"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="4"/>
       <c r="AK76" s="3"/>
-      <c r="AL76" s="22" t="s">
+      <c r="AL76" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="AM76" s="23"/>
-      <c r="AN76" s="23"/>
-      <c r="AO76" s="23"/>
-      <c r="AP76" s="24"/>
+      <c r="AM76" s="31"/>
+      <c r="AN76" s="31"/>
+      <c r="AO76" s="31"/>
+      <c r="AP76" s="32"/>
       <c r="AQ76" s="4"/>
-      <c r="AR76" s="19" t="s">
+      <c r="AR76" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AS76" s="20"/>
-      <c r="AT76" s="20"/>
-      <c r="AU76" s="20"/>
-      <c r="AV76" s="21"/>
+      <c r="AS76" s="34"/>
+      <c r="AT76" s="34"/>
+      <c r="AU76" s="34"/>
+      <c r="AV76" s="35"/>
       <c r="AW76" s="5"/>
       <c r="AX76" s="3"/>
       <c r="AY76" s="3"/>
-      <c r="AZ76" s="22" t="s">
+      <c r="AZ76" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="BA76" s="23"/>
-      <c r="BB76" s="23"/>
-      <c r="BC76" s="23"/>
-      <c r="BD76" s="24"/>
+      <c r="BA76" s="31"/>
+      <c r="BB76" s="31"/>
+      <c r="BC76" s="31"/>
+      <c r="BD76" s="32"/>
       <c r="BE76" s="4"/>
-      <c r="BF76" s="22" t="s">
+      <c r="BF76" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="BG76" s="23"/>
-      <c r="BH76" s="23"/>
-      <c r="BI76" s="23"/>
-      <c r="BJ76" s="24"/>
+      <c r="BG76" s="31"/>
+      <c r="BH76" s="31"/>
+      <c r="BI76" s="31"/>
+      <c r="BJ76" s="32"/>
       <c r="BK76" s="4"/>
-      <c r="BL76" s="22" t="s">
+      <c r="BL76" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="BM76" s="23"/>
-      <c r="BN76" s="23"/>
-      <c r="BO76" s="23"/>
-      <c r="BP76" s="24"/>
+      <c r="BM76" s="31"/>
+      <c r="BN76" s="31"/>
+      <c r="BO76" s="31"/>
+      <c r="BP76" s="32"/>
       <c r="BQ76" s="4"/>
       <c r="BR76" s="3"/>
       <c r="BS76" s="3"/>
-      <c r="BT76" s="22" t="s">
+      <c r="BT76" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="BU76" s="23"/>
-      <c r="BV76" s="23"/>
-      <c r="BW76" s="23"/>
-      <c r="BX76" s="24"/>
+      <c r="BU76" s="31"/>
+      <c r="BV76" s="31"/>
+      <c r="BW76" s="31"/>
+      <c r="BX76" s="32"/>
       <c r="BY76" s="4"/>
-      <c r="BZ76" s="22" t="s">
+      <c r="BZ76" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="CA76" s="23"/>
-      <c r="CB76" s="23"/>
-      <c r="CC76" s="23"/>
-      <c r="CD76" s="24"/>
+      <c r="CA76" s="31"/>
+      <c r="CB76" s="31"/>
+      <c r="CC76" s="31"/>
+      <c r="CD76" s="32"/>
       <c r="CE76" s="5"/>
       <c r="CF76" s="4"/>
       <c r="CG76" s="4"/>
@@ -9548,20 +9688,20 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="41" t="s">
+      <c r="X77" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
-      <c r="AA77" s="36"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
+      <c r="AA77" s="41"/>
       <c r="AB77" s="42"/>
       <c r="AC77" s="4"/>
-      <c r="AD77" s="41" t="s">
+      <c r="AD77" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="AE77" s="36"/>
-      <c r="AF77" s="36"/>
-      <c r="AG77" s="36"/>
+      <c r="AE77" s="41"/>
+      <c r="AF77" s="41"/>
+      <c r="AG77" s="41"/>
       <c r="AH77" s="42"/>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="4"/>
@@ -9572,13 +9712,13 @@
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
-      <c r="AR77" s="22" t="s">
+      <c r="AR77" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="AS77" s="23"/>
-      <c r="AT77" s="23"/>
-      <c r="AU77" s="23"/>
-      <c r="AV77" s="24"/>
+      <c r="AS77" s="31"/>
+      <c r="AT77" s="31"/>
+      <c r="AU77" s="31"/>
+      <c r="AV77" s="32"/>
       <c r="AW77" s="5"/>
       <c r="AX77" s="3"/>
       <c r="AY77" s="3"/>
@@ -9625,55 +9765,55 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="31"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="29" t="s">
+      <c r="L78" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="31"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="28"/>
       <c r="Q78" s="4"/>
-      <c r="R78" s="38" t="s">
+      <c r="R78" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="40"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="21"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="46" t="s">
+      <c r="X78" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="Y78" s="47"/>
-      <c r="Z78" s="47"/>
-      <c r="AA78" s="47"/>
-      <c r="AB78" s="48"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="44"/>
       <c r="AC78" s="4"/>
-      <c r="AD78" s="46" t="s">
+      <c r="AD78" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="AE78" s="47"/>
-      <c r="AF78" s="47"/>
-      <c r="AG78" s="47"/>
-      <c r="AH78" s="48"/>
+      <c r="AE78" s="25"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="25"/>
+      <c r="AH78" s="44"/>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="4"/>
       <c r="AK78" s="3"/>
-      <c r="AL78" s="19" t="s">
+      <c r="AL78" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="20"/>
-      <c r="AO78" s="20"/>
-      <c r="AP78" s="21"/>
+      <c r="AM78" s="34"/>
+      <c r="AN78" s="34"/>
+      <c r="AO78" s="34"/>
+      <c r="AP78" s="35"/>
       <c r="AQ78" s="4"/>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
@@ -9683,47 +9823,47 @@
       <c r="AW78" s="5"/>
       <c r="AX78" s="3"/>
       <c r="AY78" s="3"/>
-      <c r="AZ78" s="19" t="s">
+      <c r="AZ78" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="BA78" s="20"/>
-      <c r="BB78" s="20"/>
-      <c r="BC78" s="20"/>
-      <c r="BD78" s="21"/>
+      <c r="BA78" s="34"/>
+      <c r="BB78" s="34"/>
+      <c r="BC78" s="34"/>
+      <c r="BD78" s="35"/>
       <c r="BE78" s="4"/>
-      <c r="BF78" s="19" t="s">
+      <c r="BF78" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="BG78" s="20"/>
-      <c r="BH78" s="20"/>
-      <c r="BI78" s="20"/>
-      <c r="BJ78" s="21"/>
+      <c r="BG78" s="34"/>
+      <c r="BH78" s="34"/>
+      <c r="BI78" s="34"/>
+      <c r="BJ78" s="35"/>
       <c r="BK78" s="4"/>
-      <c r="BL78" s="19" t="s">
+      <c r="BL78" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="BM78" s="20"/>
-      <c r="BN78" s="20"/>
-      <c r="BO78" s="20"/>
-      <c r="BP78" s="21"/>
+      <c r="BM78" s="34"/>
+      <c r="BN78" s="34"/>
+      <c r="BO78" s="34"/>
+      <c r="BP78" s="35"/>
       <c r="BQ78" s="4"/>
       <c r="BR78" s="3"/>
       <c r="BS78" s="3"/>
-      <c r="BT78" s="19" t="s">
+      <c r="BT78" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="BU78" s="20"/>
-      <c r="BV78" s="20"/>
-      <c r="BW78" s="20"/>
-      <c r="BX78" s="21"/>
+      <c r="BU78" s="34"/>
+      <c r="BV78" s="34"/>
+      <c r="BW78" s="34"/>
+      <c r="BX78" s="35"/>
       <c r="BY78" s="4"/>
-      <c r="BZ78" s="19" t="s">
+      <c r="BZ78" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="CA78" s="20"/>
-      <c r="CB78" s="20"/>
-      <c r="CC78" s="20"/>
-      <c r="CD78" s="21"/>
+      <c r="CA78" s="34"/>
+      <c r="CB78" s="34"/>
+      <c r="CC78" s="34"/>
+      <c r="CD78" s="35"/>
       <c r="CE78" s="5"/>
       <c r="CF78" s="4"/>
       <c r="CG78" s="4"/>
@@ -9748,13 +9888,13 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
-      <c r="R79" s="25" t="s">
+      <c r="R79" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="27"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="24"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
@@ -9770,13 +9910,13 @@
       <c r="AI79" s="5"/>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="3"/>
-      <c r="AL79" s="22" t="s">
+      <c r="AL79" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="AM79" s="23"/>
-      <c r="AN79" s="23"/>
-      <c r="AO79" s="23"/>
-      <c r="AP79" s="24"/>
+      <c r="AM79" s="31"/>
+      <c r="AN79" s="31"/>
+      <c r="AO79" s="31"/>
+      <c r="AP79" s="32"/>
       <c r="AQ79" s="4"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
@@ -9786,47 +9926,47 @@
       <c r="AW79" s="5"/>
       <c r="AX79" s="3"/>
       <c r="AY79" s="3"/>
-      <c r="AZ79" s="22" t="s">
+      <c r="AZ79" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="BA79" s="23"/>
-      <c r="BB79" s="23"/>
-      <c r="BC79" s="23"/>
-      <c r="BD79" s="24"/>
+      <c r="BA79" s="31"/>
+      <c r="BB79" s="31"/>
+      <c r="BC79" s="31"/>
+      <c r="BD79" s="32"/>
       <c r="BE79" s="4"/>
-      <c r="BF79" s="22" t="s">
+      <c r="BF79" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="BG79" s="23"/>
-      <c r="BH79" s="23"/>
-      <c r="BI79" s="23"/>
-      <c r="BJ79" s="24"/>
+      <c r="BG79" s="31"/>
+      <c r="BH79" s="31"/>
+      <c r="BI79" s="31"/>
+      <c r="BJ79" s="32"/>
       <c r="BK79" s="4"/>
-      <c r="BL79" s="22" t="s">
+      <c r="BL79" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="BM79" s="23"/>
-      <c r="BN79" s="23"/>
-      <c r="BO79" s="23"/>
-      <c r="BP79" s="24"/>
+      <c r="BM79" s="31"/>
+      <c r="BN79" s="31"/>
+      <c r="BO79" s="31"/>
+      <c r="BP79" s="32"/>
       <c r="BQ79" s="4"/>
       <c r="BR79" s="3"/>
       <c r="BS79" s="3"/>
-      <c r="BT79" s="22" t="s">
+      <c r="BT79" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="BU79" s="23"/>
-      <c r="BV79" s="23"/>
-      <c r="BW79" s="23"/>
-      <c r="BX79" s="24"/>
+      <c r="BU79" s="31"/>
+      <c r="BV79" s="31"/>
+      <c r="BW79" s="31"/>
+      <c r="BX79" s="32"/>
       <c r="BY79" s="4"/>
-      <c r="BZ79" s="22" t="s">
+      <c r="BZ79" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="CA79" s="23"/>
-      <c r="CB79" s="23"/>
-      <c r="CC79" s="23"/>
-      <c r="CD79" s="24"/>
+      <c r="CA79" s="31"/>
+      <c r="CB79" s="31"/>
+      <c r="CC79" s="31"/>
+      <c r="CD79" s="32"/>
       <c r="CE79" s="5"/>
       <c r="CF79" s="4"/>
       <c r="CG79" s="4"/>
@@ -9839,21 +9979,21 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="31"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="28"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="38" t="s">
+      <c r="L80" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="40"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="21"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
@@ -9938,13 +10078,13 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="25" t="s">
+      <c r="L81" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="27"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="24"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
@@ -10009,7 +10149,7 @@
       <c r="BZ81" s="4"/>
       <c r="CA81" s="4"/>
       <c r="CB81" s="4"/>
-      <c r="CC81" s="49"/>
+      <c r="CC81" s="18"/>
       <c r="CD81" s="4"/>
       <c r="CE81" s="4"/>
       <c r="CF81" s="4"/>
@@ -10336,106 +10476,106 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="29" t="s">
+      <c r="F86" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="31"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="28"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="29" t="s">
+      <c r="L86" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="31"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="28"/>
       <c r="Q86" s="4"/>
-      <c r="R86" s="29" t="s">
+      <c r="R86" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="31"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="28"/>
       <c r="W86" s="4"/>
-      <c r="X86" s="29" t="s">
+      <c r="X86" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="30"/>
-      <c r="AA86" s="30"/>
-      <c r="AB86" s="31"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="28"/>
       <c r="AC86" s="4"/>
-      <c r="AD86" s="29" t="s">
+      <c r="AD86" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="AE86" s="30"/>
-      <c r="AF86" s="30"/>
-      <c r="AG86" s="30"/>
-      <c r="AH86" s="31"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="28"/>
       <c r="AI86" s="4"/>
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
-      <c r="AL86" s="29" t="s">
+      <c r="AL86" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="AM86" s="30"/>
-      <c r="AN86" s="30"/>
-      <c r="AO86" s="30"/>
-      <c r="AP86" s="31"/>
+      <c r="AM86" s="27"/>
+      <c r="AN86" s="27"/>
+      <c r="AO86" s="27"/>
+      <c r="AP86" s="28"/>
       <c r="AQ86" s="4"/>
-      <c r="AR86" s="19" t="s">
+      <c r="AR86" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="AS86" s="20"/>
-      <c r="AT86" s="20"/>
-      <c r="AU86" s="20"/>
-      <c r="AV86" s="21"/>
+      <c r="AS86" s="34"/>
+      <c r="AT86" s="34"/>
+      <c r="AU86" s="34"/>
+      <c r="AV86" s="35"/>
       <c r="AW86" s="5"/>
       <c r="AY86" s="3"/>
-      <c r="AZ86" s="29" t="s">
+      <c r="AZ86" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="BA86" s="30"/>
-      <c r="BB86" s="30"/>
-      <c r="BC86" s="30"/>
-      <c r="BD86" s="31"/>
+      <c r="BA86" s="27"/>
+      <c r="BB86" s="27"/>
+      <c r="BC86" s="27"/>
+      <c r="BD86" s="28"/>
       <c r="BE86" s="4"/>
-      <c r="BF86" s="19" t="s">
+      <c r="BF86" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="BG86" s="20"/>
-      <c r="BH86" s="20"/>
-      <c r="BI86" s="20"/>
-      <c r="BJ86" s="21"/>
+      <c r="BG86" s="34"/>
+      <c r="BH86" s="34"/>
+      <c r="BI86" s="34"/>
+      <c r="BJ86" s="35"/>
       <c r="BK86" s="4"/>
-      <c r="BL86" s="19" t="s">
+      <c r="BL86" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="BM86" s="20"/>
-      <c r="BN86" s="20"/>
-      <c r="BO86" s="20"/>
-      <c r="BP86" s="21"/>
+      <c r="BM86" s="34"/>
+      <c r="BN86" s="34"/>
+      <c r="BO86" s="34"/>
+      <c r="BP86" s="35"/>
       <c r="BQ86" s="4"/>
       <c r="BR86" s="3"/>
       <c r="BS86" s="3"/>
-      <c r="BT86" s="29" t="s">
+      <c r="BT86" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="BU86" s="30"/>
-      <c r="BV86" s="30"/>
-      <c r="BW86" s="30"/>
-      <c r="BX86" s="31"/>
+      <c r="BU86" s="27"/>
+      <c r="BV86" s="27"/>
+      <c r="BW86" s="27"/>
+      <c r="BX86" s="28"/>
       <c r="BY86" s="4"/>
-      <c r="BZ86" s="29" t="s">
+      <c r="BZ86" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="CA86" s="30"/>
-      <c r="CB86" s="30"/>
-      <c r="CC86" s="30"/>
-      <c r="CD86" s="31"/>
+      <c r="CA86" s="27"/>
+      <c r="CB86" s="27"/>
+      <c r="CC86" s="27"/>
+      <c r="CD86" s="28"/>
       <c r="CE86" s="5"/>
       <c r="CF86" s="4"/>
       <c r="CG86" s="4"/>
@@ -10486,13 +10626,13 @@
       <c r="AO87" s="4"/>
       <c r="AP87" s="4"/>
       <c r="AQ87" s="4"/>
-      <c r="AR87" s="22" t="s">
+      <c r="AR87" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="AS87" s="23"/>
-      <c r="AT87" s="23"/>
-      <c r="AU87" s="23"/>
-      <c r="AV87" s="24"/>
+      <c r="AS87" s="31"/>
+      <c r="AT87" s="31"/>
+      <c r="AU87" s="31"/>
+      <c r="AV87" s="32"/>
       <c r="AW87" s="5"/>
       <c r="AY87" s="3"/>
       <c r="AZ87" s="4"/>
@@ -10501,21 +10641,21 @@
       <c r="BC87" s="4"/>
       <c r="BD87" s="4"/>
       <c r="BE87" s="4"/>
-      <c r="BF87" s="22" t="s">
+      <c r="BF87" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="BG87" s="23"/>
-      <c r="BH87" s="23"/>
-      <c r="BI87" s="23"/>
-      <c r="BJ87" s="24"/>
+      <c r="BG87" s="31"/>
+      <c r="BH87" s="31"/>
+      <c r="BI87" s="31"/>
+      <c r="BJ87" s="32"/>
       <c r="BK87" s="4"/>
-      <c r="BL87" s="22" t="s">
+      <c r="BL87" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="BM87" s="23"/>
-      <c r="BN87" s="23"/>
-      <c r="BO87" s="23"/>
-      <c r="BP87" s="24"/>
+      <c r="BM87" s="31"/>
+      <c r="BN87" s="31"/>
+      <c r="BO87" s="31"/>
+      <c r="BP87" s="32"/>
       <c r="BQ87" s="4"/>
       <c r="BR87" s="3"/>
       <c r="BS87" s="3"/>
@@ -10542,55 +10682,55 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="38" t="s">
+      <c r="F88" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="40"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="38" t="s">
+      <c r="L88" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="40"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="21"/>
       <c r="Q88" s="4"/>
-      <c r="R88" s="38" t="s">
+      <c r="R88" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="40"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="21"/>
       <c r="W88" s="4"/>
-      <c r="X88" s="38" t="s">
+      <c r="X88" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
-      <c r="AA88" s="39"/>
-      <c r="AB88" s="40"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="21"/>
       <c r="AC88" s="4"/>
-      <c r="AD88" s="38" t="s">
+      <c r="AD88" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="40"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="20"/>
+      <c r="AG88" s="20"/>
+      <c r="AH88" s="21"/>
       <c r="AI88" s="4"/>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
-      <c r="AL88" s="29" t="s">
+      <c r="AL88" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="AM88" s="30"/>
-      <c r="AN88" s="30"/>
-      <c r="AO88" s="30"/>
-      <c r="AP88" s="31"/>
+      <c r="AM88" s="27"/>
+      <c r="AN88" s="27"/>
+      <c r="AO88" s="27"/>
+      <c r="AP88" s="28"/>
       <c r="AQ88" s="4"/>
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
@@ -10599,13 +10739,13 @@
       <c r="AV88" s="4"/>
       <c r="AW88" s="5"/>
       <c r="AY88" s="3"/>
-      <c r="AZ88" s="29" t="s">
+      <c r="AZ88" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="BA88" s="30"/>
-      <c r="BB88" s="30"/>
-      <c r="BC88" s="30"/>
-      <c r="BD88" s="31"/>
+      <c r="BA88" s="27"/>
+      <c r="BB88" s="27"/>
+      <c r="BC88" s="27"/>
+      <c r="BD88" s="28"/>
       <c r="BE88" s="4"/>
       <c r="BF88" s="4"/>
       <c r="BG88" s="4"/>
@@ -10621,21 +10761,21 @@
       <c r="BQ88" s="4"/>
       <c r="BR88" s="3"/>
       <c r="BS88" s="3"/>
-      <c r="BT88" s="19" t="s">
+      <c r="BT88" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="BU88" s="20"/>
-      <c r="BV88" s="20"/>
-      <c r="BW88" s="20"/>
-      <c r="BX88" s="21"/>
+      <c r="BU88" s="34"/>
+      <c r="BV88" s="34"/>
+      <c r="BW88" s="34"/>
+      <c r="BX88" s="35"/>
       <c r="BY88" s="4"/>
-      <c r="BZ88" s="19" t="s">
+      <c r="BZ88" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="CA88" s="20"/>
-      <c r="CB88" s="20"/>
-      <c r="CC88" s="20"/>
-      <c r="CD88" s="21"/>
+      <c r="CA88" s="34"/>
+      <c r="CB88" s="34"/>
+      <c r="CC88" s="34"/>
+      <c r="CD88" s="35"/>
       <c r="CE88" s="5"/>
       <c r="CF88" s="4"/>
       <c r="CG88" s="4"/>
@@ -10648,45 +10788,45 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="27"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="24"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="25" t="s">
+      <c r="L89" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="27"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="24"/>
       <c r="Q89" s="4"/>
-      <c r="R89" s="25" t="s">
+      <c r="R89" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="S89" s="26"/>
-      <c r="T89" s="26"/>
-      <c r="U89" s="26"/>
-      <c r="V89" s="27"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="23"/>
+      <c r="V89" s="24"/>
       <c r="W89" s="4"/>
-      <c r="X89" s="25" t="s">
+      <c r="X89" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="Y89" s="26"/>
-      <c r="Z89" s="26"/>
-      <c r="AA89" s="26"/>
-      <c r="AB89" s="27"/>
+      <c r="Y89" s="23"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="24"/>
       <c r="AC89" s="4"/>
-      <c r="AD89" s="25" t="s">
+      <c r="AD89" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="AE89" s="26"/>
-      <c r="AF89" s="26"/>
-      <c r="AG89" s="26"/>
-      <c r="AH89" s="27"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="24"/>
       <c r="AI89" s="4"/>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
@@ -10709,39 +10849,39 @@
       <c r="BC89" s="4"/>
       <c r="BD89" s="4"/>
       <c r="BE89" s="4"/>
-      <c r="BF89" s="19" t="s">
+      <c r="BF89" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="BG89" s="20"/>
-      <c r="BH89" s="20"/>
-      <c r="BI89" s="20"/>
-      <c r="BJ89" s="21"/>
+      <c r="BG89" s="34"/>
+      <c r="BH89" s="34"/>
+      <c r="BI89" s="34"/>
+      <c r="BJ89" s="35"/>
       <c r="BK89" s="4"/>
-      <c r="BL89" s="19" t="s">
+      <c r="BL89" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="BM89" s="20"/>
-      <c r="BN89" s="20"/>
-      <c r="BO89" s="20"/>
-      <c r="BP89" s="21"/>
+      <c r="BM89" s="34"/>
+      <c r="BN89" s="34"/>
+      <c r="BO89" s="34"/>
+      <c r="BP89" s="35"/>
       <c r="BQ89" s="4"/>
       <c r="BR89" s="3"/>
       <c r="BS89" s="3"/>
-      <c r="BT89" s="22" t="s">
+      <c r="BT89" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="BU89" s="23"/>
-      <c r="BV89" s="23"/>
-      <c r="BW89" s="23"/>
-      <c r="BX89" s="24"/>
+      <c r="BU89" s="31"/>
+      <c r="BV89" s="31"/>
+      <c r="BW89" s="31"/>
+      <c r="BX89" s="32"/>
       <c r="BY89" s="4"/>
-      <c r="BZ89" s="22" t="s">
+      <c r="BZ89" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="CA89" s="23"/>
-      <c r="CB89" s="23"/>
-      <c r="CC89" s="23"/>
-      <c r="CD89" s="24"/>
+      <c r="CA89" s="31"/>
+      <c r="CB89" s="31"/>
+      <c r="CC89" s="31"/>
+      <c r="CD89" s="32"/>
       <c r="CE89" s="5"/>
       <c r="CF89" s="4"/>
       <c r="CG89" s="4"/>
@@ -10786,13 +10926,13 @@
       <c r="AI90" s="4"/>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
-      <c r="AL90" s="29" t="s">
+      <c r="AL90" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="AM90" s="30"/>
-      <c r="AN90" s="30"/>
-      <c r="AO90" s="30"/>
-      <c r="AP90" s="31"/>
+      <c r="AM90" s="27"/>
+      <c r="AN90" s="27"/>
+      <c r="AO90" s="27"/>
+      <c r="AP90" s="28"/>
       <c r="AQ90" s="4"/>
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
@@ -10801,29 +10941,29 @@
       <c r="AV90" s="4"/>
       <c r="AW90" s="5"/>
       <c r="AY90" s="3"/>
-      <c r="AZ90" s="29" t="s">
+      <c r="AZ90" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="BA90" s="30"/>
-      <c r="BB90" s="30"/>
-      <c r="BC90" s="30"/>
-      <c r="BD90" s="31"/>
+      <c r="BA90" s="27"/>
+      <c r="BB90" s="27"/>
+      <c r="BC90" s="27"/>
+      <c r="BD90" s="28"/>
       <c r="BE90" s="4"/>
-      <c r="BF90" s="22" t="s">
+      <c r="BF90" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="BG90" s="23"/>
-      <c r="BH90" s="23"/>
-      <c r="BI90" s="23"/>
-      <c r="BJ90" s="24"/>
+      <c r="BG90" s="31"/>
+      <c r="BH90" s="31"/>
+      <c r="BI90" s="31"/>
+      <c r="BJ90" s="32"/>
       <c r="BK90" s="4"/>
-      <c r="BL90" s="22" t="s">
+      <c r="BL90" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="BM90" s="23"/>
-      <c r="BN90" s="23"/>
-      <c r="BO90" s="23"/>
-      <c r="BP90" s="24"/>
+      <c r="BM90" s="31"/>
+      <c r="BN90" s="31"/>
+      <c r="BO90" s="31"/>
+      <c r="BP90" s="32"/>
       <c r="BQ90" s="4"/>
       <c r="BR90" s="3"/>
       <c r="BS90" s="6"/>
@@ -10850,45 +10990,45 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="38" t="s">
+      <c r="F91" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="40"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="38" t="s">
+      <c r="L91" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="40"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="21"/>
       <c r="Q91" s="4"/>
-      <c r="R91" s="38" t="s">
+      <c r="R91" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="40"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="21"/>
       <c r="W91" s="4"/>
-      <c r="X91" s="38" t="s">
+      <c r="X91" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="40"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+      <c r="AA91" s="20"/>
+      <c r="AB91" s="21"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="38" t="s">
+      <c r="AD91" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
-      <c r="AH91" s="40"/>
+      <c r="AE91" s="20"/>
+      <c r="AF91" s="20"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="21"/>
       <c r="AI91" s="4"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="6"/>
@@ -10948,71 +11088,71 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="27"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="24"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="25" t="s">
+      <c r="L92" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="M92" s="26"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="27"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="24"/>
       <c r="Q92" s="4"/>
-      <c r="R92" s="25" t="s">
+      <c r="R92" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="27"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="23"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="24"/>
       <c r="W92" s="4"/>
-      <c r="X92" s="25" t="s">
+      <c r="X92" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="27"/>
+      <c r="Y92" s="23"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="24"/>
       <c r="AC92" s="4"/>
-      <c r="AD92" s="25" t="s">
+      <c r="AD92" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AE92" s="26"/>
-      <c r="AF92" s="26"/>
-      <c r="AG92" s="26"/>
-      <c r="AH92" s="27"/>
+      <c r="AE92" s="23"/>
+      <c r="AF92" s="23"/>
+      <c r="AG92" s="23"/>
+      <c r="AH92" s="24"/>
       <c r="AI92" s="4"/>
       <c r="AJ92" s="3"/>
       <c r="AY92" s="3"/>
-      <c r="AZ92" s="19" t="s">
+      <c r="AZ92" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="BA92" s="20"/>
-      <c r="BB92" s="20"/>
-      <c r="BC92" s="20"/>
-      <c r="BD92" s="21"/>
+      <c r="BA92" s="34"/>
+      <c r="BB92" s="34"/>
+      <c r="BC92" s="34"/>
+      <c r="BD92" s="35"/>
       <c r="BE92" s="4"/>
-      <c r="BF92" s="19" t="s">
+      <c r="BF92" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="BG92" s="20"/>
-      <c r="BH92" s="20"/>
-      <c r="BI92" s="20"/>
-      <c r="BJ92" s="21"/>
+      <c r="BG92" s="34"/>
+      <c r="BH92" s="34"/>
+      <c r="BI92" s="34"/>
+      <c r="BJ92" s="35"/>
       <c r="BK92" s="4"/>
-      <c r="BL92" s="19" t="s">
+      <c r="BL92" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="BM92" s="20"/>
-      <c r="BN92" s="20"/>
-      <c r="BO92" s="20"/>
-      <c r="BP92" s="21"/>
+      <c r="BM92" s="34"/>
+      <c r="BN92" s="34"/>
+      <c r="BO92" s="34"/>
+      <c r="BP92" s="35"/>
       <c r="BQ92" s="4"/>
       <c r="BR92" s="3"/>
       <c r="BS92" s="4"/>
@@ -11086,29 +11226,29 @@
       <c r="AV93" s="1"/>
       <c r="AW93" s="2"/>
       <c r="AY93" s="3"/>
-      <c r="AZ93" s="22" t="s">
+      <c r="AZ93" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="BA93" s="23"/>
-      <c r="BB93" s="23"/>
-      <c r="BC93" s="23"/>
-      <c r="BD93" s="24"/>
+      <c r="BA93" s="31"/>
+      <c r="BB93" s="31"/>
+      <c r="BC93" s="31"/>
+      <c r="BD93" s="32"/>
       <c r="BE93" s="4"/>
-      <c r="BF93" s="22" t="s">
+      <c r="BF93" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="BG93" s="23"/>
-      <c r="BH93" s="23"/>
-      <c r="BI93" s="23"/>
-      <c r="BJ93" s="24"/>
+      <c r="BG93" s="31"/>
+      <c r="BH93" s="31"/>
+      <c r="BI93" s="31"/>
+      <c r="BJ93" s="32"/>
       <c r="BK93" s="4"/>
-      <c r="BL93" s="22" t="s">
+      <c r="BL93" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="BM93" s="23"/>
-      <c r="BN93" s="23"/>
-      <c r="BO93" s="23"/>
-      <c r="BP93" s="24"/>
+      <c r="BM93" s="31"/>
+      <c r="BN93" s="31"/>
+      <c r="BO93" s="31"/>
+      <c r="BP93" s="32"/>
       <c r="BQ93" s="4"/>
       <c r="BR93" s="3"/>
       <c r="BS93" s="4"/>
@@ -11135,45 +11275,45 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="38" t="s">
+      <c r="F94" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="40"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="38" t="s">
+      <c r="L94" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="40"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="21"/>
       <c r="Q94" s="4"/>
-      <c r="R94" s="38" t="s">
+      <c r="R94" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="S94" s="39"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="40"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="21"/>
       <c r="W94" s="4"/>
-      <c r="X94" s="38" t="s">
+      <c r="X94" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="Y94" s="39"/>
-      <c r="Z94" s="39"/>
-      <c r="AA94" s="39"/>
-      <c r="AB94" s="40"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="20"/>
+      <c r="AA94" s="20"/>
+      <c r="AB94" s="21"/>
       <c r="AC94" s="4"/>
-      <c r="AD94" s="38" t="s">
+      <c r="AD94" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="AE94" s="39"/>
-      <c r="AF94" s="39"/>
-      <c r="AG94" s="39"/>
-      <c r="AH94" s="40"/>
+      <c r="AE94" s="20"/>
+      <c r="AF94" s="20"/>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="21"/>
       <c r="AI94" s="4"/>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
@@ -11233,88 +11373,88 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="25" t="s">
+      <c r="F95" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="27"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="24"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="25" t="s">
+      <c r="L95" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="27"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="24"/>
       <c r="Q95" s="4"/>
-      <c r="R95" s="25" t="s">
+      <c r="R95" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="S95" s="26"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="26"/>
-      <c r="V95" s="27"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="23"/>
+      <c r="U95" s="23"/>
+      <c r="V95" s="24"/>
       <c r="W95" s="4"/>
-      <c r="X95" s="25" t="s">
+      <c r="X95" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="Y95" s="26"/>
-      <c r="Z95" s="26"/>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="27"/>
+      <c r="Y95" s="23"/>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="24"/>
       <c r="AC95" s="4"/>
-      <c r="AD95" s="25" t="s">
+      <c r="AD95" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="AE95" s="26"/>
-      <c r="AF95" s="26"/>
-      <c r="AG95" s="26"/>
-      <c r="AH95" s="27"/>
+      <c r="AE95" s="23"/>
+      <c r="AF95" s="23"/>
+      <c r="AG95" s="23"/>
+      <c r="AH95" s="24"/>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
-      <c r="AL95" s="29" t="s">
+      <c r="AL95" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="AM95" s="30"/>
-      <c r="AN95" s="30"/>
-      <c r="AO95" s="30"/>
-      <c r="AP95" s="31"/>
+      <c r="AM95" s="27"/>
+      <c r="AN95" s="27"/>
+      <c r="AO95" s="27"/>
+      <c r="AP95" s="28"/>
       <c r="AQ95" s="4"/>
-      <c r="AR95" s="19" t="s">
+      <c r="AR95" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="AS95" s="20"/>
-      <c r="AT95" s="20"/>
-      <c r="AU95" s="20"/>
-      <c r="AV95" s="21"/>
+      <c r="AS95" s="34"/>
+      <c r="AT95" s="34"/>
+      <c r="AU95" s="34"/>
+      <c r="AV95" s="35"/>
       <c r="AW95" s="5"/>
       <c r="AY95" s="3"/>
-      <c r="AZ95" s="19" t="s">
+      <c r="AZ95" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="BA95" s="20"/>
-      <c r="BB95" s="20"/>
-      <c r="BC95" s="20"/>
-      <c r="BD95" s="21"/>
+      <c r="BA95" s="34"/>
+      <c r="BB95" s="34"/>
+      <c r="BC95" s="34"/>
+      <c r="BD95" s="35"/>
       <c r="BE95" s="4"/>
-      <c r="BF95" s="19" t="s">
+      <c r="BF95" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="BG95" s="20"/>
-      <c r="BH95" s="20"/>
-      <c r="BI95" s="20"/>
-      <c r="BJ95" s="21"/>
+      <c r="BG95" s="34"/>
+      <c r="BH95" s="34"/>
+      <c r="BI95" s="34"/>
+      <c r="BJ95" s="35"/>
       <c r="BK95" s="4"/>
-      <c r="BL95" s="19" t="s">
+      <c r="BL95" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="BM95" s="20"/>
-      <c r="BN95" s="20"/>
-      <c r="BO95" s="20"/>
-      <c r="BP95" s="21"/>
+      <c r="BM95" s="34"/>
+      <c r="BN95" s="34"/>
+      <c r="BO95" s="34"/>
+      <c r="BP95" s="35"/>
       <c r="BQ95" s="4"/>
       <c r="BR95" s="3"/>
       <c r="BS95" s="4"/>
@@ -11379,38 +11519,38 @@
       <c r="AO96" s="4"/>
       <c r="AP96" s="4"/>
       <c r="AQ96" s="4"/>
-      <c r="AR96" s="22" t="s">
+      <c r="AR96" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="AS96" s="23"/>
-      <c r="AT96" s="23"/>
-      <c r="AU96" s="23"/>
-      <c r="AV96" s="24"/>
+      <c r="AS96" s="31"/>
+      <c r="AT96" s="31"/>
+      <c r="AU96" s="31"/>
+      <c r="AV96" s="32"/>
       <c r="AW96" s="5"/>
       <c r="AY96" s="3"/>
-      <c r="AZ96" s="22" t="s">
+      <c r="AZ96" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="BA96" s="23"/>
-      <c r="BB96" s="23"/>
-      <c r="BC96" s="23"/>
-      <c r="BD96" s="24"/>
+      <c r="BA96" s="31"/>
+      <c r="BB96" s="31"/>
+      <c r="BC96" s="31"/>
+      <c r="BD96" s="32"/>
       <c r="BE96" s="4"/>
-      <c r="BF96" s="22" t="s">
+      <c r="BF96" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="BG96" s="23"/>
-      <c r="BH96" s="23"/>
-      <c r="BI96" s="23"/>
-      <c r="BJ96" s="24"/>
+      <c r="BG96" s="31"/>
+      <c r="BH96" s="31"/>
+      <c r="BI96" s="31"/>
+      <c r="BJ96" s="32"/>
       <c r="BK96" s="4"/>
-      <c r="BL96" s="22" t="s">
+      <c r="BL96" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="BM96" s="23"/>
-      <c r="BN96" s="23"/>
-      <c r="BO96" s="23"/>
-      <c r="BP96" s="24"/>
+      <c r="BM96" s="31"/>
+      <c r="BN96" s="31"/>
+      <c r="BO96" s="31"/>
+      <c r="BP96" s="32"/>
       <c r="BQ96" s="4"/>
       <c r="BR96" s="3"/>
       <c r="BS96" s="4"/>
@@ -11437,13 +11577,13 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="38" t="s">
+      <c r="F97" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="40"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -11471,13 +11611,13 @@
       <c r="AI97" s="4"/>
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
-      <c r="AL97" s="29" t="s">
+      <c r="AL97" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="AM97" s="30"/>
-      <c r="AN97" s="30"/>
-      <c r="AO97" s="30"/>
-      <c r="AP97" s="31"/>
+      <c r="AM97" s="27"/>
+      <c r="AN97" s="27"/>
+      <c r="AO97" s="27"/>
+      <c r="AP97" s="28"/>
       <c r="AQ97" s="4"/>
       <c r="AR97" s="4"/>
       <c r="AS97" s="4"/>
@@ -11529,13 +11669,13 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="27"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="24"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -11569,30 +11709,30 @@
       <c r="AO98" s="4"/>
       <c r="AP98" s="4"/>
       <c r="AQ98" s="4"/>
-      <c r="AR98" s="19" t="s">
+      <c r="AR98" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="AS98" s="20"/>
-      <c r="AT98" s="20"/>
-      <c r="AU98" s="20"/>
-      <c r="AV98" s="21"/>
+      <c r="AS98" s="34"/>
+      <c r="AT98" s="34"/>
+      <c r="AU98" s="34"/>
+      <c r="AV98" s="35"/>
       <c r="AW98" s="5"/>
       <c r="AY98" s="3"/>
-      <c r="AZ98" s="19" t="s">
+      <c r="AZ98" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="BA98" s="20"/>
-      <c r="BB98" s="20"/>
-      <c r="BC98" s="20"/>
-      <c r="BD98" s="21"/>
+      <c r="BA98" s="34"/>
+      <c r="BB98" s="34"/>
+      <c r="BC98" s="34"/>
+      <c r="BD98" s="35"/>
       <c r="BE98" s="4"/>
-      <c r="BF98" s="19" t="s">
+      <c r="BF98" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="BG98" s="20"/>
-      <c r="BH98" s="20"/>
-      <c r="BI98" s="20"/>
-      <c r="BJ98" s="21"/>
+      <c r="BG98" s="34"/>
+      <c r="BH98" s="34"/>
+      <c r="BI98" s="34"/>
+      <c r="BJ98" s="35"/>
       <c r="BK98" s="4"/>
       <c r="BL98" s="4"/>
       <c r="BM98" s="4"/>
@@ -11657,38 +11797,38 @@
       <c r="AI99" s="4"/>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
-      <c r="AL99" s="29" t="s">
+      <c r="AL99" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="AM99" s="30"/>
-      <c r="AN99" s="30"/>
-      <c r="AO99" s="30"/>
-      <c r="AP99" s="31"/>
+      <c r="AM99" s="27"/>
+      <c r="AN99" s="27"/>
+      <c r="AO99" s="27"/>
+      <c r="AP99" s="28"/>
       <c r="AQ99" s="4"/>
-      <c r="AR99" s="22" t="s">
+      <c r="AR99" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="AS99" s="23"/>
-      <c r="AT99" s="23"/>
-      <c r="AU99" s="23"/>
-      <c r="AV99" s="24"/>
+      <c r="AS99" s="31"/>
+      <c r="AT99" s="31"/>
+      <c r="AU99" s="31"/>
+      <c r="AV99" s="32"/>
       <c r="AW99" s="5"/>
       <c r="AY99" s="3"/>
-      <c r="AZ99" s="22" t="s">
+      <c r="AZ99" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="BA99" s="23"/>
-      <c r="BB99" s="23"/>
-      <c r="BC99" s="23"/>
-      <c r="BD99" s="24"/>
+      <c r="BA99" s="31"/>
+      <c r="BB99" s="31"/>
+      <c r="BC99" s="31"/>
+      <c r="BD99" s="32"/>
       <c r="BE99" s="4"/>
-      <c r="BF99" s="22" t="s">
+      <c r="BF99" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="BG99" s="23"/>
-      <c r="BH99" s="23"/>
-      <c r="BI99" s="23"/>
-      <c r="BJ99" s="24"/>
+      <c r="BG99" s="31"/>
+      <c r="BH99" s="31"/>
+      <c r="BI99" s="31"/>
+      <c r="BJ99" s="32"/>
       <c r="BK99" s="4"/>
       <c r="BL99" s="4"/>
       <c r="BM99" s="4"/>
@@ -12022,73 +12162,73 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="29" t="s">
+      <c r="F104" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="31"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="28"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="50" t="s">
+      <c r="L104" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="M104" s="30"/>
-      <c r="N104" s="30"/>
-      <c r="O104" s="30"/>
-      <c r="P104" s="31"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="28"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
-      <c r="T104" s="29" t="s">
+      <c r="T104" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="U104" s="30"/>
-      <c r="V104" s="30"/>
-      <c r="W104" s="30"/>
-      <c r="X104" s="31"/>
+      <c r="U104" s="27"/>
+      <c r="V104" s="27"/>
+      <c r="W104" s="27"/>
+      <c r="X104" s="28"/>
       <c r="Y104" s="4"/>
-      <c r="Z104" s="50" t="s">
+      <c r="Z104" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="AA104" s="30"/>
-      <c r="AB104" s="30"/>
-      <c r="AC104" s="30"/>
-      <c r="AD104" s="31"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="28"/>
       <c r="AE104" s="5"/>
       <c r="AG104" s="3"/>
-      <c r="AH104" s="29" t="s">
+      <c r="AH104" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="AI104" s="30"/>
-      <c r="AJ104" s="30"/>
-      <c r="AK104" s="30"/>
-      <c r="AL104" s="31"/>
+      <c r="AI104" s="27"/>
+      <c r="AJ104" s="27"/>
+      <c r="AK104" s="27"/>
+      <c r="AL104" s="28"/>
       <c r="AM104" s="4"/>
-      <c r="AN104" s="38" t="s">
+      <c r="AN104" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="AO104" s="39"/>
-      <c r="AP104" s="39"/>
-      <c r="AQ104" s="39"/>
-      <c r="AR104" s="40"/>
+      <c r="AO104" s="20"/>
+      <c r="AP104" s="20"/>
+      <c r="AQ104" s="20"/>
+      <c r="AR104" s="21"/>
       <c r="AS104" s="5"/>
       <c r="AU104" s="3"/>
-      <c r="AV104" s="29" t="s">
+      <c r="AV104" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="AW104" s="30"/>
-      <c r="AX104" s="30"/>
-      <c r="AY104" s="30"/>
-      <c r="AZ104" s="31"/>
+      <c r="AW104" s="27"/>
+      <c r="AX104" s="27"/>
+      <c r="AY104" s="27"/>
+      <c r="AZ104" s="28"/>
       <c r="BA104" s="4"/>
-      <c r="BB104" s="29" t="s">
+      <c r="BB104" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="BC104" s="30"/>
-      <c r="BD104" s="30"/>
-      <c r="BE104" s="30"/>
-      <c r="BF104" s="31"/>
+      <c r="BC104" s="27"/>
+      <c r="BD104" s="27"/>
+      <c r="BE104" s="27"/>
+      <c r="BF104" s="28"/>
       <c r="BG104" s="4"/>
       <c r="BH104" s="9" t="s">
         <v>467</v>
@@ -12159,13 +12299,13 @@
       <c r="AK105" s="4"/>
       <c r="AL105" s="4"/>
       <c r="AM105" s="4"/>
-      <c r="AN105" s="25" t="s">
+      <c r="AN105" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="AO105" s="26"/>
-      <c r="AP105" s="26"/>
-      <c r="AQ105" s="26"/>
-      <c r="AR105" s="27"/>
+      <c r="AO105" s="23"/>
+      <c r="AP105" s="23"/>
+      <c r="AQ105" s="23"/>
+      <c r="AR105" s="24"/>
       <c r="AS105" s="5"/>
       <c r="AU105" s="3"/>
       <c r="AV105" s="4"/>
@@ -12214,48 +12354,48 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="38" t="s">
+      <c r="F106" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="40"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="38" t="s">
+      <c r="L106" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="40"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="21"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
-      <c r="T106" s="50" t="s">
+      <c r="T106" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="U106" s="30"/>
-      <c r="V106" s="30"/>
-      <c r="W106" s="30"/>
-      <c r="X106" s="31"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="28"/>
       <c r="Y106" s="4"/>
-      <c r="Z106" s="38" t="s">
+      <c r="Z106" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="AA106" s="39"/>
-      <c r="AB106" s="39"/>
-      <c r="AC106" s="39"/>
-      <c r="AD106" s="40"/>
+      <c r="AA106" s="20"/>
+      <c r="AB106" s="20"/>
+      <c r="AC106" s="20"/>
+      <c r="AD106" s="21"/>
       <c r="AE106" s="5"/>
       <c r="AG106" s="3"/>
-      <c r="AH106" s="50" t="s">
+      <c r="AH106" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="AI106" s="30"/>
-      <c r="AJ106" s="30"/>
-      <c r="AK106" s="30"/>
-      <c r="AL106" s="31"/>
+      <c r="AI106" s="27"/>
+      <c r="AJ106" s="27"/>
+      <c r="AK106" s="27"/>
+      <c r="AL106" s="28"/>
       <c r="AM106" s="4"/>
       <c r="AN106" s="4"/>
       <c r="AO106" s="4"/>
@@ -12264,30 +12404,30 @@
       <c r="AR106" s="4"/>
       <c r="AS106" s="5"/>
       <c r="AU106" s="3"/>
-      <c r="AV106" s="29" t="s">
+      <c r="AV106" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="AW106" s="30"/>
-      <c r="AX106" s="30"/>
-      <c r="AY106" s="30"/>
-      <c r="AZ106" s="31"/>
+      <c r="AW106" s="27"/>
+      <c r="AX106" s="27"/>
+      <c r="AY106" s="27"/>
+      <c r="AZ106" s="28"/>
       <c r="BA106" s="4"/>
-      <c r="BB106" s="29" t="s">
+      <c r="BB106" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="BC106" s="30"/>
-      <c r="BD106" s="30"/>
-      <c r="BE106" s="30"/>
-      <c r="BF106" s="31"/>
+      <c r="BC106" s="27"/>
+      <c r="BD106" s="27"/>
+      <c r="BE106" s="27"/>
+      <c r="BF106" s="28"/>
       <c r="BG106" s="4"/>
       <c r="BH106" s="3"/>
-      <c r="BI106" s="29" t="s">
+      <c r="BI106" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="BJ106" s="30"/>
-      <c r="BK106" s="30"/>
-      <c r="BL106" s="30"/>
-      <c r="BM106" s="31"/>
+      <c r="BJ106" s="27"/>
+      <c r="BK106" s="27"/>
+      <c r="BL106" s="27"/>
+      <c r="BM106" s="28"/>
       <c r="BN106" s="5"/>
       <c r="BO106" s="4"/>
       <c r="BP106" s="4"/>
@@ -12316,42 +12456,42 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="25" t="s">
+      <c r="F107" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="27"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="24"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="25" t="s">
+      <c r="L107" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="27"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="23"/>
+      <c r="P107" s="24"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="Y107" s="4"/>
-      <c r="Z107" s="25" t="s">
+      <c r="Z107" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
-      <c r="AD107" s="27"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="24"/>
       <c r="AE107" s="5"/>
       <c r="AG107" s="3"/>
       <c r="AM107" s="4"/>
-      <c r="AN107" s="38" t="s">
+      <c r="AN107" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="AO107" s="39"/>
-      <c r="AP107" s="39"/>
-      <c r="AQ107" s="39"/>
-      <c r="AR107" s="40"/>
+      <c r="AO107" s="20"/>
+      <c r="AP107" s="20"/>
+      <c r="AQ107" s="20"/>
+      <c r="AR107" s="21"/>
       <c r="AS107" s="5"/>
       <c r="AU107" s="3"/>
       <c r="AV107" s="4"/>
@@ -12414,13 +12554,13 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
-      <c r="T108" s="38" t="s">
+      <c r="T108" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="U108" s="39"/>
-      <c r="V108" s="39"/>
-      <c r="W108" s="39"/>
-      <c r="X108" s="40"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="21"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
@@ -12430,38 +12570,38 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="4"/>
       <c r="AG108" s="3"/>
-      <c r="AH108" s="50" t="s">
+      <c r="AH108" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="AI108" s="30"/>
-      <c r="AJ108" s="30"/>
-      <c r="AK108" s="30"/>
-      <c r="AL108" s="31"/>
+      <c r="AI108" s="27"/>
+      <c r="AJ108" s="27"/>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="28"/>
       <c r="AM108" s="4"/>
-      <c r="AN108" s="25" t="s">
+      <c r="AN108" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="AO108" s="26"/>
-      <c r="AP108" s="26"/>
-      <c r="AQ108" s="26"/>
-      <c r="AR108" s="27"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="23"/>
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="24"/>
       <c r="AS108" s="5"/>
       <c r="AU108" s="3"/>
-      <c r="AV108" s="29" t="s">
+      <c r="AV108" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="AW108" s="30"/>
-      <c r="AX108" s="30"/>
-      <c r="AY108" s="30"/>
-      <c r="AZ108" s="31"/>
+      <c r="AW108" s="27"/>
+      <c r="AX108" s="27"/>
+      <c r="AY108" s="27"/>
+      <c r="AZ108" s="28"/>
       <c r="BA108" s="4"/>
-      <c r="BB108" s="29" t="s">
+      <c r="BB108" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="BC108" s="30"/>
-      <c r="BD108" s="30"/>
-      <c r="BE108" s="30"/>
-      <c r="BF108" s="31"/>
+      <c r="BC108" s="27"/>
+      <c r="BD108" s="27"/>
+      <c r="BE108" s="27"/>
+      <c r="BF108" s="28"/>
       <c r="BG108" s="4"/>
       <c r="BH108" s="6"/>
       <c r="BI108" s="7"/>
@@ -12497,39 +12637,39 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="38" t="s">
+      <c r="F109" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="40"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="38" t="s">
+      <c r="L109" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="40"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="21"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
-      <c r="T109" s="25" t="s">
+      <c r="T109" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="U109" s="26"/>
-      <c r="V109" s="26"/>
-      <c r="W109" s="26"/>
-      <c r="X109" s="27"/>
+      <c r="U109" s="23"/>
+      <c r="V109" s="23"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="24"/>
       <c r="Y109" s="4"/>
-      <c r="Z109" s="38" t="s">
+      <c r="Z109" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="AA109" s="39"/>
-      <c r="AB109" s="39"/>
-      <c r="AC109" s="39"/>
-      <c r="AD109" s="40"/>
+      <c r="AA109" s="20"/>
+      <c r="AB109" s="20"/>
+      <c r="AC109" s="20"/>
+      <c r="AD109" s="21"/>
       <c r="AE109" s="5"/>
       <c r="AG109" s="3"/>
       <c r="AM109" s="4"/>
@@ -12586,21 +12726,21 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="25" t="s">
+      <c r="F110" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="27"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="24"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="25" t="s">
+      <c r="L110" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="M110" s="26"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="27"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="24"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
@@ -12610,40 +12750,40 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
-      <c r="Z110" s="25" t="s">
+      <c r="Z110" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="AA110" s="26"/>
-      <c r="AB110" s="26"/>
-      <c r="AC110" s="26"/>
-      <c r="AD110" s="27"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="23"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="24"/>
       <c r="AE110" s="5"/>
       <c r="AG110" s="3"/>
-      <c r="AH110" s="38" t="s">
+      <c r="AH110" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="AI110" s="39"/>
-      <c r="AJ110" s="39"/>
-      <c r="AK110" s="39"/>
-      <c r="AL110" s="40"/>
+      <c r="AI110" s="20"/>
+      <c r="AJ110" s="20"/>
+      <c r="AK110" s="20"/>
+      <c r="AL110" s="21"/>
       <c r="AM110" s="4"/>
       <c r="AS110" s="5"/>
       <c r="AU110" s="3"/>
-      <c r="AV110" s="29" t="s">
+      <c r="AV110" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="AW110" s="30"/>
-      <c r="AX110" s="30"/>
-      <c r="AY110" s="30"/>
-      <c r="AZ110" s="31"/>
+      <c r="AW110" s="27"/>
+      <c r="AX110" s="27"/>
+      <c r="AY110" s="27"/>
+      <c r="AZ110" s="28"/>
       <c r="BA110" s="4"/>
-      <c r="BB110" s="29" t="s">
+      <c r="BB110" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="BC110" s="30"/>
-      <c r="BD110" s="30"/>
-      <c r="BE110" s="30"/>
-      <c r="BF110" s="31"/>
+      <c r="BC110" s="27"/>
+      <c r="BD110" s="27"/>
+      <c r="BE110" s="27"/>
+      <c r="BF110" s="28"/>
       <c r="BG110" s="4"/>
       <c r="BH110" s="4"/>
       <c r="BI110" s="4"/>
@@ -12694,13 +12834,13 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
-      <c r="T111" s="38" t="s">
+      <c r="T111" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="U111" s="39"/>
-      <c r="V111" s="39"/>
-      <c r="W111" s="39"/>
-      <c r="X111" s="40"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+      <c r="W111" s="20"/>
+      <c r="X111" s="21"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
@@ -12709,13 +12849,13 @@
       <c r="AD111" s="4"/>
       <c r="AE111" s="5"/>
       <c r="AG111" s="3"/>
-      <c r="AH111" s="25" t="s">
+      <c r="AH111" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="AI111" s="26"/>
-      <c r="AJ111" s="26"/>
-      <c r="AK111" s="26"/>
-      <c r="AL111" s="27"/>
+      <c r="AI111" s="23"/>
+      <c r="AJ111" s="23"/>
+      <c r="AK111" s="23"/>
+      <c r="AL111" s="24"/>
       <c r="AM111" s="4"/>
       <c r="AS111" s="5"/>
       <c r="AU111" s="3"/>
@@ -12766,39 +12906,39 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="38" t="s">
+      <c r="F112" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="40"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="38" t="s">
+      <c r="L112" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="M112" s="39"/>
-      <c r="N112" s="39"/>
-      <c r="O112" s="39"/>
-      <c r="P112" s="40"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="21"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
-      <c r="T112" s="25" t="s">
+      <c r="T112" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="U112" s="26"/>
-      <c r="V112" s="26"/>
-      <c r="W112" s="26"/>
-      <c r="X112" s="27"/>
+      <c r="U112" s="23"/>
+      <c r="V112" s="23"/>
+      <c r="W112" s="23"/>
+      <c r="X112" s="24"/>
       <c r="Y112" s="4"/>
-      <c r="Z112" s="38" t="s">
+      <c r="Z112" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="AA112" s="39"/>
-      <c r="AB112" s="39"/>
-      <c r="AC112" s="39"/>
-      <c r="AD112" s="40"/>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="21"/>
       <c r="AE112" s="5"/>
       <c r="AG112" s="3"/>
       <c r="AS112" s="5"/>
@@ -12845,21 +12985,21 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="25" t="s">
+      <c r="F113" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="27"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="24"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="25" t="s">
+      <c r="L113" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="M113" s="26"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="27"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="23"/>
+      <c r="P113" s="24"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
@@ -12869,13 +13009,13 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
-      <c r="Z113" s="25" t="s">
+      <c r="Z113" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="AA113" s="26"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="26"/>
-      <c r="AD113" s="27"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="23"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="24"/>
       <c r="AE113" s="5"/>
       <c r="AG113" s="3"/>
       <c r="AS113" s="5"/>
@@ -12936,13 +13076,13 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
-      <c r="T114" s="38" t="s">
+      <c r="T114" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="U114" s="39"/>
-      <c r="V114" s="39"/>
-      <c r="W114" s="39"/>
-      <c r="X114" s="40"/>
+      <c r="U114" s="20"/>
+      <c r="V114" s="20"/>
+      <c r="W114" s="20"/>
+      <c r="X114" s="21"/>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
@@ -12995,13 +13135,13 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="38" t="s">
+      <c r="F115" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="40"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -13011,13 +13151,13 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
-      <c r="T115" s="25" t="s">
+      <c r="T115" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="U115" s="26"/>
-      <c r="V115" s="26"/>
-      <c r="W115" s="26"/>
-      <c r="X115" s="27"/>
+      <c r="U115" s="23"/>
+      <c r="V115" s="23"/>
+      <c r="W115" s="23"/>
+      <c r="X115" s="24"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
@@ -13070,13 +13210,13 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="25" t="s">
+      <c r="F116" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="27"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="24"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -14464,114 +14604,323 @@
     </row>
   </sheetData>
   <mergeCells count="452">
-    <mergeCell ref="BP37:BT37"/>
-    <mergeCell ref="BP38:BT38"/>
-    <mergeCell ref="AN108:AR108"/>
-    <mergeCell ref="BZ69:CD69"/>
-    <mergeCell ref="AV104:AZ104"/>
-    <mergeCell ref="AV106:AZ106"/>
-    <mergeCell ref="AV108:AZ108"/>
-    <mergeCell ref="BB104:BF104"/>
-    <mergeCell ref="BI106:BM106"/>
-    <mergeCell ref="AH110:AL110"/>
-    <mergeCell ref="AH111:AL111"/>
-    <mergeCell ref="AN107:AR107"/>
-    <mergeCell ref="AV110:AZ110"/>
-    <mergeCell ref="BB106:BF106"/>
-    <mergeCell ref="BB108:BF108"/>
-    <mergeCell ref="BB110:BF110"/>
-    <mergeCell ref="AH108:AL108"/>
-    <mergeCell ref="AH106:AL106"/>
-    <mergeCell ref="AN104:AR104"/>
-    <mergeCell ref="AN105:AR105"/>
-    <mergeCell ref="T106:X106"/>
-    <mergeCell ref="T114:X114"/>
-    <mergeCell ref="T115:X115"/>
-    <mergeCell ref="Z112:AD112"/>
-    <mergeCell ref="Z113:AD113"/>
-    <mergeCell ref="AH104:AL104"/>
-    <mergeCell ref="T112:X112"/>
-    <mergeCell ref="Z110:AD110"/>
-    <mergeCell ref="F115:J115"/>
-    <mergeCell ref="F116:J116"/>
-    <mergeCell ref="T104:X104"/>
-    <mergeCell ref="Z104:AD104"/>
-    <mergeCell ref="T108:X108"/>
-    <mergeCell ref="Z106:AD106"/>
-    <mergeCell ref="T109:X109"/>
-    <mergeCell ref="Z107:AD107"/>
-    <mergeCell ref="T111:X111"/>
-    <mergeCell ref="Z109:AD109"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="L109:P109"/>
-    <mergeCell ref="L110:P110"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="L112:P112"/>
-    <mergeCell ref="L113:P113"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="L104:P104"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="L106:P106"/>
-    <mergeCell ref="L107:P107"/>
-    <mergeCell ref="BL96:BP96"/>
-    <mergeCell ref="BT86:BX86"/>
-    <mergeCell ref="BZ86:CD86"/>
-    <mergeCell ref="BT88:BX88"/>
-    <mergeCell ref="BZ88:CD88"/>
-    <mergeCell ref="BT89:BX89"/>
-    <mergeCell ref="BZ89:CD89"/>
-    <mergeCell ref="BF99:BJ99"/>
-    <mergeCell ref="BL86:BP86"/>
-    <mergeCell ref="BL87:BP87"/>
-    <mergeCell ref="BL89:BP89"/>
-    <mergeCell ref="BL90:BP90"/>
-    <mergeCell ref="BL92:BP92"/>
-    <mergeCell ref="BL93:BP93"/>
-    <mergeCell ref="BL95:BP95"/>
-    <mergeCell ref="AZ98:BD98"/>
-    <mergeCell ref="AZ99:BD99"/>
-    <mergeCell ref="BF86:BJ86"/>
-    <mergeCell ref="BF87:BJ87"/>
-    <mergeCell ref="BF89:BJ89"/>
-    <mergeCell ref="BF90:BJ90"/>
-    <mergeCell ref="BF93:BJ93"/>
-    <mergeCell ref="BF95:BJ95"/>
-    <mergeCell ref="BF96:BJ96"/>
-    <mergeCell ref="BF98:BJ98"/>
-    <mergeCell ref="AL99:AP99"/>
-    <mergeCell ref="AR98:AV98"/>
-    <mergeCell ref="AR99:AV99"/>
-    <mergeCell ref="AZ86:BD86"/>
-    <mergeCell ref="AZ88:BD88"/>
-    <mergeCell ref="AZ90:BD90"/>
-    <mergeCell ref="AZ92:BD92"/>
-    <mergeCell ref="AZ93:BD93"/>
-    <mergeCell ref="AZ95:BD95"/>
-    <mergeCell ref="AZ96:BD96"/>
-    <mergeCell ref="BZ68:CD68"/>
-    <mergeCell ref="BF92:BJ92"/>
-    <mergeCell ref="AL90:AP90"/>
-    <mergeCell ref="AL95:AP95"/>
-    <mergeCell ref="AR95:AV95"/>
-    <mergeCell ref="AR96:AV96"/>
-    <mergeCell ref="AL97:AP97"/>
-    <mergeCell ref="BZ73:CD73"/>
-    <mergeCell ref="AL86:AP86"/>
-    <mergeCell ref="AL88:AP88"/>
-    <mergeCell ref="AR86:AV86"/>
-    <mergeCell ref="AR87:AV87"/>
-    <mergeCell ref="BT73:BX73"/>
-    <mergeCell ref="BZ75:CD75"/>
-    <mergeCell ref="BZ76:CD76"/>
-    <mergeCell ref="BT75:BX75"/>
-    <mergeCell ref="BT76:BX76"/>
-    <mergeCell ref="BZ78:CD78"/>
-    <mergeCell ref="BZ79:CD79"/>
-    <mergeCell ref="BT78:BX78"/>
-    <mergeCell ref="BT79:BX79"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AI6:AM6"/>
+    <mergeCell ref="AU6:AY6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BM6:BQ6"/>
+    <mergeCell ref="BS6:BW6"/>
+    <mergeCell ref="BY6:CC6"/>
+    <mergeCell ref="CE6:CI6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AI10:AM10"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AI8:AM8"/>
+    <mergeCell ref="AO8:AS8"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BG10:BK10"/>
+    <mergeCell ref="BM10:BQ10"/>
+    <mergeCell ref="BS10:BW10"/>
+    <mergeCell ref="BY10:CC10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="AU8:AY8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="BM8:BQ8"/>
+    <mergeCell ref="BS8:BW8"/>
+    <mergeCell ref="BY8:CC8"/>
+    <mergeCell ref="AO10:AS10"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AP19:AT19"/>
+    <mergeCell ref="AV19:AZ19"/>
+    <mergeCell ref="BB19:BF19"/>
+    <mergeCell ref="BN17:BR17"/>
+    <mergeCell ref="BT17:BX17"/>
+    <mergeCell ref="BZ17:CD17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BB17:BF17"/>
+    <mergeCell ref="BH17:BL17"/>
+    <mergeCell ref="AP17:AT17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="BC24:BG24"/>
+    <mergeCell ref="BI24:BM24"/>
+    <mergeCell ref="BO24:BS24"/>
+    <mergeCell ref="BU24:BY24"/>
+    <mergeCell ref="CA24:CE24"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AK26:AO26"/>
+    <mergeCell ref="AQ26:AU26"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="AJ35:AN35"/>
+    <mergeCell ref="AK24:AO24"/>
+    <mergeCell ref="AQ24:AU24"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="AP35:AT35"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="BH35:BL35"/>
+    <mergeCell ref="BH36:BL36"/>
+    <mergeCell ref="AV38:AZ38"/>
+    <mergeCell ref="AV39:AZ39"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="X46:AB46"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AV44:AZ44"/>
+    <mergeCell ref="BB44:BF44"/>
+    <mergeCell ref="BH44:BL44"/>
+    <mergeCell ref="BN44:BR44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="BV38:BZ38"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="BV37:BZ37"/>
+    <mergeCell ref="BV35:BZ35"/>
+    <mergeCell ref="AD73:AH73"/>
+    <mergeCell ref="BH48:BL48"/>
+    <mergeCell ref="BN48:BR48"/>
+    <mergeCell ref="BT48:BX48"/>
+    <mergeCell ref="BZ48:CD48"/>
+    <mergeCell ref="X48:AB48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="AJ48:AN48"/>
+    <mergeCell ref="AP48:AT48"/>
+    <mergeCell ref="AV48:AZ48"/>
+    <mergeCell ref="BB48:BF48"/>
+    <mergeCell ref="BN46:BR46"/>
+    <mergeCell ref="BT46:BX46"/>
+    <mergeCell ref="BZ46:CD46"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="AJ46:AN46"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="R75:V75"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="X56:AB56"/>
+    <mergeCell ref="X57:AB57"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="AX59:BB59"/>
+    <mergeCell ref="AX57:BB57"/>
+    <mergeCell ref="AX60:BB60"/>
+    <mergeCell ref="AR59:AV59"/>
+    <mergeCell ref="AR60:AV60"/>
+    <mergeCell ref="AX54:BB54"/>
+    <mergeCell ref="AR54:AV54"/>
+    <mergeCell ref="AR56:AV56"/>
+    <mergeCell ref="AR57:AV57"/>
+    <mergeCell ref="AX56:BB56"/>
+    <mergeCell ref="AJ54:AN54"/>
+    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="AV46:AZ46"/>
+    <mergeCell ref="BB46:BF46"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="AP39:AT39"/>
+    <mergeCell ref="AJ37:AN37"/>
+    <mergeCell ref="L64:P64"/>
+    <mergeCell ref="R65:V65"/>
+    <mergeCell ref="R66:V66"/>
+    <mergeCell ref="X63:AB63"/>
+    <mergeCell ref="X65:AB65"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="AV35:AZ35"/>
+    <mergeCell ref="AV36:AZ36"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="X44:AB44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="AJ44:AN44"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="R36:V36"/>
+    <mergeCell ref="X35:AB35"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="AJ39:AN39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="X39:AB39"/>
+    <mergeCell ref="X37:AB37"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="X54:AB54"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="CF44:CH44"/>
+    <mergeCell ref="CF45:CH45"/>
+    <mergeCell ref="BP35:BT35"/>
+    <mergeCell ref="L63:P63"/>
+    <mergeCell ref="BD54:BH54"/>
+    <mergeCell ref="BD56:BH56"/>
+    <mergeCell ref="BD57:BH57"/>
+    <mergeCell ref="CD35:CH35"/>
+    <mergeCell ref="BH46:BL46"/>
+    <mergeCell ref="BT44:BX44"/>
+    <mergeCell ref="BZ44:CD44"/>
+    <mergeCell ref="BH38:BL38"/>
+    <mergeCell ref="BH39:BL39"/>
+    <mergeCell ref="BB35:BF35"/>
+    <mergeCell ref="BB36:BF36"/>
+    <mergeCell ref="BB38:BF38"/>
+    <mergeCell ref="BB39:BF39"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="L74:P74"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="L80:P80"/>
+    <mergeCell ref="R76:V76"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="R72:V72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="R73:V73"/>
+    <mergeCell ref="R78:V78"/>
+    <mergeCell ref="R79:V79"/>
+    <mergeCell ref="AL68:AP68"/>
+    <mergeCell ref="AT67:AX67"/>
+    <mergeCell ref="AD77:AH77"/>
+    <mergeCell ref="AD78:AH78"/>
+    <mergeCell ref="X72:AB72"/>
+    <mergeCell ref="X73:AB73"/>
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="X75:AB75"/>
+    <mergeCell ref="X76:AB76"/>
+    <mergeCell ref="X77:AB77"/>
+    <mergeCell ref="X78:AB78"/>
+    <mergeCell ref="AD72:AH72"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="CD58:CH58"/>
+    <mergeCell ref="BX54:CB54"/>
+    <mergeCell ref="BX55:CB55"/>
+    <mergeCell ref="BX57:CB57"/>
+    <mergeCell ref="BX58:CB58"/>
+    <mergeCell ref="AL65:AP65"/>
+    <mergeCell ref="AT65:AX65"/>
+    <mergeCell ref="BL65:BP65"/>
+    <mergeCell ref="BR59:BV59"/>
+    <mergeCell ref="BL60:BP60"/>
+    <mergeCell ref="BR54:BV54"/>
+    <mergeCell ref="BR56:BV56"/>
+    <mergeCell ref="BR57:BV57"/>
+    <mergeCell ref="CD54:CH54"/>
+    <mergeCell ref="CD55:CH55"/>
+    <mergeCell ref="CD57:CH57"/>
+    <mergeCell ref="BL54:BP54"/>
+    <mergeCell ref="BL56:BP56"/>
+    <mergeCell ref="BL58:BP58"/>
+    <mergeCell ref="BZ65:CD65"/>
+    <mergeCell ref="BZ67:CD67"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="AR77:AV77"/>
+    <mergeCell ref="AR74:AV74"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AR76:AV76"/>
+    <mergeCell ref="AR73:AV73"/>
+    <mergeCell ref="BL67:BP67"/>
+    <mergeCell ref="BL68:BP68"/>
+    <mergeCell ref="BR65:BV65"/>
+    <mergeCell ref="BR67:BV67"/>
+    <mergeCell ref="AT68:AX68"/>
+    <mergeCell ref="AZ65:BD65"/>
+    <mergeCell ref="AZ67:BD67"/>
+    <mergeCell ref="AZ68:BD68"/>
+    <mergeCell ref="BF65:BJ65"/>
+    <mergeCell ref="BF67:BJ67"/>
+    <mergeCell ref="BF68:BJ68"/>
+    <mergeCell ref="AL67:AP67"/>
+    <mergeCell ref="AL69:AP69"/>
+    <mergeCell ref="AD86:AH86"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="R88:V88"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="BL75:BP75"/>
+    <mergeCell ref="BL76:BP76"/>
+    <mergeCell ref="BL78:BP78"/>
+    <mergeCell ref="BL79:BP79"/>
+    <mergeCell ref="BF75:BJ75"/>
+    <mergeCell ref="BF76:BJ76"/>
+    <mergeCell ref="BF79:BJ79"/>
+    <mergeCell ref="AZ78:BD78"/>
+    <mergeCell ref="BF78:BJ78"/>
+    <mergeCell ref="AZ75:BD75"/>
+    <mergeCell ref="AZ76:BD76"/>
+    <mergeCell ref="AZ79:BD79"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="L86:P86"/>
+    <mergeCell ref="R86:V86"/>
+    <mergeCell ref="X86:AB86"/>
     <mergeCell ref="F97:J97"/>
     <mergeCell ref="F98:J98"/>
     <mergeCell ref="AD89:AH89"/>
@@ -14596,326 +14945,117 @@
     <mergeCell ref="L92:P92"/>
     <mergeCell ref="L94:P94"/>
     <mergeCell ref="L95:P95"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="L86:P86"/>
-    <mergeCell ref="R86:V86"/>
-    <mergeCell ref="X86:AB86"/>
-    <mergeCell ref="AD86:AH86"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="R88:V88"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="BL75:BP75"/>
-    <mergeCell ref="BL76:BP76"/>
-    <mergeCell ref="BL78:BP78"/>
-    <mergeCell ref="BL79:BP79"/>
-    <mergeCell ref="BF75:BJ75"/>
-    <mergeCell ref="BF76:BJ76"/>
-    <mergeCell ref="BF79:BJ79"/>
-    <mergeCell ref="AZ78:BD78"/>
-    <mergeCell ref="BF78:BJ78"/>
+    <mergeCell ref="BZ68:CD68"/>
+    <mergeCell ref="BF92:BJ92"/>
+    <mergeCell ref="AL90:AP90"/>
+    <mergeCell ref="AL95:AP95"/>
+    <mergeCell ref="AR95:AV95"/>
+    <mergeCell ref="AR96:AV96"/>
+    <mergeCell ref="AL97:AP97"/>
+    <mergeCell ref="BZ73:CD73"/>
+    <mergeCell ref="AL86:AP86"/>
+    <mergeCell ref="AL88:AP88"/>
+    <mergeCell ref="AR86:AV86"/>
+    <mergeCell ref="AR87:AV87"/>
+    <mergeCell ref="BT73:BX73"/>
+    <mergeCell ref="BZ75:CD75"/>
+    <mergeCell ref="BZ76:CD76"/>
+    <mergeCell ref="BT75:BX75"/>
+    <mergeCell ref="BT76:BX76"/>
+    <mergeCell ref="BZ78:CD78"/>
+    <mergeCell ref="BZ79:CD79"/>
+    <mergeCell ref="BT78:BX78"/>
+    <mergeCell ref="BT79:BX79"/>
     <mergeCell ref="AZ73:BD73"/>
     <mergeCell ref="BF73:BJ73"/>
     <mergeCell ref="BL73:BP73"/>
-    <mergeCell ref="AZ75:BD75"/>
-    <mergeCell ref="AZ76:BD76"/>
-    <mergeCell ref="AZ79:BD79"/>
-    <mergeCell ref="BZ65:CD65"/>
-    <mergeCell ref="BZ67:CD67"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="AR77:AV77"/>
-    <mergeCell ref="AR74:AV74"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AR76:AV76"/>
-    <mergeCell ref="AR73:AV73"/>
-    <mergeCell ref="BL67:BP67"/>
-    <mergeCell ref="BL68:BP68"/>
-    <mergeCell ref="BR65:BV65"/>
-    <mergeCell ref="BR67:BV67"/>
-    <mergeCell ref="AT68:AX68"/>
-    <mergeCell ref="AZ65:BD65"/>
-    <mergeCell ref="AZ67:BD67"/>
-    <mergeCell ref="AZ68:BD68"/>
-    <mergeCell ref="BF65:BJ65"/>
-    <mergeCell ref="BF67:BJ67"/>
-    <mergeCell ref="BF68:BJ68"/>
-    <mergeCell ref="CD58:CH58"/>
-    <mergeCell ref="BX54:CB54"/>
-    <mergeCell ref="BX55:CB55"/>
-    <mergeCell ref="BX57:CB57"/>
-    <mergeCell ref="BX58:CB58"/>
-    <mergeCell ref="AL65:AP65"/>
-    <mergeCell ref="AT65:AX65"/>
-    <mergeCell ref="BL65:BP65"/>
-    <mergeCell ref="BR59:BV59"/>
-    <mergeCell ref="BL60:BP60"/>
-    <mergeCell ref="BR54:BV54"/>
-    <mergeCell ref="BR56:BV56"/>
-    <mergeCell ref="BR57:BV57"/>
-    <mergeCell ref="CD54:CH54"/>
-    <mergeCell ref="CD55:CH55"/>
-    <mergeCell ref="CD57:CH57"/>
-    <mergeCell ref="BL54:BP54"/>
-    <mergeCell ref="BL56:BP56"/>
-    <mergeCell ref="BL58:BP58"/>
-    <mergeCell ref="AL67:AP67"/>
-    <mergeCell ref="AL69:AP69"/>
-    <mergeCell ref="AL68:AP68"/>
-    <mergeCell ref="AT67:AX67"/>
-    <mergeCell ref="AD77:AH77"/>
-    <mergeCell ref="AD78:AH78"/>
-    <mergeCell ref="X72:AB72"/>
-    <mergeCell ref="X73:AB73"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="X75:AB75"/>
-    <mergeCell ref="X76:AB76"/>
-    <mergeCell ref="X77:AB77"/>
-    <mergeCell ref="X78:AB78"/>
-    <mergeCell ref="L81:P81"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="L78:P78"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="L74:P74"/>
-    <mergeCell ref="L76:P76"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="L80:P80"/>
-    <mergeCell ref="R76:V76"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="R72:V72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="R73:V73"/>
-    <mergeCell ref="R78:V78"/>
-    <mergeCell ref="R79:V79"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="X54:AB54"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="CF44:CH44"/>
-    <mergeCell ref="CF45:CH45"/>
-    <mergeCell ref="BP35:BT35"/>
-    <mergeCell ref="L63:P63"/>
-    <mergeCell ref="L64:P64"/>
-    <mergeCell ref="R65:V65"/>
-    <mergeCell ref="R66:V66"/>
-    <mergeCell ref="X63:AB63"/>
-    <mergeCell ref="X65:AB65"/>
-    <mergeCell ref="X66:AB66"/>
-    <mergeCell ref="AV35:AZ35"/>
-    <mergeCell ref="AV36:AZ36"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="X44:AB44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="AJ44:AN44"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="R36:V36"/>
-    <mergeCell ref="X35:AB35"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="AX59:BB59"/>
-    <mergeCell ref="AX57:BB57"/>
-    <mergeCell ref="AX60:BB60"/>
-    <mergeCell ref="AR59:AV59"/>
-    <mergeCell ref="AR60:AV60"/>
-    <mergeCell ref="AX54:BB54"/>
-    <mergeCell ref="BD54:BH54"/>
-    <mergeCell ref="AR54:AV54"/>
-    <mergeCell ref="BD56:BH56"/>
-    <mergeCell ref="AR56:AV56"/>
-    <mergeCell ref="BD57:BH57"/>
-    <mergeCell ref="AR57:AV57"/>
-    <mergeCell ref="AX56:BB56"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="L67:P67"/>
-    <mergeCell ref="R63:V63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="R75:V75"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="X56:AB56"/>
-    <mergeCell ref="X57:AB57"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="AJ54:AN54"/>
-    <mergeCell ref="AJ55:AN55"/>
-    <mergeCell ref="CD35:CH35"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="BV38:BZ38"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="BV37:BZ37"/>
-    <mergeCell ref="BV35:BZ35"/>
-    <mergeCell ref="AD73:AH73"/>
-    <mergeCell ref="BH48:BL48"/>
-    <mergeCell ref="BN48:BR48"/>
-    <mergeCell ref="BT48:BX48"/>
-    <mergeCell ref="BZ48:CD48"/>
-    <mergeCell ref="X48:AB48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="AJ48:AN48"/>
-    <mergeCell ref="AP48:AT48"/>
-    <mergeCell ref="AV48:AZ48"/>
-    <mergeCell ref="BB48:BF48"/>
-    <mergeCell ref="BN46:BR46"/>
-    <mergeCell ref="BT46:BX46"/>
-    <mergeCell ref="BZ46:CD46"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="AJ46:AN46"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="AV46:AZ46"/>
-    <mergeCell ref="BB46:BF46"/>
-    <mergeCell ref="BH46:BL46"/>
-    <mergeCell ref="BT44:BX44"/>
-    <mergeCell ref="BZ44:CD44"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="X46:AB46"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AV44:AZ44"/>
-    <mergeCell ref="BB44:BF44"/>
-    <mergeCell ref="BH44:BL44"/>
-    <mergeCell ref="BN44:BR44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="AP39:AT39"/>
-    <mergeCell ref="AJ37:AN37"/>
-    <mergeCell ref="AJ39:AN39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="BH38:BL38"/>
-    <mergeCell ref="BH39:BL39"/>
-    <mergeCell ref="X39:AB39"/>
-    <mergeCell ref="X37:AB37"/>
-    <mergeCell ref="BB35:BF35"/>
-    <mergeCell ref="BB36:BF36"/>
-    <mergeCell ref="BB38:BF38"/>
-    <mergeCell ref="BB39:BF39"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="AP35:AT35"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="BH35:BL35"/>
-    <mergeCell ref="BH36:BL36"/>
-    <mergeCell ref="AV38:AZ38"/>
-    <mergeCell ref="AV39:AZ39"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AK26:AO26"/>
-    <mergeCell ref="AQ26:AU26"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="AJ35:AN35"/>
-    <mergeCell ref="AK24:AO24"/>
-    <mergeCell ref="AQ24:AU24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="BC24:BG24"/>
-    <mergeCell ref="BI24:BM24"/>
-    <mergeCell ref="BO24:BS24"/>
-    <mergeCell ref="BU24:BY24"/>
-    <mergeCell ref="CA24:CE24"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AP19:AT19"/>
-    <mergeCell ref="AV19:AZ19"/>
-    <mergeCell ref="BB19:BF19"/>
-    <mergeCell ref="BN17:BR17"/>
-    <mergeCell ref="BT17:BX17"/>
-    <mergeCell ref="BZ17:CD17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BB17:BF17"/>
-    <mergeCell ref="BH17:BL17"/>
-    <mergeCell ref="AP17:AT17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="AU10:AY10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BG10:BK10"/>
-    <mergeCell ref="BM10:BQ10"/>
-    <mergeCell ref="BS10:BW10"/>
-    <mergeCell ref="BY10:CC10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="AU8:AY8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="BM8:BQ8"/>
-    <mergeCell ref="BS8:BW8"/>
-    <mergeCell ref="BY8:CC8"/>
-    <mergeCell ref="AO10:AS10"/>
-    <mergeCell ref="AU6:AY6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BM6:BQ6"/>
-    <mergeCell ref="BS6:BW6"/>
-    <mergeCell ref="BY6:CC6"/>
-    <mergeCell ref="CE6:CI6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AI10:AM10"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AI8:AM8"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AI6:AM6"/>
+    <mergeCell ref="AL99:AP99"/>
+    <mergeCell ref="AR98:AV98"/>
+    <mergeCell ref="AR99:AV99"/>
+    <mergeCell ref="AZ86:BD86"/>
+    <mergeCell ref="AZ88:BD88"/>
+    <mergeCell ref="AZ90:BD90"/>
+    <mergeCell ref="AZ92:BD92"/>
+    <mergeCell ref="AZ93:BD93"/>
+    <mergeCell ref="AZ95:BD95"/>
+    <mergeCell ref="AZ96:BD96"/>
+    <mergeCell ref="BL93:BP93"/>
+    <mergeCell ref="BL95:BP95"/>
+    <mergeCell ref="AZ98:BD98"/>
+    <mergeCell ref="AZ99:BD99"/>
+    <mergeCell ref="BF86:BJ86"/>
+    <mergeCell ref="BF87:BJ87"/>
+    <mergeCell ref="BF89:BJ89"/>
+    <mergeCell ref="BF90:BJ90"/>
+    <mergeCell ref="BF93:BJ93"/>
+    <mergeCell ref="BF95:BJ95"/>
+    <mergeCell ref="BF96:BJ96"/>
+    <mergeCell ref="BF98:BJ98"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="T104:X104"/>
+    <mergeCell ref="Z104:AD104"/>
+    <mergeCell ref="T108:X108"/>
+    <mergeCell ref="Z106:AD106"/>
+    <mergeCell ref="T109:X109"/>
+    <mergeCell ref="Z107:AD107"/>
+    <mergeCell ref="T111:X111"/>
+    <mergeCell ref="Z109:AD109"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="L109:P109"/>
+    <mergeCell ref="L110:P110"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="L112:P112"/>
+    <mergeCell ref="L113:P113"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="L104:P104"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="L106:P106"/>
+    <mergeCell ref="L107:P107"/>
+    <mergeCell ref="T106:X106"/>
+    <mergeCell ref="T114:X114"/>
+    <mergeCell ref="T115:X115"/>
+    <mergeCell ref="Z112:AD112"/>
+    <mergeCell ref="Z113:AD113"/>
+    <mergeCell ref="AH104:AL104"/>
+    <mergeCell ref="T112:X112"/>
+    <mergeCell ref="Z110:AD110"/>
+    <mergeCell ref="F115:J115"/>
+    <mergeCell ref="AH110:AL110"/>
+    <mergeCell ref="AH111:AL111"/>
+    <mergeCell ref="AN107:AR107"/>
+    <mergeCell ref="AV110:AZ110"/>
+    <mergeCell ref="BB106:BF106"/>
+    <mergeCell ref="BB108:BF108"/>
+    <mergeCell ref="BB110:BF110"/>
+    <mergeCell ref="AH108:AL108"/>
+    <mergeCell ref="AH106:AL106"/>
+    <mergeCell ref="BP37:BT37"/>
+    <mergeCell ref="BP38:BT38"/>
+    <mergeCell ref="AN108:AR108"/>
+    <mergeCell ref="BZ69:CD69"/>
+    <mergeCell ref="AV104:AZ104"/>
+    <mergeCell ref="AV106:AZ106"/>
+    <mergeCell ref="AV108:AZ108"/>
+    <mergeCell ref="BB104:BF104"/>
+    <mergeCell ref="BI106:BM106"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AN105:AR105"/>
+    <mergeCell ref="BL96:BP96"/>
+    <mergeCell ref="BT86:BX86"/>
+    <mergeCell ref="BZ86:CD86"/>
+    <mergeCell ref="BT88:BX88"/>
+    <mergeCell ref="BZ88:CD88"/>
+    <mergeCell ref="BT89:BX89"/>
+    <mergeCell ref="BZ89:CD89"/>
+    <mergeCell ref="BF99:BJ99"/>
+    <mergeCell ref="BL86:BP86"/>
+    <mergeCell ref="BL87:BP87"/>
+    <mergeCell ref="BL89:BP89"/>
+    <mergeCell ref="BL90:BP90"/>
+    <mergeCell ref="BL92:BP92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14923,16 +15063,1726 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:AX84"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:50" s="52" customFormat="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+    </row>
+    <row r="3" spans="1:50" ht="14.25" thickBot="1"/>
+    <row r="4" spans="1:50">
+      <c r="D4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="2"/>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="5"/>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="5"/>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="5"/>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="5"/>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="5"/>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="5"/>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="5"/>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="5"/>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="5"/>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="5"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="5"/>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="5"/>
+    </row>
+    <row r="17" spans="4:44">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="5"/>
+    </row>
+    <row r="18" spans="4:44">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="5"/>
+    </row>
+    <row r="19" spans="4:44">
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="5"/>
+    </row>
+    <row r="20" spans="4:44">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="5"/>
+    </row>
+    <row r="21" spans="4:44">
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="5"/>
+    </row>
+    <row r="22" spans="4:44">
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="5"/>
+    </row>
+    <row r="23" spans="4:44">
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="5"/>
+    </row>
+    <row r="24" spans="4:44">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="5"/>
+    </row>
+    <row r="25" spans="4:44">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="5"/>
+    </row>
+    <row r="26" spans="4:44">
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="5"/>
+    </row>
+    <row r="27" spans="4:44">
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="5"/>
+    </row>
+    <row r="28" spans="4:44">
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="5"/>
+    </row>
+    <row r="29" spans="4:44">
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="5"/>
+    </row>
+    <row r="30" spans="4:44">
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="5"/>
+    </row>
+    <row r="31" spans="4:44">
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="5"/>
+    </row>
+    <row r="32" spans="4:44" ht="14.25" thickBot="1">
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="8"/>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="C36" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="C37" s="53" t="s">
+        <v>483</v>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+    </row>
+    <row r="38" spans="1:50">
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+    </row>
+    <row r="39" spans="1:50">
+      <c r="C39" s="53" t="s">
+        <v>484</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+    </row>
+    <row r="40" spans="1:50">
+      <c r="C40" s="53" t="s">
+        <v>485</v>
+      </c>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+    </row>
+    <row r="42" spans="1:50">
+      <c r="C42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50">
+      <c r="C44" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50">
+      <c r="C45" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50">
+      <c r="C46" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50">
+      <c r="C47" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50">
+      <c r="C48" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50">
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="51"/>
+      <c r="U84" s="51"/>
+      <c r="V84" s="51"/>
+      <c r="W84" s="51"/>
+      <c r="X84" s="51"/>
+      <c r="Y84" s="51"/>
+      <c r="Z84" s="51"/>
+      <c r="AA84" s="51"/>
+      <c r="AB84" s="51"/>
+      <c r="AC84" s="51"/>
+      <c r="AD84" s="51"/>
+      <c r="AE84" s="51"/>
+      <c r="AF84" s="51"/>
+      <c r="AG84" s="51"/>
+      <c r="AH84" s="51"/>
+      <c r="AI84" s="51"/>
+      <c r="AJ84" s="51"/>
+      <c r="AK84" s="51"/>
+      <c r="AL84" s="51"/>
+      <c r="AM84" s="51"/>
+      <c r="AN84" s="51"/>
+      <c r="AO84" s="51"/>
+      <c r="AP84" s="51"/>
+      <c r="AQ84" s="51"/>
+      <c r="AR84" s="51"/>
+      <c r="AS84" s="51"/>
+      <c r="AT84" s="51"/>
+      <c r="AU84" s="51"/>
+      <c r="AV84" s="51"/>
+      <c r="AW84" s="51"/>
+      <c r="AX84" s="51"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/font/freetype2.xlsx
+++ b/font/freetype2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="编译系统" sheetId="2" r:id="rId1"/>
@@ -2555,46 +2555,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2615,22 +2594,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2642,23 +2645,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2971,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:CK131"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AP50" sqref="AP50"/>
     </sheetView>
   </sheetViews>
@@ -3341,117 +3341,117 @@
     <row r="6" spans="3:89">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="50" t="s">
+      <c r="Q6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="50" t="s">
+      <c r="W6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="50" t="s">
+      <c r="AC6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="50" t="s">
+      <c r="AI6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="50" t="s">
+      <c r="AO6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
       <c r="AT6" s="11"/>
-      <c r="AU6" s="50" t="s">
+      <c r="AU6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="50"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
       <c r="AZ6" s="4"/>
-      <c r="BA6" s="50" t="s">
+      <c r="BA6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="BB6" s="50"/>
-      <c r="BC6" s="50"/>
-      <c r="BD6" s="50"/>
-      <c r="BE6" s="50"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
       <c r="BF6" s="4"/>
-      <c r="BG6" s="50" t="s">
+      <c r="BG6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BH6" s="50"/>
-      <c r="BI6" s="50"/>
-      <c r="BJ6" s="50"/>
-      <c r="BK6" s="50"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
       <c r="BL6" s="4"/>
-      <c r="BM6" s="50" t="s">
+      <c r="BM6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="50"/>
-      <c r="BO6" s="50"/>
-      <c r="BP6" s="50"/>
-      <c r="BQ6" s="50"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
       <c r="BR6" s="4"/>
-      <c r="BS6" s="50" t="s">
+      <c r="BS6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BT6" s="50"/>
-      <c r="BU6" s="50"/>
-      <c r="BV6" s="50"/>
-      <c r="BW6" s="50"/>
+      <c r="BT6" s="22"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="22"/>
       <c r="BX6" s="4"/>
-      <c r="BY6" s="50" t="s">
+      <c r="BY6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BZ6" s="50"/>
-      <c r="CA6" s="50"/>
-      <c r="CB6" s="50"/>
-      <c r="CC6" s="50"/>
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="22"/>
+      <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
       <c r="CD6" s="4"/>
-      <c r="CE6" s="50" t="s">
+      <c r="CE6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="CF6" s="50"/>
-      <c r="CG6" s="50"/>
-      <c r="CH6" s="50"/>
-      <c r="CI6" s="50"/>
+      <c r="CF6" s="22"/>
+      <c r="CG6" s="22"/>
+      <c r="CH6" s="22"/>
+      <c r="CI6" s="22"/>
       <c r="CJ6" s="5"/>
       <c r="CK6" s="5"/>
     </row>
@@ -3547,117 +3547,117 @@
     <row r="8" spans="3:89">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="50" t="s">
+      <c r="Q8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="50" t="s">
+      <c r="W8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="50" t="s">
+      <c r="AC8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="50" t="s">
+      <c r="AI8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="50" t="s">
+      <c r="AO8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
       <c r="AT8" s="11"/>
-      <c r="AU8" s="50" t="s">
+      <c r="AU8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="50"/>
-      <c r="AY8" s="50"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
       <c r="AZ8" s="4"/>
-      <c r="BA8" s="50" t="s">
+      <c r="BA8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="50"/>
-      <c r="BE8" s="50"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
       <c r="BF8" s="4"/>
-      <c r="BG8" s="50" t="s">
+      <c r="BG8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="BH8" s="50"/>
-      <c r="BI8" s="50"/>
-      <c r="BJ8" s="50"/>
-      <c r="BK8" s="50"/>
+      <c r="BH8" s="22"/>
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="22"/>
+      <c r="BK8" s="22"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="50" t="s">
+      <c r="BM8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="BN8" s="50"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="50"/>
-      <c r="BQ8" s="50"/>
+      <c r="BN8" s="22"/>
+      <c r="BO8" s="22"/>
+      <c r="BP8" s="22"/>
+      <c r="BQ8" s="22"/>
       <c r="BR8" s="4"/>
-      <c r="BS8" s="50" t="s">
+      <c r="BS8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="BT8" s="50"/>
-      <c r="BU8" s="50"/>
-      <c r="BV8" s="50"/>
-      <c r="BW8" s="50"/>
+      <c r="BT8" s="22"/>
+      <c r="BU8" s="22"/>
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="22"/>
       <c r="BX8" s="4"/>
-      <c r="BY8" s="50" t="s">
+      <c r="BY8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="BZ8" s="50"/>
-      <c r="CA8" s="50"/>
-      <c r="CB8" s="50"/>
-      <c r="CC8" s="50"/>
+      <c r="BZ8" s="22"/>
+      <c r="CA8" s="22"/>
+      <c r="CB8" s="22"/>
+      <c r="CC8" s="22"/>
       <c r="CD8" s="4"/>
-      <c r="CE8" s="50" t="s">
+      <c r="CE8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="CF8" s="50"/>
-      <c r="CG8" s="50"/>
-      <c r="CH8" s="50"/>
-      <c r="CI8" s="50"/>
+      <c r="CF8" s="22"/>
+      <c r="CG8" s="22"/>
+      <c r="CH8" s="22"/>
+      <c r="CI8" s="22"/>
       <c r="CJ8" s="5"/>
       <c r="CK8" s="5"/>
     </row>
@@ -3753,117 +3753,117 @@
     <row r="10" spans="3:89">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="50" t="s">
+      <c r="Q10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="50" t="s">
+      <c r="W10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="50" t="s">
+      <c r="AC10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="50" t="s">
+      <c r="AI10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="50" t="s">
+      <c r="AO10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
       <c r="AT10" s="11"/>
-      <c r="AU10" s="50" t="s">
+      <c r="AU10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
       <c r="AZ10" s="4"/>
-      <c r="BA10" s="50" t="s">
+      <c r="BA10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
       <c r="BF10" s="4"/>
-      <c r="BG10" s="50" t="s">
+      <c r="BG10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="50"/>
-      <c r="BK10" s="50"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
       <c r="BL10" s="4"/>
-      <c r="BM10" s="50" t="s">
+      <c r="BM10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
-      <c r="BQ10" s="50"/>
+      <c r="BN10" s="22"/>
+      <c r="BO10" s="22"/>
+      <c r="BP10" s="22"/>
+      <c r="BQ10" s="22"/>
       <c r="BR10" s="4"/>
-      <c r="BS10" s="50" t="s">
+      <c r="BS10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="BT10" s="50"/>
-      <c r="BU10" s="50"/>
-      <c r="BV10" s="50"/>
-      <c r="BW10" s="50"/>
+      <c r="BT10" s="22"/>
+      <c r="BU10" s="22"/>
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
       <c r="BX10" s="4"/>
-      <c r="BY10" s="50" t="s">
+      <c r="BY10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BZ10" s="50"/>
-      <c r="CA10" s="50"/>
-      <c r="CB10" s="50"/>
-      <c r="CC10" s="50"/>
+      <c r="BZ10" s="22"/>
+      <c r="CA10" s="22"/>
+      <c r="CB10" s="22"/>
+      <c r="CC10" s="22"/>
       <c r="CD10" s="4"/>
-      <c r="CE10" s="50" t="s">
+      <c r="CE10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="CF10" s="50"/>
-      <c r="CG10" s="50"/>
-      <c r="CH10" s="50"/>
-      <c r="CI10" s="50"/>
+      <c r="CF10" s="22"/>
+      <c r="CG10" s="22"/>
+      <c r="CH10" s="22"/>
+      <c r="CI10" s="22"/>
       <c r="CJ10" s="5"/>
       <c r="CK10" s="5"/>
     </row>
@@ -3959,21 +3959,21 @@
     <row r="12" spans="3:89">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="AT12" s="11"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
@@ -4308,100 +4308,100 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="49"/>
-      <c r="R17" s="48" t="s">
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
+      <c r="R17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="49"/>
-      <c r="X17" s="48" t="s">
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="25"/>
+      <c r="X17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="49"/>
-      <c r="AD17" s="48" t="s">
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25"/>
+      <c r="AD17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="49"/>
-      <c r="AJ17" s="48" t="s">
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="25"/>
+      <c r="AJ17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="49"/>
-      <c r="AP17" s="48" t="s">
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="25"/>
+      <c r="AP17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="49"/>
-      <c r="AV17" s="50" t="s">
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="25"/>
+      <c r="AV17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
-      <c r="AZ17" s="50"/>
-      <c r="BB17" s="50" t="s">
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BB17" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="BC17" s="50"/>
-      <c r="BD17" s="50"/>
-      <c r="BE17" s="50"/>
-      <c r="BF17" s="50"/>
+      <c r="BC17" s="22"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
       <c r="BG17" s="4"/>
-      <c r="BH17" s="50" t="s">
+      <c r="BH17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="50"/>
-      <c r="BK17" s="50"/>
-      <c r="BL17" s="50"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
+      <c r="BL17" s="22"/>
       <c r="BM17" s="4"/>
-      <c r="BN17" s="50" t="s">
+      <c r="BN17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="BO17" s="50"/>
-      <c r="BP17" s="50"/>
-      <c r="BQ17" s="50"/>
-      <c r="BR17" s="50"/>
-      <c r="BT17" s="50" t="s">
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="22"/>
+      <c r="BQ17" s="22"/>
+      <c r="BR17" s="22"/>
+      <c r="BT17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="BU17" s="50"/>
-      <c r="BV17" s="50"/>
-      <c r="BW17" s="50"/>
-      <c r="BX17" s="50"/>
-      <c r="BZ17" s="50" t="s">
+      <c r="BU17" s="22"/>
+      <c r="BV17" s="22"/>
+      <c r="BW17" s="22"/>
+      <c r="BX17" s="22"/>
+      <c r="BZ17" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="CA17" s="50"/>
-      <c r="CB17" s="50"/>
-      <c r="CC17" s="50"/>
-      <c r="CD17" s="50"/>
+      <c r="CA17" s="22"/>
+      <c r="CB17" s="22"/>
+      <c r="CC17" s="22"/>
+      <c r="CD17" s="22"/>
       <c r="CG17" s="4"/>
       <c r="CH17" s="4"/>
       <c r="CI17" s="5"/>
@@ -4501,70 +4501,70 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="50" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="R19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="X19" s="50" t="s">
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="X19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AD19" s="50" t="s">
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AD19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AJ19" s="50" t="s">
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AJ19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AP19" s="50" t="s">
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AP19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AV19" s="50" t="s">
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AV19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="50"/>
-      <c r="BB19" s="50" t="s">
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BB19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
+      <c r="BC19" s="22"/>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="22"/>
+      <c r="BF19" s="22"/>
       <c r="BG19" s="4"/>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4"/>
@@ -4911,102 +4911,102 @@
       <c r="D24" s="3"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="48" t="s">
+      <c r="M24" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="49"/>
-      <c r="S24" s="48" t="s">
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="25"/>
+      <c r="S24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="49"/>
-      <c r="Y24" s="50" t="s">
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="Y24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
       <c r="AD24" s="11"/>
-      <c r="AE24" s="50" t="s">
+      <c r="AE24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
       <c r="AJ24" s="4"/>
-      <c r="AK24" s="50" t="s">
+      <c r="AK24" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AQ24" s="50" t="s">
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AQ24" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
-      <c r="AW24" s="50" t="s">
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AW24" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="50"/>
-      <c r="BA24" s="50"/>
-      <c r="BC24" s="50" t="s">
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BC24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="BD24" s="50"/>
-      <c r="BE24" s="50"/>
-      <c r="BF24" s="50"/>
-      <c r="BG24" s="50"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="22"/>
       <c r="BH24" s="11"/>
-      <c r="BI24" s="50" t="s">
+      <c r="BI24" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="BJ24" s="50"/>
-      <c r="BK24" s="50"/>
-      <c r="BL24" s="50"/>
-      <c r="BM24" s="50"/>
+      <c r="BJ24" s="22"/>
+      <c r="BK24" s="22"/>
+      <c r="BL24" s="22"/>
+      <c r="BM24" s="22"/>
       <c r="BN24" s="11"/>
-      <c r="BO24" s="50" t="s">
+      <c r="BO24" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="BP24" s="50"/>
-      <c r="BQ24" s="50"/>
-      <c r="BR24" s="50"/>
-      <c r="BS24" s="50"/>
-      <c r="BU24" s="50" t="s">
+      <c r="BP24" s="22"/>
+      <c r="BQ24" s="22"/>
+      <c r="BR24" s="22"/>
+      <c r="BS24" s="22"/>
+      <c r="BU24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="BV24" s="50"/>
-      <c r="BW24" s="50"/>
-      <c r="BX24" s="50"/>
-      <c r="BY24" s="50"/>
-      <c r="CA24" s="50" t="s">
+      <c r="BV24" s="22"/>
+      <c r="BW24" s="22"/>
+      <c r="BX24" s="22"/>
+      <c r="BY24" s="22"/>
+      <c r="CA24" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="CB24" s="50"/>
-      <c r="CC24" s="50"/>
-      <c r="CD24" s="50"/>
-      <c r="CE24" s="50"/>
+      <c r="CB24" s="22"/>
+      <c r="CC24" s="22"/>
+      <c r="CD24" s="22"/>
+      <c r="CE24" s="22"/>
       <c r="CF24" s="4"/>
       <c r="CG24" s="4"/>
       <c r="CH24" s="5"/>
@@ -5108,58 +5108,58 @@
       <c r="D26" s="3"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="S26" s="50" t="s">
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="S26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="Y26" s="50" t="s">
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="Y26" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="50" t="s">
+      <c r="AE26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="50" t="s">
+      <c r="AK26" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="50"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AQ26" s="50" t="s">
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AQ26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AR26" s="50"/>
-      <c r="AS26" s="50"/>
-      <c r="AT26" s="50"/>
-      <c r="AU26" s="50"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
@@ -5905,104 +5905,104 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="R35" s="19" t="s">
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="37"/>
+      <c r="R35" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="21"/>
-      <c r="X35" s="36" t="s">
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="37"/>
+      <c r="X35" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="38"/>
-      <c r="AD35" s="19" t="s">
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="31"/>
+      <c r="AD35" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="21"/>
-      <c r="AJ35" s="36" t="s">
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="37"/>
+      <c r="AJ35" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="38"/>
-      <c r="AP35" s="19" t="s">
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="30"/>
+      <c r="AM35" s="30"/>
+      <c r="AN35" s="31"/>
+      <c r="AP35" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
-      <c r="AT35" s="21"/>
-      <c r="AV35" s="19" t="s">
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="37"/>
+      <c r="AV35" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AW35" s="20"/>
-      <c r="AX35" s="20"/>
-      <c r="AY35" s="20"/>
-      <c r="AZ35" s="21"/>
-      <c r="BB35" s="33" t="s">
+      <c r="AW35" s="36"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="37"/>
+      <c r="BB35" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="BC35" s="34"/>
-      <c r="BD35" s="34"/>
-      <c r="BE35" s="34"/>
-      <c r="BF35" s="35"/>
-      <c r="BH35" s="33" t="s">
+      <c r="BC35" s="27"/>
+      <c r="BD35" s="27"/>
+      <c r="BE35" s="27"/>
+      <c r="BF35" s="28"/>
+      <c r="BH35" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="BI35" s="34"/>
-      <c r="BJ35" s="34"/>
-      <c r="BK35" s="34"/>
-      <c r="BL35" s="35"/>
+      <c r="BI35" s="27"/>
+      <c r="BJ35" s="27"/>
+      <c r="BK35" s="27"/>
+      <c r="BL35" s="28"/>
       <c r="BM35" s="4"/>
       <c r="BN35" s="3"/>
       <c r="BO35" s="3"/>
-      <c r="BP35" s="36" t="s">
+      <c r="BP35" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="BQ35" s="37"/>
-      <c r="BR35" s="37"/>
-      <c r="BS35" s="37"/>
-      <c r="BT35" s="38"/>
-      <c r="BV35" s="36" t="s">
+      <c r="BQ35" s="30"/>
+      <c r="BR35" s="30"/>
+      <c r="BS35" s="30"/>
+      <c r="BT35" s="31"/>
+      <c r="BV35" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="BW35" s="37"/>
-      <c r="BX35" s="37"/>
-      <c r="BY35" s="37"/>
-      <c r="BZ35" s="38"/>
+      <c r="BW35" s="30"/>
+      <c r="BX35" s="30"/>
+      <c r="BY35" s="30"/>
+      <c r="BZ35" s="31"/>
       <c r="CA35" s="5"/>
       <c r="CB35" s="3"/>
       <c r="CC35" s="3"/>
-      <c r="CD35" s="26" t="s">
+      <c r="CD35" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="CE35" s="27"/>
-      <c r="CF35" s="27"/>
-      <c r="CG35" s="27"/>
-      <c r="CH35" s="28"/>
+      <c r="CE35" s="42"/>
+      <c r="CF35" s="42"/>
+      <c r="CG35" s="42"/>
+      <c r="CH35" s="43"/>
       <c r="CI35" s="5"/>
       <c r="CJ35" s="5"/>
       <c r="CK35" s="5"/>
@@ -6011,71 +6011,71 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="40" t="s">
+      <c r="L36" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="42"/>
-      <c r="R36" s="22" t="s">
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="45"/>
+      <c r="R36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="24"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="40"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
       <c r="AC36" s="17"/>
-      <c r="AD36" s="22" t="s">
+      <c r="AD36" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="24"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="40"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
-      <c r="AP36" s="22" t="s">
+      <c r="AP36" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
-      <c r="AT36" s="24"/>
-      <c r="AV36" s="22" t="s">
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="39"/>
+      <c r="AS36" s="39"/>
+      <c r="AT36" s="40"/>
+      <c r="AV36" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="AW36" s="23"/>
-      <c r="AX36" s="23"/>
-      <c r="AY36" s="23"/>
-      <c r="AZ36" s="24"/>
-      <c r="BB36" s="30" t="s">
+      <c r="AW36" s="39"/>
+      <c r="AX36" s="39"/>
+      <c r="AY36" s="39"/>
+      <c r="AZ36" s="40"/>
+      <c r="BB36" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="BC36" s="31"/>
-      <c r="BD36" s="31"/>
-      <c r="BE36" s="31"/>
-      <c r="BF36" s="32"/>
-      <c r="BH36" s="30" t="s">
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="34"/>
+      <c r="BH36" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="BI36" s="31"/>
-      <c r="BJ36" s="31"/>
-      <c r="BK36" s="31"/>
-      <c r="BL36" s="32"/>
+      <c r="BI36" s="33"/>
+      <c r="BJ36" s="33"/>
+      <c r="BK36" s="33"/>
+      <c r="BL36" s="34"/>
       <c r="BM36" s="4"/>
       <c r="BN36" s="3"/>
       <c r="BO36" s="3"/>
@@ -6112,26 +6112,26 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="40" t="s">
+      <c r="L37" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="42"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="45"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="26" t="s">
+      <c r="X37" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="28"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="43"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
@@ -6139,13 +6139,13 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
-      <c r="AJ37" s="26" t="s">
+      <c r="AJ37" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="27"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="28"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="42"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="43"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
@@ -6173,21 +6173,21 @@
       <c r="BM37" s="4"/>
       <c r="BN37" s="3"/>
       <c r="BO37" s="3"/>
-      <c r="BP37" s="19" t="s">
+      <c r="BP37" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="BQ37" s="20"/>
-      <c r="BR37" s="20"/>
-      <c r="BS37" s="20"/>
-      <c r="BT37" s="21"/>
+      <c r="BQ37" s="36"/>
+      <c r="BR37" s="36"/>
+      <c r="BS37" s="36"/>
+      <c r="BT37" s="37"/>
       <c r="BU37" s="4"/>
-      <c r="BV37" s="19" t="s">
+      <c r="BV37" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="BW37" s="20"/>
-      <c r="BX37" s="20"/>
-      <c r="BY37" s="20"/>
-      <c r="BZ37" s="21"/>
+      <c r="BW37" s="36"/>
+      <c r="BX37" s="36"/>
+      <c r="BY37" s="36"/>
+      <c r="BZ37" s="37"/>
       <c r="CA37" s="5"/>
       <c r="CB37" s="3"/>
       <c r="CC37" s="6"/>
@@ -6204,84 +6204,84 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="42"/>
-      <c r="R38" s="26" t="s">
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="45"/>
+      <c r="R38" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="28"/>
-      <c r="AD38" s="19" t="s">
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="43"/>
+      <c r="AD38" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="21"/>
-      <c r="AP38" s="33" t="s">
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="37"/>
+      <c r="AP38" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="AQ38" s="34"/>
-      <c r="AR38" s="34"/>
-      <c r="AS38" s="34"/>
-      <c r="AT38" s="35"/>
+      <c r="AQ38" s="27"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="27"/>
+      <c r="AT38" s="28"/>
       <c r="AU38" s="4"/>
-      <c r="AV38" s="33" t="s">
+      <c r="AV38" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AW38" s="34"/>
-      <c r="AX38" s="34"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="35"/>
+      <c r="AW38" s="27"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="28"/>
       <c r="BA38" s="4"/>
-      <c r="BB38" s="33" t="s">
+      <c r="BB38" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="BC38" s="34"/>
-      <c r="BD38" s="34"/>
-      <c r="BE38" s="34"/>
-      <c r="BF38" s="35"/>
+      <c r="BC38" s="27"/>
+      <c r="BD38" s="27"/>
+      <c r="BE38" s="27"/>
+      <c r="BF38" s="28"/>
       <c r="BG38" s="4"/>
-      <c r="BH38" s="33" t="s">
+      <c r="BH38" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="BI38" s="34"/>
-      <c r="BJ38" s="34"/>
-      <c r="BK38" s="34"/>
-      <c r="BL38" s="35"/>
+      <c r="BI38" s="27"/>
+      <c r="BJ38" s="27"/>
+      <c r="BK38" s="27"/>
+      <c r="BL38" s="28"/>
       <c r="BM38" s="4"/>
       <c r="BN38" s="3"/>
       <c r="BO38" s="3"/>
-      <c r="BP38" s="22" t="s">
+      <c r="BP38" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="BQ38" s="23"/>
-      <c r="BR38" s="23"/>
-      <c r="BS38" s="23"/>
-      <c r="BT38" s="24"/>
+      <c r="BQ38" s="39"/>
+      <c r="BR38" s="39"/>
+      <c r="BS38" s="39"/>
+      <c r="BT38" s="40"/>
       <c r="BU38" s="4"/>
-      <c r="BV38" s="22" t="s">
+      <c r="BV38" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="BW38" s="23"/>
-      <c r="BX38" s="23"/>
-      <c r="BY38" s="23"/>
-      <c r="BZ38" s="24"/>
+      <c r="BW38" s="39"/>
+      <c r="BX38" s="39"/>
+      <c r="BY38" s="39"/>
+      <c r="BZ38" s="40"/>
       <c r="CA38" s="5"/>
       <c r="CB38" s="3"/>
       <c r="CC38" s="4"/>
@@ -6298,75 +6298,75 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="22" t="s">
+      <c r="L39" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="24"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="X39" s="26" t="s">
+      <c r="X39" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="28"/>
-      <c r="AD39" s="22" t="s">
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="43"/>
+      <c r="AD39" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="23"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="24"/>
-      <c r="AJ39" s="26" t="s">
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="40"/>
+      <c r="AJ39" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="28"/>
-      <c r="AP39" s="30" t="s">
+      <c r="AK39" s="42"/>
+      <c r="AL39" s="42"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="43"/>
+      <c r="AP39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="32"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33"/>
+      <c r="AT39" s="34"/>
       <c r="AU39" s="4"/>
-      <c r="AV39" s="30" t="s">
+      <c r="AV39" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AW39" s="31"/>
-      <c r="AX39" s="31"/>
-      <c r="AY39" s="31"/>
-      <c r="AZ39" s="32"/>
+      <c r="AW39" s="33"/>
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="33"/>
+      <c r="AZ39" s="34"/>
       <c r="BA39" s="4"/>
-      <c r="BB39" s="30" t="s">
+      <c r="BB39" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="BC39" s="31"/>
-      <c r="BD39" s="31"/>
-      <c r="BE39" s="31"/>
-      <c r="BF39" s="32"/>
+      <c r="BC39" s="33"/>
+      <c r="BD39" s="33"/>
+      <c r="BE39" s="33"/>
+      <c r="BF39" s="34"/>
       <c r="BG39" s="4"/>
-      <c r="BH39" s="30" t="s">
+      <c r="BH39" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="BI39" s="31"/>
-      <c r="BJ39" s="31"/>
-      <c r="BK39" s="31"/>
-      <c r="BL39" s="32"/>
+      <c r="BI39" s="33"/>
+      <c r="BJ39" s="33"/>
+      <c r="BK39" s="33"/>
+      <c r="BL39" s="34"/>
       <c r="BM39" s="4"/>
       <c r="BN39" s="3"/>
       <c r="BO39" s="3"/>
@@ -6734,110 +6734,110 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="19" t="s">
+      <c r="L44" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="21"/>
-      <c r="R44" s="36" t="s">
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="37"/>
+      <c r="R44" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="38"/>
-      <c r="X44" s="36" t="s">
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="31"/>
+      <c r="X44" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="38"/>
-      <c r="AD44" s="36" t="s">
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="31"/>
+      <c r="AD44" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="38"/>
-      <c r="AJ44" s="36" t="s">
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="31"/>
+      <c r="AJ44" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="37"/>
-      <c r="AN44" s="38"/>
-      <c r="AP44" s="26" t="s">
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="31"/>
+      <c r="AP44" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="AQ44" s="27"/>
-      <c r="AR44" s="27"/>
-      <c r="AS44" s="27"/>
-      <c r="AT44" s="28"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="43"/>
       <c r="AU44" s="4"/>
-      <c r="AV44" s="26" t="s">
+      <c r="AV44" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="AW44" s="27"/>
-      <c r="AX44" s="27"/>
-      <c r="AY44" s="27"/>
-      <c r="AZ44" s="28"/>
+      <c r="AW44" s="42"/>
+      <c r="AX44" s="42"/>
+      <c r="AY44" s="42"/>
+      <c r="AZ44" s="43"/>
       <c r="BA44" s="4"/>
-      <c r="BB44" s="26" t="s">
+      <c r="BB44" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="BC44" s="27"/>
-      <c r="BD44" s="27"/>
-      <c r="BE44" s="27"/>
-      <c r="BF44" s="28"/>
+      <c r="BC44" s="42"/>
+      <c r="BD44" s="42"/>
+      <c r="BE44" s="42"/>
+      <c r="BF44" s="43"/>
       <c r="BG44" s="4"/>
-      <c r="BH44" s="26" t="s">
+      <c r="BH44" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="BI44" s="27"/>
-      <c r="BJ44" s="27"/>
-      <c r="BK44" s="27"/>
-      <c r="BL44" s="28"/>
+      <c r="BI44" s="42"/>
+      <c r="BJ44" s="42"/>
+      <c r="BK44" s="42"/>
+      <c r="BL44" s="43"/>
       <c r="BM44" s="4"/>
-      <c r="BN44" s="26" t="s">
+      <c r="BN44" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="BO44" s="27"/>
-      <c r="BP44" s="27"/>
-      <c r="BQ44" s="27"/>
-      <c r="BR44" s="28"/>
+      <c r="BO44" s="42"/>
+      <c r="BP44" s="42"/>
+      <c r="BQ44" s="42"/>
+      <c r="BR44" s="43"/>
       <c r="BS44" s="4"/>
-      <c r="BT44" s="26" t="s">
+      <c r="BT44" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="BU44" s="27"/>
-      <c r="BV44" s="27"/>
-      <c r="BW44" s="27"/>
-      <c r="BX44" s="28"/>
+      <c r="BU44" s="42"/>
+      <c r="BV44" s="42"/>
+      <c r="BW44" s="42"/>
+      <c r="BX44" s="43"/>
       <c r="BY44" s="4"/>
-      <c r="BZ44" s="26" t="s">
+      <c r="BZ44" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="CA44" s="27"/>
-      <c r="CB44" s="27"/>
-      <c r="CC44" s="27"/>
-      <c r="CD44" s="28"/>
+      <c r="CA44" s="42"/>
+      <c r="CB44" s="42"/>
+      <c r="CC44" s="42"/>
+      <c r="CD44" s="43"/>
       <c r="CE44" s="4"/>
-      <c r="CF44" s="45" t="s">
+      <c r="CF44" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="CG44" s="46"/>
-      <c r="CH44" s="47"/>
+      <c r="CG44" s="47"/>
+      <c r="CH44" s="48"/>
       <c r="CI44" s="5"/>
       <c r="CJ44" s="5"/>
       <c r="CK44" s="5"/>
@@ -6852,13 +6852,13 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="22" t="s">
+      <c r="L45" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="40"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -6925,11 +6925,11 @@
       <c r="CC45" s="4"/>
       <c r="CD45" s="4"/>
       <c r="CE45" s="4"/>
-      <c r="CF45" s="22" t="s">
+      <c r="CF45" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="CG45" s="23"/>
-      <c r="CH45" s="24"/>
+      <c r="CG45" s="39"/>
+      <c r="CH45" s="40"/>
       <c r="CI45" s="5"/>
       <c r="CJ45" s="5"/>
       <c r="CK45" s="5"/>
@@ -6938,13 +6938,13 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="28"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -6952,91 +6952,91 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="36" t="s">
+      <c r="R46" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="38"/>
-      <c r="X46" s="36" t="s">
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="31"/>
+      <c r="X46" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="38"/>
-      <c r="AD46" s="26" t="s">
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="31"/>
+      <c r="AD46" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="28"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="43"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="26" t="s">
+      <c r="AJ46" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="27"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="28"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="43"/>
       <c r="AO46" s="4"/>
-      <c r="AP46" s="26" t="s">
+      <c r="AP46" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="AQ46" s="27"/>
-      <c r="AR46" s="27"/>
-      <c r="AS46" s="27"/>
-      <c r="AT46" s="28"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="43"/>
       <c r="AU46" s="4"/>
-      <c r="AV46" s="26" t="s">
+      <c r="AV46" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="AW46" s="27"/>
-      <c r="AX46" s="27"/>
-      <c r="AY46" s="27"/>
-      <c r="AZ46" s="28"/>
+      <c r="AW46" s="42"/>
+      <c r="AX46" s="42"/>
+      <c r="AY46" s="42"/>
+      <c r="AZ46" s="43"/>
       <c r="BA46" s="4"/>
-      <c r="BB46" s="26" t="s">
+      <c r="BB46" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="BC46" s="27"/>
-      <c r="BD46" s="27"/>
-      <c r="BE46" s="27"/>
-      <c r="BF46" s="28"/>
+      <c r="BC46" s="42"/>
+      <c r="BD46" s="42"/>
+      <c r="BE46" s="42"/>
+      <c r="BF46" s="43"/>
       <c r="BG46" s="4"/>
-      <c r="BH46" s="26" t="s">
+      <c r="BH46" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="BI46" s="27"/>
-      <c r="BJ46" s="27"/>
-      <c r="BK46" s="27"/>
-      <c r="BL46" s="28"/>
+      <c r="BI46" s="42"/>
+      <c r="BJ46" s="42"/>
+      <c r="BK46" s="42"/>
+      <c r="BL46" s="43"/>
       <c r="BM46" s="4"/>
-      <c r="BN46" s="26" t="s">
+      <c r="BN46" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="BO46" s="27"/>
-      <c r="BP46" s="27"/>
-      <c r="BQ46" s="27"/>
-      <c r="BR46" s="28"/>
+      <c r="BO46" s="42"/>
+      <c r="BP46" s="42"/>
+      <c r="BQ46" s="42"/>
+      <c r="BR46" s="43"/>
       <c r="BS46" s="4"/>
-      <c r="BT46" s="26" t="s">
+      <c r="BT46" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="BU46" s="27"/>
-      <c r="BV46" s="27"/>
-      <c r="BW46" s="27"/>
-      <c r="BX46" s="28"/>
+      <c r="BU46" s="42"/>
+      <c r="BV46" s="42"/>
+      <c r="BW46" s="42"/>
+      <c r="BX46" s="43"/>
       <c r="BY46" s="4"/>
-      <c r="BZ46" s="26" t="s">
+      <c r="BZ46" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="CA46" s="27"/>
-      <c r="CB46" s="27"/>
-      <c r="CC46" s="27"/>
-      <c r="CD46" s="28"/>
+      <c r="CA46" s="42"/>
+      <c r="CB46" s="42"/>
+      <c r="CC46" s="42"/>
+      <c r="CD46" s="43"/>
       <c r="CE46" s="4"/>
       <c r="CF46" s="4"/>
       <c r="CG46" s="4"/>
@@ -7050,13 +7050,13 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="36" t="s">
+      <c r="L47" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="38"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="31"/>
       <c r="CE47" s="4"/>
       <c r="CF47" s="4"/>
       <c r="CG47" s="4"/>
@@ -7069,102 +7069,102 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="R48" s="26" t="s">
+      <c r="R48" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="28"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="26" t="s">
+      <c r="X48" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="28"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="43"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="26" t="s">
+      <c r="AD48" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="AE48" s="27"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="28"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="43"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="26" t="s">
+      <c r="AJ48" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="AK48" s="27"/>
-      <c r="AL48" s="27"/>
-      <c r="AM48" s="27"/>
-      <c r="AN48" s="28"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="43"/>
       <c r="AO48" s="4"/>
-      <c r="AP48" s="26" t="s">
+      <c r="AP48" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="AQ48" s="27"/>
-      <c r="AR48" s="27"/>
-      <c r="AS48" s="27"/>
-      <c r="AT48" s="28"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="43"/>
       <c r="AU48" s="4"/>
-      <c r="AV48" s="26" t="s">
+      <c r="AV48" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="AW48" s="27"/>
-      <c r="AX48" s="27"/>
-      <c r="AY48" s="27"/>
-      <c r="AZ48" s="28"/>
+      <c r="AW48" s="42"/>
+      <c r="AX48" s="42"/>
+      <c r="AY48" s="42"/>
+      <c r="AZ48" s="43"/>
       <c r="BA48" s="4"/>
-      <c r="BB48" s="26" t="s">
+      <c r="BB48" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="BC48" s="27"/>
-      <c r="BD48" s="27"/>
-      <c r="BE48" s="27"/>
-      <c r="BF48" s="28"/>
+      <c r="BC48" s="42"/>
+      <c r="BD48" s="42"/>
+      <c r="BE48" s="42"/>
+      <c r="BF48" s="43"/>
       <c r="BG48" s="4"/>
-      <c r="BH48" s="26" t="s">
+      <c r="BH48" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="BI48" s="27"/>
-      <c r="BJ48" s="27"/>
-      <c r="BK48" s="27"/>
-      <c r="BL48" s="28"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
+      <c r="BK48" s="42"/>
+      <c r="BL48" s="43"/>
       <c r="BM48" s="4"/>
-      <c r="BN48" s="26" t="s">
+      <c r="BN48" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BO48" s="27"/>
-      <c r="BP48" s="27"/>
-      <c r="BQ48" s="27"/>
-      <c r="BR48" s="28"/>
+      <c r="BO48" s="42"/>
+      <c r="BP48" s="42"/>
+      <c r="BQ48" s="42"/>
+      <c r="BR48" s="43"/>
       <c r="BS48" s="4"/>
-      <c r="BT48" s="26" t="s">
+      <c r="BT48" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="BU48" s="27"/>
-      <c r="BV48" s="27"/>
-      <c r="BW48" s="27"/>
-      <c r="BX48" s="28"/>
+      <c r="BU48" s="42"/>
+      <c r="BV48" s="42"/>
+      <c r="BW48" s="42"/>
+      <c r="BX48" s="43"/>
       <c r="BY48" s="4"/>
-      <c r="BZ48" s="26" t="s">
+      <c r="BZ48" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="CA48" s="27"/>
-      <c r="CB48" s="27"/>
-      <c r="CC48" s="27"/>
-      <c r="CD48" s="28"/>
+      <c r="CA48" s="42"/>
+      <c r="CB48" s="42"/>
+      <c r="CC48" s="42"/>
+      <c r="CD48" s="43"/>
       <c r="CE48" s="4"/>
       <c r="CF48" s="4"/>
       <c r="CG48" s="4"/>
@@ -7178,13 +7178,13 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="26" t="s">
+      <c r="L49" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="28"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="43"/>
       <c r="Q49" s="4"/>
       <c r="CE49" s="4"/>
       <c r="CF49" s="4"/>
@@ -7556,111 +7556,111 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="36" t="s">
+      <c r="L54" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="38"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="31"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="36" t="s">
+      <c r="R54" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="38"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="31"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="36" t="s">
+      <c r="X54" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="38"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="31"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="36" t="s">
+      <c r="AD54" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="AE54" s="37"/>
-      <c r="AF54" s="37"/>
-      <c r="AG54" s="37"/>
-      <c r="AH54" s="38"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="30"/>
+      <c r="AG54" s="30"/>
+      <c r="AH54" s="31"/>
       <c r="AI54" s="4"/>
-      <c r="AJ54" s="33" t="s">
+      <c r="AJ54" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="35"/>
+      <c r="AK54" s="27"/>
+      <c r="AL54" s="27"/>
+      <c r="AM54" s="27"/>
+      <c r="AN54" s="28"/>
       <c r="AO54" s="5"/>
       <c r="AQ54" s="3"/>
-      <c r="AR54" s="26" t="s">
+      <c r="AR54" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="AS54" s="27"/>
-      <c r="AT54" s="27"/>
-      <c r="AU54" s="27"/>
-      <c r="AV54" s="28"/>
+      <c r="AS54" s="42"/>
+      <c r="AT54" s="42"/>
+      <c r="AU54" s="42"/>
+      <c r="AV54" s="43"/>
       <c r="AW54" s="4"/>
-      <c r="AX54" s="26" t="s">
+      <c r="AX54" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="AY54" s="27"/>
-      <c r="AZ54" s="27"/>
-      <c r="BA54" s="27"/>
-      <c r="BB54" s="28"/>
+      <c r="AY54" s="42"/>
+      <c r="AZ54" s="42"/>
+      <c r="BA54" s="42"/>
+      <c r="BB54" s="43"/>
       <c r="BC54" s="4"/>
-      <c r="BD54" s="26" t="s">
+      <c r="BD54" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="BE54" s="27"/>
-      <c r="BF54" s="27"/>
-      <c r="BG54" s="27"/>
-      <c r="BH54" s="28"/>
+      <c r="BE54" s="42"/>
+      <c r="BF54" s="42"/>
+      <c r="BG54" s="42"/>
+      <c r="BH54" s="43"/>
       <c r="BI54" s="5"/>
       <c r="BK54" s="3"/>
-      <c r="BL54" s="36" t="s">
+      <c r="BL54" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="BM54" s="37"/>
-      <c r="BN54" s="37"/>
-      <c r="BO54" s="37"/>
-      <c r="BP54" s="38"/>
+      <c r="BM54" s="30"/>
+      <c r="BN54" s="30"/>
+      <c r="BO54" s="30"/>
+      <c r="BP54" s="31"/>
       <c r="BQ54" s="4"/>
-      <c r="BR54" s="36" t="s">
+      <c r="BR54" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="BS54" s="37"/>
-      <c r="BT54" s="37"/>
-      <c r="BU54" s="37"/>
-      <c r="BV54" s="38"/>
+      <c r="BS54" s="30"/>
+      <c r="BT54" s="30"/>
+      <c r="BU54" s="30"/>
+      <c r="BV54" s="31"/>
       <c r="BW54" s="4"/>
-      <c r="BX54" s="33" t="s">
+      <c r="BX54" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="BY54" s="34"/>
-      <c r="BZ54" s="34"/>
-      <c r="CA54" s="34"/>
-      <c r="CB54" s="35"/>
+      <c r="BY54" s="27"/>
+      <c r="BZ54" s="27"/>
+      <c r="CA54" s="27"/>
+      <c r="CB54" s="28"/>
       <c r="CC54" s="4"/>
-      <c r="CD54" s="33" t="s">
+      <c r="CD54" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="CE54" s="34"/>
-      <c r="CF54" s="34"/>
-      <c r="CG54" s="34"/>
-      <c r="CH54" s="35"/>
+      <c r="CE54" s="27"/>
+      <c r="CF54" s="27"/>
+      <c r="CG54" s="27"/>
+      <c r="CH54" s="28"/>
       <c r="CI54" s="5"/>
       <c r="CJ54" s="5"/>
       <c r="CK54" s="5"/>
@@ -7699,13 +7699,13 @@
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
-      <c r="AJ55" s="30" t="s">
+      <c r="AJ55" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="AK55" s="31"/>
-      <c r="AL55" s="31"/>
-      <c r="AM55" s="31"/>
-      <c r="AN55" s="32"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="33"/>
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="34"/>
       <c r="AO55" s="5"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="4"/>
@@ -7739,21 +7739,21 @@
       <c r="BU55" s="4"/>
       <c r="BV55" s="4"/>
       <c r="BW55" s="4"/>
-      <c r="BX55" s="30" t="s">
+      <c r="BX55" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="BY55" s="31"/>
-      <c r="BZ55" s="31"/>
-      <c r="CA55" s="31"/>
-      <c r="CB55" s="32"/>
+      <c r="BY55" s="33"/>
+      <c r="BZ55" s="33"/>
+      <c r="CA55" s="33"/>
+      <c r="CB55" s="34"/>
       <c r="CC55" s="4"/>
-      <c r="CD55" s="30" t="s">
+      <c r="CD55" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="CE55" s="31"/>
-      <c r="CF55" s="31"/>
-      <c r="CG55" s="31"/>
-      <c r="CH55" s="32"/>
+      <c r="CE55" s="33"/>
+      <c r="CF55" s="33"/>
+      <c r="CG55" s="33"/>
+      <c r="CH55" s="34"/>
       <c r="CI55" s="5"/>
       <c r="CJ55" s="5"/>
       <c r="CK55" s="5"/>
@@ -7762,45 +7762,45 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="33" t="s">
+      <c r="L56" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="35"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="28"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="19" t="s">
+      <c r="R56" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="21"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="37"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="33" t="s">
+      <c r="X56" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="35"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="28"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="33" t="s">
+      <c r="AD56" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="34"/>
-      <c r="AG56" s="34"/>
-      <c r="AH56" s="35"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="27"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="28"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
@@ -7809,46 +7809,46 @@
       <c r="AN56" s="4"/>
       <c r="AO56" s="5"/>
       <c r="AQ56" s="3"/>
-      <c r="AR56" s="33" t="s">
+      <c r="AR56" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="AS56" s="34"/>
-      <c r="AT56" s="34"/>
-      <c r="AU56" s="34"/>
-      <c r="AV56" s="35"/>
+      <c r="AS56" s="27"/>
+      <c r="AT56" s="27"/>
+      <c r="AU56" s="27"/>
+      <c r="AV56" s="28"/>
       <c r="AW56" s="4"/>
-      <c r="AX56" s="33" t="s">
+      <c r="AX56" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="AY56" s="34"/>
-      <c r="AZ56" s="34"/>
-      <c r="BA56" s="34"/>
-      <c r="BB56" s="35"/>
+      <c r="AY56" s="27"/>
+      <c r="AZ56" s="27"/>
+      <c r="BA56" s="27"/>
+      <c r="BB56" s="28"/>
       <c r="BC56" s="4"/>
-      <c r="BD56" s="33" t="s">
+      <c r="BD56" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="BE56" s="34"/>
-      <c r="BF56" s="34"/>
-      <c r="BG56" s="34"/>
-      <c r="BH56" s="35"/>
+      <c r="BE56" s="27"/>
+      <c r="BF56" s="27"/>
+      <c r="BG56" s="27"/>
+      <c r="BH56" s="28"/>
       <c r="BI56" s="5"/>
       <c r="BK56" s="3"/>
-      <c r="BL56" s="36" t="s">
+      <c r="BL56" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="BM56" s="37"/>
-      <c r="BN56" s="37"/>
-      <c r="BO56" s="37"/>
-      <c r="BP56" s="38"/>
+      <c r="BM56" s="30"/>
+      <c r="BN56" s="30"/>
+      <c r="BO56" s="30"/>
+      <c r="BP56" s="31"/>
       <c r="BQ56" s="4"/>
-      <c r="BR56" s="33" t="s">
+      <c r="BR56" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="BS56" s="34"/>
-      <c r="BT56" s="34"/>
-      <c r="BU56" s="34"/>
-      <c r="BV56" s="35"/>
+      <c r="BS56" s="27"/>
+      <c r="BT56" s="27"/>
+      <c r="BU56" s="27"/>
+      <c r="BV56" s="28"/>
       <c r="BW56" s="4"/>
       <c r="BX56" s="4"/>
       <c r="BY56" s="4"/>
@@ -7869,45 +7869,45 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="34"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="30" t="s">
+      <c r="L57" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="32"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="34"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="22" t="s">
+      <c r="R57" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="24"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="40"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="30" t="s">
+      <c r="X57" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="32"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="34"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="30" t="s">
+      <c r="AD57" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="32"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="33"/>
+      <c r="AH57" s="34"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
@@ -7916,29 +7916,29 @@
       <c r="AN57" s="4"/>
       <c r="AO57" s="5"/>
       <c r="AQ57" s="3"/>
-      <c r="AR57" s="30" t="s">
+      <c r="AR57" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AS57" s="31"/>
-      <c r="AT57" s="31"/>
-      <c r="AU57" s="31"/>
-      <c r="AV57" s="32"/>
+      <c r="AS57" s="33"/>
+      <c r="AT57" s="33"/>
+      <c r="AU57" s="33"/>
+      <c r="AV57" s="34"/>
       <c r="AW57" s="4"/>
-      <c r="AX57" s="30" t="s">
+      <c r="AX57" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AY57" s="31"/>
-      <c r="AZ57" s="31"/>
-      <c r="BA57" s="31"/>
-      <c r="BB57" s="32"/>
+      <c r="AY57" s="33"/>
+      <c r="AZ57" s="33"/>
+      <c r="BA57" s="33"/>
+      <c r="BB57" s="34"/>
       <c r="BC57" s="4"/>
-      <c r="BD57" s="30" t="s">
+      <c r="BD57" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="BE57" s="31"/>
-      <c r="BF57" s="31"/>
-      <c r="BG57" s="31"/>
-      <c r="BH57" s="32"/>
+      <c r="BE57" s="33"/>
+      <c r="BF57" s="33"/>
+      <c r="BG57" s="33"/>
+      <c r="BH57" s="34"/>
       <c r="BI57" s="5"/>
       <c r="BK57" s="3"/>
       <c r="BL57" s="4"/>
@@ -7947,29 +7947,29 @@
       <c r="BO57" s="4"/>
       <c r="BP57" s="4"/>
       <c r="BQ57" s="4"/>
-      <c r="BR57" s="30" t="s">
+      <c r="BR57" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="BS57" s="31"/>
-      <c r="BT57" s="31"/>
-      <c r="BU57" s="31"/>
-      <c r="BV57" s="32"/>
+      <c r="BS57" s="33"/>
+      <c r="BT57" s="33"/>
+      <c r="BU57" s="33"/>
+      <c r="BV57" s="34"/>
       <c r="BW57" s="4"/>
-      <c r="BX57" s="33" t="s">
+      <c r="BX57" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="BY57" s="34"/>
-      <c r="BZ57" s="34"/>
-      <c r="CA57" s="34"/>
-      <c r="CB57" s="35"/>
+      <c r="BY57" s="27"/>
+      <c r="BZ57" s="27"/>
+      <c r="CA57" s="27"/>
+      <c r="CB57" s="28"/>
       <c r="CC57" s="4"/>
-      <c r="CD57" s="33" t="s">
+      <c r="CD57" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="CE57" s="34"/>
-      <c r="CF57" s="34"/>
-      <c r="CG57" s="34"/>
-      <c r="CH57" s="35"/>
+      <c r="CE57" s="27"/>
+      <c r="CF57" s="27"/>
+      <c r="CG57" s="27"/>
+      <c r="CH57" s="28"/>
       <c r="CI57" s="5"/>
       <c r="CJ57" s="5"/>
       <c r="CK57" s="5"/>
@@ -8034,13 +8034,13 @@
       <c r="BH58" s="4"/>
       <c r="BI58" s="5"/>
       <c r="BK58" s="3"/>
-      <c r="BL58" s="36" t="s">
+      <c r="BL58" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="BM58" s="37"/>
-      <c r="BN58" s="37"/>
-      <c r="BO58" s="37"/>
-      <c r="BP58" s="38"/>
+      <c r="BM58" s="30"/>
+      <c r="BN58" s="30"/>
+      <c r="BO58" s="30"/>
+      <c r="BP58" s="31"/>
       <c r="BQ58" s="4"/>
       <c r="BR58" s="4"/>
       <c r="BS58" s="4"/>
@@ -8048,21 +8048,21 @@
       <c r="BU58" s="4"/>
       <c r="BV58" s="4"/>
       <c r="BW58" s="4"/>
-      <c r="BX58" s="30" t="s">
+      <c r="BX58" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="BY58" s="31"/>
-      <c r="BZ58" s="31"/>
-      <c r="CA58" s="31"/>
-      <c r="CB58" s="32"/>
+      <c r="BY58" s="33"/>
+      <c r="BZ58" s="33"/>
+      <c r="CA58" s="33"/>
+      <c r="CB58" s="34"/>
       <c r="CC58" s="4"/>
-      <c r="CD58" s="30" t="s">
+      <c r="CD58" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="CE58" s="31"/>
-      <c r="CF58" s="31"/>
-      <c r="CG58" s="31"/>
-      <c r="CH58" s="32"/>
+      <c r="CE58" s="33"/>
+      <c r="CF58" s="33"/>
+      <c r="CG58" s="33"/>
+      <c r="CH58" s="34"/>
       <c r="CI58" s="5"/>
       <c r="CJ58" s="5"/>
       <c r="CK58" s="5"/>
@@ -8077,21 +8077,21 @@
       <c r="AO59" s="4"/>
       <c r="AP59" s="4"/>
       <c r="AQ59" s="3"/>
-      <c r="AR59" s="33" t="s">
+      <c r="AR59" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="AS59" s="34"/>
-      <c r="AT59" s="34"/>
-      <c r="AU59" s="34"/>
-      <c r="AV59" s="35"/>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="27"/>
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="28"/>
       <c r="AW59" s="4"/>
-      <c r="AX59" s="33" t="s">
+      <c r="AX59" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="AY59" s="34"/>
-      <c r="AZ59" s="34"/>
-      <c r="BA59" s="34"/>
-      <c r="BB59" s="35"/>
+      <c r="AY59" s="27"/>
+      <c r="AZ59" s="27"/>
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="28"/>
       <c r="BC59" s="4"/>
       <c r="BD59" s="4"/>
       <c r="BE59" s="4"/>
@@ -8107,13 +8107,13 @@
       <c r="BO59" s="4"/>
       <c r="BP59" s="4"/>
       <c r="BQ59" s="4"/>
-      <c r="BR59" s="36" t="s">
+      <c r="BR59" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="BS59" s="37"/>
-      <c r="BT59" s="37"/>
-      <c r="BU59" s="37"/>
-      <c r="BV59" s="38"/>
+      <c r="BS59" s="30"/>
+      <c r="BT59" s="30"/>
+      <c r="BU59" s="30"/>
+      <c r="BV59" s="31"/>
       <c r="BW59" s="4"/>
       <c r="BX59" s="4"/>
       <c r="BY59" s="4"/>
@@ -8134,21 +8134,21 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="AQ60" s="3"/>
-      <c r="AR60" s="30" t="s">
+      <c r="AR60" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AS60" s="31"/>
-      <c r="AT60" s="31"/>
-      <c r="AU60" s="31"/>
-      <c r="AV60" s="32"/>
+      <c r="AS60" s="33"/>
+      <c r="AT60" s="33"/>
+      <c r="AU60" s="33"/>
+      <c r="AV60" s="34"/>
       <c r="AW60" s="4"/>
-      <c r="AX60" s="30" t="s">
+      <c r="AX60" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="AY60" s="31"/>
-      <c r="AZ60" s="31"/>
-      <c r="BA60" s="31"/>
-      <c r="BB60" s="32"/>
+      <c r="AY60" s="33"/>
+      <c r="AZ60" s="33"/>
+      <c r="BA60" s="33"/>
+      <c r="BB60" s="34"/>
       <c r="BC60" s="4"/>
       <c r="BD60" s="4"/>
       <c r="BE60" s="4"/>
@@ -8157,13 +8157,13 @@
       <c r="BH60" s="4"/>
       <c r="BI60" s="5"/>
       <c r="BK60" s="3"/>
-      <c r="BL60" s="36" t="s">
+      <c r="BL60" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="BM60" s="37"/>
-      <c r="BN60" s="37"/>
-      <c r="BO60" s="37"/>
-      <c r="BP60" s="38"/>
+      <c r="BM60" s="30"/>
+      <c r="BN60" s="30"/>
+      <c r="BO60" s="30"/>
+      <c r="BP60" s="31"/>
       <c r="BQ60" s="4"/>
       <c r="BW60" s="4"/>
       <c r="BX60" s="4"/>
@@ -8330,45 +8330,45 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="28"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="43"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="21"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="37"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="26" t="s">
+      <c r="R63" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="28"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="43"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="36" t="s">
+      <c r="X63" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="37"/>
-      <c r="AB63" s="38"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="31"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="19" t="s">
+      <c r="AD63" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="AE63" s="20"/>
-      <c r="AF63" s="20"/>
-      <c r="AG63" s="20"/>
-      <c r="AH63" s="21"/>
+      <c r="AE63" s="36"/>
+      <c r="AF63" s="36"/>
+      <c r="AG63" s="36"/>
+      <c r="AH63" s="37"/>
       <c r="AI63" s="5"/>
       <c r="AK63" s="9" t="s">
         <v>277</v>
@@ -8439,13 +8439,13 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="22" t="s">
+      <c r="L64" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="24"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="40"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -8459,13 +8459,13 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
-      <c r="AD64" s="22" t="s">
+      <c r="AD64" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="AE64" s="23"/>
-      <c r="AF64" s="23"/>
-      <c r="AG64" s="23"/>
-      <c r="AH64" s="24"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="40"/>
       <c r="AI64" s="5"/>
       <c r="AK64" s="3"/>
       <c r="AL64" s="4"/>
@@ -8524,13 +8524,13 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="35"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -8538,21 +8538,21 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="19" t="s">
+      <c r="R65" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="21"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="37"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="19" t="s">
+      <c r="X65" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="20"/>
-      <c r="AA65" s="20"/>
-      <c r="AB65" s="21"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="37"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
@@ -8561,64 +8561,64 @@
       <c r="AH65" s="4"/>
       <c r="AI65" s="5"/>
       <c r="AK65" s="3"/>
-      <c r="AL65" s="26" t="s">
+      <c r="AL65" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="AM65" s="27"/>
-      <c r="AN65" s="27"/>
-      <c r="AO65" s="27"/>
-      <c r="AP65" s="28"/>
+      <c r="AM65" s="42"/>
+      <c r="AN65" s="42"/>
+      <c r="AO65" s="42"/>
+      <c r="AP65" s="43"/>
       <c r="AQ65" s="5"/>
       <c r="AS65" s="3"/>
-      <c r="AT65" s="26" t="s">
+      <c r="AT65" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="AU65" s="27"/>
-      <c r="AV65" s="27"/>
-      <c r="AW65" s="27"/>
-      <c r="AX65" s="28"/>
+      <c r="AU65" s="42"/>
+      <c r="AV65" s="42"/>
+      <c r="AW65" s="42"/>
+      <c r="AX65" s="43"/>
       <c r="AY65" s="4"/>
-      <c r="AZ65" s="26" t="s">
+      <c r="AZ65" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="BA65" s="27"/>
-      <c r="BB65" s="27"/>
-      <c r="BC65" s="27"/>
-      <c r="BD65" s="28"/>
+      <c r="BA65" s="42"/>
+      <c r="BB65" s="42"/>
+      <c r="BC65" s="42"/>
+      <c r="BD65" s="43"/>
       <c r="BE65" s="4"/>
-      <c r="BF65" s="26" t="s">
+      <c r="BF65" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="BG65" s="27"/>
-      <c r="BH65" s="27"/>
-      <c r="BI65" s="27"/>
-      <c r="BJ65" s="28"/>
+      <c r="BG65" s="42"/>
+      <c r="BH65" s="42"/>
+      <c r="BI65" s="42"/>
+      <c r="BJ65" s="43"/>
       <c r="BK65" s="4"/>
-      <c r="BL65" s="26" t="s">
+      <c r="BL65" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="BM65" s="27"/>
-      <c r="BN65" s="27"/>
-      <c r="BO65" s="27"/>
-      <c r="BP65" s="28"/>
+      <c r="BM65" s="42"/>
+      <c r="BN65" s="42"/>
+      <c r="BO65" s="42"/>
+      <c r="BP65" s="43"/>
       <c r="BQ65" s="4"/>
-      <c r="BR65" s="26" t="s">
+      <c r="BR65" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="BS65" s="27"/>
-      <c r="BT65" s="27"/>
-      <c r="BU65" s="27"/>
-      <c r="BV65" s="28"/>
+      <c r="BS65" s="42"/>
+      <c r="BT65" s="42"/>
+      <c r="BU65" s="42"/>
+      <c r="BV65" s="43"/>
       <c r="BW65" s="4"/>
       <c r="BX65" s="3"/>
       <c r="BY65" s="3"/>
-      <c r="BZ65" s="26" t="s">
+      <c r="BZ65" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="CA65" s="27"/>
-      <c r="CB65" s="27"/>
-      <c r="CC65" s="27"/>
-      <c r="CD65" s="28"/>
+      <c r="CA65" s="42"/>
+      <c r="CB65" s="42"/>
+      <c r="CC65" s="42"/>
+      <c r="CD65" s="43"/>
       <c r="CE65" s="5"/>
       <c r="CF65" s="4"/>
       <c r="CG65" s="4"/>
@@ -8631,37 +8631,37 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="34"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="33" t="s">
+      <c r="L66" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="35"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="28"/>
       <c r="Q66" s="4"/>
-      <c r="R66" s="22" t="s">
+      <c r="R66" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="24"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="40"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="22" t="s">
+      <c r="X66" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="23"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="24"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="40"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
@@ -8732,13 +8732,13 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="30" t="s">
+      <c r="L67" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="32"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="34"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -8760,64 +8760,64 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="3"/>
-      <c r="AL67" s="33" t="s">
+      <c r="AL67" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="AM67" s="34"/>
-      <c r="AN67" s="34"/>
-      <c r="AO67" s="34"/>
-      <c r="AP67" s="35"/>
+      <c r="AM67" s="27"/>
+      <c r="AN67" s="27"/>
+      <c r="AO67" s="27"/>
+      <c r="AP67" s="28"/>
       <c r="AQ67" s="5"/>
       <c r="AS67" s="3"/>
-      <c r="AT67" s="33" t="s">
+      <c r="AT67" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="AU67" s="34"/>
-      <c r="AV67" s="34"/>
-      <c r="AW67" s="34"/>
-      <c r="AX67" s="35"/>
+      <c r="AU67" s="27"/>
+      <c r="AV67" s="27"/>
+      <c r="AW67" s="27"/>
+      <c r="AX67" s="28"/>
       <c r="AY67" s="4"/>
-      <c r="AZ67" s="33" t="s">
+      <c r="AZ67" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="BA67" s="34"/>
-      <c r="BB67" s="34"/>
-      <c r="BC67" s="34"/>
-      <c r="BD67" s="35"/>
+      <c r="BA67" s="27"/>
+      <c r="BB67" s="27"/>
+      <c r="BC67" s="27"/>
+      <c r="BD67" s="28"/>
       <c r="BE67" s="4"/>
-      <c r="BF67" s="33" t="s">
+      <c r="BF67" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="BG67" s="34"/>
-      <c r="BH67" s="34"/>
-      <c r="BI67" s="34"/>
-      <c r="BJ67" s="35"/>
+      <c r="BG67" s="27"/>
+      <c r="BH67" s="27"/>
+      <c r="BI67" s="27"/>
+      <c r="BJ67" s="28"/>
       <c r="BK67" s="4"/>
-      <c r="BL67" s="33" t="s">
+      <c r="BL67" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="BM67" s="34"/>
-      <c r="BN67" s="34"/>
-      <c r="BO67" s="34"/>
-      <c r="BP67" s="35"/>
+      <c r="BM67" s="27"/>
+      <c r="BN67" s="27"/>
+      <c r="BO67" s="27"/>
+      <c r="BP67" s="28"/>
       <c r="BQ67" s="4"/>
-      <c r="BR67" s="26" t="s">
+      <c r="BR67" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="BS67" s="27"/>
-      <c r="BT67" s="27"/>
-      <c r="BU67" s="27"/>
-      <c r="BV67" s="28"/>
+      <c r="BS67" s="42"/>
+      <c r="BT67" s="42"/>
+      <c r="BU67" s="42"/>
+      <c r="BV67" s="43"/>
       <c r="BW67" s="4"/>
       <c r="BX67" s="3"/>
       <c r="BY67" s="3"/>
-      <c r="BZ67" s="33" t="s">
+      <c r="BZ67" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="CA67" s="34"/>
-      <c r="CB67" s="34"/>
-      <c r="CC67" s="34"/>
-      <c r="CD67" s="35"/>
+      <c r="CA67" s="27"/>
+      <c r="CB67" s="27"/>
+      <c r="CC67" s="27"/>
+      <c r="CD67" s="28"/>
       <c r="CE67" s="5"/>
       <c r="CF67" s="4"/>
       <c r="CG67" s="4"/>
@@ -8862,57 +8862,57 @@
       <c r="AI68" s="8"/>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="3"/>
-      <c r="AL68" s="30" t="s">
+      <c r="AL68" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="AM68" s="31"/>
-      <c r="AN68" s="31"/>
-      <c r="AO68" s="31"/>
-      <c r="AP68" s="32"/>
+      <c r="AM68" s="33"/>
+      <c r="AN68" s="33"/>
+      <c r="AO68" s="33"/>
+      <c r="AP68" s="34"/>
       <c r="AQ68" s="5"/>
       <c r="AS68" s="3"/>
-      <c r="AT68" s="30" t="s">
+      <c r="AT68" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="AU68" s="31"/>
-      <c r="AV68" s="31"/>
-      <c r="AW68" s="31"/>
-      <c r="AX68" s="32"/>
+      <c r="AU68" s="33"/>
+      <c r="AV68" s="33"/>
+      <c r="AW68" s="33"/>
+      <c r="AX68" s="34"/>
       <c r="AY68" s="4"/>
-      <c r="AZ68" s="30" t="s">
+      <c r="AZ68" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="BA68" s="31"/>
-      <c r="BB68" s="31"/>
-      <c r="BC68" s="31"/>
-      <c r="BD68" s="32"/>
+      <c r="BA68" s="33"/>
+      <c r="BB68" s="33"/>
+      <c r="BC68" s="33"/>
+      <c r="BD68" s="34"/>
       <c r="BE68" s="4"/>
-      <c r="BF68" s="30" t="s">
+      <c r="BF68" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="BG68" s="31"/>
-      <c r="BH68" s="31"/>
-      <c r="BI68" s="31"/>
-      <c r="BJ68" s="32"/>
+      <c r="BG68" s="33"/>
+      <c r="BH68" s="33"/>
+      <c r="BI68" s="33"/>
+      <c r="BJ68" s="34"/>
       <c r="BK68" s="4"/>
-      <c r="BL68" s="30" t="s">
+      <c r="BL68" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="BM68" s="31"/>
-      <c r="BN68" s="31"/>
-      <c r="BO68" s="31"/>
-      <c r="BP68" s="32"/>
+      <c r="BM68" s="33"/>
+      <c r="BN68" s="33"/>
+      <c r="BO68" s="33"/>
+      <c r="BP68" s="34"/>
       <c r="BQ68" s="4"/>
       <c r="BW68" s="4"/>
       <c r="BX68" s="3"/>
       <c r="BY68" s="3"/>
-      <c r="BZ68" s="30" t="s">
+      <c r="BZ68" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="CA68" s="31"/>
-      <c r="CB68" s="31"/>
-      <c r="CC68" s="31"/>
-      <c r="CD68" s="32"/>
+      <c r="CA68" s="33"/>
+      <c r="CB68" s="33"/>
+      <c r="CC68" s="33"/>
+      <c r="CD68" s="34"/>
       <c r="CE68" s="5"/>
       <c r="CF68" s="4"/>
       <c r="CG68" s="4"/>
@@ -8926,11 +8926,11 @@
       <c r="D69" s="3"/>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="3"/>
-      <c r="AL69" s="39"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="39"/>
-      <c r="AP69" s="39"/>
+      <c r="AL69" s="52"/>
+      <c r="AM69" s="52"/>
+      <c r="AN69" s="52"/>
+      <c r="AO69" s="52"/>
+      <c r="AP69" s="52"/>
       <c r="AQ69" s="5"/>
       <c r="AS69" s="6"/>
       <c r="AT69" s="7"/>
@@ -8965,11 +8965,11 @@
       <c r="BW69" s="7"/>
       <c r="BX69" s="3"/>
       <c r="BY69" s="6"/>
-      <c r="BZ69" s="25"/>
-      <c r="CA69" s="25"/>
-      <c r="CB69" s="25"/>
-      <c r="CC69" s="25"/>
-      <c r="CD69" s="25"/>
+      <c r="BZ69" s="50"/>
+      <c r="CA69" s="50"/>
+      <c r="CB69" s="50"/>
+      <c r="CC69" s="50"/>
+      <c r="CD69" s="50"/>
       <c r="CE69" s="8"/>
       <c r="CF69" s="4"/>
       <c r="CG69" s="4"/>
@@ -9143,45 +9143,45 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="28"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="26" t="s">
+      <c r="L72" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="28"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="43"/>
       <c r="Q72" s="4"/>
-      <c r="R72" s="19" t="s">
+      <c r="R72" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="21"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="37"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="45" t="s">
+      <c r="X72" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="Y72" s="46"/>
-      <c r="Z72" s="46"/>
-      <c r="AA72" s="46"/>
-      <c r="AB72" s="47"/>
+      <c r="Y72" s="47"/>
+      <c r="Z72" s="47"/>
+      <c r="AA72" s="47"/>
+      <c r="AB72" s="48"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="45" t="s">
+      <c r="AD72" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="AE72" s="46"/>
-      <c r="AF72" s="46"/>
-      <c r="AG72" s="46"/>
-      <c r="AH72" s="47"/>
+      <c r="AE72" s="47"/>
+      <c r="AF72" s="47"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="48"/>
       <c r="AI72" s="5"/>
       <c r="AJ72" s="4"/>
       <c r="AK72" s="3"/>
@@ -9254,91 +9254,91 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="22" t="s">
+      <c r="R73" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="24"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="40"/>
       <c r="W73" s="4"/>
-      <c r="X73" s="40" t="s">
+      <c r="X73" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
-      <c r="AB73" s="42"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="45"/>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="40" t="s">
+      <c r="AD73" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="AE73" s="41"/>
-      <c r="AF73" s="41"/>
-      <c r="AG73" s="41"/>
-      <c r="AH73" s="42"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="45"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="4"/>
       <c r="AK73" s="3"/>
-      <c r="AL73" s="26" t="s">
+      <c r="AL73" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="AM73" s="27"/>
-      <c r="AN73" s="27"/>
-      <c r="AO73" s="27"/>
-      <c r="AP73" s="28"/>
+      <c r="AM73" s="42"/>
+      <c r="AN73" s="42"/>
+      <c r="AO73" s="42"/>
+      <c r="AP73" s="43"/>
       <c r="AQ73" s="4"/>
-      <c r="AR73" s="33" t="s">
+      <c r="AR73" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="AS73" s="34"/>
-      <c r="AT73" s="34"/>
-      <c r="AU73" s="34"/>
-      <c r="AV73" s="35"/>
+      <c r="AS73" s="27"/>
+      <c r="AT73" s="27"/>
+      <c r="AU73" s="27"/>
+      <c r="AV73" s="28"/>
       <c r="AW73" s="5"/>
       <c r="AX73" s="3"/>
       <c r="AY73" s="3"/>
-      <c r="AZ73" s="26" t="s">
+      <c r="AZ73" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="BA73" s="27"/>
-      <c r="BB73" s="27"/>
-      <c r="BC73" s="27"/>
-      <c r="BD73" s="28"/>
+      <c r="BA73" s="42"/>
+      <c r="BB73" s="42"/>
+      <c r="BC73" s="42"/>
+      <c r="BD73" s="43"/>
       <c r="BE73" s="4"/>
-      <c r="BF73" s="26" t="s">
+      <c r="BF73" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="BG73" s="27"/>
-      <c r="BH73" s="27"/>
-      <c r="BI73" s="27"/>
-      <c r="BJ73" s="28"/>
+      <c r="BG73" s="42"/>
+      <c r="BH73" s="42"/>
+      <c r="BI73" s="42"/>
+      <c r="BJ73" s="43"/>
       <c r="BK73" s="4"/>
-      <c r="BL73" s="26" t="s">
+      <c r="BL73" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="BM73" s="27"/>
-      <c r="BN73" s="27"/>
-      <c r="BO73" s="27"/>
-      <c r="BP73" s="28"/>
+      <c r="BM73" s="42"/>
+      <c r="BN73" s="42"/>
+      <c r="BO73" s="42"/>
+      <c r="BP73" s="43"/>
       <c r="BQ73" s="4"/>
       <c r="BR73" s="3"/>
       <c r="BS73" s="3"/>
-      <c r="BT73" s="26" t="s">
+      <c r="BT73" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="BU73" s="27"/>
-      <c r="BV73" s="27"/>
-      <c r="BW73" s="27"/>
-      <c r="BX73" s="28"/>
+      <c r="BU73" s="42"/>
+      <c r="BV73" s="42"/>
+      <c r="BW73" s="42"/>
+      <c r="BX73" s="43"/>
       <c r="BY73" s="4"/>
-      <c r="BZ73" s="26" t="s">
+      <c r="BZ73" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="CA73" s="27"/>
-      <c r="CB73" s="27"/>
-      <c r="CC73" s="27"/>
-      <c r="CD73" s="28"/>
+      <c r="CA73" s="42"/>
+      <c r="CB73" s="42"/>
+      <c r="CC73" s="42"/>
+      <c r="CD73" s="43"/>
       <c r="CE73" s="5"/>
       <c r="CF73" s="4"/>
       <c r="CG73" s="4"/>
@@ -9351,21 +9351,21 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="28"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="43"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="26" t="s">
+      <c r="L74" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="28"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="43"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -9373,21 +9373,21 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
-      <c r="X74" s="40" t="s">
+      <c r="X74" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="41"/>
-      <c r="AA74" s="41"/>
-      <c r="AB74" s="42"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="45"/>
       <c r="AC74" s="4"/>
-      <c r="AD74" s="40" t="s">
+      <c r="AD74" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="AE74" s="41"/>
-      <c r="AF74" s="41"/>
-      <c r="AG74" s="41"/>
-      <c r="AH74" s="42"/>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="24"/>
+      <c r="AG74" s="24"/>
+      <c r="AH74" s="45"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="4"/>
       <c r="AK74" s="3"/>
@@ -9397,13 +9397,13 @@
       <c r="AO74" s="4"/>
       <c r="AP74" s="4"/>
       <c r="AQ74" s="4"/>
-      <c r="AR74" s="30" t="s">
+      <c r="AR74" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="AS74" s="31"/>
-      <c r="AT74" s="31"/>
-      <c r="AU74" s="31"/>
-      <c r="AV74" s="32"/>
+      <c r="AS74" s="33"/>
+      <c r="AT74" s="33"/>
+      <c r="AU74" s="33"/>
+      <c r="AV74" s="34"/>
       <c r="AW74" s="5"/>
       <c r="AX74" s="3"/>
       <c r="AY74" s="3"/>
@@ -9462,39 +9462,39 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
-      <c r="R75" s="19" t="s">
+      <c r="R75" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="21"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="37"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="40" t="s">
+      <c r="X75" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="42"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="45"/>
       <c r="AC75" s="4"/>
-      <c r="AD75" s="40" t="s">
+      <c r="AD75" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="AE75" s="41"/>
-      <c r="AF75" s="41"/>
-      <c r="AG75" s="41"/>
-      <c r="AH75" s="42"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="45"/>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="4"/>
       <c r="AK75" s="3"/>
-      <c r="AL75" s="33" t="s">
+      <c r="AL75" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="AM75" s="34"/>
-      <c r="AN75" s="34"/>
-      <c r="AO75" s="34"/>
-      <c r="AP75" s="35"/>
+      <c r="AM75" s="27"/>
+      <c r="AN75" s="27"/>
+      <c r="AO75" s="27"/>
+      <c r="AP75" s="28"/>
       <c r="AQ75" s="4"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
@@ -9504,47 +9504,47 @@
       <c r="AW75" s="5"/>
       <c r="AX75" s="3"/>
       <c r="AY75" s="3"/>
-      <c r="AZ75" s="33" t="s">
+      <c r="AZ75" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="BA75" s="34"/>
-      <c r="BB75" s="34"/>
-      <c r="BC75" s="34"/>
-      <c r="BD75" s="35"/>
+      <c r="BA75" s="27"/>
+      <c r="BB75" s="27"/>
+      <c r="BC75" s="27"/>
+      <c r="BD75" s="28"/>
       <c r="BE75" s="4"/>
-      <c r="BF75" s="33" t="s">
+      <c r="BF75" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="BG75" s="34"/>
-      <c r="BH75" s="34"/>
-      <c r="BI75" s="34"/>
-      <c r="BJ75" s="35"/>
+      <c r="BG75" s="27"/>
+      <c r="BH75" s="27"/>
+      <c r="BI75" s="27"/>
+      <c r="BJ75" s="28"/>
       <c r="BK75" s="4"/>
-      <c r="BL75" s="33" t="s">
+      <c r="BL75" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="BM75" s="34"/>
-      <c r="BN75" s="34"/>
-      <c r="BO75" s="34"/>
-      <c r="BP75" s="35"/>
+      <c r="BM75" s="27"/>
+      <c r="BN75" s="27"/>
+      <c r="BO75" s="27"/>
+      <c r="BP75" s="28"/>
       <c r="BQ75" s="4"/>
       <c r="BR75" s="3"/>
       <c r="BS75" s="3"/>
-      <c r="BT75" s="33" t="s">
+      <c r="BT75" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="BU75" s="34"/>
-      <c r="BV75" s="34"/>
-      <c r="BW75" s="34"/>
-      <c r="BX75" s="35"/>
+      <c r="BU75" s="27"/>
+      <c r="BV75" s="27"/>
+      <c r="BW75" s="27"/>
+      <c r="BX75" s="28"/>
       <c r="BY75" s="4"/>
-      <c r="BZ75" s="33" t="s">
+      <c r="BZ75" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="CA75" s="34"/>
-      <c r="CB75" s="34"/>
-      <c r="CC75" s="34"/>
-      <c r="CD75" s="35"/>
+      <c r="CA75" s="27"/>
+      <c r="CB75" s="27"/>
+      <c r="CC75" s="27"/>
+      <c r="CD75" s="28"/>
       <c r="CE75" s="5"/>
       <c r="CF75" s="4"/>
       <c r="CG75" s="4"/>
@@ -9557,107 +9557,107 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="28"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="26" t="s">
+      <c r="L76" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="28"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="43"/>
       <c r="Q76" s="4"/>
-      <c r="R76" s="22" t="s">
+      <c r="R76" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="24"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="40"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="40" t="s">
+      <c r="X76" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
-      <c r="AB76" s="42"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="24"/>
+      <c r="AB76" s="45"/>
       <c r="AC76" s="4"/>
-      <c r="AD76" s="40" t="s">
+      <c r="AD76" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="AE76" s="41"/>
-      <c r="AF76" s="41"/>
-      <c r="AG76" s="41"/>
-      <c r="AH76" s="42"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="45"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="4"/>
       <c r="AK76" s="3"/>
-      <c r="AL76" s="30" t="s">
+      <c r="AL76" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="AM76" s="31"/>
-      <c r="AN76" s="31"/>
-      <c r="AO76" s="31"/>
-      <c r="AP76" s="32"/>
+      <c r="AM76" s="33"/>
+      <c r="AN76" s="33"/>
+      <c r="AO76" s="33"/>
+      <c r="AP76" s="34"/>
       <c r="AQ76" s="4"/>
-      <c r="AR76" s="33" t="s">
+      <c r="AR76" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="AS76" s="34"/>
-      <c r="AT76" s="34"/>
-      <c r="AU76" s="34"/>
-      <c r="AV76" s="35"/>
+      <c r="AS76" s="27"/>
+      <c r="AT76" s="27"/>
+      <c r="AU76" s="27"/>
+      <c r="AV76" s="28"/>
       <c r="AW76" s="5"/>
       <c r="AX76" s="3"/>
       <c r="AY76" s="3"/>
-      <c r="AZ76" s="30" t="s">
+      <c r="AZ76" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="BA76" s="31"/>
-      <c r="BB76" s="31"/>
-      <c r="BC76" s="31"/>
-      <c r="BD76" s="32"/>
+      <c r="BA76" s="33"/>
+      <c r="BB76" s="33"/>
+      <c r="BC76" s="33"/>
+      <c r="BD76" s="34"/>
       <c r="BE76" s="4"/>
-      <c r="BF76" s="30" t="s">
+      <c r="BF76" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="BG76" s="31"/>
-      <c r="BH76" s="31"/>
-      <c r="BI76" s="31"/>
-      <c r="BJ76" s="32"/>
+      <c r="BG76" s="33"/>
+      <c r="BH76" s="33"/>
+      <c r="BI76" s="33"/>
+      <c r="BJ76" s="34"/>
       <c r="BK76" s="4"/>
-      <c r="BL76" s="30" t="s">
+      <c r="BL76" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="BM76" s="31"/>
-      <c r="BN76" s="31"/>
-      <c r="BO76" s="31"/>
-      <c r="BP76" s="32"/>
+      <c r="BM76" s="33"/>
+      <c r="BN76" s="33"/>
+      <c r="BO76" s="33"/>
+      <c r="BP76" s="34"/>
       <c r="BQ76" s="4"/>
       <c r="BR76" s="3"/>
       <c r="BS76" s="3"/>
-      <c r="BT76" s="30" t="s">
+      <c r="BT76" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="BU76" s="31"/>
-      <c r="BV76" s="31"/>
-      <c r="BW76" s="31"/>
-      <c r="BX76" s="32"/>
+      <c r="BU76" s="33"/>
+      <c r="BV76" s="33"/>
+      <c r="BW76" s="33"/>
+      <c r="BX76" s="34"/>
       <c r="BY76" s="4"/>
-      <c r="BZ76" s="30" t="s">
+      <c r="BZ76" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="CA76" s="31"/>
-      <c r="CB76" s="31"/>
-      <c r="CC76" s="31"/>
-      <c r="CD76" s="32"/>
+      <c r="CA76" s="33"/>
+      <c r="CB76" s="33"/>
+      <c r="CC76" s="33"/>
+      <c r="CD76" s="34"/>
       <c r="CE76" s="5"/>
       <c r="CF76" s="4"/>
       <c r="CG76" s="4"/>
@@ -9688,21 +9688,21 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="40" t="s">
+      <c r="X77" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
-      <c r="AB77" s="42"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="24"/>
+      <c r="AB77" s="45"/>
       <c r="AC77" s="4"/>
-      <c r="AD77" s="40" t="s">
+      <c r="AD77" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="AE77" s="41"/>
-      <c r="AF77" s="41"/>
-      <c r="AG77" s="41"/>
-      <c r="AH77" s="42"/>
+      <c r="AE77" s="24"/>
+      <c r="AF77" s="24"/>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="45"/>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="4"/>
       <c r="AK77" s="3"/>
@@ -9712,13 +9712,13 @@
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
-      <c r="AR77" s="30" t="s">
+      <c r="AR77" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="AS77" s="31"/>
-      <c r="AT77" s="31"/>
-      <c r="AU77" s="31"/>
-      <c r="AV77" s="32"/>
+      <c r="AS77" s="33"/>
+      <c r="AT77" s="33"/>
+      <c r="AU77" s="33"/>
+      <c r="AV77" s="34"/>
       <c r="AW77" s="5"/>
       <c r="AX77" s="3"/>
       <c r="AY77" s="3"/>
@@ -9765,55 +9765,55 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="43"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="26" t="s">
+      <c r="L78" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="28"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="43"/>
       <c r="Q78" s="4"/>
-      <c r="R78" s="19" t="s">
+      <c r="R78" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="21"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="37"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="43" t="s">
+      <c r="X78" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="Y78" s="25"/>
-      <c r="Z78" s="25"/>
-      <c r="AA78" s="25"/>
-      <c r="AB78" s="44"/>
+      <c r="Y78" s="50"/>
+      <c r="Z78" s="50"/>
+      <c r="AA78" s="50"/>
+      <c r="AB78" s="51"/>
       <c r="AC78" s="4"/>
-      <c r="AD78" s="43" t="s">
+      <c r="AD78" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="AE78" s="25"/>
-      <c r="AF78" s="25"/>
-      <c r="AG78" s="25"/>
-      <c r="AH78" s="44"/>
+      <c r="AE78" s="50"/>
+      <c r="AF78" s="50"/>
+      <c r="AG78" s="50"/>
+      <c r="AH78" s="51"/>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="4"/>
       <c r="AK78" s="3"/>
-      <c r="AL78" s="33" t="s">
+      <c r="AL78" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="AM78" s="34"/>
-      <c r="AN78" s="34"/>
-      <c r="AO78" s="34"/>
-      <c r="AP78" s="35"/>
+      <c r="AM78" s="27"/>
+      <c r="AN78" s="27"/>
+      <c r="AO78" s="27"/>
+      <c r="AP78" s="28"/>
       <c r="AQ78" s="4"/>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
@@ -9823,47 +9823,47 @@
       <c r="AW78" s="5"/>
       <c r="AX78" s="3"/>
       <c r="AY78" s="3"/>
-      <c r="AZ78" s="33" t="s">
+      <c r="AZ78" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="BA78" s="34"/>
-      <c r="BB78" s="34"/>
-      <c r="BC78" s="34"/>
-      <c r="BD78" s="35"/>
+      <c r="BA78" s="27"/>
+      <c r="BB78" s="27"/>
+      <c r="BC78" s="27"/>
+      <c r="BD78" s="28"/>
       <c r="BE78" s="4"/>
-      <c r="BF78" s="33" t="s">
+      <c r="BF78" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="BG78" s="34"/>
-      <c r="BH78" s="34"/>
-      <c r="BI78" s="34"/>
-      <c r="BJ78" s="35"/>
+      <c r="BG78" s="27"/>
+      <c r="BH78" s="27"/>
+      <c r="BI78" s="27"/>
+      <c r="BJ78" s="28"/>
       <c r="BK78" s="4"/>
-      <c r="BL78" s="33" t="s">
+      <c r="BL78" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="BM78" s="34"/>
-      <c r="BN78" s="34"/>
-      <c r="BO78" s="34"/>
-      <c r="BP78" s="35"/>
+      <c r="BM78" s="27"/>
+      <c r="BN78" s="27"/>
+      <c r="BO78" s="27"/>
+      <c r="BP78" s="28"/>
       <c r="BQ78" s="4"/>
       <c r="BR78" s="3"/>
       <c r="BS78" s="3"/>
-      <c r="BT78" s="33" t="s">
+      <c r="BT78" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="BU78" s="34"/>
-      <c r="BV78" s="34"/>
-      <c r="BW78" s="34"/>
-      <c r="BX78" s="35"/>
+      <c r="BU78" s="27"/>
+      <c r="BV78" s="27"/>
+      <c r="BW78" s="27"/>
+      <c r="BX78" s="28"/>
       <c r="BY78" s="4"/>
-      <c r="BZ78" s="33" t="s">
+      <c r="BZ78" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="CA78" s="34"/>
-      <c r="CB78" s="34"/>
-      <c r="CC78" s="34"/>
-      <c r="CD78" s="35"/>
+      <c r="CA78" s="27"/>
+      <c r="CB78" s="27"/>
+      <c r="CC78" s="27"/>
+      <c r="CD78" s="28"/>
       <c r="CE78" s="5"/>
       <c r="CF78" s="4"/>
       <c r="CG78" s="4"/>
@@ -9888,13 +9888,13 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
-      <c r="R79" s="22" t="s">
+      <c r="R79" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="S79" s="23"/>
-      <c r="T79" s="23"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="24"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="40"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
@@ -9910,13 +9910,13 @@
       <c r="AI79" s="5"/>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="3"/>
-      <c r="AL79" s="30" t="s">
+      <c r="AL79" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="AM79" s="31"/>
-      <c r="AN79" s="31"/>
-      <c r="AO79" s="31"/>
-      <c r="AP79" s="32"/>
+      <c r="AM79" s="33"/>
+      <c r="AN79" s="33"/>
+      <c r="AO79" s="33"/>
+      <c r="AP79" s="34"/>
       <c r="AQ79" s="4"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
@@ -9926,47 +9926,47 @@
       <c r="AW79" s="5"/>
       <c r="AX79" s="3"/>
       <c r="AY79" s="3"/>
-      <c r="AZ79" s="30" t="s">
+      <c r="AZ79" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="BA79" s="31"/>
-      <c r="BB79" s="31"/>
-      <c r="BC79" s="31"/>
-      <c r="BD79" s="32"/>
+      <c r="BA79" s="33"/>
+      <c r="BB79" s="33"/>
+      <c r="BC79" s="33"/>
+      <c r="BD79" s="34"/>
       <c r="BE79" s="4"/>
-      <c r="BF79" s="30" t="s">
+      <c r="BF79" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="BG79" s="31"/>
-      <c r="BH79" s="31"/>
-      <c r="BI79" s="31"/>
-      <c r="BJ79" s="32"/>
+      <c r="BG79" s="33"/>
+      <c r="BH79" s="33"/>
+      <c r="BI79" s="33"/>
+      <c r="BJ79" s="34"/>
       <c r="BK79" s="4"/>
-      <c r="BL79" s="30" t="s">
+      <c r="BL79" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="BM79" s="31"/>
-      <c r="BN79" s="31"/>
-      <c r="BO79" s="31"/>
-      <c r="BP79" s="32"/>
+      <c r="BM79" s="33"/>
+      <c r="BN79" s="33"/>
+      <c r="BO79" s="33"/>
+      <c r="BP79" s="34"/>
       <c r="BQ79" s="4"/>
       <c r="BR79" s="3"/>
       <c r="BS79" s="3"/>
-      <c r="BT79" s="30" t="s">
+      <c r="BT79" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="BU79" s="31"/>
-      <c r="BV79" s="31"/>
-      <c r="BW79" s="31"/>
-      <c r="BX79" s="32"/>
+      <c r="BU79" s="33"/>
+      <c r="BV79" s="33"/>
+      <c r="BW79" s="33"/>
+      <c r="BX79" s="34"/>
       <c r="BY79" s="4"/>
-      <c r="BZ79" s="30" t="s">
+      <c r="BZ79" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="CA79" s="31"/>
-      <c r="CB79" s="31"/>
-      <c r="CC79" s="31"/>
-      <c r="CD79" s="32"/>
+      <c r="CA79" s="33"/>
+      <c r="CB79" s="33"/>
+      <c r="CC79" s="33"/>
+      <c r="CD79" s="34"/>
       <c r="CE79" s="5"/>
       <c r="CF79" s="4"/>
       <c r="CG79" s="4"/>
@@ -9979,21 +9979,21 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="28"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="43"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="19" t="s">
+      <c r="L80" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="21"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="37"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
@@ -10078,13 +10078,13 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="22" t="s">
+      <c r="L81" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="24"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="40"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
@@ -10476,106 +10476,106 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="28"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="43"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="26" t="s">
+      <c r="L86" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="28"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="43"/>
       <c r="Q86" s="4"/>
-      <c r="R86" s="26" t="s">
+      <c r="R86" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="28"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="42"/>
+      <c r="U86" s="42"/>
+      <c r="V86" s="43"/>
       <c r="W86" s="4"/>
-      <c r="X86" s="26" t="s">
+      <c r="X86" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="28"/>
+      <c r="Y86" s="42"/>
+      <c r="Z86" s="42"/>
+      <c r="AA86" s="42"/>
+      <c r="AB86" s="43"/>
       <c r="AC86" s="4"/>
-      <c r="AD86" s="26" t="s">
+      <c r="AD86" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="AE86" s="27"/>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="28"/>
+      <c r="AE86" s="42"/>
+      <c r="AF86" s="42"/>
+      <c r="AG86" s="42"/>
+      <c r="AH86" s="43"/>
       <c r="AI86" s="4"/>
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
-      <c r="AL86" s="26" t="s">
+      <c r="AL86" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="AM86" s="27"/>
-      <c r="AN86" s="27"/>
-      <c r="AO86" s="27"/>
-      <c r="AP86" s="28"/>
+      <c r="AM86" s="42"/>
+      <c r="AN86" s="42"/>
+      <c r="AO86" s="42"/>
+      <c r="AP86" s="43"/>
       <c r="AQ86" s="4"/>
-      <c r="AR86" s="33" t="s">
+      <c r="AR86" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="AS86" s="34"/>
-      <c r="AT86" s="34"/>
-      <c r="AU86" s="34"/>
-      <c r="AV86" s="35"/>
+      <c r="AS86" s="27"/>
+      <c r="AT86" s="27"/>
+      <c r="AU86" s="27"/>
+      <c r="AV86" s="28"/>
       <c r="AW86" s="5"/>
       <c r="AY86" s="3"/>
-      <c r="AZ86" s="26" t="s">
+      <c r="AZ86" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="BA86" s="27"/>
-      <c r="BB86" s="27"/>
-      <c r="BC86" s="27"/>
-      <c r="BD86" s="28"/>
+      <c r="BA86" s="42"/>
+      <c r="BB86" s="42"/>
+      <c r="BC86" s="42"/>
+      <c r="BD86" s="43"/>
       <c r="BE86" s="4"/>
-      <c r="BF86" s="33" t="s">
+      <c r="BF86" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="BG86" s="34"/>
-      <c r="BH86" s="34"/>
-      <c r="BI86" s="34"/>
-      <c r="BJ86" s="35"/>
+      <c r="BG86" s="27"/>
+      <c r="BH86" s="27"/>
+      <c r="BI86" s="27"/>
+      <c r="BJ86" s="28"/>
       <c r="BK86" s="4"/>
-      <c r="BL86" s="33" t="s">
+      <c r="BL86" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="BM86" s="34"/>
-      <c r="BN86" s="34"/>
-      <c r="BO86" s="34"/>
-      <c r="BP86" s="35"/>
+      <c r="BM86" s="27"/>
+      <c r="BN86" s="27"/>
+      <c r="BO86" s="27"/>
+      <c r="BP86" s="28"/>
       <c r="BQ86" s="4"/>
       <c r="BR86" s="3"/>
       <c r="BS86" s="3"/>
-      <c r="BT86" s="26" t="s">
+      <c r="BT86" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="BU86" s="27"/>
-      <c r="BV86" s="27"/>
-      <c r="BW86" s="27"/>
-      <c r="BX86" s="28"/>
+      <c r="BU86" s="42"/>
+      <c r="BV86" s="42"/>
+      <c r="BW86" s="42"/>
+      <c r="BX86" s="43"/>
       <c r="BY86" s="4"/>
-      <c r="BZ86" s="26" t="s">
+      <c r="BZ86" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="CA86" s="27"/>
-      <c r="CB86" s="27"/>
-      <c r="CC86" s="27"/>
-      <c r="CD86" s="28"/>
+      <c r="CA86" s="42"/>
+      <c r="CB86" s="42"/>
+      <c r="CC86" s="42"/>
+      <c r="CD86" s="43"/>
       <c r="CE86" s="5"/>
       <c r="CF86" s="4"/>
       <c r="CG86" s="4"/>
@@ -10626,13 +10626,13 @@
       <c r="AO87" s="4"/>
       <c r="AP87" s="4"/>
       <c r="AQ87" s="4"/>
-      <c r="AR87" s="30" t="s">
+      <c r="AR87" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="AS87" s="31"/>
-      <c r="AT87" s="31"/>
-      <c r="AU87" s="31"/>
-      <c r="AV87" s="32"/>
+      <c r="AS87" s="33"/>
+      <c r="AT87" s="33"/>
+      <c r="AU87" s="33"/>
+      <c r="AV87" s="34"/>
       <c r="AW87" s="5"/>
       <c r="AY87" s="3"/>
       <c r="AZ87" s="4"/>
@@ -10641,21 +10641,21 @@
       <c r="BC87" s="4"/>
       <c r="BD87" s="4"/>
       <c r="BE87" s="4"/>
-      <c r="BF87" s="30" t="s">
+      <c r="BF87" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="BG87" s="31"/>
-      <c r="BH87" s="31"/>
-      <c r="BI87" s="31"/>
-      <c r="BJ87" s="32"/>
+      <c r="BG87" s="33"/>
+      <c r="BH87" s="33"/>
+      <c r="BI87" s="33"/>
+      <c r="BJ87" s="34"/>
       <c r="BK87" s="4"/>
-      <c r="BL87" s="30" t="s">
+      <c r="BL87" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="BM87" s="31"/>
-      <c r="BN87" s="31"/>
-      <c r="BO87" s="31"/>
-      <c r="BP87" s="32"/>
+      <c r="BM87" s="33"/>
+      <c r="BN87" s="33"/>
+      <c r="BO87" s="33"/>
+      <c r="BP87" s="34"/>
       <c r="BQ87" s="4"/>
       <c r="BR87" s="3"/>
       <c r="BS87" s="3"/>
@@ -10682,55 +10682,55 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="19" t="s">
+      <c r="F88" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="37"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="19" t="s">
+      <c r="L88" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="21"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="37"/>
       <c r="Q88" s="4"/>
-      <c r="R88" s="19" t="s">
+      <c r="R88" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="20"/>
-      <c r="V88" s="21"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="37"/>
       <c r="W88" s="4"/>
-      <c r="X88" s="19" t="s">
+      <c r="X88" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="Y88" s="20"/>
-      <c r="Z88" s="20"/>
-      <c r="AA88" s="20"/>
-      <c r="AB88" s="21"/>
+      <c r="Y88" s="36"/>
+      <c r="Z88" s="36"/>
+      <c r="AA88" s="36"/>
+      <c r="AB88" s="37"/>
       <c r="AC88" s="4"/>
-      <c r="AD88" s="19" t="s">
+      <c r="AD88" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="AE88" s="20"/>
-      <c r="AF88" s="20"/>
-      <c r="AG88" s="20"/>
-      <c r="AH88" s="21"/>
+      <c r="AE88" s="36"/>
+      <c r="AF88" s="36"/>
+      <c r="AG88" s="36"/>
+      <c r="AH88" s="37"/>
       <c r="AI88" s="4"/>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
-      <c r="AL88" s="26" t="s">
+      <c r="AL88" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="27"/>
-      <c r="AO88" s="27"/>
-      <c r="AP88" s="28"/>
+      <c r="AM88" s="42"/>
+      <c r="AN88" s="42"/>
+      <c r="AO88" s="42"/>
+      <c r="AP88" s="43"/>
       <c r="AQ88" s="4"/>
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
@@ -10739,13 +10739,13 @@
       <c r="AV88" s="4"/>
       <c r="AW88" s="5"/>
       <c r="AY88" s="3"/>
-      <c r="AZ88" s="26" t="s">
+      <c r="AZ88" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="BA88" s="27"/>
-      <c r="BB88" s="27"/>
-      <c r="BC88" s="27"/>
-      <c r="BD88" s="28"/>
+      <c r="BA88" s="42"/>
+      <c r="BB88" s="42"/>
+      <c r="BC88" s="42"/>
+      <c r="BD88" s="43"/>
       <c r="BE88" s="4"/>
       <c r="BF88" s="4"/>
       <c r="BG88" s="4"/>
@@ -10761,21 +10761,21 @@
       <c r="BQ88" s="4"/>
       <c r="BR88" s="3"/>
       <c r="BS88" s="3"/>
-      <c r="BT88" s="33" t="s">
+      <c r="BT88" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="BU88" s="34"/>
-      <c r="BV88" s="34"/>
-      <c r="BW88" s="34"/>
-      <c r="BX88" s="35"/>
+      <c r="BU88" s="27"/>
+      <c r="BV88" s="27"/>
+      <c r="BW88" s="27"/>
+      <c r="BX88" s="28"/>
       <c r="BY88" s="4"/>
-      <c r="BZ88" s="33" t="s">
+      <c r="BZ88" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="CA88" s="34"/>
-      <c r="CB88" s="34"/>
-      <c r="CC88" s="34"/>
-      <c r="CD88" s="35"/>
+      <c r="CA88" s="27"/>
+      <c r="CB88" s="27"/>
+      <c r="CC88" s="27"/>
+      <c r="CD88" s="28"/>
       <c r="CE88" s="5"/>
       <c r="CF88" s="4"/>
       <c r="CG88" s="4"/>
@@ -10788,45 +10788,45 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="22" t="s">
+      <c r="F89" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="24"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="40"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="22" t="s">
+      <c r="L89" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="24"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="40"/>
       <c r="Q89" s="4"/>
-      <c r="R89" s="22" t="s">
+      <c r="R89" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="S89" s="23"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="24"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="40"/>
       <c r="W89" s="4"/>
-      <c r="X89" s="22" t="s">
+      <c r="X89" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="Y89" s="23"/>
-      <c r="Z89" s="23"/>
-      <c r="AA89" s="23"/>
-      <c r="AB89" s="24"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
+      <c r="AB89" s="40"/>
       <c r="AC89" s="4"/>
-      <c r="AD89" s="22" t="s">
+      <c r="AD89" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="AE89" s="23"/>
-      <c r="AF89" s="23"/>
-      <c r="AG89" s="23"/>
-      <c r="AH89" s="24"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="40"/>
       <c r="AI89" s="4"/>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
@@ -10849,39 +10849,39 @@
       <c r="BC89" s="4"/>
       <c r="BD89" s="4"/>
       <c r="BE89" s="4"/>
-      <c r="BF89" s="33" t="s">
+      <c r="BF89" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="BG89" s="34"/>
-      <c r="BH89" s="34"/>
-      <c r="BI89" s="34"/>
-      <c r="BJ89" s="35"/>
+      <c r="BG89" s="27"/>
+      <c r="BH89" s="27"/>
+      <c r="BI89" s="27"/>
+      <c r="BJ89" s="28"/>
       <c r="BK89" s="4"/>
-      <c r="BL89" s="33" t="s">
+      <c r="BL89" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="BM89" s="34"/>
-      <c r="BN89" s="34"/>
-      <c r="BO89" s="34"/>
-      <c r="BP89" s="35"/>
+      <c r="BM89" s="27"/>
+      <c r="BN89" s="27"/>
+      <c r="BO89" s="27"/>
+      <c r="BP89" s="28"/>
       <c r="BQ89" s="4"/>
       <c r="BR89" s="3"/>
       <c r="BS89" s="3"/>
-      <c r="BT89" s="30" t="s">
+      <c r="BT89" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="BU89" s="31"/>
-      <c r="BV89" s="31"/>
-      <c r="BW89" s="31"/>
-      <c r="BX89" s="32"/>
+      <c r="BU89" s="33"/>
+      <c r="BV89" s="33"/>
+      <c r="BW89" s="33"/>
+      <c r="BX89" s="34"/>
       <c r="BY89" s="4"/>
-      <c r="BZ89" s="30" t="s">
+      <c r="BZ89" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="CA89" s="31"/>
-      <c r="CB89" s="31"/>
-      <c r="CC89" s="31"/>
-      <c r="CD89" s="32"/>
+      <c r="CA89" s="33"/>
+      <c r="CB89" s="33"/>
+      <c r="CC89" s="33"/>
+      <c r="CD89" s="34"/>
       <c r="CE89" s="5"/>
       <c r="CF89" s="4"/>
       <c r="CG89" s="4"/>
@@ -10926,13 +10926,13 @@
       <c r="AI90" s="4"/>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
-      <c r="AL90" s="26" t="s">
+      <c r="AL90" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="AM90" s="27"/>
-      <c r="AN90" s="27"/>
-      <c r="AO90" s="27"/>
-      <c r="AP90" s="28"/>
+      <c r="AM90" s="42"/>
+      <c r="AN90" s="42"/>
+      <c r="AO90" s="42"/>
+      <c r="AP90" s="43"/>
       <c r="AQ90" s="4"/>
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
@@ -10941,29 +10941,29 @@
       <c r="AV90" s="4"/>
       <c r="AW90" s="5"/>
       <c r="AY90" s="3"/>
-      <c r="AZ90" s="26" t="s">
+      <c r="AZ90" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="BA90" s="27"/>
-      <c r="BB90" s="27"/>
-      <c r="BC90" s="27"/>
-      <c r="BD90" s="28"/>
+      <c r="BA90" s="42"/>
+      <c r="BB90" s="42"/>
+      <c r="BC90" s="42"/>
+      <c r="BD90" s="43"/>
       <c r="BE90" s="4"/>
-      <c r="BF90" s="30" t="s">
+      <c r="BF90" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="BG90" s="31"/>
-      <c r="BH90" s="31"/>
-      <c r="BI90" s="31"/>
-      <c r="BJ90" s="32"/>
+      <c r="BG90" s="33"/>
+      <c r="BH90" s="33"/>
+      <c r="BI90" s="33"/>
+      <c r="BJ90" s="34"/>
       <c r="BK90" s="4"/>
-      <c r="BL90" s="30" t="s">
+      <c r="BL90" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="BM90" s="31"/>
-      <c r="BN90" s="31"/>
-      <c r="BO90" s="31"/>
-      <c r="BP90" s="32"/>
+      <c r="BM90" s="33"/>
+      <c r="BN90" s="33"/>
+      <c r="BO90" s="33"/>
+      <c r="BP90" s="34"/>
       <c r="BQ90" s="4"/>
       <c r="BR90" s="3"/>
       <c r="BS90" s="6"/>
@@ -10990,45 +10990,45 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="19" t="s">
+      <c r="F91" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="21"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="19" t="s">
+      <c r="L91" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="21"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="37"/>
       <c r="Q91" s="4"/>
-      <c r="R91" s="19" t="s">
+      <c r="R91" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="S91" s="20"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
-      <c r="V91" s="21"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="37"/>
       <c r="W91" s="4"/>
-      <c r="X91" s="19" t="s">
+      <c r="X91" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="Y91" s="20"/>
-      <c r="Z91" s="20"/>
-      <c r="AA91" s="20"/>
-      <c r="AB91" s="21"/>
+      <c r="Y91" s="36"/>
+      <c r="Z91" s="36"/>
+      <c r="AA91" s="36"/>
+      <c r="AB91" s="37"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="19" t="s">
+      <c r="AD91" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="AE91" s="20"/>
-      <c r="AF91" s="20"/>
-      <c r="AG91" s="20"/>
-      <c r="AH91" s="21"/>
+      <c r="AE91" s="36"/>
+      <c r="AF91" s="36"/>
+      <c r="AG91" s="36"/>
+      <c r="AH91" s="37"/>
       <c r="AI91" s="4"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="6"/>
@@ -11088,71 +11088,71 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="24"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="40"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="22" t="s">
+      <c r="L92" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="24"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="40"/>
       <c r="Q92" s="4"/>
-      <c r="R92" s="22" t="s">
+      <c r="R92" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="S92" s="23"/>
-      <c r="T92" s="23"/>
-      <c r="U92" s="23"/>
-      <c r="V92" s="24"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="40"/>
       <c r="W92" s="4"/>
-      <c r="X92" s="22" t="s">
+      <c r="X92" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="Y92" s="23"/>
-      <c r="Z92" s="23"/>
-      <c r="AA92" s="23"/>
-      <c r="AB92" s="24"/>
+      <c r="Y92" s="39"/>
+      <c r="Z92" s="39"/>
+      <c r="AA92" s="39"/>
+      <c r="AB92" s="40"/>
       <c r="AC92" s="4"/>
-      <c r="AD92" s="22" t="s">
+      <c r="AD92" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AE92" s="23"/>
-      <c r="AF92" s="23"/>
-      <c r="AG92" s="23"/>
-      <c r="AH92" s="24"/>
+      <c r="AE92" s="39"/>
+      <c r="AF92" s="39"/>
+      <c r="AG92" s="39"/>
+      <c r="AH92" s="40"/>
       <c r="AI92" s="4"/>
       <c r="AJ92" s="3"/>
       <c r="AY92" s="3"/>
-      <c r="AZ92" s="33" t="s">
+      <c r="AZ92" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="BA92" s="34"/>
-      <c r="BB92" s="34"/>
-      <c r="BC92" s="34"/>
-      <c r="BD92" s="35"/>
+      <c r="BA92" s="27"/>
+      <c r="BB92" s="27"/>
+      <c r="BC92" s="27"/>
+      <c r="BD92" s="28"/>
       <c r="BE92" s="4"/>
-      <c r="BF92" s="33" t="s">
+      <c r="BF92" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="BG92" s="34"/>
-      <c r="BH92" s="34"/>
-      <c r="BI92" s="34"/>
-      <c r="BJ92" s="35"/>
+      <c r="BG92" s="27"/>
+      <c r="BH92" s="27"/>
+      <c r="BI92" s="27"/>
+      <c r="BJ92" s="28"/>
       <c r="BK92" s="4"/>
-      <c r="BL92" s="33" t="s">
+      <c r="BL92" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="BM92" s="34"/>
-      <c r="BN92" s="34"/>
-      <c r="BO92" s="34"/>
-      <c r="BP92" s="35"/>
+      <c r="BM92" s="27"/>
+      <c r="BN92" s="27"/>
+      <c r="BO92" s="27"/>
+      <c r="BP92" s="28"/>
       <c r="BQ92" s="4"/>
       <c r="BR92" s="3"/>
       <c r="BS92" s="4"/>
@@ -11226,29 +11226,29 @@
       <c r="AV93" s="1"/>
       <c r="AW93" s="2"/>
       <c r="AY93" s="3"/>
-      <c r="AZ93" s="30" t="s">
+      <c r="AZ93" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="BA93" s="31"/>
-      <c r="BB93" s="31"/>
-      <c r="BC93" s="31"/>
-      <c r="BD93" s="32"/>
+      <c r="BA93" s="33"/>
+      <c r="BB93" s="33"/>
+      <c r="BC93" s="33"/>
+      <c r="BD93" s="34"/>
       <c r="BE93" s="4"/>
-      <c r="BF93" s="30" t="s">
+      <c r="BF93" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="BG93" s="31"/>
-      <c r="BH93" s="31"/>
-      <c r="BI93" s="31"/>
-      <c r="BJ93" s="32"/>
+      <c r="BG93" s="33"/>
+      <c r="BH93" s="33"/>
+      <c r="BI93" s="33"/>
+      <c r="BJ93" s="34"/>
       <c r="BK93" s="4"/>
-      <c r="BL93" s="30" t="s">
+      <c r="BL93" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="BM93" s="31"/>
-      <c r="BN93" s="31"/>
-      <c r="BO93" s="31"/>
-      <c r="BP93" s="32"/>
+      <c r="BM93" s="33"/>
+      <c r="BN93" s="33"/>
+      <c r="BO93" s="33"/>
+      <c r="BP93" s="34"/>
       <c r="BQ93" s="4"/>
       <c r="BR93" s="3"/>
       <c r="BS93" s="4"/>
@@ -11275,45 +11275,45 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="19" t="s">
+      <c r="F94" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="21"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="37"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="19" t="s">
+      <c r="L94" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="21"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="37"/>
       <c r="Q94" s="4"/>
-      <c r="R94" s="19" t="s">
+      <c r="R94" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="S94" s="20"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
-      <c r="V94" s="21"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="37"/>
       <c r="W94" s="4"/>
-      <c r="X94" s="19" t="s">
+      <c r="X94" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="Y94" s="20"/>
-      <c r="Z94" s="20"/>
-      <c r="AA94" s="20"/>
-      <c r="AB94" s="21"/>
+      <c r="Y94" s="36"/>
+      <c r="Z94" s="36"/>
+      <c r="AA94" s="36"/>
+      <c r="AB94" s="37"/>
       <c r="AC94" s="4"/>
-      <c r="AD94" s="19" t="s">
+      <c r="AD94" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="AE94" s="20"/>
-      <c r="AF94" s="20"/>
-      <c r="AG94" s="20"/>
-      <c r="AH94" s="21"/>
+      <c r="AE94" s="36"/>
+      <c r="AF94" s="36"/>
+      <c r="AG94" s="36"/>
+      <c r="AH94" s="37"/>
       <c r="AI94" s="4"/>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
@@ -11373,88 +11373,88 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="22" t="s">
+      <c r="F95" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="24"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="40"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="22" t="s">
+      <c r="L95" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="24"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="40"/>
       <c r="Q95" s="4"/>
-      <c r="R95" s="22" t="s">
+      <c r="R95" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="S95" s="23"/>
-      <c r="T95" s="23"/>
-      <c r="U95" s="23"/>
-      <c r="V95" s="24"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="40"/>
       <c r="W95" s="4"/>
-      <c r="X95" s="22" t="s">
+      <c r="X95" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="Y95" s="23"/>
-      <c r="Z95" s="23"/>
-      <c r="AA95" s="23"/>
-      <c r="AB95" s="24"/>
+      <c r="Y95" s="39"/>
+      <c r="Z95" s="39"/>
+      <c r="AA95" s="39"/>
+      <c r="AB95" s="40"/>
       <c r="AC95" s="4"/>
-      <c r="AD95" s="22" t="s">
+      <c r="AD95" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="AE95" s="23"/>
-      <c r="AF95" s="23"/>
-      <c r="AG95" s="23"/>
-      <c r="AH95" s="24"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="40"/>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
-      <c r="AL95" s="26" t="s">
+      <c r="AL95" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="AM95" s="27"/>
-      <c r="AN95" s="27"/>
-      <c r="AO95" s="27"/>
-      <c r="AP95" s="28"/>
+      <c r="AM95" s="42"/>
+      <c r="AN95" s="42"/>
+      <c r="AO95" s="42"/>
+      <c r="AP95" s="43"/>
       <c r="AQ95" s="4"/>
-      <c r="AR95" s="33" t="s">
+      <c r="AR95" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="AS95" s="34"/>
-      <c r="AT95" s="34"/>
-      <c r="AU95" s="34"/>
-      <c r="AV95" s="35"/>
+      <c r="AS95" s="27"/>
+      <c r="AT95" s="27"/>
+      <c r="AU95" s="27"/>
+      <c r="AV95" s="28"/>
       <c r="AW95" s="5"/>
       <c r="AY95" s="3"/>
-      <c r="AZ95" s="33" t="s">
+      <c r="AZ95" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="BA95" s="34"/>
-      <c r="BB95" s="34"/>
-      <c r="BC95" s="34"/>
-      <c r="BD95" s="35"/>
+      <c r="BA95" s="27"/>
+      <c r="BB95" s="27"/>
+      <c r="BC95" s="27"/>
+      <c r="BD95" s="28"/>
       <c r="BE95" s="4"/>
-      <c r="BF95" s="33" t="s">
+      <c r="BF95" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="BG95" s="34"/>
-      <c r="BH95" s="34"/>
-      <c r="BI95" s="34"/>
-      <c r="BJ95" s="35"/>
+      <c r="BG95" s="27"/>
+      <c r="BH95" s="27"/>
+      <c r="BI95" s="27"/>
+      <c r="BJ95" s="28"/>
       <c r="BK95" s="4"/>
-      <c r="BL95" s="33" t="s">
+      <c r="BL95" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="BM95" s="34"/>
-      <c r="BN95" s="34"/>
-      <c r="BO95" s="34"/>
-      <c r="BP95" s="35"/>
+      <c r="BM95" s="27"/>
+      <c r="BN95" s="27"/>
+      <c r="BO95" s="27"/>
+      <c r="BP95" s="28"/>
       <c r="BQ95" s="4"/>
       <c r="BR95" s="3"/>
       <c r="BS95" s="4"/>
@@ -11519,38 +11519,38 @@
       <c r="AO96" s="4"/>
       <c r="AP96" s="4"/>
       <c r="AQ96" s="4"/>
-      <c r="AR96" s="30" t="s">
+      <c r="AR96" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="AS96" s="31"/>
-      <c r="AT96" s="31"/>
-      <c r="AU96" s="31"/>
-      <c r="AV96" s="32"/>
+      <c r="AS96" s="33"/>
+      <c r="AT96" s="33"/>
+      <c r="AU96" s="33"/>
+      <c r="AV96" s="34"/>
       <c r="AW96" s="5"/>
       <c r="AY96" s="3"/>
-      <c r="AZ96" s="30" t="s">
+      <c r="AZ96" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="BA96" s="31"/>
-      <c r="BB96" s="31"/>
-      <c r="BC96" s="31"/>
-      <c r="BD96" s="32"/>
+      <c r="BA96" s="33"/>
+      <c r="BB96" s="33"/>
+      <c r="BC96" s="33"/>
+      <c r="BD96" s="34"/>
       <c r="BE96" s="4"/>
-      <c r="BF96" s="30" t="s">
+      <c r="BF96" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="BG96" s="31"/>
-      <c r="BH96" s="31"/>
-      <c r="BI96" s="31"/>
-      <c r="BJ96" s="32"/>
+      <c r="BG96" s="33"/>
+      <c r="BH96" s="33"/>
+      <c r="BI96" s="33"/>
+      <c r="BJ96" s="34"/>
       <c r="BK96" s="4"/>
-      <c r="BL96" s="30" t="s">
+      <c r="BL96" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="BM96" s="31"/>
-      <c r="BN96" s="31"/>
-      <c r="BO96" s="31"/>
-      <c r="BP96" s="32"/>
+      <c r="BM96" s="33"/>
+      <c r="BN96" s="33"/>
+      <c r="BO96" s="33"/>
+      <c r="BP96" s="34"/>
       <c r="BQ96" s="4"/>
       <c r="BR96" s="3"/>
       <c r="BS96" s="4"/>
@@ -11577,13 +11577,13 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="21"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="37"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -11611,13 +11611,13 @@
       <c r="AI97" s="4"/>
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
-      <c r="AL97" s="26" t="s">
+      <c r="AL97" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="AM97" s="27"/>
-      <c r="AN97" s="27"/>
-      <c r="AO97" s="27"/>
-      <c r="AP97" s="28"/>
+      <c r="AM97" s="42"/>
+      <c r="AN97" s="42"/>
+      <c r="AO97" s="42"/>
+      <c r="AP97" s="43"/>
       <c r="AQ97" s="4"/>
       <c r="AR97" s="4"/>
       <c r="AS97" s="4"/>
@@ -11669,13 +11669,13 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="22" t="s">
+      <c r="F98" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="24"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="40"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -11709,30 +11709,30 @@
       <c r="AO98" s="4"/>
       <c r="AP98" s="4"/>
       <c r="AQ98" s="4"/>
-      <c r="AR98" s="33" t="s">
+      <c r="AR98" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="AS98" s="34"/>
-      <c r="AT98" s="34"/>
-      <c r="AU98" s="34"/>
-      <c r="AV98" s="35"/>
+      <c r="AS98" s="27"/>
+      <c r="AT98" s="27"/>
+      <c r="AU98" s="27"/>
+      <c r="AV98" s="28"/>
       <c r="AW98" s="5"/>
       <c r="AY98" s="3"/>
-      <c r="AZ98" s="33" t="s">
+      <c r="AZ98" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="BA98" s="34"/>
-      <c r="BB98" s="34"/>
-      <c r="BC98" s="34"/>
-      <c r="BD98" s="35"/>
+      <c r="BA98" s="27"/>
+      <c r="BB98" s="27"/>
+      <c r="BC98" s="27"/>
+      <c r="BD98" s="28"/>
       <c r="BE98" s="4"/>
-      <c r="BF98" s="33" t="s">
+      <c r="BF98" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="BG98" s="34"/>
-      <c r="BH98" s="34"/>
-      <c r="BI98" s="34"/>
-      <c r="BJ98" s="35"/>
+      <c r="BG98" s="27"/>
+      <c r="BH98" s="27"/>
+      <c r="BI98" s="27"/>
+      <c r="BJ98" s="28"/>
       <c r="BK98" s="4"/>
       <c r="BL98" s="4"/>
       <c r="BM98" s="4"/>
@@ -11797,38 +11797,38 @@
       <c r="AI99" s="4"/>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
-      <c r="AL99" s="26" t="s">
+      <c r="AL99" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="AM99" s="27"/>
-      <c r="AN99" s="27"/>
-      <c r="AO99" s="27"/>
-      <c r="AP99" s="28"/>
+      <c r="AM99" s="42"/>
+      <c r="AN99" s="42"/>
+      <c r="AO99" s="42"/>
+      <c r="AP99" s="43"/>
       <c r="AQ99" s="4"/>
-      <c r="AR99" s="30" t="s">
+      <c r="AR99" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="AS99" s="31"/>
-      <c r="AT99" s="31"/>
-      <c r="AU99" s="31"/>
-      <c r="AV99" s="32"/>
+      <c r="AS99" s="33"/>
+      <c r="AT99" s="33"/>
+      <c r="AU99" s="33"/>
+      <c r="AV99" s="34"/>
       <c r="AW99" s="5"/>
       <c r="AY99" s="3"/>
-      <c r="AZ99" s="30" t="s">
+      <c r="AZ99" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="BA99" s="31"/>
-      <c r="BB99" s="31"/>
-      <c r="BC99" s="31"/>
-      <c r="BD99" s="32"/>
+      <c r="BA99" s="33"/>
+      <c r="BB99" s="33"/>
+      <c r="BC99" s="33"/>
+      <c r="BD99" s="34"/>
       <c r="BE99" s="4"/>
-      <c r="BF99" s="30" t="s">
+      <c r="BF99" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="BG99" s="31"/>
-      <c r="BH99" s="31"/>
-      <c r="BI99" s="31"/>
-      <c r="BJ99" s="32"/>
+      <c r="BG99" s="33"/>
+      <c r="BH99" s="33"/>
+      <c r="BI99" s="33"/>
+      <c r="BJ99" s="34"/>
       <c r="BK99" s="4"/>
       <c r="BL99" s="4"/>
       <c r="BM99" s="4"/>
@@ -12162,73 +12162,73 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="26" t="s">
+      <c r="F104" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="28"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="43"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="29" t="s">
+      <c r="L104" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
-      <c r="P104" s="28"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="43"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
-      <c r="T104" s="26" t="s">
+      <c r="T104" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="U104" s="27"/>
-      <c r="V104" s="27"/>
-      <c r="W104" s="27"/>
-      <c r="X104" s="28"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="42"/>
+      <c r="W104" s="42"/>
+      <c r="X104" s="43"/>
       <c r="Y104" s="4"/>
-      <c r="Z104" s="29" t="s">
+      <c r="Z104" s="53" t="s">
         <v>438</v>
       </c>
-      <c r="AA104" s="27"/>
-      <c r="AB104" s="27"/>
-      <c r="AC104" s="27"/>
-      <c r="AD104" s="28"/>
+      <c r="AA104" s="42"/>
+      <c r="AB104" s="42"/>
+      <c r="AC104" s="42"/>
+      <c r="AD104" s="43"/>
       <c r="AE104" s="5"/>
       <c r="AG104" s="3"/>
-      <c r="AH104" s="26" t="s">
+      <c r="AH104" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="AI104" s="27"/>
-      <c r="AJ104" s="27"/>
-      <c r="AK104" s="27"/>
-      <c r="AL104" s="28"/>
+      <c r="AI104" s="42"/>
+      <c r="AJ104" s="42"/>
+      <c r="AK104" s="42"/>
+      <c r="AL104" s="43"/>
       <c r="AM104" s="4"/>
-      <c r="AN104" s="19" t="s">
+      <c r="AN104" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="AO104" s="20"/>
-      <c r="AP104" s="20"/>
-      <c r="AQ104" s="20"/>
-      <c r="AR104" s="21"/>
+      <c r="AO104" s="36"/>
+      <c r="AP104" s="36"/>
+      <c r="AQ104" s="36"/>
+      <c r="AR104" s="37"/>
       <c r="AS104" s="5"/>
       <c r="AU104" s="3"/>
-      <c r="AV104" s="26" t="s">
+      <c r="AV104" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="AW104" s="27"/>
-      <c r="AX104" s="27"/>
-      <c r="AY104" s="27"/>
-      <c r="AZ104" s="28"/>
+      <c r="AW104" s="42"/>
+      <c r="AX104" s="42"/>
+      <c r="AY104" s="42"/>
+      <c r="AZ104" s="43"/>
       <c r="BA104" s="4"/>
-      <c r="BB104" s="26" t="s">
+      <c r="BB104" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="BC104" s="27"/>
-      <c r="BD104" s="27"/>
-      <c r="BE104" s="27"/>
-      <c r="BF104" s="28"/>
+      <c r="BC104" s="42"/>
+      <c r="BD104" s="42"/>
+      <c r="BE104" s="42"/>
+      <c r="BF104" s="43"/>
       <c r="BG104" s="4"/>
       <c r="BH104" s="9" t="s">
         <v>467</v>
@@ -12299,13 +12299,13 @@
       <c r="AK105" s="4"/>
       <c r="AL105" s="4"/>
       <c r="AM105" s="4"/>
-      <c r="AN105" s="22" t="s">
+      <c r="AN105" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="AO105" s="23"/>
-      <c r="AP105" s="23"/>
-      <c r="AQ105" s="23"/>
-      <c r="AR105" s="24"/>
+      <c r="AO105" s="39"/>
+      <c r="AP105" s="39"/>
+      <c r="AQ105" s="39"/>
+      <c r="AR105" s="40"/>
       <c r="AS105" s="5"/>
       <c r="AU105" s="3"/>
       <c r="AV105" s="4"/>
@@ -12354,48 +12354,48 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="21"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="37"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="19" t="s">
+      <c r="L106" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="21"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="37"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
-      <c r="T106" s="29" t="s">
+      <c r="T106" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="U106" s="27"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="27"/>
-      <c r="X106" s="28"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="42"/>
+      <c r="X106" s="43"/>
       <c r="Y106" s="4"/>
-      <c r="Z106" s="19" t="s">
+      <c r="Z106" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="AA106" s="20"/>
-      <c r="AB106" s="20"/>
-      <c r="AC106" s="20"/>
-      <c r="AD106" s="21"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="37"/>
       <c r="AE106" s="5"/>
       <c r="AG106" s="3"/>
-      <c r="AH106" s="29" t="s">
+      <c r="AH106" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="AI106" s="27"/>
-      <c r="AJ106" s="27"/>
-      <c r="AK106" s="27"/>
-      <c r="AL106" s="28"/>
+      <c r="AI106" s="42"/>
+      <c r="AJ106" s="42"/>
+      <c r="AK106" s="42"/>
+      <c r="AL106" s="43"/>
       <c r="AM106" s="4"/>
       <c r="AN106" s="4"/>
       <c r="AO106" s="4"/>
@@ -12404,30 +12404,30 @@
       <c r="AR106" s="4"/>
       <c r="AS106" s="5"/>
       <c r="AU106" s="3"/>
-      <c r="AV106" s="26" t="s">
+      <c r="AV106" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="AW106" s="27"/>
-      <c r="AX106" s="27"/>
-      <c r="AY106" s="27"/>
-      <c r="AZ106" s="28"/>
+      <c r="AW106" s="42"/>
+      <c r="AX106" s="42"/>
+      <c r="AY106" s="42"/>
+      <c r="AZ106" s="43"/>
       <c r="BA106" s="4"/>
-      <c r="BB106" s="26" t="s">
+      <c r="BB106" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="BC106" s="27"/>
-      <c r="BD106" s="27"/>
-      <c r="BE106" s="27"/>
-      <c r="BF106" s="28"/>
+      <c r="BC106" s="42"/>
+      <c r="BD106" s="42"/>
+      <c r="BE106" s="42"/>
+      <c r="BF106" s="43"/>
       <c r="BG106" s="4"/>
       <c r="BH106" s="3"/>
-      <c r="BI106" s="26" t="s">
+      <c r="BI106" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="BJ106" s="27"/>
-      <c r="BK106" s="27"/>
-      <c r="BL106" s="27"/>
-      <c r="BM106" s="28"/>
+      <c r="BJ106" s="42"/>
+      <c r="BK106" s="42"/>
+      <c r="BL106" s="42"/>
+      <c r="BM106" s="43"/>
       <c r="BN106" s="5"/>
       <c r="BO106" s="4"/>
       <c r="BP106" s="4"/>
@@ -12456,42 +12456,42 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="22" t="s">
+      <c r="F107" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="24"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="40"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="22" t="s">
+      <c r="L107" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="M107" s="23"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="23"/>
-      <c r="P107" s="24"/>
+      <c r="M107" s="39"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="40"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="Y107" s="4"/>
-      <c r="Z107" s="22" t="s">
+      <c r="Z107" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="AA107" s="23"/>
-      <c r="AB107" s="23"/>
-      <c r="AC107" s="23"/>
-      <c r="AD107" s="24"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="40"/>
       <c r="AE107" s="5"/>
       <c r="AG107" s="3"/>
       <c r="AM107" s="4"/>
-      <c r="AN107" s="19" t="s">
+      <c r="AN107" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="AO107" s="20"/>
-      <c r="AP107" s="20"/>
-      <c r="AQ107" s="20"/>
-      <c r="AR107" s="21"/>
+      <c r="AO107" s="36"/>
+      <c r="AP107" s="36"/>
+      <c r="AQ107" s="36"/>
+      <c r="AR107" s="37"/>
       <c r="AS107" s="5"/>
       <c r="AU107" s="3"/>
       <c r="AV107" s="4"/>
@@ -12554,13 +12554,13 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
-      <c r="T108" s="19" t="s">
+      <c r="T108" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="U108" s="20"/>
-      <c r="V108" s="20"/>
-      <c r="W108" s="20"/>
-      <c r="X108" s="21"/>
+      <c r="U108" s="36"/>
+      <c r="V108" s="36"/>
+      <c r="W108" s="36"/>
+      <c r="X108" s="37"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
@@ -12570,38 +12570,38 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="4"/>
       <c r="AG108" s="3"/>
-      <c r="AH108" s="29" t="s">
+      <c r="AH108" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="28"/>
+      <c r="AI108" s="42"/>
+      <c r="AJ108" s="42"/>
+      <c r="AK108" s="42"/>
+      <c r="AL108" s="43"/>
       <c r="AM108" s="4"/>
-      <c r="AN108" s="22" t="s">
+      <c r="AN108" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="AO108" s="23"/>
-      <c r="AP108" s="23"/>
-      <c r="AQ108" s="23"/>
-      <c r="AR108" s="24"/>
+      <c r="AO108" s="39"/>
+      <c r="AP108" s="39"/>
+      <c r="AQ108" s="39"/>
+      <c r="AR108" s="40"/>
       <c r="AS108" s="5"/>
       <c r="AU108" s="3"/>
-      <c r="AV108" s="26" t="s">
+      <c r="AV108" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="AW108" s="27"/>
-      <c r="AX108" s="27"/>
-      <c r="AY108" s="27"/>
-      <c r="AZ108" s="28"/>
+      <c r="AW108" s="42"/>
+      <c r="AX108" s="42"/>
+      <c r="AY108" s="42"/>
+      <c r="AZ108" s="43"/>
       <c r="BA108" s="4"/>
-      <c r="BB108" s="26" t="s">
+      <c r="BB108" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="BC108" s="27"/>
-      <c r="BD108" s="27"/>
-      <c r="BE108" s="27"/>
-      <c r="BF108" s="28"/>
+      <c r="BC108" s="42"/>
+      <c r="BD108" s="42"/>
+      <c r="BE108" s="42"/>
+      <c r="BF108" s="43"/>
       <c r="BG108" s="4"/>
       <c r="BH108" s="6"/>
       <c r="BI108" s="7"/>
@@ -12637,39 +12637,39 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="19" t="s">
+      <c r="F109" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="21"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="37"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="19" t="s">
+      <c r="L109" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="21"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="37"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
-      <c r="T109" s="22" t="s">
+      <c r="T109" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="U109" s="23"/>
-      <c r="V109" s="23"/>
-      <c r="W109" s="23"/>
-      <c r="X109" s="24"/>
+      <c r="U109" s="39"/>
+      <c r="V109" s="39"/>
+      <c r="W109" s="39"/>
+      <c r="X109" s="40"/>
       <c r="Y109" s="4"/>
-      <c r="Z109" s="19" t="s">
+      <c r="Z109" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="AA109" s="20"/>
-      <c r="AB109" s="20"/>
-      <c r="AC109" s="20"/>
-      <c r="AD109" s="21"/>
+      <c r="AA109" s="36"/>
+      <c r="AB109" s="36"/>
+      <c r="AC109" s="36"/>
+      <c r="AD109" s="37"/>
       <c r="AE109" s="5"/>
       <c r="AG109" s="3"/>
       <c r="AM109" s="4"/>
@@ -12726,21 +12726,21 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="22" t="s">
+      <c r="F110" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="24"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="40"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="22" t="s">
+      <c r="L110" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="M110" s="23"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="24"/>
+      <c r="M110" s="39"/>
+      <c r="N110" s="39"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="40"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
@@ -12750,40 +12750,40 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
-      <c r="Z110" s="22" t="s">
+      <c r="Z110" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="AA110" s="23"/>
-      <c r="AB110" s="23"/>
-      <c r="AC110" s="23"/>
-      <c r="AD110" s="24"/>
+      <c r="AA110" s="39"/>
+      <c r="AB110" s="39"/>
+      <c r="AC110" s="39"/>
+      <c r="AD110" s="40"/>
       <c r="AE110" s="5"/>
       <c r="AG110" s="3"/>
-      <c r="AH110" s="19" t="s">
+      <c r="AH110" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="AI110" s="20"/>
-      <c r="AJ110" s="20"/>
-      <c r="AK110" s="20"/>
-      <c r="AL110" s="21"/>
+      <c r="AI110" s="36"/>
+      <c r="AJ110" s="36"/>
+      <c r="AK110" s="36"/>
+      <c r="AL110" s="37"/>
       <c r="AM110" s="4"/>
       <c r="AS110" s="5"/>
       <c r="AU110" s="3"/>
-      <c r="AV110" s="26" t="s">
+      <c r="AV110" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="AW110" s="27"/>
-      <c r="AX110" s="27"/>
-      <c r="AY110" s="27"/>
-      <c r="AZ110" s="28"/>
+      <c r="AW110" s="42"/>
+      <c r="AX110" s="42"/>
+      <c r="AY110" s="42"/>
+      <c r="AZ110" s="43"/>
       <c r="BA110" s="4"/>
-      <c r="BB110" s="26" t="s">
+      <c r="BB110" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="BC110" s="27"/>
-      <c r="BD110" s="27"/>
-      <c r="BE110" s="27"/>
-      <c r="BF110" s="28"/>
+      <c r="BC110" s="42"/>
+      <c r="BD110" s="42"/>
+      <c r="BE110" s="42"/>
+      <c r="BF110" s="43"/>
       <c r="BG110" s="4"/>
       <c r="BH110" s="4"/>
       <c r="BI110" s="4"/>
@@ -12834,13 +12834,13 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
-      <c r="T111" s="19" t="s">
+      <c r="T111" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="U111" s="20"/>
-      <c r="V111" s="20"/>
-      <c r="W111" s="20"/>
-      <c r="X111" s="21"/>
+      <c r="U111" s="36"/>
+      <c r="V111" s="36"/>
+      <c r="W111" s="36"/>
+      <c r="X111" s="37"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
@@ -12849,13 +12849,13 @@
       <c r="AD111" s="4"/>
       <c r="AE111" s="5"/>
       <c r="AG111" s="3"/>
-      <c r="AH111" s="22" t="s">
+      <c r="AH111" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="AI111" s="23"/>
-      <c r="AJ111" s="23"/>
-      <c r="AK111" s="23"/>
-      <c r="AL111" s="24"/>
+      <c r="AI111" s="39"/>
+      <c r="AJ111" s="39"/>
+      <c r="AK111" s="39"/>
+      <c r="AL111" s="40"/>
       <c r="AM111" s="4"/>
       <c r="AS111" s="5"/>
       <c r="AU111" s="3"/>
@@ -12906,39 +12906,39 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="19" t="s">
+      <c r="F112" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="21"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="37"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="19" t="s">
+      <c r="L112" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="21"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="37"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
-      <c r="T112" s="22" t="s">
+      <c r="T112" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="U112" s="23"/>
-      <c r="V112" s="23"/>
-      <c r="W112" s="23"/>
-      <c r="X112" s="24"/>
+      <c r="U112" s="39"/>
+      <c r="V112" s="39"/>
+      <c r="W112" s="39"/>
+      <c r="X112" s="40"/>
       <c r="Y112" s="4"/>
-      <c r="Z112" s="19" t="s">
+      <c r="Z112" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="AA112" s="20"/>
-      <c r="AB112" s="20"/>
-      <c r="AC112" s="20"/>
-      <c r="AD112" s="21"/>
+      <c r="AA112" s="36"/>
+      <c r="AB112" s="36"/>
+      <c r="AC112" s="36"/>
+      <c r="AD112" s="37"/>
       <c r="AE112" s="5"/>
       <c r="AG112" s="3"/>
       <c r="AS112" s="5"/>
@@ -12985,21 +12985,21 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="24"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="40"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="22" t="s">
+      <c r="L113" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="M113" s="23"/>
-      <c r="N113" s="23"/>
-      <c r="O113" s="23"/>
-      <c r="P113" s="24"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="40"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
@@ -13009,13 +13009,13 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
-      <c r="Z113" s="22" t="s">
+      <c r="Z113" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="AA113" s="23"/>
-      <c r="AB113" s="23"/>
-      <c r="AC113" s="23"/>
-      <c r="AD113" s="24"/>
+      <c r="AA113" s="39"/>
+      <c r="AB113" s="39"/>
+      <c r="AC113" s="39"/>
+      <c r="AD113" s="40"/>
       <c r="AE113" s="5"/>
       <c r="AG113" s="3"/>
       <c r="AS113" s="5"/>
@@ -13076,13 +13076,13 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
-      <c r="T114" s="19" t="s">
+      <c r="T114" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="U114" s="20"/>
-      <c r="V114" s="20"/>
-      <c r="W114" s="20"/>
-      <c r="X114" s="21"/>
+      <c r="U114" s="36"/>
+      <c r="V114" s="36"/>
+      <c r="W114" s="36"/>
+      <c r="X114" s="37"/>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
@@ -13135,13 +13135,13 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="19" t="s">
+      <c r="F115" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="21"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="37"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -13151,13 +13151,13 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
-      <c r="T115" s="22" t="s">
+      <c r="T115" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="U115" s="23"/>
-      <c r="V115" s="23"/>
-      <c r="W115" s="23"/>
-      <c r="X115" s="24"/>
+      <c r="U115" s="39"/>
+      <c r="V115" s="39"/>
+      <c r="W115" s="39"/>
+      <c r="X115" s="40"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
@@ -13210,13 +13210,13 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="24"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="40"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -14604,111 +14604,314 @@
     </row>
   </sheetData>
   <mergeCells count="452">
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AI6:AM6"/>
-    <mergeCell ref="AU6:AY6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BM6:BQ6"/>
-    <mergeCell ref="BS6:BW6"/>
-    <mergeCell ref="BY6:CC6"/>
-    <mergeCell ref="CE6:CI6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AI10:AM10"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AI8:AM8"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="AU10:AY10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BG10:BK10"/>
-    <mergeCell ref="BM10:BQ10"/>
-    <mergeCell ref="BS10:BW10"/>
-    <mergeCell ref="BY10:CC10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="AU8:AY8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="BM8:BQ8"/>
-    <mergeCell ref="BS8:BW8"/>
-    <mergeCell ref="BY8:CC8"/>
-    <mergeCell ref="AO10:AS10"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AP19:AT19"/>
-    <mergeCell ref="AV19:AZ19"/>
-    <mergeCell ref="BB19:BF19"/>
-    <mergeCell ref="BN17:BR17"/>
-    <mergeCell ref="BT17:BX17"/>
-    <mergeCell ref="BZ17:CD17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BB17:BF17"/>
-    <mergeCell ref="BH17:BL17"/>
-    <mergeCell ref="AP17:AT17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="BC24:BG24"/>
-    <mergeCell ref="BI24:BM24"/>
-    <mergeCell ref="BO24:BS24"/>
-    <mergeCell ref="BU24:BY24"/>
-    <mergeCell ref="CA24:CE24"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AK26:AO26"/>
-    <mergeCell ref="AQ26:AU26"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="AJ35:AN35"/>
-    <mergeCell ref="AK24:AO24"/>
-    <mergeCell ref="AQ24:AU24"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="AP35:AT35"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="BH35:BL35"/>
-    <mergeCell ref="BH36:BL36"/>
-    <mergeCell ref="AV38:AZ38"/>
-    <mergeCell ref="AV39:AZ39"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="X46:AB46"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AV44:AZ44"/>
-    <mergeCell ref="BB44:BF44"/>
-    <mergeCell ref="BH44:BL44"/>
+    <mergeCell ref="BZ86:CD86"/>
+    <mergeCell ref="BT88:BX88"/>
+    <mergeCell ref="BZ88:CD88"/>
+    <mergeCell ref="BT89:BX89"/>
+    <mergeCell ref="BZ89:CD89"/>
+    <mergeCell ref="BF99:BJ99"/>
+    <mergeCell ref="BL86:BP86"/>
+    <mergeCell ref="BL87:BP87"/>
+    <mergeCell ref="BL89:BP89"/>
+    <mergeCell ref="BL90:BP90"/>
+    <mergeCell ref="BL92:BP92"/>
+    <mergeCell ref="AN107:AR107"/>
+    <mergeCell ref="AV110:AZ110"/>
+    <mergeCell ref="BB106:BF106"/>
+    <mergeCell ref="BB108:BF108"/>
+    <mergeCell ref="BB110:BF110"/>
+    <mergeCell ref="AH108:AL108"/>
+    <mergeCell ref="AH106:AL106"/>
+    <mergeCell ref="BP37:BT37"/>
+    <mergeCell ref="BP38:BT38"/>
+    <mergeCell ref="AN108:AR108"/>
+    <mergeCell ref="AV104:AZ104"/>
+    <mergeCell ref="AV106:AZ106"/>
+    <mergeCell ref="AV108:AZ108"/>
+    <mergeCell ref="BB104:BF104"/>
+    <mergeCell ref="BI106:BM106"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AN105:AR105"/>
+    <mergeCell ref="BL96:BP96"/>
+    <mergeCell ref="BT86:BX86"/>
+    <mergeCell ref="T114:X114"/>
+    <mergeCell ref="T115:X115"/>
+    <mergeCell ref="Z112:AD112"/>
+    <mergeCell ref="Z113:AD113"/>
+    <mergeCell ref="AH104:AL104"/>
+    <mergeCell ref="T112:X112"/>
+    <mergeCell ref="Z110:AD110"/>
+    <mergeCell ref="F115:J115"/>
+    <mergeCell ref="AH110:AL110"/>
+    <mergeCell ref="AH111:AL111"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="T104:X104"/>
+    <mergeCell ref="Z104:AD104"/>
+    <mergeCell ref="T108:X108"/>
+    <mergeCell ref="Z106:AD106"/>
+    <mergeCell ref="T109:X109"/>
+    <mergeCell ref="Z107:AD107"/>
+    <mergeCell ref="T111:X111"/>
+    <mergeCell ref="Z109:AD109"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="L109:P109"/>
+    <mergeCell ref="L110:P110"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="L112:P112"/>
+    <mergeCell ref="L113:P113"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="L104:P104"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="L106:P106"/>
+    <mergeCell ref="L107:P107"/>
+    <mergeCell ref="T106:X106"/>
+    <mergeCell ref="BL95:BP95"/>
+    <mergeCell ref="AZ98:BD98"/>
+    <mergeCell ref="AZ99:BD99"/>
+    <mergeCell ref="BF86:BJ86"/>
+    <mergeCell ref="BF87:BJ87"/>
+    <mergeCell ref="BF89:BJ89"/>
+    <mergeCell ref="BF90:BJ90"/>
+    <mergeCell ref="BF93:BJ93"/>
+    <mergeCell ref="BF95:BJ95"/>
+    <mergeCell ref="BF96:BJ96"/>
+    <mergeCell ref="BF98:BJ98"/>
+    <mergeCell ref="AL99:AP99"/>
+    <mergeCell ref="AR98:AV98"/>
+    <mergeCell ref="AR99:AV99"/>
+    <mergeCell ref="AZ86:BD86"/>
+    <mergeCell ref="AZ88:BD88"/>
+    <mergeCell ref="AZ90:BD90"/>
+    <mergeCell ref="AZ92:BD92"/>
+    <mergeCell ref="AZ93:BD93"/>
+    <mergeCell ref="AZ95:BD95"/>
+    <mergeCell ref="AZ96:BD96"/>
+    <mergeCell ref="BF92:BJ92"/>
+    <mergeCell ref="AL90:AP90"/>
+    <mergeCell ref="AL95:AP95"/>
+    <mergeCell ref="AR95:AV95"/>
+    <mergeCell ref="AR96:AV96"/>
+    <mergeCell ref="AL97:AP97"/>
+    <mergeCell ref="BZ73:CD73"/>
+    <mergeCell ref="AL86:AP86"/>
+    <mergeCell ref="AL88:AP88"/>
+    <mergeCell ref="AR86:AV86"/>
+    <mergeCell ref="AR87:AV87"/>
+    <mergeCell ref="BT73:BX73"/>
+    <mergeCell ref="BZ75:CD75"/>
+    <mergeCell ref="BZ76:CD76"/>
+    <mergeCell ref="BT75:BX75"/>
+    <mergeCell ref="BT76:BX76"/>
+    <mergeCell ref="BZ78:CD78"/>
+    <mergeCell ref="BZ79:CD79"/>
+    <mergeCell ref="BT78:BX78"/>
+    <mergeCell ref="BT79:BX79"/>
+    <mergeCell ref="AZ73:BD73"/>
+    <mergeCell ref="BF73:BJ73"/>
+    <mergeCell ref="BL73:BP73"/>
+    <mergeCell ref="BL93:BP93"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="AD91:AH91"/>
+    <mergeCell ref="AD92:AH92"/>
+    <mergeCell ref="AD94:AH94"/>
+    <mergeCell ref="AD95:AH95"/>
+    <mergeCell ref="X88:AB88"/>
+    <mergeCell ref="X89:AB89"/>
+    <mergeCell ref="X91:AB91"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="X94:AB94"/>
+    <mergeCell ref="X95:AB95"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="R91:V91"/>
+    <mergeCell ref="R92:V92"/>
+    <mergeCell ref="R94:V94"/>
+    <mergeCell ref="R95:V95"/>
+    <mergeCell ref="L88:P88"/>
+    <mergeCell ref="L89:P89"/>
+    <mergeCell ref="L91:P91"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="L94:P94"/>
+    <mergeCell ref="L95:P95"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="L86:P86"/>
+    <mergeCell ref="R86:V86"/>
+    <mergeCell ref="X86:AB86"/>
+    <mergeCell ref="AD86:AH86"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="R88:V88"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="BL75:BP75"/>
+    <mergeCell ref="BL76:BP76"/>
+    <mergeCell ref="BL78:BP78"/>
+    <mergeCell ref="BL79:BP79"/>
+    <mergeCell ref="BF75:BJ75"/>
+    <mergeCell ref="BF76:BJ76"/>
+    <mergeCell ref="BF79:BJ79"/>
+    <mergeCell ref="AZ78:BD78"/>
+    <mergeCell ref="BF78:BJ78"/>
+    <mergeCell ref="AZ75:BD75"/>
+    <mergeCell ref="AZ76:BD76"/>
+    <mergeCell ref="AZ79:BD79"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="BZ67:CD67"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="AR77:AV77"/>
+    <mergeCell ref="AR74:AV74"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AR76:AV76"/>
+    <mergeCell ref="AR73:AV73"/>
+    <mergeCell ref="BL67:BP67"/>
+    <mergeCell ref="BL68:BP68"/>
+    <mergeCell ref="BR67:BV67"/>
+    <mergeCell ref="AT68:AX68"/>
+    <mergeCell ref="AZ67:BD67"/>
+    <mergeCell ref="AZ68:BD68"/>
+    <mergeCell ref="BF67:BJ67"/>
+    <mergeCell ref="BF68:BJ68"/>
+    <mergeCell ref="AL67:AP67"/>
+    <mergeCell ref="AL69:AP69"/>
+    <mergeCell ref="BZ68:CD68"/>
+    <mergeCell ref="BZ69:CD69"/>
+    <mergeCell ref="AL65:AP65"/>
+    <mergeCell ref="AT65:AX65"/>
+    <mergeCell ref="BL65:BP65"/>
+    <mergeCell ref="BR59:BV59"/>
+    <mergeCell ref="BL60:BP60"/>
+    <mergeCell ref="BR54:BV54"/>
+    <mergeCell ref="BR56:BV56"/>
+    <mergeCell ref="BR57:BV57"/>
+    <mergeCell ref="CD54:CH54"/>
+    <mergeCell ref="CD55:CH55"/>
+    <mergeCell ref="CD57:CH57"/>
+    <mergeCell ref="BL54:BP54"/>
+    <mergeCell ref="BL56:BP56"/>
+    <mergeCell ref="BL58:BP58"/>
+    <mergeCell ref="BZ65:CD65"/>
+    <mergeCell ref="BR65:BV65"/>
+    <mergeCell ref="AZ65:BD65"/>
+    <mergeCell ref="BF65:BJ65"/>
+    <mergeCell ref="AL68:AP68"/>
+    <mergeCell ref="AT67:AX67"/>
+    <mergeCell ref="AD77:AH77"/>
+    <mergeCell ref="AD78:AH78"/>
+    <mergeCell ref="X72:AB72"/>
+    <mergeCell ref="X73:AB73"/>
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="X75:AB75"/>
+    <mergeCell ref="X76:AB76"/>
+    <mergeCell ref="X77:AB77"/>
+    <mergeCell ref="X78:AB78"/>
+    <mergeCell ref="AD72:AH72"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="L80:P80"/>
+    <mergeCell ref="R76:V76"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="R72:V72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="R73:V73"/>
+    <mergeCell ref="R78:V78"/>
+    <mergeCell ref="R79:V79"/>
+    <mergeCell ref="X54:AB54"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="CF44:CH44"/>
+    <mergeCell ref="CF45:CH45"/>
+    <mergeCell ref="BP35:BT35"/>
+    <mergeCell ref="L63:P63"/>
+    <mergeCell ref="BD54:BH54"/>
+    <mergeCell ref="BD56:BH56"/>
+    <mergeCell ref="BD57:BH57"/>
+    <mergeCell ref="CD35:CH35"/>
+    <mergeCell ref="BH46:BL46"/>
+    <mergeCell ref="BT44:BX44"/>
+    <mergeCell ref="BZ44:CD44"/>
+    <mergeCell ref="BH38:BL38"/>
+    <mergeCell ref="BH39:BL39"/>
+    <mergeCell ref="BB35:BF35"/>
+    <mergeCell ref="BB36:BF36"/>
+    <mergeCell ref="BB38:BF38"/>
+    <mergeCell ref="BB39:BF39"/>
+    <mergeCell ref="CD58:CH58"/>
+    <mergeCell ref="BX54:CB54"/>
+    <mergeCell ref="BX55:CB55"/>
+    <mergeCell ref="BX57:CB57"/>
+    <mergeCell ref="BX58:CB58"/>
+    <mergeCell ref="AJ54:AN54"/>
+    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="AV46:AZ46"/>
+    <mergeCell ref="BB46:BF46"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="AP39:AT39"/>
+    <mergeCell ref="AJ37:AN37"/>
+    <mergeCell ref="L64:P64"/>
+    <mergeCell ref="X63:AB63"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="X44:AB44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="AJ44:AN44"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="AJ39:AN39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="X39:AB39"/>
+    <mergeCell ref="X37:AB37"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="AX59:BB59"/>
+    <mergeCell ref="AX57:BB57"/>
+    <mergeCell ref="AX60:BB60"/>
+    <mergeCell ref="AR59:AV59"/>
+    <mergeCell ref="AR60:AV60"/>
+    <mergeCell ref="AX54:BB54"/>
+    <mergeCell ref="AR54:AV54"/>
+    <mergeCell ref="AR56:AV56"/>
+    <mergeCell ref="AR57:AV57"/>
+    <mergeCell ref="AX56:BB56"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="R75:V75"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="X56:AB56"/>
+    <mergeCell ref="X57:AB57"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="R65:V65"/>
+    <mergeCell ref="R66:V66"/>
+    <mergeCell ref="X65:AB65"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="L74:P74"/>
     <mergeCell ref="BN44:BR44"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="F54:J54"/>
@@ -14733,329 +14936,126 @@
     <mergeCell ref="F48:J48"/>
     <mergeCell ref="L49:P49"/>
     <mergeCell ref="R48:V48"/>
+    <mergeCell ref="BH35:BL35"/>
+    <mergeCell ref="BH36:BL36"/>
+    <mergeCell ref="AV38:AZ38"/>
+    <mergeCell ref="AV39:AZ39"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="X46:AB46"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AV44:AZ44"/>
+    <mergeCell ref="BB44:BF44"/>
+    <mergeCell ref="BH44:BL44"/>
     <mergeCell ref="AD46:AH46"/>
     <mergeCell ref="AJ46:AN46"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="L67:P67"/>
-    <mergeCell ref="R63:V63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="R75:V75"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="X56:AB56"/>
-    <mergeCell ref="X57:AB57"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="S24:W24"/>
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="L36:P36"/>
     <mergeCell ref="L37:P37"/>
     <mergeCell ref="L38:P38"/>
-    <mergeCell ref="AX59:BB59"/>
-    <mergeCell ref="AX57:BB57"/>
-    <mergeCell ref="AX60:BB60"/>
-    <mergeCell ref="AR59:AV59"/>
-    <mergeCell ref="AR60:AV60"/>
-    <mergeCell ref="AX54:BB54"/>
-    <mergeCell ref="AR54:AV54"/>
-    <mergeCell ref="AR56:AV56"/>
-    <mergeCell ref="AR57:AV57"/>
-    <mergeCell ref="AX56:BB56"/>
-    <mergeCell ref="AJ54:AN54"/>
-    <mergeCell ref="AJ55:AN55"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="AV46:AZ46"/>
-    <mergeCell ref="BB46:BF46"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="AP39:AT39"/>
-    <mergeCell ref="AJ37:AN37"/>
-    <mergeCell ref="L64:P64"/>
-    <mergeCell ref="R65:V65"/>
-    <mergeCell ref="R66:V66"/>
-    <mergeCell ref="X63:AB63"/>
-    <mergeCell ref="X65:AB65"/>
-    <mergeCell ref="X66:AB66"/>
     <mergeCell ref="AV35:AZ35"/>
     <mergeCell ref="AV36:AZ36"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="X44:AB44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="AJ44:AN44"/>
-    <mergeCell ref="L39:P39"/>
     <mergeCell ref="R35:V35"/>
     <mergeCell ref="R36:V36"/>
     <mergeCell ref="X35:AB35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="AJ35:AN35"/>
+    <mergeCell ref="AK24:AO24"/>
+    <mergeCell ref="AQ24:AU24"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="AP35:AT35"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="S24:W24"/>
     <mergeCell ref="AD35:AH35"/>
     <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="AJ39:AN39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="X39:AB39"/>
-    <mergeCell ref="X37:AB37"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="X54:AB54"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="CF44:CH44"/>
-    <mergeCell ref="CF45:CH45"/>
-    <mergeCell ref="BP35:BT35"/>
-    <mergeCell ref="L63:P63"/>
-    <mergeCell ref="BD54:BH54"/>
-    <mergeCell ref="BD56:BH56"/>
-    <mergeCell ref="BD57:BH57"/>
-    <mergeCell ref="CD35:CH35"/>
-    <mergeCell ref="BH46:BL46"/>
-    <mergeCell ref="BT44:BX44"/>
-    <mergeCell ref="BZ44:CD44"/>
-    <mergeCell ref="BH38:BL38"/>
-    <mergeCell ref="BH39:BL39"/>
-    <mergeCell ref="BB35:BF35"/>
-    <mergeCell ref="BB36:BF36"/>
-    <mergeCell ref="BB38:BF38"/>
-    <mergeCell ref="BB39:BF39"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="L74:P74"/>
-    <mergeCell ref="L76:P76"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="L80:P80"/>
-    <mergeCell ref="R76:V76"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="R72:V72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="R73:V73"/>
-    <mergeCell ref="R78:V78"/>
-    <mergeCell ref="R79:V79"/>
-    <mergeCell ref="AL68:AP68"/>
-    <mergeCell ref="AT67:AX67"/>
-    <mergeCell ref="AD77:AH77"/>
-    <mergeCell ref="AD78:AH78"/>
-    <mergeCell ref="X72:AB72"/>
-    <mergeCell ref="X73:AB73"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="X75:AB75"/>
-    <mergeCell ref="X76:AB76"/>
-    <mergeCell ref="X77:AB77"/>
-    <mergeCell ref="X78:AB78"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="CD58:CH58"/>
-    <mergeCell ref="BX54:CB54"/>
-    <mergeCell ref="BX55:CB55"/>
-    <mergeCell ref="BX57:CB57"/>
-    <mergeCell ref="BX58:CB58"/>
-    <mergeCell ref="AL65:AP65"/>
-    <mergeCell ref="AT65:AX65"/>
-    <mergeCell ref="BL65:BP65"/>
-    <mergeCell ref="BR59:BV59"/>
-    <mergeCell ref="BL60:BP60"/>
-    <mergeCell ref="BR54:BV54"/>
-    <mergeCell ref="BR56:BV56"/>
-    <mergeCell ref="BR57:BV57"/>
-    <mergeCell ref="CD54:CH54"/>
-    <mergeCell ref="CD55:CH55"/>
-    <mergeCell ref="CD57:CH57"/>
-    <mergeCell ref="BL54:BP54"/>
-    <mergeCell ref="BL56:BP56"/>
-    <mergeCell ref="BL58:BP58"/>
-    <mergeCell ref="BZ65:CD65"/>
-    <mergeCell ref="BZ67:CD67"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="AR77:AV77"/>
-    <mergeCell ref="AR74:AV74"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AR76:AV76"/>
-    <mergeCell ref="AR73:AV73"/>
-    <mergeCell ref="BL67:BP67"/>
-    <mergeCell ref="BL68:BP68"/>
-    <mergeCell ref="BR65:BV65"/>
-    <mergeCell ref="BR67:BV67"/>
-    <mergeCell ref="AT68:AX68"/>
-    <mergeCell ref="AZ65:BD65"/>
-    <mergeCell ref="AZ67:BD67"/>
-    <mergeCell ref="AZ68:BD68"/>
-    <mergeCell ref="BF65:BJ65"/>
-    <mergeCell ref="BF67:BJ67"/>
-    <mergeCell ref="BF68:BJ68"/>
-    <mergeCell ref="AL67:AP67"/>
-    <mergeCell ref="AL69:AP69"/>
-    <mergeCell ref="AD86:AH86"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="R88:V88"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="BL75:BP75"/>
-    <mergeCell ref="BL76:BP76"/>
-    <mergeCell ref="BL78:BP78"/>
-    <mergeCell ref="BL79:BP79"/>
-    <mergeCell ref="BF75:BJ75"/>
-    <mergeCell ref="BF76:BJ76"/>
-    <mergeCell ref="BF79:BJ79"/>
-    <mergeCell ref="AZ78:BD78"/>
-    <mergeCell ref="BF78:BJ78"/>
-    <mergeCell ref="AZ75:BD75"/>
-    <mergeCell ref="AZ76:BD76"/>
-    <mergeCell ref="AZ79:BD79"/>
-    <mergeCell ref="L81:P81"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="L78:P78"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="L86:P86"/>
-    <mergeCell ref="R86:V86"/>
-    <mergeCell ref="X86:AB86"/>
-    <mergeCell ref="F97:J97"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="AD91:AH91"/>
-    <mergeCell ref="AD92:AH92"/>
-    <mergeCell ref="AD94:AH94"/>
-    <mergeCell ref="AD95:AH95"/>
-    <mergeCell ref="X88:AB88"/>
-    <mergeCell ref="X89:AB89"/>
-    <mergeCell ref="X91:AB91"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="X94:AB94"/>
-    <mergeCell ref="X95:AB95"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="R91:V91"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="R94:V94"/>
-    <mergeCell ref="R95:V95"/>
-    <mergeCell ref="L88:P88"/>
-    <mergeCell ref="L89:P89"/>
-    <mergeCell ref="L91:P91"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="L94:P94"/>
-    <mergeCell ref="L95:P95"/>
-    <mergeCell ref="BZ68:CD68"/>
-    <mergeCell ref="BF92:BJ92"/>
-    <mergeCell ref="AL90:AP90"/>
-    <mergeCell ref="AL95:AP95"/>
-    <mergeCell ref="AR95:AV95"/>
-    <mergeCell ref="AR96:AV96"/>
-    <mergeCell ref="AL97:AP97"/>
-    <mergeCell ref="BZ73:CD73"/>
-    <mergeCell ref="AL86:AP86"/>
-    <mergeCell ref="AL88:AP88"/>
-    <mergeCell ref="AR86:AV86"/>
-    <mergeCell ref="AR87:AV87"/>
-    <mergeCell ref="BT73:BX73"/>
-    <mergeCell ref="BZ75:CD75"/>
-    <mergeCell ref="BZ76:CD76"/>
-    <mergeCell ref="BT75:BX75"/>
-    <mergeCell ref="BT76:BX76"/>
-    <mergeCell ref="BZ78:CD78"/>
-    <mergeCell ref="BZ79:CD79"/>
-    <mergeCell ref="BT78:BX78"/>
-    <mergeCell ref="BT79:BX79"/>
-    <mergeCell ref="AZ73:BD73"/>
-    <mergeCell ref="BF73:BJ73"/>
-    <mergeCell ref="BL73:BP73"/>
-    <mergeCell ref="AL99:AP99"/>
-    <mergeCell ref="AR98:AV98"/>
-    <mergeCell ref="AR99:AV99"/>
-    <mergeCell ref="AZ86:BD86"/>
-    <mergeCell ref="AZ88:BD88"/>
-    <mergeCell ref="AZ90:BD90"/>
-    <mergeCell ref="AZ92:BD92"/>
-    <mergeCell ref="AZ93:BD93"/>
-    <mergeCell ref="AZ95:BD95"/>
-    <mergeCell ref="AZ96:BD96"/>
-    <mergeCell ref="BL93:BP93"/>
-    <mergeCell ref="BL95:BP95"/>
-    <mergeCell ref="AZ98:BD98"/>
-    <mergeCell ref="AZ99:BD99"/>
-    <mergeCell ref="BF86:BJ86"/>
-    <mergeCell ref="BF87:BJ87"/>
-    <mergeCell ref="BF89:BJ89"/>
-    <mergeCell ref="BF90:BJ90"/>
-    <mergeCell ref="BF93:BJ93"/>
-    <mergeCell ref="BF95:BJ95"/>
-    <mergeCell ref="BF96:BJ96"/>
-    <mergeCell ref="BF98:BJ98"/>
-    <mergeCell ref="F116:J116"/>
-    <mergeCell ref="T104:X104"/>
-    <mergeCell ref="Z104:AD104"/>
-    <mergeCell ref="T108:X108"/>
-    <mergeCell ref="Z106:AD106"/>
-    <mergeCell ref="T109:X109"/>
-    <mergeCell ref="Z107:AD107"/>
-    <mergeCell ref="T111:X111"/>
-    <mergeCell ref="Z109:AD109"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="L109:P109"/>
-    <mergeCell ref="L110:P110"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="L112:P112"/>
-    <mergeCell ref="L113:P113"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="L104:P104"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="L106:P106"/>
-    <mergeCell ref="L107:P107"/>
-    <mergeCell ref="T106:X106"/>
-    <mergeCell ref="T114:X114"/>
-    <mergeCell ref="T115:X115"/>
-    <mergeCell ref="Z112:AD112"/>
-    <mergeCell ref="Z113:AD113"/>
-    <mergeCell ref="AH104:AL104"/>
-    <mergeCell ref="T112:X112"/>
-    <mergeCell ref="Z110:AD110"/>
-    <mergeCell ref="F115:J115"/>
-    <mergeCell ref="AH110:AL110"/>
-    <mergeCell ref="AH111:AL111"/>
-    <mergeCell ref="AN107:AR107"/>
-    <mergeCell ref="AV110:AZ110"/>
-    <mergeCell ref="BB106:BF106"/>
-    <mergeCell ref="BB108:BF108"/>
-    <mergeCell ref="BB110:BF110"/>
-    <mergeCell ref="AH108:AL108"/>
-    <mergeCell ref="AH106:AL106"/>
-    <mergeCell ref="BP37:BT37"/>
-    <mergeCell ref="BP38:BT38"/>
-    <mergeCell ref="AN108:AR108"/>
-    <mergeCell ref="BZ69:CD69"/>
-    <mergeCell ref="AV104:AZ104"/>
-    <mergeCell ref="AV106:AZ106"/>
-    <mergeCell ref="AV108:AZ108"/>
-    <mergeCell ref="BB104:BF104"/>
-    <mergeCell ref="BI106:BM106"/>
-    <mergeCell ref="AN104:AR104"/>
-    <mergeCell ref="AN105:AR105"/>
-    <mergeCell ref="BL96:BP96"/>
-    <mergeCell ref="BT86:BX86"/>
-    <mergeCell ref="BZ86:CD86"/>
-    <mergeCell ref="BT88:BX88"/>
-    <mergeCell ref="BZ88:CD88"/>
-    <mergeCell ref="BT89:BX89"/>
-    <mergeCell ref="BZ89:CD89"/>
-    <mergeCell ref="BF99:BJ99"/>
-    <mergeCell ref="BL86:BP86"/>
-    <mergeCell ref="BL87:BP87"/>
-    <mergeCell ref="BL89:BP89"/>
-    <mergeCell ref="BL90:BP90"/>
-    <mergeCell ref="BL92:BP92"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="BC24:BG24"/>
+    <mergeCell ref="BI24:BM24"/>
+    <mergeCell ref="BO24:BS24"/>
+    <mergeCell ref="BU24:BY24"/>
+    <mergeCell ref="CA24:CE24"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AK26:AO26"/>
+    <mergeCell ref="AQ26:AU26"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AP19:AT19"/>
+    <mergeCell ref="AV19:AZ19"/>
+    <mergeCell ref="BB19:BF19"/>
+    <mergeCell ref="BN17:BR17"/>
+    <mergeCell ref="BT17:BX17"/>
+    <mergeCell ref="BZ17:CD17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BB17:BF17"/>
+    <mergeCell ref="BH17:BL17"/>
+    <mergeCell ref="AP17:AT17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BG10:BK10"/>
+    <mergeCell ref="BM10:BQ10"/>
+    <mergeCell ref="BS10:BW10"/>
+    <mergeCell ref="BY10:CC10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="AU8:AY8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="BM8:BQ8"/>
+    <mergeCell ref="BS8:BW8"/>
+    <mergeCell ref="BY8:CC8"/>
+    <mergeCell ref="AO10:AS10"/>
+    <mergeCell ref="CE6:CI6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AI10:AM10"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AI8:AM8"/>
+    <mergeCell ref="AO8:AS8"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AI6:AM6"/>
+    <mergeCell ref="AU6:AY6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BM6:BQ6"/>
+    <mergeCell ref="BS6:BW6"/>
+    <mergeCell ref="BY6:CC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15067,67 +15067,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AX84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:50" s="52" customFormat="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="1:50" s="20" customFormat="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:50" ht="14.25" thickBot="1"/>
     <row r="4" spans="1:50">
@@ -16378,60 +16378,60 @@
       <c r="AR32" s="8"/>
     </row>
     <row r="34" spans="1:50">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
     </row>
     <row r="35" spans="1:50">
       <c r="C35" t="s">
@@ -16439,172 +16439,172 @@
       </c>
     </row>
     <row r="36" spans="1:50">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
     </row>
     <row r="37" spans="1:50">
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
     </row>
     <row r="38" spans="1:50">
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
     </row>
     <row r="39" spans="1:50">
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
     </row>
     <row r="40" spans="1:50">
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
     </row>
     <row r="42" spans="1:50">
       <c r="C42" t="s">
@@ -16727,60 +16727,60 @@
       </c>
     </row>
     <row r="84" spans="1:50">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="51"/>
-      <c r="O84" s="51"/>
-      <c r="P84" s="51"/>
-      <c r="Q84" s="51"/>
-      <c r="R84" s="51"/>
-      <c r="S84" s="51"/>
-      <c r="T84" s="51"/>
-      <c r="U84" s="51"/>
-      <c r="V84" s="51"/>
-      <c r="W84" s="51"/>
-      <c r="X84" s="51"/>
-      <c r="Y84" s="51"/>
-      <c r="Z84" s="51"/>
-      <c r="AA84" s="51"/>
-      <c r="AB84" s="51"/>
-      <c r="AC84" s="51"/>
-      <c r="AD84" s="51"/>
-      <c r="AE84" s="51"/>
-      <c r="AF84" s="51"/>
-      <c r="AG84" s="51"/>
-      <c r="AH84" s="51"/>
-      <c r="AI84" s="51"/>
-      <c r="AJ84" s="51"/>
-      <c r="AK84" s="51"/>
-      <c r="AL84" s="51"/>
-      <c r="AM84" s="51"/>
-      <c r="AN84" s="51"/>
-      <c r="AO84" s="51"/>
-      <c r="AP84" s="51"/>
-      <c r="AQ84" s="51"/>
-      <c r="AR84" s="51"/>
-      <c r="AS84" s="51"/>
-      <c r="AT84" s="51"/>
-      <c r="AU84" s="51"/>
-      <c r="AV84" s="51"/>
-      <c r="AW84" s="51"/>
-      <c r="AX84" s="51"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="19"/>
+      <c r="AE84" s="19"/>
+      <c r="AF84" s="19"/>
+      <c r="AG84" s="19"/>
+      <c r="AH84" s="19"/>
+      <c r="AI84" s="19"/>
+      <c r="AJ84" s="19"/>
+      <c r="AK84" s="19"/>
+      <c r="AL84" s="19"/>
+      <c r="AM84" s="19"/>
+      <c r="AN84" s="19"/>
+      <c r="AO84" s="19"/>
+      <c r="AP84" s="19"/>
+      <c r="AQ84" s="19"/>
+      <c r="AR84" s="19"/>
+      <c r="AS84" s="19"/>
+      <c r="AT84" s="19"/>
+      <c r="AU84" s="19"/>
+      <c r="AV84" s="19"/>
+      <c r="AW84" s="19"/>
+      <c r="AX84" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/font/freetype2.xlsx
+++ b/font/freetype2.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="编译系统" sheetId="2" r:id="rId1"/>
+    <sheet name="编译系统(Jam)" sheetId="2" r:id="rId1"/>
     <sheet name="目录结构" sheetId="1" r:id="rId2"/>
     <sheet name="bzip2" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="511">
   <si>
     <t>freetype2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2564,16 +2564,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2583,15 +2580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2612,6 +2600,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,19 +2612,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2645,20 +2651,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2954,14 +2954,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:AX3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:50">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2971,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:CK131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP50" sqref="AP50"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CC37" sqref="CC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -3341,117 +3398,117 @@
     <row r="6" spans="3:89">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="22" t="s">
+      <c r="AC6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="22" t="s">
+      <c r="AI6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="22" t="s">
+      <c r="AO6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
       <c r="AT6" s="11"/>
-      <c r="AU6" s="22" t="s">
+      <c r="AU6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
       <c r="AZ6" s="4"/>
-      <c r="BA6" s="22" t="s">
+      <c r="BA6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
       <c r="BF6" s="4"/>
-      <c r="BG6" s="22" t="s">
+      <c r="BG6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="22"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
       <c r="BL6" s="4"/>
-      <c r="BM6" s="22" t="s">
+      <c r="BM6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="22"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
+      <c r="BQ6" s="51"/>
       <c r="BR6" s="4"/>
-      <c r="BS6" s="22" t="s">
+      <c r="BS6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="BT6" s="22"/>
-      <c r="BU6" s="22"/>
-      <c r="BV6" s="22"/>
-      <c r="BW6" s="22"/>
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="51"/>
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="51"/>
       <c r="BX6" s="4"/>
-      <c r="BY6" s="22" t="s">
+      <c r="BY6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BZ6" s="22"/>
-      <c r="CA6" s="22"/>
-      <c r="CB6" s="22"/>
-      <c r="CC6" s="22"/>
+      <c r="BZ6" s="51"/>
+      <c r="CA6" s="51"/>
+      <c r="CB6" s="51"/>
+      <c r="CC6" s="51"/>
       <c r="CD6" s="4"/>
-      <c r="CE6" s="22" t="s">
+      <c r="CE6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="CF6" s="22"/>
-      <c r="CG6" s="22"/>
-      <c r="CH6" s="22"/>
-      <c r="CI6" s="22"/>
+      <c r="CF6" s="51"/>
+      <c r="CG6" s="51"/>
+      <c r="CH6" s="51"/>
+      <c r="CI6" s="51"/>
       <c r="CJ6" s="5"/>
       <c r="CK6" s="5"/>
     </row>
@@ -3547,117 +3604,117 @@
     <row r="8" spans="3:89">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="22" t="s">
+      <c r="W8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="22" t="s">
+      <c r="AC8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="22" t="s">
+      <c r="AI8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="22" t="s">
+      <c r="AO8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AT8" s="11"/>
-      <c r="AU8" s="22" t="s">
+      <c r="AU8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-      <c r="AX8" s="22"/>
-      <c r="AY8" s="22"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="51"/>
       <c r="AZ8" s="4"/>
-      <c r="BA8" s="22" t="s">
+      <c r="BA8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="BB8" s="22"/>
-      <c r="BC8" s="22"/>
-      <c r="BD8" s="22"/>
-      <c r="BE8" s="22"/>
+      <c r="BB8" s="51"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="51"/>
       <c r="BF8" s="4"/>
-      <c r="BG8" s="22" t="s">
+      <c r="BG8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BH8" s="22"/>
-      <c r="BI8" s="22"/>
-      <c r="BJ8" s="22"/>
-      <c r="BK8" s="22"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="51"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="22" t="s">
+      <c r="BM8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="BN8" s="22"/>
-      <c r="BO8" s="22"/>
-      <c r="BP8" s="22"/>
-      <c r="BQ8" s="22"/>
+      <c r="BN8" s="51"/>
+      <c r="BO8" s="51"/>
+      <c r="BP8" s="51"/>
+      <c r="BQ8" s="51"/>
       <c r="BR8" s="4"/>
-      <c r="BS8" s="22" t="s">
+      <c r="BS8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BT8" s="22"/>
-      <c r="BU8" s="22"/>
-      <c r="BV8" s="22"/>
-      <c r="BW8" s="22"/>
+      <c r="BT8" s="51"/>
+      <c r="BU8" s="51"/>
+      <c r="BV8" s="51"/>
+      <c r="BW8" s="51"/>
       <c r="BX8" s="4"/>
-      <c r="BY8" s="22" t="s">
+      <c r="BY8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BZ8" s="22"/>
-      <c r="CA8" s="22"/>
-      <c r="CB8" s="22"/>
-      <c r="CC8" s="22"/>
+      <c r="BZ8" s="51"/>
+      <c r="CA8" s="51"/>
+      <c r="CB8" s="51"/>
+      <c r="CC8" s="51"/>
       <c r="CD8" s="4"/>
-      <c r="CE8" s="22" t="s">
+      <c r="CE8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="CF8" s="22"/>
-      <c r="CG8" s="22"/>
-      <c r="CH8" s="22"/>
-      <c r="CI8" s="22"/>
+      <c r="CF8" s="51"/>
+      <c r="CG8" s="51"/>
+      <c r="CH8" s="51"/>
+      <c r="CI8" s="51"/>
       <c r="CJ8" s="5"/>
       <c r="CK8" s="5"/>
     </row>
@@ -3753,117 +3810,117 @@
     <row r="10" spans="3:89">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="22" t="s">
+      <c r="W10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="22" t="s">
+      <c r="AC10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="22" t="s">
+      <c r="AI10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="22" t="s">
+      <c r="AO10" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
       <c r="AT10" s="11"/>
-      <c r="AU10" s="22" t="s">
+      <c r="AU10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="22"/>
-      <c r="AY10" s="22"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
       <c r="AZ10" s="4"/>
-      <c r="BA10" s="22" t="s">
+      <c r="BA10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
+      <c r="BB10" s="51"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
       <c r="BF10" s="4"/>
-      <c r="BG10" s="22" t="s">
+      <c r="BG10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
       <c r="BL10" s="4"/>
-      <c r="BM10" s="22" t="s">
+      <c r="BM10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
+      <c r="BN10" s="51"/>
+      <c r="BO10" s="51"/>
+      <c r="BP10" s="51"/>
+      <c r="BQ10" s="51"/>
       <c r="BR10" s="4"/>
-      <c r="BS10" s="22" t="s">
+      <c r="BS10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="22"/>
-      <c r="BV10" s="22"/>
-      <c r="BW10" s="22"/>
+      <c r="BT10" s="51"/>
+      <c r="BU10" s="51"/>
+      <c r="BV10" s="51"/>
+      <c r="BW10" s="51"/>
       <c r="BX10" s="4"/>
-      <c r="BY10" s="22" t="s">
+      <c r="BY10" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="BZ10" s="22"/>
-      <c r="CA10" s="22"/>
-      <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
+      <c r="BZ10" s="51"/>
+      <c r="CA10" s="51"/>
+      <c r="CB10" s="51"/>
+      <c r="CC10" s="51"/>
       <c r="CD10" s="4"/>
-      <c r="CE10" s="22" t="s">
+      <c r="CE10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="CF10" s="22"/>
-      <c r="CG10" s="22"/>
-      <c r="CH10" s="22"/>
-      <c r="CI10" s="22"/>
+      <c r="CF10" s="51"/>
+      <c r="CG10" s="51"/>
+      <c r="CH10" s="51"/>
+      <c r="CI10" s="51"/>
       <c r="CJ10" s="5"/>
       <c r="CK10" s="5"/>
     </row>
@@ -3959,21 +4016,21 @@
     <row r="12" spans="3:89">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
       <c r="AT12" s="11"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
@@ -4308,100 +4365,100 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="R17" s="23" t="s">
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="53"/>
+      <c r="R17" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-      <c r="X17" s="23" t="s">
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="53"/>
+      <c r="X17" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="25"/>
-      <c r="AD17" s="23" t="s">
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="53"/>
+      <c r="AD17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="25"/>
-      <c r="AJ17" s="23" t="s">
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="53"/>
+      <c r="AJ17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="25"/>
-      <c r="AP17" s="23" t="s">
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="53"/>
+      <c r="AP17" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="25"/>
-      <c r="AV17" s="22" t="s">
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="53"/>
+      <c r="AV17" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AW17" s="22"/>
-      <c r="AX17" s="22"/>
-      <c r="AY17" s="22"/>
-      <c r="AZ17" s="22"/>
-      <c r="BB17" s="22" t="s">
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BB17" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="BC17" s="22"/>
-      <c r="BD17" s="22"/>
-      <c r="BE17" s="22"/>
-      <c r="BF17" s="22"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
       <c r="BG17" s="4"/>
-      <c r="BH17" s="22" t="s">
+      <c r="BH17" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="BI17" s="22"/>
-      <c r="BJ17" s="22"/>
-      <c r="BK17" s="22"/>
-      <c r="BL17" s="22"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
       <c r="BM17" s="4"/>
-      <c r="BN17" s="22" t="s">
+      <c r="BN17" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="BO17" s="22"/>
-      <c r="BP17" s="22"/>
-      <c r="BQ17" s="22"/>
-      <c r="BR17" s="22"/>
-      <c r="BT17" s="22" t="s">
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="51"/>
+      <c r="BQ17" s="51"/>
+      <c r="BR17" s="51"/>
+      <c r="BT17" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="BU17" s="22"/>
-      <c r="BV17" s="22"/>
-      <c r="BW17" s="22"/>
-      <c r="BX17" s="22"/>
-      <c r="BZ17" s="22" t="s">
+      <c r="BU17" s="51"/>
+      <c r="BV17" s="51"/>
+      <c r="BW17" s="51"/>
+      <c r="BX17" s="51"/>
+      <c r="BZ17" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="CA17" s="22"/>
-      <c r="CB17" s="22"/>
-      <c r="CC17" s="22"/>
-      <c r="CD17" s="22"/>
+      <c r="CA17" s="51"/>
+      <c r="CB17" s="51"/>
+      <c r="CC17" s="51"/>
+      <c r="CD17" s="51"/>
       <c r="CG17" s="4"/>
       <c r="CH17" s="4"/>
       <c r="CI17" s="5"/>
@@ -4501,70 +4558,70 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="R19" s="22" t="s">
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="R19" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="X19" s="22" t="s">
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="X19" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AD19" s="22" t="s">
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AD19" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AJ19" s="22" t="s">
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AJ19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
-      <c r="AP19" s="22" t="s">
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AP19" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AQ19" s="22"/>
-      <c r="AR19" s="22"/>
-      <c r="AS19" s="22"/>
-      <c r="AT19" s="22"/>
-      <c r="AV19" s="22" t="s">
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AV19" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AW19" s="22"/>
-      <c r="AX19" s="22"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="22"/>
-      <c r="BB19" s="22" t="s">
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AY19" s="51"/>
+      <c r="AZ19" s="51"/>
+      <c r="BB19" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="BC19" s="22"/>
-      <c r="BD19" s="22"/>
-      <c r="BE19" s="22"/>
-      <c r="BF19" s="22"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
       <c r="BG19" s="4"/>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4"/>
@@ -4911,102 +4968,102 @@
       <c r="D24" s="3"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="S24" s="23" t="s">
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="53"/>
+      <c r="S24" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="Y24" s="22" t="s">
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="53"/>
+      <c r="Y24" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
       <c r="AD24" s="11"/>
-      <c r="AE24" s="22" t="s">
+      <c r="AE24" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
       <c r="AJ24" s="4"/>
-      <c r="AK24" s="22" t="s">
+      <c r="AK24" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AQ24" s="22" t="s">
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AQ24" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="22"/>
-      <c r="AW24" s="22" t="s">
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AW24" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="AX24" s="22"/>
-      <c r="AY24" s="22"/>
-      <c r="AZ24" s="22"/>
-      <c r="BA24" s="22"/>
-      <c r="BC24" s="22" t="s">
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BC24" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BD24" s="22"/>
-      <c r="BE24" s="22"/>
-      <c r="BF24" s="22"/>
-      <c r="BG24" s="22"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
       <c r="BH24" s="11"/>
-      <c r="BI24" s="22" t="s">
+      <c r="BI24" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="BJ24" s="22"/>
-      <c r="BK24" s="22"/>
-      <c r="BL24" s="22"/>
-      <c r="BM24" s="22"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+      <c r="BM24" s="51"/>
       <c r="BN24" s="11"/>
-      <c r="BO24" s="22" t="s">
+      <c r="BO24" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="BP24" s="22"/>
-      <c r="BQ24" s="22"/>
-      <c r="BR24" s="22"/>
-      <c r="BS24" s="22"/>
-      <c r="BU24" s="22" t="s">
+      <c r="BP24" s="51"/>
+      <c r="BQ24" s="51"/>
+      <c r="BR24" s="51"/>
+      <c r="BS24" s="51"/>
+      <c r="BU24" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="BV24" s="22"/>
-      <c r="BW24" s="22"/>
-      <c r="BX24" s="22"/>
-      <c r="BY24" s="22"/>
-      <c r="CA24" s="22" t="s">
+      <c r="BV24" s="51"/>
+      <c r="BW24" s="51"/>
+      <c r="BX24" s="51"/>
+      <c r="BY24" s="51"/>
+      <c r="CA24" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="CB24" s="22"/>
-      <c r="CC24" s="22"/>
-      <c r="CD24" s="22"/>
-      <c r="CE24" s="22"/>
+      <c r="CB24" s="51"/>
+      <c r="CC24" s="51"/>
+      <c r="CD24" s="51"/>
+      <c r="CE24" s="51"/>
       <c r="CF24" s="4"/>
       <c r="CG24" s="4"/>
       <c r="CH24" s="5"/>
@@ -5108,58 +5165,58 @@
       <c r="D26" s="3"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="S26" s="22" t="s">
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="S26" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="Y26" s="22" t="s">
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="Y26" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="22" t="s">
+      <c r="AE26" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="22" t="s">
+      <c r="AK26" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AQ26" s="22" t="s">
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AQ26" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AR26" s="22"/>
-      <c r="AS26" s="22"/>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
@@ -5905,104 +5962,104 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="37"/>
-      <c r="R35" s="35" t="s">
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="R35" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="37"/>
-      <c r="X35" s="29" t="s">
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="33"/>
+      <c r="X35" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="31"/>
-      <c r="AD35" s="35" t="s">
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="42"/>
+      <c r="AD35" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="37"/>
-      <c r="AJ35" s="29" t="s">
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="33"/>
+      <c r="AJ35" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="31"/>
-      <c r="AP35" s="35" t="s">
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="42"/>
+      <c r="AP35" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="37"/>
-      <c r="AV35" s="35" t="s">
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="33"/>
+      <c r="AV35" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AW35" s="36"/>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="37"/>
-      <c r="BB35" s="26" t="s">
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="32"/>
+      <c r="AY35" s="32"/>
+      <c r="AZ35" s="33"/>
+      <c r="BB35" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="BC35" s="27"/>
-      <c r="BD35" s="27"/>
-      <c r="BE35" s="27"/>
-      <c r="BF35" s="28"/>
-      <c r="BH35" s="26" t="s">
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="27"/>
+      <c r="BH35" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BI35" s="27"/>
-      <c r="BJ35" s="27"/>
-      <c r="BK35" s="27"/>
-      <c r="BL35" s="28"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="27"/>
       <c r="BM35" s="4"/>
       <c r="BN35" s="3"/>
       <c r="BO35" s="3"/>
-      <c r="BP35" s="29" t="s">
+      <c r="BP35" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="BQ35" s="30"/>
-      <c r="BR35" s="30"/>
-      <c r="BS35" s="30"/>
-      <c r="BT35" s="31"/>
-      <c r="BV35" s="29" t="s">
+      <c r="BQ35" s="41"/>
+      <c r="BR35" s="41"/>
+      <c r="BS35" s="41"/>
+      <c r="BT35" s="42"/>
+      <c r="BV35" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="BW35" s="30"/>
-      <c r="BX35" s="30"/>
-      <c r="BY35" s="30"/>
-      <c r="BZ35" s="31"/>
+      <c r="BW35" s="41"/>
+      <c r="BX35" s="41"/>
+      <c r="BY35" s="41"/>
+      <c r="BZ35" s="42"/>
       <c r="CA35" s="5"/>
       <c r="CB35" s="3"/>
       <c r="CC35" s="3"/>
-      <c r="CD35" s="41" t="s">
+      <c r="CD35" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="CE35" s="42"/>
-      <c r="CF35" s="42"/>
-      <c r="CG35" s="42"/>
-      <c r="CH35" s="43"/>
+      <c r="CE35" s="23"/>
+      <c r="CF35" s="23"/>
+      <c r="CG35" s="23"/>
+      <c r="CH35" s="24"/>
       <c r="CI35" s="5"/>
       <c r="CJ35" s="5"/>
       <c r="CK35" s="5"/>
@@ -6011,71 +6068,71 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="44" t="s">
+      <c r="L36" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
       <c r="P36" s="45"/>
-      <c r="R36" s="38" t="s">
+      <c r="R36" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="40"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="37"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
       <c r="AC36" s="17"/>
-      <c r="AD36" s="38" t="s">
+      <c r="AD36" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="40"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="37"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
-      <c r="AP36" s="38" t="s">
+      <c r="AP36" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="40"/>
-      <c r="AV36" s="38" t="s">
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="37"/>
+      <c r="AV36" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="AW36" s="39"/>
-      <c r="AX36" s="39"/>
-      <c r="AY36" s="39"/>
-      <c r="AZ36" s="40"/>
-      <c r="BB36" s="32" t="s">
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="37"/>
+      <c r="BB36" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="34"/>
-      <c r="BH36" s="32" t="s">
+      <c r="BC36" s="29"/>
+      <c r="BD36" s="29"/>
+      <c r="BE36" s="29"/>
+      <c r="BF36" s="30"/>
+      <c r="BH36" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="BI36" s="33"/>
-      <c r="BJ36" s="33"/>
-      <c r="BK36" s="33"/>
-      <c r="BL36" s="34"/>
+      <c r="BI36" s="29"/>
+      <c r="BJ36" s="29"/>
+      <c r="BK36" s="29"/>
+      <c r="BL36" s="30"/>
       <c r="BM36" s="4"/>
       <c r="BN36" s="3"/>
       <c r="BO36" s="3"/>
@@ -6112,12 +6169,12 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="44" t="s">
+      <c r="L37" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
       <c r="P37" s="45"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -6125,13 +6182,13 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="41" t="s">
+      <c r="X37" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="43"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="24"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
@@ -6139,13 +6196,13 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
-      <c r="AJ37" s="41" t="s">
+      <c r="AJ37" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AK37" s="42"/>
-      <c r="AL37" s="42"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="43"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="24"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
@@ -6173,21 +6230,21 @@
       <c r="BM37" s="4"/>
       <c r="BN37" s="3"/>
       <c r="BO37" s="3"/>
-      <c r="BP37" s="35" t="s">
+      <c r="BP37" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="BQ37" s="36"/>
-      <c r="BR37" s="36"/>
-      <c r="BS37" s="36"/>
-      <c r="BT37" s="37"/>
+      <c r="BQ37" s="32"/>
+      <c r="BR37" s="32"/>
+      <c r="BS37" s="32"/>
+      <c r="BT37" s="33"/>
       <c r="BU37" s="4"/>
-      <c r="BV37" s="35" t="s">
+      <c r="BV37" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="BW37" s="36"/>
-      <c r="BX37" s="36"/>
-      <c r="BY37" s="36"/>
-      <c r="BZ37" s="37"/>
+      <c r="BW37" s="32"/>
+      <c r="BX37" s="32"/>
+      <c r="BY37" s="32"/>
+      <c r="BZ37" s="33"/>
       <c r="CA37" s="5"/>
       <c r="CB37" s="3"/>
       <c r="CC37" s="6"/>
@@ -6204,84 +6261,84 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="44" t="s">
+      <c r="L38" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
       <c r="P38" s="45"/>
-      <c r="R38" s="41" t="s">
+      <c r="R38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="43"/>
-      <c r="AD38" s="35" t="s">
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="24"/>
+      <c r="AD38" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="37"/>
-      <c r="AP38" s="26" t="s">
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="33"/>
+      <c r="AP38" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AQ38" s="27"/>
-      <c r="AR38" s="27"/>
-      <c r="AS38" s="27"/>
-      <c r="AT38" s="28"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="27"/>
       <c r="AU38" s="4"/>
-      <c r="AV38" s="26" t="s">
+      <c r="AV38" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AW38" s="27"/>
-      <c r="AX38" s="27"/>
-      <c r="AY38" s="27"/>
-      <c r="AZ38" s="28"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="26"/>
+      <c r="AZ38" s="27"/>
       <c r="BA38" s="4"/>
-      <c r="BB38" s="26" t="s">
+      <c r="BB38" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="BC38" s="27"/>
-      <c r="BD38" s="27"/>
-      <c r="BE38" s="27"/>
-      <c r="BF38" s="28"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="26"/>
+      <c r="BE38" s="26"/>
+      <c r="BF38" s="27"/>
       <c r="BG38" s="4"/>
-      <c r="BH38" s="26" t="s">
+      <c r="BH38" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="BI38" s="27"/>
-      <c r="BJ38" s="27"/>
-      <c r="BK38" s="27"/>
-      <c r="BL38" s="28"/>
+      <c r="BI38" s="26"/>
+      <c r="BJ38" s="26"/>
+      <c r="BK38" s="26"/>
+      <c r="BL38" s="27"/>
       <c r="BM38" s="4"/>
       <c r="BN38" s="3"/>
       <c r="BO38" s="3"/>
-      <c r="BP38" s="38" t="s">
+      <c r="BP38" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="BQ38" s="39"/>
-      <c r="BR38" s="39"/>
-      <c r="BS38" s="39"/>
-      <c r="BT38" s="40"/>
+      <c r="BQ38" s="36"/>
+      <c r="BR38" s="36"/>
+      <c r="BS38" s="36"/>
+      <c r="BT38" s="37"/>
       <c r="BU38" s="4"/>
-      <c r="BV38" s="38" t="s">
+      <c r="BV38" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="BW38" s="39"/>
-      <c r="BX38" s="39"/>
-      <c r="BY38" s="39"/>
-      <c r="BZ38" s="40"/>
+      <c r="BW38" s="36"/>
+      <c r="BX38" s="36"/>
+      <c r="BY38" s="36"/>
+      <c r="BZ38" s="37"/>
       <c r="CA38" s="5"/>
       <c r="CB38" s="3"/>
       <c r="CC38" s="4"/>
@@ -6298,75 +6355,75 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="38" t="s">
+      <c r="L39" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="37"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="X39" s="41" t="s">
+      <c r="X39" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="43"/>
-      <c r="AD39" s="38" t="s">
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="24"/>
+      <c r="AD39" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
-      <c r="AH39" s="40"/>
-      <c r="AJ39" s="41" t="s">
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="37"/>
+      <c r="AJ39" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="43"/>
-      <c r="AP39" s="32" t="s">
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="24"/>
+      <c r="AP39" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AQ39" s="33"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="34"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="30"/>
       <c r="AU39" s="4"/>
-      <c r="AV39" s="32" t="s">
+      <c r="AV39" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="AW39" s="33"/>
-      <c r="AX39" s="33"/>
-      <c r="AY39" s="33"/>
-      <c r="AZ39" s="34"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="29"/>
+      <c r="AZ39" s="30"/>
       <c r="BA39" s="4"/>
-      <c r="BB39" s="32" t="s">
+      <c r="BB39" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="BC39" s="33"/>
-      <c r="BD39" s="33"/>
-      <c r="BE39" s="33"/>
-      <c r="BF39" s="34"/>
+      <c r="BC39" s="29"/>
+      <c r="BD39" s="29"/>
+      <c r="BE39" s="29"/>
+      <c r="BF39" s="30"/>
       <c r="BG39" s="4"/>
-      <c r="BH39" s="32" t="s">
+      <c r="BH39" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="BI39" s="33"/>
-      <c r="BJ39" s="33"/>
-      <c r="BK39" s="33"/>
-      <c r="BL39" s="34"/>
+      <c r="BI39" s="29"/>
+      <c r="BJ39" s="29"/>
+      <c r="BK39" s="29"/>
+      <c r="BL39" s="30"/>
       <c r="BM39" s="4"/>
       <c r="BN39" s="3"/>
       <c r="BO39" s="3"/>
@@ -6734,110 +6791,110 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="41" t="s">
+      <c r="F44" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="35" t="s">
+      <c r="L44" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="37"/>
-      <c r="R44" s="29" t="s">
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="33"/>
+      <c r="R44" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="31"/>
-      <c r="X44" s="29" t="s">
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="42"/>
+      <c r="X44" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="31"/>
-      <c r="AD44" s="29" t="s">
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="42"/>
+      <c r="AD44" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="31"/>
-      <c r="AJ44" s="29" t="s">
+      <c r="AE44" s="41"/>
+      <c r="AF44" s="41"/>
+      <c r="AG44" s="41"/>
+      <c r="AH44" s="42"/>
+      <c r="AJ44" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="30"/>
-      <c r="AN44" s="31"/>
-      <c r="AP44" s="41" t="s">
+      <c r="AK44" s="41"/>
+      <c r="AL44" s="41"/>
+      <c r="AM44" s="41"/>
+      <c r="AN44" s="42"/>
+      <c r="AP44" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="43"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
+      <c r="AT44" s="24"/>
       <c r="AU44" s="4"/>
-      <c r="AV44" s="41" t="s">
+      <c r="AV44" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AW44" s="42"/>
-      <c r="AX44" s="42"/>
-      <c r="AY44" s="42"/>
-      <c r="AZ44" s="43"/>
+      <c r="AW44" s="23"/>
+      <c r="AX44" s="23"/>
+      <c r="AY44" s="23"/>
+      <c r="AZ44" s="24"/>
       <c r="BA44" s="4"/>
-      <c r="BB44" s="41" t="s">
+      <c r="BB44" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BC44" s="42"/>
-      <c r="BD44" s="42"/>
-      <c r="BE44" s="42"/>
-      <c r="BF44" s="43"/>
+      <c r="BC44" s="23"/>
+      <c r="BD44" s="23"/>
+      <c r="BE44" s="23"/>
+      <c r="BF44" s="24"/>
       <c r="BG44" s="4"/>
-      <c r="BH44" s="41" t="s">
+      <c r="BH44" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="BI44" s="42"/>
-      <c r="BJ44" s="42"/>
-      <c r="BK44" s="42"/>
-      <c r="BL44" s="43"/>
+      <c r="BI44" s="23"/>
+      <c r="BJ44" s="23"/>
+      <c r="BK44" s="23"/>
+      <c r="BL44" s="24"/>
       <c r="BM44" s="4"/>
-      <c r="BN44" s="41" t="s">
+      <c r="BN44" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="BO44" s="42"/>
-      <c r="BP44" s="42"/>
-      <c r="BQ44" s="42"/>
-      <c r="BR44" s="43"/>
+      <c r="BO44" s="23"/>
+      <c r="BP44" s="23"/>
+      <c r="BQ44" s="23"/>
+      <c r="BR44" s="24"/>
       <c r="BS44" s="4"/>
-      <c r="BT44" s="41" t="s">
+      <c r="BT44" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="BU44" s="42"/>
-      <c r="BV44" s="42"/>
-      <c r="BW44" s="42"/>
-      <c r="BX44" s="43"/>
+      <c r="BU44" s="23"/>
+      <c r="BV44" s="23"/>
+      <c r="BW44" s="23"/>
+      <c r="BX44" s="24"/>
       <c r="BY44" s="4"/>
-      <c r="BZ44" s="41" t="s">
+      <c r="BZ44" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="CA44" s="42"/>
-      <c r="CB44" s="42"/>
-      <c r="CC44" s="42"/>
-      <c r="CD44" s="43"/>
+      <c r="CA44" s="23"/>
+      <c r="CB44" s="23"/>
+      <c r="CC44" s="23"/>
+      <c r="CD44" s="24"/>
       <c r="CE44" s="4"/>
-      <c r="CF44" s="46" t="s">
+      <c r="CF44" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="CG44" s="47"/>
-      <c r="CH44" s="48"/>
+      <c r="CG44" s="49"/>
+      <c r="CH44" s="50"/>
       <c r="CI44" s="5"/>
       <c r="CJ44" s="5"/>
       <c r="CK44" s="5"/>
@@ -6852,13 +6909,13 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="37"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -6925,11 +6982,11 @@
       <c r="CC45" s="4"/>
       <c r="CD45" s="4"/>
       <c r="CE45" s="4"/>
-      <c r="CF45" s="38" t="s">
+      <c r="CF45" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="CG45" s="39"/>
-      <c r="CH45" s="40"/>
+      <c r="CG45" s="36"/>
+      <c r="CH45" s="37"/>
       <c r="CI45" s="5"/>
       <c r="CJ45" s="5"/>
       <c r="CK45" s="5"/>
@@ -6938,13 +6995,13 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -6952,91 +7009,91 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="29" t="s">
+      <c r="R46" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="31"/>
-      <c r="X46" s="29" t="s">
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="42"/>
+      <c r="X46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="31"/>
-      <c r="AD46" s="41" t="s">
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="42"/>
+      <c r="AD46" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="43"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="24"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="41" t="s">
+      <c r="AJ46" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="43"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="24"/>
       <c r="AO46" s="4"/>
-      <c r="AP46" s="41" t="s">
+      <c r="AP46" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-      <c r="AT46" s="43"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="24"/>
       <c r="AU46" s="4"/>
-      <c r="AV46" s="41" t="s">
+      <c r="AV46" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="AW46" s="42"/>
-      <c r="AX46" s="42"/>
-      <c r="AY46" s="42"/>
-      <c r="AZ46" s="43"/>
+      <c r="AW46" s="23"/>
+      <c r="AX46" s="23"/>
+      <c r="AY46" s="23"/>
+      <c r="AZ46" s="24"/>
       <c r="BA46" s="4"/>
-      <c r="BB46" s="41" t="s">
+      <c r="BB46" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="BC46" s="42"/>
-      <c r="BD46" s="42"/>
-      <c r="BE46" s="42"/>
-      <c r="BF46" s="43"/>
+      <c r="BC46" s="23"/>
+      <c r="BD46" s="23"/>
+      <c r="BE46" s="23"/>
+      <c r="BF46" s="24"/>
       <c r="BG46" s="4"/>
-      <c r="BH46" s="41" t="s">
+      <c r="BH46" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="BI46" s="42"/>
-      <c r="BJ46" s="42"/>
-      <c r="BK46" s="42"/>
-      <c r="BL46" s="43"/>
+      <c r="BI46" s="23"/>
+      <c r="BJ46" s="23"/>
+      <c r="BK46" s="23"/>
+      <c r="BL46" s="24"/>
       <c r="BM46" s="4"/>
-      <c r="BN46" s="41" t="s">
+      <c r="BN46" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="BO46" s="42"/>
-      <c r="BP46" s="42"/>
-      <c r="BQ46" s="42"/>
-      <c r="BR46" s="43"/>
+      <c r="BO46" s="23"/>
+      <c r="BP46" s="23"/>
+      <c r="BQ46" s="23"/>
+      <c r="BR46" s="24"/>
       <c r="BS46" s="4"/>
-      <c r="BT46" s="41" t="s">
+      <c r="BT46" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="BU46" s="42"/>
-      <c r="BV46" s="42"/>
-      <c r="BW46" s="42"/>
-      <c r="BX46" s="43"/>
+      <c r="BU46" s="23"/>
+      <c r="BV46" s="23"/>
+      <c r="BW46" s="23"/>
+      <c r="BX46" s="24"/>
       <c r="BY46" s="4"/>
-      <c r="BZ46" s="41" t="s">
+      <c r="BZ46" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="CA46" s="42"/>
-      <c r="CB46" s="42"/>
-      <c r="CC46" s="42"/>
-      <c r="CD46" s="43"/>
+      <c r="CA46" s="23"/>
+      <c r="CB46" s="23"/>
+      <c r="CC46" s="23"/>
+      <c r="CD46" s="24"/>
       <c r="CE46" s="4"/>
       <c r="CF46" s="4"/>
       <c r="CG46" s="4"/>
@@ -7050,13 +7107,13 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="29" t="s">
+      <c r="L47" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="31"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="42"/>
       <c r="CE47" s="4"/>
       <c r="CF47" s="4"/>
       <c r="CG47" s="4"/>
@@ -7069,102 +7126,102 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="R48" s="41" t="s">
+      <c r="R48" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="43"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="24"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="41" t="s">
+      <c r="X48" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="43"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="24"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="41" t="s">
+      <c r="AD48" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="43"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="24"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="41" t="s">
+      <c r="AJ48" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="43"/>
+      <c r="AK48" s="23"/>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="24"/>
       <c r="AO48" s="4"/>
-      <c r="AP48" s="41" t="s">
+      <c r="AP48" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-      <c r="AT48" s="43"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="23"/>
+      <c r="AS48" s="23"/>
+      <c r="AT48" s="24"/>
       <c r="AU48" s="4"/>
-      <c r="AV48" s="41" t="s">
+      <c r="AV48" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AW48" s="42"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="42"/>
-      <c r="AZ48" s="43"/>
+      <c r="AW48" s="23"/>
+      <c r="AX48" s="23"/>
+      <c r="AY48" s="23"/>
+      <c r="AZ48" s="24"/>
       <c r="BA48" s="4"/>
-      <c r="BB48" s="41" t="s">
+      <c r="BB48" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="BC48" s="42"/>
-      <c r="BD48" s="42"/>
-      <c r="BE48" s="42"/>
-      <c r="BF48" s="43"/>
+      <c r="BC48" s="23"/>
+      <c r="BD48" s="23"/>
+      <c r="BE48" s="23"/>
+      <c r="BF48" s="24"/>
       <c r="BG48" s="4"/>
-      <c r="BH48" s="41" t="s">
+      <c r="BH48" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="BI48" s="42"/>
-      <c r="BJ48" s="42"/>
-      <c r="BK48" s="42"/>
-      <c r="BL48" s="43"/>
+      <c r="BI48" s="23"/>
+      <c r="BJ48" s="23"/>
+      <c r="BK48" s="23"/>
+      <c r="BL48" s="24"/>
       <c r="BM48" s="4"/>
-      <c r="BN48" s="41" t="s">
+      <c r="BN48" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="BO48" s="42"/>
-      <c r="BP48" s="42"/>
-      <c r="BQ48" s="42"/>
-      <c r="BR48" s="43"/>
+      <c r="BO48" s="23"/>
+      <c r="BP48" s="23"/>
+      <c r="BQ48" s="23"/>
+      <c r="BR48" s="24"/>
       <c r="BS48" s="4"/>
-      <c r="BT48" s="41" t="s">
+      <c r="BT48" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="BU48" s="42"/>
-      <c r="BV48" s="42"/>
-      <c r="BW48" s="42"/>
-      <c r="BX48" s="43"/>
+      <c r="BU48" s="23"/>
+      <c r="BV48" s="23"/>
+      <c r="BW48" s="23"/>
+      <c r="BX48" s="24"/>
       <c r="BY48" s="4"/>
-      <c r="BZ48" s="41" t="s">
+      <c r="BZ48" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="CA48" s="42"/>
-      <c r="CB48" s="42"/>
-      <c r="CC48" s="42"/>
-      <c r="CD48" s="43"/>
+      <c r="CA48" s="23"/>
+      <c r="CB48" s="23"/>
+      <c r="CC48" s="23"/>
+      <c r="CD48" s="24"/>
       <c r="CE48" s="4"/>
       <c r="CF48" s="4"/>
       <c r="CG48" s="4"/>
@@ -7178,13 +7235,13 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="41" t="s">
+      <c r="L49" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="43"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
       <c r="Q49" s="4"/>
       <c r="CE49" s="4"/>
       <c r="CF49" s="4"/>
@@ -7556,111 +7613,111 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="31"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="42"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="29" t="s">
+      <c r="R54" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="31"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="42"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="29" t="s">
+      <c r="X54" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="31"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="42"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="29" t="s">
+      <c r="AD54" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
-      <c r="AG54" s="30"/>
-      <c r="AH54" s="31"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="41"/>
+      <c r="AG54" s="41"/>
+      <c r="AH54" s="42"/>
       <c r="AI54" s="4"/>
-      <c r="AJ54" s="26" t="s">
+      <c r="AJ54" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="AK54" s="27"/>
-      <c r="AL54" s="27"/>
-      <c r="AM54" s="27"/>
-      <c r="AN54" s="28"/>
+      <c r="AK54" s="26"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="26"/>
+      <c r="AN54" s="27"/>
       <c r="AO54" s="5"/>
       <c r="AQ54" s="3"/>
-      <c r="AR54" s="41" t="s">
+      <c r="AR54" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AS54" s="42"/>
-      <c r="AT54" s="42"/>
-      <c r="AU54" s="42"/>
-      <c r="AV54" s="43"/>
+      <c r="AS54" s="23"/>
+      <c r="AT54" s="23"/>
+      <c r="AU54" s="23"/>
+      <c r="AV54" s="24"/>
       <c r="AW54" s="4"/>
-      <c r="AX54" s="41" t="s">
+      <c r="AX54" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AY54" s="42"/>
-      <c r="AZ54" s="42"/>
-      <c r="BA54" s="42"/>
-      <c r="BB54" s="43"/>
+      <c r="AY54" s="23"/>
+      <c r="AZ54" s="23"/>
+      <c r="BA54" s="23"/>
+      <c r="BB54" s="24"/>
       <c r="BC54" s="4"/>
-      <c r="BD54" s="41" t="s">
+      <c r="BD54" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="BE54" s="42"/>
-      <c r="BF54" s="42"/>
-      <c r="BG54" s="42"/>
-      <c r="BH54" s="43"/>
+      <c r="BE54" s="23"/>
+      <c r="BF54" s="23"/>
+      <c r="BG54" s="23"/>
+      <c r="BH54" s="24"/>
       <c r="BI54" s="5"/>
       <c r="BK54" s="3"/>
-      <c r="BL54" s="29" t="s">
+      <c r="BL54" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="BM54" s="30"/>
-      <c r="BN54" s="30"/>
-      <c r="BO54" s="30"/>
-      <c r="BP54" s="31"/>
+      <c r="BM54" s="41"/>
+      <c r="BN54" s="41"/>
+      <c r="BO54" s="41"/>
+      <c r="BP54" s="42"/>
       <c r="BQ54" s="4"/>
-      <c r="BR54" s="29" t="s">
+      <c r="BR54" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="BS54" s="30"/>
-      <c r="BT54" s="30"/>
-      <c r="BU54" s="30"/>
-      <c r="BV54" s="31"/>
+      <c r="BS54" s="41"/>
+      <c r="BT54" s="41"/>
+      <c r="BU54" s="41"/>
+      <c r="BV54" s="42"/>
       <c r="BW54" s="4"/>
-      <c r="BX54" s="26" t="s">
+      <c r="BX54" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="BY54" s="27"/>
-      <c r="BZ54" s="27"/>
-      <c r="CA54" s="27"/>
-      <c r="CB54" s="28"/>
+      <c r="BY54" s="26"/>
+      <c r="BZ54" s="26"/>
+      <c r="CA54" s="26"/>
+      <c r="CB54" s="27"/>
       <c r="CC54" s="4"/>
-      <c r="CD54" s="26" t="s">
+      <c r="CD54" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="CE54" s="27"/>
-      <c r="CF54" s="27"/>
-      <c r="CG54" s="27"/>
-      <c r="CH54" s="28"/>
+      <c r="CE54" s="26"/>
+      <c r="CF54" s="26"/>
+      <c r="CG54" s="26"/>
+      <c r="CH54" s="27"/>
       <c r="CI54" s="5"/>
       <c r="CJ54" s="5"/>
       <c r="CK54" s="5"/>
@@ -7699,13 +7756,13 @@
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
-      <c r="AJ55" s="32" t="s">
+      <c r="AJ55" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="AK55" s="33"/>
-      <c r="AL55" s="33"/>
-      <c r="AM55" s="33"/>
-      <c r="AN55" s="34"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="30"/>
       <c r="AO55" s="5"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="4"/>
@@ -7739,21 +7796,21 @@
       <c r="BU55" s="4"/>
       <c r="BV55" s="4"/>
       <c r="BW55" s="4"/>
-      <c r="BX55" s="32" t="s">
+      <c r="BX55" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="BY55" s="33"/>
-      <c r="BZ55" s="33"/>
-      <c r="CA55" s="33"/>
-      <c r="CB55" s="34"/>
+      <c r="BY55" s="29"/>
+      <c r="BZ55" s="29"/>
+      <c r="CA55" s="29"/>
+      <c r="CB55" s="30"/>
       <c r="CC55" s="4"/>
-      <c r="CD55" s="32" t="s">
+      <c r="CD55" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="CE55" s="33"/>
-      <c r="CF55" s="33"/>
-      <c r="CG55" s="33"/>
-      <c r="CH55" s="34"/>
+      <c r="CE55" s="29"/>
+      <c r="CF55" s="29"/>
+      <c r="CG55" s="29"/>
+      <c r="CH55" s="30"/>
       <c r="CI55" s="5"/>
       <c r="CJ55" s="5"/>
       <c r="CK55" s="5"/>
@@ -7762,45 +7819,45 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="28"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="26" t="s">
+      <c r="L56" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="28"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="27"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="35" t="s">
+      <c r="R56" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="37"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="33"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="26" t="s">
+      <c r="X56" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="28"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="27"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="26" t="s">
+      <c r="AD56" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="28"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="27"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
@@ -7809,46 +7866,46 @@
       <c r="AN56" s="4"/>
       <c r="AO56" s="5"/>
       <c r="AQ56" s="3"/>
-      <c r="AR56" s="26" t="s">
+      <c r="AR56" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="AS56" s="27"/>
-      <c r="AT56" s="27"/>
-      <c r="AU56" s="27"/>
-      <c r="AV56" s="28"/>
+      <c r="AS56" s="26"/>
+      <c r="AT56" s="26"/>
+      <c r="AU56" s="26"/>
+      <c r="AV56" s="27"/>
       <c r="AW56" s="4"/>
-      <c r="AX56" s="26" t="s">
+      <c r="AX56" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AY56" s="27"/>
-      <c r="AZ56" s="27"/>
-      <c r="BA56" s="27"/>
-      <c r="BB56" s="28"/>
+      <c r="AY56" s="26"/>
+      <c r="AZ56" s="26"/>
+      <c r="BA56" s="26"/>
+      <c r="BB56" s="27"/>
       <c r="BC56" s="4"/>
-      <c r="BD56" s="26" t="s">
+      <c r="BD56" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="BE56" s="27"/>
-      <c r="BF56" s="27"/>
-      <c r="BG56" s="27"/>
-      <c r="BH56" s="28"/>
+      <c r="BE56" s="26"/>
+      <c r="BF56" s="26"/>
+      <c r="BG56" s="26"/>
+      <c r="BH56" s="27"/>
       <c r="BI56" s="5"/>
       <c r="BK56" s="3"/>
-      <c r="BL56" s="29" t="s">
+      <c r="BL56" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="BM56" s="30"/>
-      <c r="BN56" s="30"/>
-      <c r="BO56" s="30"/>
-      <c r="BP56" s="31"/>
+      <c r="BM56" s="41"/>
+      <c r="BN56" s="41"/>
+      <c r="BO56" s="41"/>
+      <c r="BP56" s="42"/>
       <c r="BQ56" s="4"/>
-      <c r="BR56" s="26" t="s">
+      <c r="BR56" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="BS56" s="27"/>
-      <c r="BT56" s="27"/>
-      <c r="BU56" s="27"/>
-      <c r="BV56" s="28"/>
+      <c r="BS56" s="26"/>
+      <c r="BT56" s="26"/>
+      <c r="BU56" s="26"/>
+      <c r="BV56" s="27"/>
       <c r="BW56" s="4"/>
       <c r="BX56" s="4"/>
       <c r="BY56" s="4"/>
@@ -7869,45 +7926,45 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="34"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="32" t="s">
+      <c r="L57" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="34"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="30"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="38" t="s">
+      <c r="R57" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="40"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="37"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="32" t="s">
+      <c r="X57" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="34"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="30"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="32" t="s">
+      <c r="AD57" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="34"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="30"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
@@ -7916,29 +7973,29 @@
       <c r="AN57" s="4"/>
       <c r="AO57" s="5"/>
       <c r="AQ57" s="3"/>
-      <c r="AR57" s="32" t="s">
+      <c r="AR57" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="AS57" s="33"/>
-      <c r="AT57" s="33"/>
-      <c r="AU57" s="33"/>
-      <c r="AV57" s="34"/>
+      <c r="AS57" s="29"/>
+      <c r="AT57" s="29"/>
+      <c r="AU57" s="29"/>
+      <c r="AV57" s="30"/>
       <c r="AW57" s="4"/>
-      <c r="AX57" s="32" t="s">
+      <c r="AX57" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="AY57" s="33"/>
-      <c r="AZ57" s="33"/>
-      <c r="BA57" s="33"/>
-      <c r="BB57" s="34"/>
+      <c r="AY57" s="29"/>
+      <c r="AZ57" s="29"/>
+      <c r="BA57" s="29"/>
+      <c r="BB57" s="30"/>
       <c r="BC57" s="4"/>
-      <c r="BD57" s="32" t="s">
+      <c r="BD57" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="BE57" s="33"/>
-      <c r="BF57" s="33"/>
-      <c r="BG57" s="33"/>
-      <c r="BH57" s="34"/>
+      <c r="BE57" s="29"/>
+      <c r="BF57" s="29"/>
+      <c r="BG57" s="29"/>
+      <c r="BH57" s="30"/>
       <c r="BI57" s="5"/>
       <c r="BK57" s="3"/>
       <c r="BL57" s="4"/>
@@ -7947,29 +8004,29 @@
       <c r="BO57" s="4"/>
       <c r="BP57" s="4"/>
       <c r="BQ57" s="4"/>
-      <c r="BR57" s="32" t="s">
+      <c r="BR57" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="BS57" s="33"/>
-      <c r="BT57" s="33"/>
-      <c r="BU57" s="33"/>
-      <c r="BV57" s="34"/>
+      <c r="BS57" s="29"/>
+      <c r="BT57" s="29"/>
+      <c r="BU57" s="29"/>
+      <c r="BV57" s="30"/>
       <c r="BW57" s="4"/>
-      <c r="BX57" s="26" t="s">
+      <c r="BX57" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="BY57" s="27"/>
-      <c r="BZ57" s="27"/>
-      <c r="CA57" s="27"/>
-      <c r="CB57" s="28"/>
+      <c r="BY57" s="26"/>
+      <c r="BZ57" s="26"/>
+      <c r="CA57" s="26"/>
+      <c r="CB57" s="27"/>
       <c r="CC57" s="4"/>
-      <c r="CD57" s="26" t="s">
+      <c r="CD57" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="CE57" s="27"/>
-      <c r="CF57" s="27"/>
-      <c r="CG57" s="27"/>
-      <c r="CH57" s="28"/>
+      <c r="CE57" s="26"/>
+      <c r="CF57" s="26"/>
+      <c r="CG57" s="26"/>
+      <c r="CH57" s="27"/>
       <c r="CI57" s="5"/>
       <c r="CJ57" s="5"/>
       <c r="CK57" s="5"/>
@@ -8034,13 +8091,13 @@
       <c r="BH58" s="4"/>
       <c r="BI58" s="5"/>
       <c r="BK58" s="3"/>
-      <c r="BL58" s="29" t="s">
+      <c r="BL58" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="BM58" s="30"/>
-      <c r="BN58" s="30"/>
-      <c r="BO58" s="30"/>
-      <c r="BP58" s="31"/>
+      <c r="BM58" s="41"/>
+      <c r="BN58" s="41"/>
+      <c r="BO58" s="41"/>
+      <c r="BP58" s="42"/>
       <c r="BQ58" s="4"/>
       <c r="BR58" s="4"/>
       <c r="BS58" s="4"/>
@@ -8048,21 +8105,21 @@
       <c r="BU58" s="4"/>
       <c r="BV58" s="4"/>
       <c r="BW58" s="4"/>
-      <c r="BX58" s="32" t="s">
+      <c r="BX58" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="BY58" s="33"/>
-      <c r="BZ58" s="33"/>
-      <c r="CA58" s="33"/>
-      <c r="CB58" s="34"/>
+      <c r="BY58" s="29"/>
+      <c r="BZ58" s="29"/>
+      <c r="CA58" s="29"/>
+      <c r="CB58" s="30"/>
       <c r="CC58" s="4"/>
-      <c r="CD58" s="32" t="s">
+      <c r="CD58" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="CE58" s="33"/>
-      <c r="CF58" s="33"/>
-      <c r="CG58" s="33"/>
-      <c r="CH58" s="34"/>
+      <c r="CE58" s="29"/>
+      <c r="CF58" s="29"/>
+      <c r="CG58" s="29"/>
+      <c r="CH58" s="30"/>
       <c r="CI58" s="5"/>
       <c r="CJ58" s="5"/>
       <c r="CK58" s="5"/>
@@ -8077,21 +8134,21 @@
       <c r="AO59" s="4"/>
       <c r="AP59" s="4"/>
       <c r="AQ59" s="3"/>
-      <c r="AR59" s="26" t="s">
+      <c r="AR59" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="AS59" s="27"/>
-      <c r="AT59" s="27"/>
-      <c r="AU59" s="27"/>
-      <c r="AV59" s="28"/>
+      <c r="AS59" s="26"/>
+      <c r="AT59" s="26"/>
+      <c r="AU59" s="26"/>
+      <c r="AV59" s="27"/>
       <c r="AW59" s="4"/>
-      <c r="AX59" s="26" t="s">
+      <c r="AX59" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AY59" s="27"/>
-      <c r="AZ59" s="27"/>
-      <c r="BA59" s="27"/>
-      <c r="BB59" s="28"/>
+      <c r="AY59" s="26"/>
+      <c r="AZ59" s="26"/>
+      <c r="BA59" s="26"/>
+      <c r="BB59" s="27"/>
       <c r="BC59" s="4"/>
       <c r="BD59" s="4"/>
       <c r="BE59" s="4"/>
@@ -8107,13 +8164,13 @@
       <c r="BO59" s="4"/>
       <c r="BP59" s="4"/>
       <c r="BQ59" s="4"/>
-      <c r="BR59" s="29" t="s">
+      <c r="BR59" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="BS59" s="30"/>
-      <c r="BT59" s="30"/>
-      <c r="BU59" s="30"/>
-      <c r="BV59" s="31"/>
+      <c r="BS59" s="41"/>
+      <c r="BT59" s="41"/>
+      <c r="BU59" s="41"/>
+      <c r="BV59" s="42"/>
       <c r="BW59" s="4"/>
       <c r="BX59" s="4"/>
       <c r="BY59" s="4"/>
@@ -8134,21 +8191,21 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="AQ60" s="3"/>
-      <c r="AR60" s="32" t="s">
+      <c r="AR60" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="AS60" s="33"/>
-      <c r="AT60" s="33"/>
-      <c r="AU60" s="33"/>
-      <c r="AV60" s="34"/>
+      <c r="AS60" s="29"/>
+      <c r="AT60" s="29"/>
+      <c r="AU60" s="29"/>
+      <c r="AV60" s="30"/>
       <c r="AW60" s="4"/>
-      <c r="AX60" s="32" t="s">
+      <c r="AX60" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="AY60" s="33"/>
-      <c r="AZ60" s="33"/>
-      <c r="BA60" s="33"/>
-      <c r="BB60" s="34"/>
+      <c r="AY60" s="29"/>
+      <c r="AZ60" s="29"/>
+      <c r="BA60" s="29"/>
+      <c r="BB60" s="30"/>
       <c r="BC60" s="4"/>
       <c r="BD60" s="4"/>
       <c r="BE60" s="4"/>
@@ -8157,13 +8214,13 @@
       <c r="BH60" s="4"/>
       <c r="BI60" s="5"/>
       <c r="BK60" s="3"/>
-      <c r="BL60" s="29" t="s">
+      <c r="BL60" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="BM60" s="30"/>
-      <c r="BN60" s="30"/>
-      <c r="BO60" s="30"/>
-      <c r="BP60" s="31"/>
+      <c r="BM60" s="41"/>
+      <c r="BN60" s="41"/>
+      <c r="BO60" s="41"/>
+      <c r="BP60" s="42"/>
       <c r="BQ60" s="4"/>
       <c r="BW60" s="4"/>
       <c r="BX60" s="4"/>
@@ -8330,45 +8387,45 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="24"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="35" t="s">
+      <c r="L63" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="37"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="33"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="41" t="s">
+      <c r="R63" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="S63" s="42"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="43"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="24"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="29" t="s">
+      <c r="X63" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="31"/>
+      <c r="Y63" s="41"/>
+      <c r="Z63" s="41"/>
+      <c r="AA63" s="41"/>
+      <c r="AB63" s="42"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="35" t="s">
+      <c r="AD63" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AE63" s="36"/>
-      <c r="AF63" s="36"/>
-      <c r="AG63" s="36"/>
-      <c r="AH63" s="37"/>
+      <c r="AE63" s="32"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="33"/>
       <c r="AI63" s="5"/>
       <c r="AK63" s="9" t="s">
         <v>277</v>
@@ -8439,13 +8496,13 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="38" t="s">
+      <c r="L64" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="40"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="37"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -8459,13 +8516,13 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
-      <c r="AD64" s="38" t="s">
+      <c r="AD64" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="40"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="37"/>
       <c r="AI64" s="5"/>
       <c r="AK64" s="3"/>
       <c r="AL64" s="4"/>
@@ -8524,13 +8581,13 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="28"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -8538,21 +8595,21 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="35" t="s">
+      <c r="R65" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="37"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="33"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="35" t="s">
+      <c r="X65" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="Y65" s="36"/>
-      <c r="Z65" s="36"/>
-      <c r="AA65" s="36"/>
-      <c r="AB65" s="37"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="32"/>
+      <c r="AA65" s="32"/>
+      <c r="AB65" s="33"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
@@ -8561,64 +8618,64 @@
       <c r="AH65" s="4"/>
       <c r="AI65" s="5"/>
       <c r="AK65" s="3"/>
-      <c r="AL65" s="41" t="s">
+      <c r="AL65" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="AM65" s="42"/>
-      <c r="AN65" s="42"/>
-      <c r="AO65" s="42"/>
-      <c r="AP65" s="43"/>
+      <c r="AM65" s="23"/>
+      <c r="AN65" s="23"/>
+      <c r="AO65" s="23"/>
+      <c r="AP65" s="24"/>
       <c r="AQ65" s="5"/>
       <c r="AS65" s="3"/>
-      <c r="AT65" s="41" t="s">
+      <c r="AT65" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="AU65" s="42"/>
-      <c r="AV65" s="42"/>
-      <c r="AW65" s="42"/>
-      <c r="AX65" s="43"/>
+      <c r="AU65" s="23"/>
+      <c r="AV65" s="23"/>
+      <c r="AW65" s="23"/>
+      <c r="AX65" s="24"/>
       <c r="AY65" s="4"/>
-      <c r="AZ65" s="41" t="s">
+      <c r="AZ65" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="BA65" s="42"/>
-      <c r="BB65" s="42"/>
-      <c r="BC65" s="42"/>
-      <c r="BD65" s="43"/>
+      <c r="BA65" s="23"/>
+      <c r="BB65" s="23"/>
+      <c r="BC65" s="23"/>
+      <c r="BD65" s="24"/>
       <c r="BE65" s="4"/>
-      <c r="BF65" s="41" t="s">
+      <c r="BF65" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="BG65" s="42"/>
-      <c r="BH65" s="42"/>
-      <c r="BI65" s="42"/>
-      <c r="BJ65" s="43"/>
+      <c r="BG65" s="23"/>
+      <c r="BH65" s="23"/>
+      <c r="BI65" s="23"/>
+      <c r="BJ65" s="24"/>
       <c r="BK65" s="4"/>
-      <c r="BL65" s="41" t="s">
+      <c r="BL65" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="BM65" s="42"/>
-      <c r="BN65" s="42"/>
-      <c r="BO65" s="42"/>
-      <c r="BP65" s="43"/>
+      <c r="BM65" s="23"/>
+      <c r="BN65" s="23"/>
+      <c r="BO65" s="23"/>
+      <c r="BP65" s="24"/>
       <c r="BQ65" s="4"/>
-      <c r="BR65" s="41" t="s">
+      <c r="BR65" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="BS65" s="42"/>
-      <c r="BT65" s="42"/>
-      <c r="BU65" s="42"/>
-      <c r="BV65" s="43"/>
+      <c r="BS65" s="23"/>
+      <c r="BT65" s="23"/>
+      <c r="BU65" s="23"/>
+      <c r="BV65" s="24"/>
       <c r="BW65" s="4"/>
       <c r="BX65" s="3"/>
       <c r="BY65" s="3"/>
-      <c r="BZ65" s="41" t="s">
+      <c r="BZ65" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="CA65" s="42"/>
-      <c r="CB65" s="42"/>
-      <c r="CC65" s="42"/>
-      <c r="CD65" s="43"/>
+      <c r="CA65" s="23"/>
+      <c r="CB65" s="23"/>
+      <c r="CC65" s="23"/>
+      <c r="CD65" s="24"/>
       <c r="CE65" s="5"/>
       <c r="CF65" s="4"/>
       <c r="CG65" s="4"/>
@@ -8631,37 +8688,37 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="34"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="30"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="26" t="s">
+      <c r="L66" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="28"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="27"/>
       <c r="Q66" s="4"/>
-      <c r="R66" s="38" t="s">
+      <c r="R66" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="40"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="37"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="38" t="s">
+      <c r="X66" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="39"/>
-      <c r="AB66" s="40"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="37"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
@@ -8732,13 +8789,13 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="32" t="s">
+      <c r="L67" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="34"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="30"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -8760,64 +8817,64 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="3"/>
-      <c r="AL67" s="26" t="s">
+      <c r="AL67" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="AM67" s="27"/>
-      <c r="AN67" s="27"/>
-      <c r="AO67" s="27"/>
-      <c r="AP67" s="28"/>
+      <c r="AM67" s="26"/>
+      <c r="AN67" s="26"/>
+      <c r="AO67" s="26"/>
+      <c r="AP67" s="27"/>
       <c r="AQ67" s="5"/>
       <c r="AS67" s="3"/>
-      <c r="AT67" s="26" t="s">
+      <c r="AT67" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AU67" s="27"/>
-      <c r="AV67" s="27"/>
-      <c r="AW67" s="27"/>
-      <c r="AX67" s="28"/>
+      <c r="AU67" s="26"/>
+      <c r="AV67" s="26"/>
+      <c r="AW67" s="26"/>
+      <c r="AX67" s="27"/>
       <c r="AY67" s="4"/>
-      <c r="AZ67" s="26" t="s">
+      <c r="AZ67" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="BA67" s="27"/>
-      <c r="BB67" s="27"/>
-      <c r="BC67" s="27"/>
-      <c r="BD67" s="28"/>
+      <c r="BA67" s="26"/>
+      <c r="BB67" s="26"/>
+      <c r="BC67" s="26"/>
+      <c r="BD67" s="27"/>
       <c r="BE67" s="4"/>
-      <c r="BF67" s="26" t="s">
+      <c r="BF67" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="BG67" s="27"/>
-      <c r="BH67" s="27"/>
-      <c r="BI67" s="27"/>
-      <c r="BJ67" s="28"/>
+      <c r="BG67" s="26"/>
+      <c r="BH67" s="26"/>
+      <c r="BI67" s="26"/>
+      <c r="BJ67" s="27"/>
       <c r="BK67" s="4"/>
-      <c r="BL67" s="26" t="s">
+      <c r="BL67" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="BM67" s="27"/>
-      <c r="BN67" s="27"/>
-      <c r="BO67" s="27"/>
-      <c r="BP67" s="28"/>
+      <c r="BM67" s="26"/>
+      <c r="BN67" s="26"/>
+      <c r="BO67" s="26"/>
+      <c r="BP67" s="27"/>
       <c r="BQ67" s="4"/>
-      <c r="BR67" s="41" t="s">
+      <c r="BR67" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="BS67" s="42"/>
-      <c r="BT67" s="42"/>
-      <c r="BU67" s="42"/>
-      <c r="BV67" s="43"/>
+      <c r="BS67" s="23"/>
+      <c r="BT67" s="23"/>
+      <c r="BU67" s="23"/>
+      <c r="BV67" s="24"/>
       <c r="BW67" s="4"/>
       <c r="BX67" s="3"/>
       <c r="BY67" s="3"/>
-      <c r="BZ67" s="26" t="s">
+      <c r="BZ67" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="CA67" s="27"/>
-      <c r="CB67" s="27"/>
-      <c r="CC67" s="27"/>
-      <c r="CD67" s="28"/>
+      <c r="CA67" s="26"/>
+      <c r="CB67" s="26"/>
+      <c r="CC67" s="26"/>
+      <c r="CD67" s="27"/>
       <c r="CE67" s="5"/>
       <c r="CF67" s="4"/>
       <c r="CG67" s="4"/>
@@ -8862,57 +8919,57 @@
       <c r="AI68" s="8"/>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="3"/>
-      <c r="AL68" s="32" t="s">
+      <c r="AL68" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="AM68" s="33"/>
-      <c r="AN68" s="33"/>
-      <c r="AO68" s="33"/>
-      <c r="AP68" s="34"/>
+      <c r="AM68" s="29"/>
+      <c r="AN68" s="29"/>
+      <c r="AO68" s="29"/>
+      <c r="AP68" s="30"/>
       <c r="AQ68" s="5"/>
       <c r="AS68" s="3"/>
-      <c r="AT68" s="32" t="s">
+      <c r="AT68" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="AU68" s="33"/>
-      <c r="AV68" s="33"/>
-      <c r="AW68" s="33"/>
-      <c r="AX68" s="34"/>
+      <c r="AU68" s="29"/>
+      <c r="AV68" s="29"/>
+      <c r="AW68" s="29"/>
+      <c r="AX68" s="30"/>
       <c r="AY68" s="4"/>
-      <c r="AZ68" s="32" t="s">
+      <c r="AZ68" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="BA68" s="33"/>
-      <c r="BB68" s="33"/>
-      <c r="BC68" s="33"/>
-      <c r="BD68" s="34"/>
+      <c r="BA68" s="29"/>
+      <c r="BB68" s="29"/>
+      <c r="BC68" s="29"/>
+      <c r="BD68" s="30"/>
       <c r="BE68" s="4"/>
-      <c r="BF68" s="32" t="s">
+      <c r="BF68" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="BG68" s="33"/>
-      <c r="BH68" s="33"/>
-      <c r="BI68" s="33"/>
-      <c r="BJ68" s="34"/>
+      <c r="BG68" s="29"/>
+      <c r="BH68" s="29"/>
+      <c r="BI68" s="29"/>
+      <c r="BJ68" s="30"/>
       <c r="BK68" s="4"/>
-      <c r="BL68" s="32" t="s">
+      <c r="BL68" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="BM68" s="33"/>
-      <c r="BN68" s="33"/>
-      <c r="BO68" s="33"/>
-      <c r="BP68" s="34"/>
+      <c r="BM68" s="29"/>
+      <c r="BN68" s="29"/>
+      <c r="BO68" s="29"/>
+      <c r="BP68" s="30"/>
       <c r="BQ68" s="4"/>
       <c r="BW68" s="4"/>
       <c r="BX68" s="3"/>
       <c r="BY68" s="3"/>
-      <c r="BZ68" s="32" t="s">
+      <c r="BZ68" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="CA68" s="33"/>
-      <c r="CB68" s="33"/>
-      <c r="CC68" s="33"/>
-      <c r="CD68" s="34"/>
+      <c r="CA68" s="29"/>
+      <c r="CB68" s="29"/>
+      <c r="CC68" s="29"/>
+      <c r="CD68" s="30"/>
       <c r="CE68" s="5"/>
       <c r="CF68" s="4"/>
       <c r="CG68" s="4"/>
@@ -8926,11 +8983,11 @@
       <c r="D69" s="3"/>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="3"/>
-      <c r="AL69" s="52"/>
-      <c r="AM69" s="52"/>
-      <c r="AN69" s="52"/>
-      <c r="AO69" s="52"/>
-      <c r="AP69" s="52"/>
+      <c r="AL69" s="38"/>
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="38"/>
       <c r="AQ69" s="5"/>
       <c r="AS69" s="6"/>
       <c r="AT69" s="7"/>
@@ -8965,11 +9022,11 @@
       <c r="BW69" s="7"/>
       <c r="BX69" s="3"/>
       <c r="BY69" s="6"/>
-      <c r="BZ69" s="50"/>
-      <c r="CA69" s="50"/>
-      <c r="CB69" s="50"/>
-      <c r="CC69" s="50"/>
-      <c r="CD69" s="50"/>
+      <c r="BZ69" s="39"/>
+      <c r="CA69" s="39"/>
+      <c r="CB69" s="39"/>
+      <c r="CC69" s="39"/>
+      <c r="CD69" s="39"/>
       <c r="CE69" s="8"/>
       <c r="CF69" s="4"/>
       <c r="CG69" s="4"/>
@@ -9143,45 +9200,45 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="43"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="24"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="41" t="s">
+      <c r="L72" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="43"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="24"/>
       <c r="Q72" s="4"/>
-      <c r="R72" s="35" t="s">
+      <c r="R72" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="37"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="33"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="46" t="s">
+      <c r="X72" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="Y72" s="47"/>
-      <c r="Z72" s="47"/>
-      <c r="AA72" s="47"/>
-      <c r="AB72" s="48"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="49"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="50"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="46" t="s">
+      <c r="AD72" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="AE72" s="47"/>
-      <c r="AF72" s="47"/>
-      <c r="AG72" s="47"/>
-      <c r="AH72" s="48"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="50"/>
       <c r="AI72" s="5"/>
       <c r="AJ72" s="4"/>
       <c r="AK72" s="3"/>
@@ -9254,91 +9311,91 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="38" t="s">
+      <c r="R73" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="40"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="37"/>
       <c r="W73" s="4"/>
-      <c r="X73" s="44" t="s">
+      <c r="X73" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="24"/>
+      <c r="Y73" s="44"/>
+      <c r="Z73" s="44"/>
+      <c r="AA73" s="44"/>
       <c r="AB73" s="45"/>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="44" t="s">
+      <c r="AD73" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
+      <c r="AE73" s="44"/>
+      <c r="AF73" s="44"/>
+      <c r="AG73" s="44"/>
       <c r="AH73" s="45"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="4"/>
       <c r="AK73" s="3"/>
-      <c r="AL73" s="41" t="s">
+      <c r="AL73" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="AM73" s="42"/>
-      <c r="AN73" s="42"/>
-      <c r="AO73" s="42"/>
-      <c r="AP73" s="43"/>
+      <c r="AM73" s="23"/>
+      <c r="AN73" s="23"/>
+      <c r="AO73" s="23"/>
+      <c r="AP73" s="24"/>
       <c r="AQ73" s="4"/>
-      <c r="AR73" s="26" t="s">
+      <c r="AR73" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="AS73" s="27"/>
-      <c r="AT73" s="27"/>
-      <c r="AU73" s="27"/>
-      <c r="AV73" s="28"/>
+      <c r="AS73" s="26"/>
+      <c r="AT73" s="26"/>
+      <c r="AU73" s="26"/>
+      <c r="AV73" s="27"/>
       <c r="AW73" s="5"/>
       <c r="AX73" s="3"/>
       <c r="AY73" s="3"/>
-      <c r="AZ73" s="41" t="s">
+      <c r="AZ73" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="BA73" s="42"/>
-      <c r="BB73" s="42"/>
-      <c r="BC73" s="42"/>
-      <c r="BD73" s="43"/>
+      <c r="BA73" s="23"/>
+      <c r="BB73" s="23"/>
+      <c r="BC73" s="23"/>
+      <c r="BD73" s="24"/>
       <c r="BE73" s="4"/>
-      <c r="BF73" s="41" t="s">
+      <c r="BF73" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="BG73" s="42"/>
-      <c r="BH73" s="42"/>
-      <c r="BI73" s="42"/>
-      <c r="BJ73" s="43"/>
+      <c r="BG73" s="23"/>
+      <c r="BH73" s="23"/>
+      <c r="BI73" s="23"/>
+      <c r="BJ73" s="24"/>
       <c r="BK73" s="4"/>
-      <c r="BL73" s="41" t="s">
+      <c r="BL73" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="BM73" s="42"/>
-      <c r="BN73" s="42"/>
-      <c r="BO73" s="42"/>
-      <c r="BP73" s="43"/>
+      <c r="BM73" s="23"/>
+      <c r="BN73" s="23"/>
+      <c r="BO73" s="23"/>
+      <c r="BP73" s="24"/>
       <c r="BQ73" s="4"/>
       <c r="BR73" s="3"/>
       <c r="BS73" s="3"/>
-      <c r="BT73" s="41" t="s">
+      <c r="BT73" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="BU73" s="42"/>
-      <c r="BV73" s="42"/>
-      <c r="BW73" s="42"/>
-      <c r="BX73" s="43"/>
+      <c r="BU73" s="23"/>
+      <c r="BV73" s="23"/>
+      <c r="BW73" s="23"/>
+      <c r="BX73" s="24"/>
       <c r="BY73" s="4"/>
-      <c r="BZ73" s="41" t="s">
+      <c r="BZ73" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="CA73" s="42"/>
-      <c r="CB73" s="42"/>
-      <c r="CC73" s="42"/>
-      <c r="CD73" s="43"/>
+      <c r="CA73" s="23"/>
+      <c r="CB73" s="23"/>
+      <c r="CC73" s="23"/>
+      <c r="CD73" s="24"/>
       <c r="CE73" s="5"/>
       <c r="CF73" s="4"/>
       <c r="CG73" s="4"/>
@@ -9351,21 +9408,21 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="41" t="s">
+      <c r="F74" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="43"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="24"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="41" t="s">
+      <c r="L74" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="43"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="24"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -9373,20 +9430,20 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
-      <c r="X74" s="44" t="s">
+      <c r="X74" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="24"/>
-      <c r="AA74" s="24"/>
+      <c r="Y74" s="44"/>
+      <c r="Z74" s="44"/>
+      <c r="AA74" s="44"/>
       <c r="AB74" s="45"/>
       <c r="AC74" s="4"/>
-      <c r="AD74" s="44" t="s">
+      <c r="AD74" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="AE74" s="24"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
+      <c r="AE74" s="44"/>
+      <c r="AF74" s="44"/>
+      <c r="AG74" s="44"/>
       <c r="AH74" s="45"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="4"/>
@@ -9397,13 +9454,13 @@
       <c r="AO74" s="4"/>
       <c r="AP74" s="4"/>
       <c r="AQ74" s="4"/>
-      <c r="AR74" s="32" t="s">
+      <c r="AR74" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="AS74" s="33"/>
-      <c r="AT74" s="33"/>
-      <c r="AU74" s="33"/>
-      <c r="AV74" s="34"/>
+      <c r="AS74" s="29"/>
+      <c r="AT74" s="29"/>
+      <c r="AU74" s="29"/>
+      <c r="AV74" s="30"/>
       <c r="AW74" s="5"/>
       <c r="AX74" s="3"/>
       <c r="AY74" s="3"/>
@@ -9462,39 +9519,39 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
-      <c r="R75" s="35" t="s">
+      <c r="R75" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="37"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="32"/>
+      <c r="U75" s="32"/>
+      <c r="V75" s="33"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="44" t="s">
+      <c r="X75" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="24"/>
-      <c r="AA75" s="24"/>
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="44"/>
+      <c r="AA75" s="44"/>
       <c r="AB75" s="45"/>
       <c r="AC75" s="4"/>
-      <c r="AD75" s="44" t="s">
+      <c r="AD75" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="24"/>
-      <c r="AG75" s="24"/>
+      <c r="AE75" s="44"/>
+      <c r="AF75" s="44"/>
+      <c r="AG75" s="44"/>
       <c r="AH75" s="45"/>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="4"/>
       <c r="AK75" s="3"/>
-      <c r="AL75" s="26" t="s">
+      <c r="AL75" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="AM75" s="27"/>
-      <c r="AN75" s="27"/>
-      <c r="AO75" s="27"/>
-      <c r="AP75" s="28"/>
+      <c r="AM75" s="26"/>
+      <c r="AN75" s="26"/>
+      <c r="AO75" s="26"/>
+      <c r="AP75" s="27"/>
       <c r="AQ75" s="4"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
@@ -9504,47 +9561,47 @@
       <c r="AW75" s="5"/>
       <c r="AX75" s="3"/>
       <c r="AY75" s="3"/>
-      <c r="AZ75" s="26" t="s">
+      <c r="AZ75" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="BA75" s="27"/>
-      <c r="BB75" s="27"/>
-      <c r="BC75" s="27"/>
-      <c r="BD75" s="28"/>
+      <c r="BA75" s="26"/>
+      <c r="BB75" s="26"/>
+      <c r="BC75" s="26"/>
+      <c r="BD75" s="27"/>
       <c r="BE75" s="4"/>
-      <c r="BF75" s="26" t="s">
+      <c r="BF75" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="BG75" s="27"/>
-      <c r="BH75" s="27"/>
-      <c r="BI75" s="27"/>
-      <c r="BJ75" s="28"/>
+      <c r="BG75" s="26"/>
+      <c r="BH75" s="26"/>
+      <c r="BI75" s="26"/>
+      <c r="BJ75" s="27"/>
       <c r="BK75" s="4"/>
-      <c r="BL75" s="26" t="s">
+      <c r="BL75" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="BM75" s="27"/>
-      <c r="BN75" s="27"/>
-      <c r="BO75" s="27"/>
-      <c r="BP75" s="28"/>
+      <c r="BM75" s="26"/>
+      <c r="BN75" s="26"/>
+      <c r="BO75" s="26"/>
+      <c r="BP75" s="27"/>
       <c r="BQ75" s="4"/>
       <c r="BR75" s="3"/>
       <c r="BS75" s="3"/>
-      <c r="BT75" s="26" t="s">
+      <c r="BT75" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="BU75" s="27"/>
-      <c r="BV75" s="27"/>
-      <c r="BW75" s="27"/>
-      <c r="BX75" s="28"/>
+      <c r="BU75" s="26"/>
+      <c r="BV75" s="26"/>
+      <c r="BW75" s="26"/>
+      <c r="BX75" s="27"/>
       <c r="BY75" s="4"/>
-      <c r="BZ75" s="26" t="s">
+      <c r="BZ75" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="CA75" s="27"/>
-      <c r="CB75" s="27"/>
-      <c r="CC75" s="27"/>
-      <c r="CD75" s="28"/>
+      <c r="CA75" s="26"/>
+      <c r="CB75" s="26"/>
+      <c r="CC75" s="26"/>
+      <c r="CD75" s="27"/>
       <c r="CE75" s="5"/>
       <c r="CF75" s="4"/>
       <c r="CG75" s="4"/>
@@ -9557,107 +9614,107 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="41" t="s">
+      <c r="F76" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="43"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="24"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="41" t="s">
+      <c r="L76" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="43"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="24"/>
       <c r="Q76" s="4"/>
-      <c r="R76" s="38" t="s">
+      <c r="R76" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="40"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="37"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="44" t="s">
+      <c r="X76" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="24"/>
+      <c r="Y76" s="44"/>
+      <c r="Z76" s="44"/>
+      <c r="AA76" s="44"/>
       <c r="AB76" s="45"/>
       <c r="AC76" s="4"/>
-      <c r="AD76" s="44" t="s">
+      <c r="AD76" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AE76" s="24"/>
-      <c r="AF76" s="24"/>
-      <c r="AG76" s="24"/>
+      <c r="AE76" s="44"/>
+      <c r="AF76" s="44"/>
+      <c r="AG76" s="44"/>
       <c r="AH76" s="45"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="4"/>
       <c r="AK76" s="3"/>
-      <c r="AL76" s="32" t="s">
+      <c r="AL76" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="AM76" s="33"/>
-      <c r="AN76" s="33"/>
-      <c r="AO76" s="33"/>
-      <c r="AP76" s="34"/>
+      <c r="AM76" s="29"/>
+      <c r="AN76" s="29"/>
+      <c r="AO76" s="29"/>
+      <c r="AP76" s="30"/>
       <c r="AQ76" s="4"/>
-      <c r="AR76" s="26" t="s">
+      <c r="AR76" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="AS76" s="27"/>
-      <c r="AT76" s="27"/>
-      <c r="AU76" s="27"/>
-      <c r="AV76" s="28"/>
+      <c r="AS76" s="26"/>
+      <c r="AT76" s="26"/>
+      <c r="AU76" s="26"/>
+      <c r="AV76" s="27"/>
       <c r="AW76" s="5"/>
       <c r="AX76" s="3"/>
       <c r="AY76" s="3"/>
-      <c r="AZ76" s="32" t="s">
+      <c r="AZ76" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="BA76" s="33"/>
-      <c r="BB76" s="33"/>
-      <c r="BC76" s="33"/>
-      <c r="BD76" s="34"/>
+      <c r="BA76" s="29"/>
+      <c r="BB76" s="29"/>
+      <c r="BC76" s="29"/>
+      <c r="BD76" s="30"/>
       <c r="BE76" s="4"/>
-      <c r="BF76" s="32" t="s">
+      <c r="BF76" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="BG76" s="33"/>
-      <c r="BH76" s="33"/>
-      <c r="BI76" s="33"/>
-      <c r="BJ76" s="34"/>
+      <c r="BG76" s="29"/>
+      <c r="BH76" s="29"/>
+      <c r="BI76" s="29"/>
+      <c r="BJ76" s="30"/>
       <c r="BK76" s="4"/>
-      <c r="BL76" s="32" t="s">
+      <c r="BL76" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="BM76" s="33"/>
-      <c r="BN76" s="33"/>
-      <c r="BO76" s="33"/>
-      <c r="BP76" s="34"/>
+      <c r="BM76" s="29"/>
+      <c r="BN76" s="29"/>
+      <c r="BO76" s="29"/>
+      <c r="BP76" s="30"/>
       <c r="BQ76" s="4"/>
       <c r="BR76" s="3"/>
       <c r="BS76" s="3"/>
-      <c r="BT76" s="32" t="s">
+      <c r="BT76" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="BU76" s="33"/>
-      <c r="BV76" s="33"/>
-      <c r="BW76" s="33"/>
-      <c r="BX76" s="34"/>
+      <c r="BU76" s="29"/>
+      <c r="BV76" s="29"/>
+      <c r="BW76" s="29"/>
+      <c r="BX76" s="30"/>
       <c r="BY76" s="4"/>
-      <c r="BZ76" s="32" t="s">
+      <c r="BZ76" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="CA76" s="33"/>
-      <c r="CB76" s="33"/>
-      <c r="CC76" s="33"/>
-      <c r="CD76" s="34"/>
+      <c r="CA76" s="29"/>
+      <c r="CB76" s="29"/>
+      <c r="CC76" s="29"/>
+      <c r="CD76" s="30"/>
       <c r="CE76" s="5"/>
       <c r="CF76" s="4"/>
       <c r="CG76" s="4"/>
@@ -9688,20 +9745,20 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="44" t="s">
+      <c r="X77" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="24"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
+      <c r="AA77" s="44"/>
       <c r="AB77" s="45"/>
       <c r="AC77" s="4"/>
-      <c r="AD77" s="44" t="s">
+      <c r="AD77" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AE77" s="24"/>
-      <c r="AF77" s="24"/>
-      <c r="AG77" s="24"/>
+      <c r="AE77" s="44"/>
+      <c r="AF77" s="44"/>
+      <c r="AG77" s="44"/>
       <c r="AH77" s="45"/>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="4"/>
@@ -9712,13 +9769,13 @@
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
-      <c r="AR77" s="32" t="s">
+      <c r="AR77" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="AS77" s="33"/>
-      <c r="AT77" s="33"/>
-      <c r="AU77" s="33"/>
-      <c r="AV77" s="34"/>
+      <c r="AS77" s="29"/>
+      <c r="AT77" s="29"/>
+      <c r="AU77" s="29"/>
+      <c r="AV77" s="30"/>
       <c r="AW77" s="5"/>
       <c r="AX77" s="3"/>
       <c r="AY77" s="3"/>
@@ -9765,55 +9822,55 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="43"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="24"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="41" t="s">
+      <c r="L78" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
-      <c r="P78" s="43"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="24"/>
       <c r="Q78" s="4"/>
-      <c r="R78" s="35" t="s">
+      <c r="R78" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="37"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="32"/>
+      <c r="U78" s="32"/>
+      <c r="V78" s="33"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="49" t="s">
+      <c r="X78" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="Y78" s="50"/>
-      <c r="Z78" s="50"/>
-      <c r="AA78" s="50"/>
-      <c r="AB78" s="51"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
+      <c r="AA78" s="39"/>
+      <c r="AB78" s="47"/>
       <c r="AC78" s="4"/>
-      <c r="AD78" s="49" t="s">
+      <c r="AD78" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="AE78" s="50"/>
-      <c r="AF78" s="50"/>
-      <c r="AG78" s="50"/>
-      <c r="AH78" s="51"/>
+      <c r="AE78" s="39"/>
+      <c r="AF78" s="39"/>
+      <c r="AG78" s="39"/>
+      <c r="AH78" s="47"/>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="4"/>
       <c r="AK78" s="3"/>
-      <c r="AL78" s="26" t="s">
+      <c r="AL78" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="AM78" s="27"/>
-      <c r="AN78" s="27"/>
-      <c r="AO78" s="27"/>
-      <c r="AP78" s="28"/>
+      <c r="AM78" s="26"/>
+      <c r="AN78" s="26"/>
+      <c r="AO78" s="26"/>
+      <c r="AP78" s="27"/>
       <c r="AQ78" s="4"/>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
@@ -9823,47 +9880,47 @@
       <c r="AW78" s="5"/>
       <c r="AX78" s="3"/>
       <c r="AY78" s="3"/>
-      <c r="AZ78" s="26" t="s">
+      <c r="AZ78" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="BA78" s="27"/>
-      <c r="BB78" s="27"/>
-      <c r="BC78" s="27"/>
-      <c r="BD78" s="28"/>
+      <c r="BA78" s="26"/>
+      <c r="BB78" s="26"/>
+      <c r="BC78" s="26"/>
+      <c r="BD78" s="27"/>
       <c r="BE78" s="4"/>
-      <c r="BF78" s="26" t="s">
+      <c r="BF78" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="BG78" s="27"/>
-      <c r="BH78" s="27"/>
-      <c r="BI78" s="27"/>
-      <c r="BJ78" s="28"/>
+      <c r="BG78" s="26"/>
+      <c r="BH78" s="26"/>
+      <c r="BI78" s="26"/>
+      <c r="BJ78" s="27"/>
       <c r="BK78" s="4"/>
-      <c r="BL78" s="26" t="s">
+      <c r="BL78" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="BM78" s="27"/>
-      <c r="BN78" s="27"/>
-      <c r="BO78" s="27"/>
-      <c r="BP78" s="28"/>
+      <c r="BM78" s="26"/>
+      <c r="BN78" s="26"/>
+      <c r="BO78" s="26"/>
+      <c r="BP78" s="27"/>
       <c r="BQ78" s="4"/>
       <c r="BR78" s="3"/>
       <c r="BS78" s="3"/>
-      <c r="BT78" s="26" t="s">
+      <c r="BT78" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="BU78" s="27"/>
-      <c r="BV78" s="27"/>
-      <c r="BW78" s="27"/>
-      <c r="BX78" s="28"/>
+      <c r="BU78" s="26"/>
+      <c r="BV78" s="26"/>
+      <c r="BW78" s="26"/>
+      <c r="BX78" s="27"/>
       <c r="BY78" s="4"/>
-      <c r="BZ78" s="26" t="s">
+      <c r="BZ78" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="CA78" s="27"/>
-      <c r="CB78" s="27"/>
-      <c r="CC78" s="27"/>
-      <c r="CD78" s="28"/>
+      <c r="CA78" s="26"/>
+      <c r="CB78" s="26"/>
+      <c r="CC78" s="26"/>
+      <c r="CD78" s="27"/>
       <c r="CE78" s="5"/>
       <c r="CF78" s="4"/>
       <c r="CG78" s="4"/>
@@ -9888,13 +9945,13 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
-      <c r="R79" s="38" t="s">
+      <c r="R79" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="40"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="37"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
@@ -9910,13 +9967,13 @@
       <c r="AI79" s="5"/>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="3"/>
-      <c r="AL79" s="32" t="s">
+      <c r="AL79" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="AM79" s="33"/>
-      <c r="AN79" s="33"/>
-      <c r="AO79" s="33"/>
-      <c r="AP79" s="34"/>
+      <c r="AM79" s="29"/>
+      <c r="AN79" s="29"/>
+      <c r="AO79" s="29"/>
+      <c r="AP79" s="30"/>
       <c r="AQ79" s="4"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
@@ -9926,47 +9983,47 @@
       <c r="AW79" s="5"/>
       <c r="AX79" s="3"/>
       <c r="AY79" s="3"/>
-      <c r="AZ79" s="32" t="s">
+      <c r="AZ79" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="BA79" s="33"/>
-      <c r="BB79" s="33"/>
-      <c r="BC79" s="33"/>
-      <c r="BD79" s="34"/>
+      <c r="BA79" s="29"/>
+      <c r="BB79" s="29"/>
+      <c r="BC79" s="29"/>
+      <c r="BD79" s="30"/>
       <c r="BE79" s="4"/>
-      <c r="BF79" s="32" t="s">
+      <c r="BF79" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="BG79" s="33"/>
-      <c r="BH79" s="33"/>
-      <c r="BI79" s="33"/>
-      <c r="BJ79" s="34"/>
+      <c r="BG79" s="29"/>
+      <c r="BH79" s="29"/>
+      <c r="BI79" s="29"/>
+      <c r="BJ79" s="30"/>
       <c r="BK79" s="4"/>
-      <c r="BL79" s="32" t="s">
+      <c r="BL79" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="BM79" s="33"/>
-      <c r="BN79" s="33"/>
-      <c r="BO79" s="33"/>
-      <c r="BP79" s="34"/>
+      <c r="BM79" s="29"/>
+      <c r="BN79" s="29"/>
+      <c r="BO79" s="29"/>
+      <c r="BP79" s="30"/>
       <c r="BQ79" s="4"/>
       <c r="BR79" s="3"/>
       <c r="BS79" s="3"/>
-      <c r="BT79" s="32" t="s">
+      <c r="BT79" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="BU79" s="33"/>
-      <c r="BV79" s="33"/>
-      <c r="BW79" s="33"/>
-      <c r="BX79" s="34"/>
+      <c r="BU79" s="29"/>
+      <c r="BV79" s="29"/>
+      <c r="BW79" s="29"/>
+      <c r="BX79" s="30"/>
       <c r="BY79" s="4"/>
-      <c r="BZ79" s="32" t="s">
+      <c r="BZ79" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="CA79" s="33"/>
-      <c r="CB79" s="33"/>
-      <c r="CC79" s="33"/>
-      <c r="CD79" s="34"/>
+      <c r="CA79" s="29"/>
+      <c r="CB79" s="29"/>
+      <c r="CC79" s="29"/>
+      <c r="CD79" s="30"/>
       <c r="CE79" s="5"/>
       <c r="CF79" s="4"/>
       <c r="CG79" s="4"/>
@@ -9979,21 +10036,21 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="41" t="s">
+      <c r="F80" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="43"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="24"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="35" t="s">
+      <c r="L80" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="37"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="33"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
@@ -10078,13 +10135,13 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="38" t="s">
+      <c r="L81" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="40"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="37"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
@@ -10476,106 +10533,106 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="41" t="s">
+      <c r="F86" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="43"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="41" t="s">
+      <c r="L86" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="43"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="24"/>
       <c r="Q86" s="4"/>
-      <c r="R86" s="41" t="s">
+      <c r="R86" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="S86" s="42"/>
-      <c r="T86" s="42"/>
-      <c r="U86" s="42"/>
-      <c r="V86" s="43"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="24"/>
       <c r="W86" s="4"/>
-      <c r="X86" s="41" t="s">
+      <c r="X86" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Y86" s="42"/>
-      <c r="Z86" s="42"/>
-      <c r="AA86" s="42"/>
-      <c r="AB86" s="43"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="24"/>
       <c r="AC86" s="4"/>
-      <c r="AD86" s="41" t="s">
+      <c r="AD86" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="AE86" s="42"/>
-      <c r="AF86" s="42"/>
-      <c r="AG86" s="42"/>
-      <c r="AH86" s="43"/>
+      <c r="AE86" s="23"/>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="24"/>
       <c r="AI86" s="4"/>
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
-      <c r="AL86" s="41" t="s">
+      <c r="AL86" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="AM86" s="42"/>
-      <c r="AN86" s="42"/>
-      <c r="AO86" s="42"/>
-      <c r="AP86" s="43"/>
+      <c r="AM86" s="23"/>
+      <c r="AN86" s="23"/>
+      <c r="AO86" s="23"/>
+      <c r="AP86" s="24"/>
       <c r="AQ86" s="4"/>
-      <c r="AR86" s="26" t="s">
+      <c r="AR86" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="AS86" s="27"/>
-      <c r="AT86" s="27"/>
-      <c r="AU86" s="27"/>
-      <c r="AV86" s="28"/>
+      <c r="AS86" s="26"/>
+      <c r="AT86" s="26"/>
+      <c r="AU86" s="26"/>
+      <c r="AV86" s="27"/>
       <c r="AW86" s="5"/>
       <c r="AY86" s="3"/>
-      <c r="AZ86" s="41" t="s">
+      <c r="AZ86" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="BA86" s="42"/>
-      <c r="BB86" s="42"/>
-      <c r="BC86" s="42"/>
-      <c r="BD86" s="43"/>
+      <c r="BA86" s="23"/>
+      <c r="BB86" s="23"/>
+      <c r="BC86" s="23"/>
+      <c r="BD86" s="24"/>
       <c r="BE86" s="4"/>
-      <c r="BF86" s="26" t="s">
+      <c r="BF86" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="BG86" s="27"/>
-      <c r="BH86" s="27"/>
-      <c r="BI86" s="27"/>
-      <c r="BJ86" s="28"/>
+      <c r="BG86" s="26"/>
+      <c r="BH86" s="26"/>
+      <c r="BI86" s="26"/>
+      <c r="BJ86" s="27"/>
       <c r="BK86" s="4"/>
-      <c r="BL86" s="26" t="s">
+      <c r="BL86" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="BM86" s="27"/>
-      <c r="BN86" s="27"/>
-      <c r="BO86" s="27"/>
-      <c r="BP86" s="28"/>
+      <c r="BM86" s="26"/>
+      <c r="BN86" s="26"/>
+      <c r="BO86" s="26"/>
+      <c r="BP86" s="27"/>
       <c r="BQ86" s="4"/>
       <c r="BR86" s="3"/>
       <c r="BS86" s="3"/>
-      <c r="BT86" s="41" t="s">
+      <c r="BT86" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="BU86" s="42"/>
-      <c r="BV86" s="42"/>
-      <c r="BW86" s="42"/>
-      <c r="BX86" s="43"/>
+      <c r="BU86" s="23"/>
+      <c r="BV86" s="23"/>
+      <c r="BW86" s="23"/>
+      <c r="BX86" s="24"/>
       <c r="BY86" s="4"/>
-      <c r="BZ86" s="41" t="s">
+      <c r="BZ86" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="CA86" s="42"/>
-      <c r="CB86" s="42"/>
-      <c r="CC86" s="42"/>
-      <c r="CD86" s="43"/>
+      <c r="CA86" s="23"/>
+      <c r="CB86" s="23"/>
+      <c r="CC86" s="23"/>
+      <c r="CD86" s="24"/>
       <c r="CE86" s="5"/>
       <c r="CF86" s="4"/>
       <c r="CG86" s="4"/>
@@ -10626,13 +10683,13 @@
       <c r="AO87" s="4"/>
       <c r="AP87" s="4"/>
       <c r="AQ87" s="4"/>
-      <c r="AR87" s="32" t="s">
+      <c r="AR87" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="AS87" s="33"/>
-      <c r="AT87" s="33"/>
-      <c r="AU87" s="33"/>
-      <c r="AV87" s="34"/>
+      <c r="AS87" s="29"/>
+      <c r="AT87" s="29"/>
+      <c r="AU87" s="29"/>
+      <c r="AV87" s="30"/>
       <c r="AW87" s="5"/>
       <c r="AY87" s="3"/>
       <c r="AZ87" s="4"/>
@@ -10641,21 +10698,21 @@
       <c r="BC87" s="4"/>
       <c r="BD87" s="4"/>
       <c r="BE87" s="4"/>
-      <c r="BF87" s="32" t="s">
+      <c r="BF87" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="BG87" s="33"/>
-      <c r="BH87" s="33"/>
-      <c r="BI87" s="33"/>
-      <c r="BJ87" s="34"/>
+      <c r="BG87" s="29"/>
+      <c r="BH87" s="29"/>
+      <c r="BI87" s="29"/>
+      <c r="BJ87" s="30"/>
       <c r="BK87" s="4"/>
-      <c r="BL87" s="32" t="s">
+      <c r="BL87" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="BM87" s="33"/>
-      <c r="BN87" s="33"/>
-      <c r="BO87" s="33"/>
-      <c r="BP87" s="34"/>
+      <c r="BM87" s="29"/>
+      <c r="BN87" s="29"/>
+      <c r="BO87" s="29"/>
+      <c r="BP87" s="30"/>
       <c r="BQ87" s="4"/>
       <c r="BR87" s="3"/>
       <c r="BS87" s="3"/>
@@ -10682,55 +10739,55 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="35" t="s">
+      <c r="F88" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="37"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="33"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="35" t="s">
+      <c r="L88" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="37"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="33"/>
       <c r="Q88" s="4"/>
-      <c r="R88" s="35" t="s">
+      <c r="R88" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="37"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="33"/>
       <c r="W88" s="4"/>
-      <c r="X88" s="35" t="s">
+      <c r="X88" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
-      <c r="AA88" s="36"/>
-      <c r="AB88" s="37"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="32"/>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="33"/>
       <c r="AC88" s="4"/>
-      <c r="AD88" s="35" t="s">
+      <c r="AD88" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="AE88" s="36"/>
-      <c r="AF88" s="36"/>
-      <c r="AG88" s="36"/>
-      <c r="AH88" s="37"/>
+      <c r="AE88" s="32"/>
+      <c r="AF88" s="32"/>
+      <c r="AG88" s="32"/>
+      <c r="AH88" s="33"/>
       <c r="AI88" s="4"/>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
-      <c r="AL88" s="41" t="s">
+      <c r="AL88" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AM88" s="42"/>
-      <c r="AN88" s="42"/>
-      <c r="AO88" s="42"/>
-      <c r="AP88" s="43"/>
+      <c r="AM88" s="23"/>
+      <c r="AN88" s="23"/>
+      <c r="AO88" s="23"/>
+      <c r="AP88" s="24"/>
       <c r="AQ88" s="4"/>
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
@@ -10739,13 +10796,13 @@
       <c r="AV88" s="4"/>
       <c r="AW88" s="5"/>
       <c r="AY88" s="3"/>
-      <c r="AZ88" s="41" t="s">
+      <c r="AZ88" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="BA88" s="42"/>
-      <c r="BB88" s="42"/>
-      <c r="BC88" s="42"/>
-      <c r="BD88" s="43"/>
+      <c r="BA88" s="23"/>
+      <c r="BB88" s="23"/>
+      <c r="BC88" s="23"/>
+      <c r="BD88" s="24"/>
       <c r="BE88" s="4"/>
       <c r="BF88" s="4"/>
       <c r="BG88" s="4"/>
@@ -10761,21 +10818,21 @@
       <c r="BQ88" s="4"/>
       <c r="BR88" s="3"/>
       <c r="BS88" s="3"/>
-      <c r="BT88" s="26" t="s">
+      <c r="BT88" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="BU88" s="27"/>
-      <c r="BV88" s="27"/>
-      <c r="BW88" s="27"/>
-      <c r="BX88" s="28"/>
+      <c r="BU88" s="26"/>
+      <c r="BV88" s="26"/>
+      <c r="BW88" s="26"/>
+      <c r="BX88" s="27"/>
       <c r="BY88" s="4"/>
-      <c r="BZ88" s="26" t="s">
+      <c r="BZ88" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="CA88" s="27"/>
-      <c r="CB88" s="27"/>
-      <c r="CC88" s="27"/>
-      <c r="CD88" s="28"/>
+      <c r="CA88" s="26"/>
+      <c r="CB88" s="26"/>
+      <c r="CC88" s="26"/>
+      <c r="CD88" s="27"/>
       <c r="CE88" s="5"/>
       <c r="CF88" s="4"/>
       <c r="CG88" s="4"/>
@@ -10788,45 +10845,45 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="38" t="s">
+      <c r="F89" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="40"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="37"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="38" t="s">
+      <c r="L89" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="40"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="37"/>
       <c r="Q89" s="4"/>
-      <c r="R89" s="38" t="s">
+      <c r="R89" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="40"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="37"/>
       <c r="W89" s="4"/>
-      <c r="X89" s="38" t="s">
+      <c r="X89" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="Y89" s="39"/>
-      <c r="Z89" s="39"/>
-      <c r="AA89" s="39"/>
-      <c r="AB89" s="40"/>
+      <c r="Y89" s="36"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="36"/>
+      <c r="AB89" s="37"/>
       <c r="AC89" s="4"/>
-      <c r="AD89" s="38" t="s">
+      <c r="AD89" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="AE89" s="39"/>
-      <c r="AF89" s="39"/>
-      <c r="AG89" s="39"/>
-      <c r="AH89" s="40"/>
+      <c r="AE89" s="36"/>
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="36"/>
+      <c r="AH89" s="37"/>
       <c r="AI89" s="4"/>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
@@ -10849,39 +10906,39 @@
       <c r="BC89" s="4"/>
       <c r="BD89" s="4"/>
       <c r="BE89" s="4"/>
-      <c r="BF89" s="26" t="s">
+      <c r="BF89" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="BG89" s="27"/>
-      <c r="BH89" s="27"/>
-      <c r="BI89" s="27"/>
-      <c r="BJ89" s="28"/>
+      <c r="BG89" s="26"/>
+      <c r="BH89" s="26"/>
+      <c r="BI89" s="26"/>
+      <c r="BJ89" s="27"/>
       <c r="BK89" s="4"/>
-      <c r="BL89" s="26" t="s">
+      <c r="BL89" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BM89" s="27"/>
-      <c r="BN89" s="27"/>
-      <c r="BO89" s="27"/>
-      <c r="BP89" s="28"/>
+      <c r="BM89" s="26"/>
+      <c r="BN89" s="26"/>
+      <c r="BO89" s="26"/>
+      <c r="BP89" s="27"/>
       <c r="BQ89" s="4"/>
       <c r="BR89" s="3"/>
       <c r="BS89" s="3"/>
-      <c r="BT89" s="32" t="s">
+      <c r="BT89" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="BU89" s="33"/>
-      <c r="BV89" s="33"/>
-      <c r="BW89" s="33"/>
-      <c r="BX89" s="34"/>
+      <c r="BU89" s="29"/>
+      <c r="BV89" s="29"/>
+      <c r="BW89" s="29"/>
+      <c r="BX89" s="30"/>
       <c r="BY89" s="4"/>
-      <c r="BZ89" s="32" t="s">
+      <c r="BZ89" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="CA89" s="33"/>
-      <c r="CB89" s="33"/>
-      <c r="CC89" s="33"/>
-      <c r="CD89" s="34"/>
+      <c r="CA89" s="29"/>
+      <c r="CB89" s="29"/>
+      <c r="CC89" s="29"/>
+      <c r="CD89" s="30"/>
       <c r="CE89" s="5"/>
       <c r="CF89" s="4"/>
       <c r="CG89" s="4"/>
@@ -10926,13 +10983,13 @@
       <c r="AI90" s="4"/>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
-      <c r="AL90" s="41" t="s">
+      <c r="AL90" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="AM90" s="42"/>
-      <c r="AN90" s="42"/>
-      <c r="AO90" s="42"/>
-      <c r="AP90" s="43"/>
+      <c r="AM90" s="23"/>
+      <c r="AN90" s="23"/>
+      <c r="AO90" s="23"/>
+      <c r="AP90" s="24"/>
       <c r="AQ90" s="4"/>
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
@@ -10941,29 +10998,29 @@
       <c r="AV90" s="4"/>
       <c r="AW90" s="5"/>
       <c r="AY90" s="3"/>
-      <c r="AZ90" s="41" t="s">
+      <c r="AZ90" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="BA90" s="42"/>
-      <c r="BB90" s="42"/>
-      <c r="BC90" s="42"/>
-      <c r="BD90" s="43"/>
+      <c r="BA90" s="23"/>
+      <c r="BB90" s="23"/>
+      <c r="BC90" s="23"/>
+      <c r="BD90" s="24"/>
       <c r="BE90" s="4"/>
-      <c r="BF90" s="32" t="s">
+      <c r="BF90" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="BG90" s="33"/>
-      <c r="BH90" s="33"/>
-      <c r="BI90" s="33"/>
-      <c r="BJ90" s="34"/>
+      <c r="BG90" s="29"/>
+      <c r="BH90" s="29"/>
+      <c r="BI90" s="29"/>
+      <c r="BJ90" s="30"/>
       <c r="BK90" s="4"/>
-      <c r="BL90" s="32" t="s">
+      <c r="BL90" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="BM90" s="33"/>
-      <c r="BN90" s="33"/>
-      <c r="BO90" s="33"/>
-      <c r="BP90" s="34"/>
+      <c r="BM90" s="29"/>
+      <c r="BN90" s="29"/>
+      <c r="BO90" s="29"/>
+      <c r="BP90" s="30"/>
       <c r="BQ90" s="4"/>
       <c r="BR90" s="3"/>
       <c r="BS90" s="6"/>
@@ -10990,45 +11047,45 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="35" t="s">
+      <c r="F91" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="37"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="33"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="35" t="s">
+      <c r="L91" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="37"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="33"/>
       <c r="Q91" s="4"/>
-      <c r="R91" s="35" t="s">
+      <c r="R91" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="37"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="33"/>
       <c r="W91" s="4"/>
-      <c r="X91" s="35" t="s">
+      <c r="X91" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
-      <c r="AA91" s="36"/>
-      <c r="AB91" s="37"/>
+      <c r="Y91" s="32"/>
+      <c r="Z91" s="32"/>
+      <c r="AA91" s="32"/>
+      <c r="AB91" s="33"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="35" t="s">
+      <c r="AD91" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36"/>
-      <c r="AG91" s="36"/>
-      <c r="AH91" s="37"/>
+      <c r="AE91" s="32"/>
+      <c r="AF91" s="32"/>
+      <c r="AG91" s="32"/>
+      <c r="AH91" s="33"/>
       <c r="AI91" s="4"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="6"/>
@@ -11088,71 +11145,71 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="38" t="s">
+      <c r="F92" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="40"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="38" t="s">
+      <c r="L92" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="40"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="37"/>
       <c r="Q92" s="4"/>
-      <c r="R92" s="38" t="s">
+      <c r="R92" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="40"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="37"/>
       <c r="W92" s="4"/>
-      <c r="X92" s="38" t="s">
+      <c r="X92" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="39"/>
-      <c r="AA92" s="39"/>
-      <c r="AB92" s="40"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="37"/>
       <c r="AC92" s="4"/>
-      <c r="AD92" s="38" t="s">
+      <c r="AD92" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="39"/>
-      <c r="AG92" s="39"/>
-      <c r="AH92" s="40"/>
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="36"/>
+      <c r="AH92" s="37"/>
       <c r="AI92" s="4"/>
       <c r="AJ92" s="3"/>
       <c r="AY92" s="3"/>
-      <c r="AZ92" s="26" t="s">
+      <c r="AZ92" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="BA92" s="27"/>
-      <c r="BB92" s="27"/>
-      <c r="BC92" s="27"/>
-      <c r="BD92" s="28"/>
+      <c r="BA92" s="26"/>
+      <c r="BB92" s="26"/>
+      <c r="BC92" s="26"/>
+      <c r="BD92" s="27"/>
       <c r="BE92" s="4"/>
-      <c r="BF92" s="26" t="s">
+      <c r="BF92" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="BG92" s="27"/>
-      <c r="BH92" s="27"/>
-      <c r="BI92" s="27"/>
-      <c r="BJ92" s="28"/>
+      <c r="BG92" s="26"/>
+      <c r="BH92" s="26"/>
+      <c r="BI92" s="26"/>
+      <c r="BJ92" s="27"/>
       <c r="BK92" s="4"/>
-      <c r="BL92" s="26" t="s">
+      <c r="BL92" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="BM92" s="27"/>
-      <c r="BN92" s="27"/>
-      <c r="BO92" s="27"/>
-      <c r="BP92" s="28"/>
+      <c r="BM92" s="26"/>
+      <c r="BN92" s="26"/>
+      <c r="BO92" s="26"/>
+      <c r="BP92" s="27"/>
       <c r="BQ92" s="4"/>
       <c r="BR92" s="3"/>
       <c r="BS92" s="4"/>
@@ -11226,29 +11283,29 @@
       <c r="AV93" s="1"/>
       <c r="AW93" s="2"/>
       <c r="AY93" s="3"/>
-      <c r="AZ93" s="32" t="s">
+      <c r="AZ93" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="BA93" s="33"/>
-      <c r="BB93" s="33"/>
-      <c r="BC93" s="33"/>
-      <c r="BD93" s="34"/>
+      <c r="BA93" s="29"/>
+      <c r="BB93" s="29"/>
+      <c r="BC93" s="29"/>
+      <c r="BD93" s="30"/>
       <c r="BE93" s="4"/>
-      <c r="BF93" s="32" t="s">
+      <c r="BF93" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="BG93" s="33"/>
-      <c r="BH93" s="33"/>
-      <c r="BI93" s="33"/>
-      <c r="BJ93" s="34"/>
+      <c r="BG93" s="29"/>
+      <c r="BH93" s="29"/>
+      <c r="BI93" s="29"/>
+      <c r="BJ93" s="30"/>
       <c r="BK93" s="4"/>
-      <c r="BL93" s="32" t="s">
+      <c r="BL93" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="BM93" s="33"/>
-      <c r="BN93" s="33"/>
-      <c r="BO93" s="33"/>
-      <c r="BP93" s="34"/>
+      <c r="BM93" s="29"/>
+      <c r="BN93" s="29"/>
+      <c r="BO93" s="29"/>
+      <c r="BP93" s="30"/>
       <c r="BQ93" s="4"/>
       <c r="BR93" s="3"/>
       <c r="BS93" s="4"/>
@@ -11275,45 +11332,45 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="35" t="s">
+      <c r="F94" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="37"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="33"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="35" t="s">
+      <c r="L94" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="37"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="33"/>
       <c r="Q94" s="4"/>
-      <c r="R94" s="35" t="s">
+      <c r="R94" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="37"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="32"/>
+      <c r="U94" s="32"/>
+      <c r="V94" s="33"/>
       <c r="W94" s="4"/>
-      <c r="X94" s="35" t="s">
+      <c r="X94" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="Y94" s="36"/>
-      <c r="Z94" s="36"/>
-      <c r="AA94" s="36"/>
-      <c r="AB94" s="37"/>
+      <c r="Y94" s="32"/>
+      <c r="Z94" s="32"/>
+      <c r="AA94" s="32"/>
+      <c r="AB94" s="33"/>
       <c r="AC94" s="4"/>
-      <c r="AD94" s="35" t="s">
+      <c r="AD94" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="AE94" s="36"/>
-      <c r="AF94" s="36"/>
-      <c r="AG94" s="36"/>
-      <c r="AH94" s="37"/>
+      <c r="AE94" s="32"/>
+      <c r="AF94" s="32"/>
+      <c r="AG94" s="32"/>
+      <c r="AH94" s="33"/>
       <c r="AI94" s="4"/>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
@@ -11373,88 +11430,88 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="38" t="s">
+      <c r="F95" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="40"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="37"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="38" t="s">
+      <c r="L95" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="40"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="37"/>
       <c r="Q95" s="4"/>
-      <c r="R95" s="38" t="s">
+      <c r="R95" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39"/>
-      <c r="V95" s="40"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="36"/>
+      <c r="V95" s="37"/>
       <c r="W95" s="4"/>
-      <c r="X95" s="38" t="s">
+      <c r="X95" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="Y95" s="39"/>
-      <c r="Z95" s="39"/>
-      <c r="AA95" s="39"/>
-      <c r="AB95" s="40"/>
+      <c r="Y95" s="36"/>
+      <c r="Z95" s="36"/>
+      <c r="AA95" s="36"/>
+      <c r="AB95" s="37"/>
       <c r="AC95" s="4"/>
-      <c r="AD95" s="38" t="s">
+      <c r="AD95" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="40"/>
+      <c r="AE95" s="36"/>
+      <c r="AF95" s="36"/>
+      <c r="AG95" s="36"/>
+      <c r="AH95" s="37"/>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
-      <c r="AL95" s="41" t="s">
+      <c r="AL95" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="AM95" s="42"/>
-      <c r="AN95" s="42"/>
-      <c r="AO95" s="42"/>
-      <c r="AP95" s="43"/>
+      <c r="AM95" s="23"/>
+      <c r="AN95" s="23"/>
+      <c r="AO95" s="23"/>
+      <c r="AP95" s="24"/>
       <c r="AQ95" s="4"/>
-      <c r="AR95" s="26" t="s">
+      <c r="AR95" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="AS95" s="27"/>
-      <c r="AT95" s="27"/>
-      <c r="AU95" s="27"/>
-      <c r="AV95" s="28"/>
+      <c r="AS95" s="26"/>
+      <c r="AT95" s="26"/>
+      <c r="AU95" s="26"/>
+      <c r="AV95" s="27"/>
       <c r="AW95" s="5"/>
       <c r="AY95" s="3"/>
-      <c r="AZ95" s="26" t="s">
+      <c r="AZ95" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="BA95" s="27"/>
-      <c r="BB95" s="27"/>
-      <c r="BC95" s="27"/>
-      <c r="BD95" s="28"/>
+      <c r="BA95" s="26"/>
+      <c r="BB95" s="26"/>
+      <c r="BC95" s="26"/>
+      <c r="BD95" s="27"/>
       <c r="BE95" s="4"/>
-      <c r="BF95" s="26" t="s">
+      <c r="BF95" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="BG95" s="27"/>
-      <c r="BH95" s="27"/>
-      <c r="BI95" s="27"/>
-      <c r="BJ95" s="28"/>
+      <c r="BG95" s="26"/>
+      <c r="BH95" s="26"/>
+      <c r="BI95" s="26"/>
+      <c r="BJ95" s="27"/>
       <c r="BK95" s="4"/>
-      <c r="BL95" s="26" t="s">
+      <c r="BL95" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="BM95" s="27"/>
-      <c r="BN95" s="27"/>
-      <c r="BO95" s="27"/>
-      <c r="BP95" s="28"/>
+      <c r="BM95" s="26"/>
+      <c r="BN95" s="26"/>
+      <c r="BO95" s="26"/>
+      <c r="BP95" s="27"/>
       <c r="BQ95" s="4"/>
       <c r="BR95" s="3"/>
       <c r="BS95" s="4"/>
@@ -11519,38 +11576,38 @@
       <c r="AO96" s="4"/>
       <c r="AP96" s="4"/>
       <c r="AQ96" s="4"/>
-      <c r="AR96" s="32" t="s">
+      <c r="AR96" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="AS96" s="33"/>
-      <c r="AT96" s="33"/>
-      <c r="AU96" s="33"/>
-      <c r="AV96" s="34"/>
+      <c r="AS96" s="29"/>
+      <c r="AT96" s="29"/>
+      <c r="AU96" s="29"/>
+      <c r="AV96" s="30"/>
       <c r="AW96" s="5"/>
       <c r="AY96" s="3"/>
-      <c r="AZ96" s="32" t="s">
+      <c r="AZ96" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="BA96" s="33"/>
-      <c r="BB96" s="33"/>
-      <c r="BC96" s="33"/>
-      <c r="BD96" s="34"/>
+      <c r="BA96" s="29"/>
+      <c r="BB96" s="29"/>
+      <c r="BC96" s="29"/>
+      <c r="BD96" s="30"/>
       <c r="BE96" s="4"/>
-      <c r="BF96" s="32" t="s">
+      <c r="BF96" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="BG96" s="33"/>
-      <c r="BH96" s="33"/>
-      <c r="BI96" s="33"/>
-      <c r="BJ96" s="34"/>
+      <c r="BG96" s="29"/>
+      <c r="BH96" s="29"/>
+      <c r="BI96" s="29"/>
+      <c r="BJ96" s="30"/>
       <c r="BK96" s="4"/>
-      <c r="BL96" s="32" t="s">
+      <c r="BL96" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="BM96" s="33"/>
-      <c r="BN96" s="33"/>
-      <c r="BO96" s="33"/>
-      <c r="BP96" s="34"/>
+      <c r="BM96" s="29"/>
+      <c r="BN96" s="29"/>
+      <c r="BO96" s="29"/>
+      <c r="BP96" s="30"/>
       <c r="BQ96" s="4"/>
       <c r="BR96" s="3"/>
       <c r="BS96" s="4"/>
@@ -11577,13 +11634,13 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="35" t="s">
+      <c r="F97" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="37"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="33"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -11611,13 +11668,13 @@
       <c r="AI97" s="4"/>
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
-      <c r="AL97" s="41" t="s">
+      <c r="AL97" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM97" s="42"/>
-      <c r="AN97" s="42"/>
-      <c r="AO97" s="42"/>
-      <c r="AP97" s="43"/>
+      <c r="AM97" s="23"/>
+      <c r="AN97" s="23"/>
+      <c r="AO97" s="23"/>
+      <c r="AP97" s="24"/>
       <c r="AQ97" s="4"/>
       <c r="AR97" s="4"/>
       <c r="AS97" s="4"/>
@@ -11669,13 +11726,13 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="38" t="s">
+      <c r="F98" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="40"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="37"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -11709,30 +11766,30 @@
       <c r="AO98" s="4"/>
       <c r="AP98" s="4"/>
       <c r="AQ98" s="4"/>
-      <c r="AR98" s="26" t="s">
+      <c r="AR98" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="AS98" s="27"/>
-      <c r="AT98" s="27"/>
-      <c r="AU98" s="27"/>
-      <c r="AV98" s="28"/>
+      <c r="AS98" s="26"/>
+      <c r="AT98" s="26"/>
+      <c r="AU98" s="26"/>
+      <c r="AV98" s="27"/>
       <c r="AW98" s="5"/>
       <c r="AY98" s="3"/>
-      <c r="AZ98" s="26" t="s">
+      <c r="AZ98" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="BA98" s="27"/>
-      <c r="BB98" s="27"/>
-      <c r="BC98" s="27"/>
-      <c r="BD98" s="28"/>
+      <c r="BA98" s="26"/>
+      <c r="BB98" s="26"/>
+      <c r="BC98" s="26"/>
+      <c r="BD98" s="27"/>
       <c r="BE98" s="4"/>
-      <c r="BF98" s="26" t="s">
+      <c r="BF98" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="BG98" s="27"/>
-      <c r="BH98" s="27"/>
-      <c r="BI98" s="27"/>
-      <c r="BJ98" s="28"/>
+      <c r="BG98" s="26"/>
+      <c r="BH98" s="26"/>
+      <c r="BI98" s="26"/>
+      <c r="BJ98" s="27"/>
       <c r="BK98" s="4"/>
       <c r="BL98" s="4"/>
       <c r="BM98" s="4"/>
@@ -11797,38 +11854,38 @@
       <c r="AI99" s="4"/>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
-      <c r="AL99" s="41" t="s">
+      <c r="AL99" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AM99" s="42"/>
-      <c r="AN99" s="42"/>
-      <c r="AO99" s="42"/>
-      <c r="AP99" s="43"/>
+      <c r="AM99" s="23"/>
+      <c r="AN99" s="23"/>
+      <c r="AO99" s="23"/>
+      <c r="AP99" s="24"/>
       <c r="AQ99" s="4"/>
-      <c r="AR99" s="32" t="s">
+      <c r="AR99" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="AS99" s="33"/>
-      <c r="AT99" s="33"/>
-      <c r="AU99" s="33"/>
-      <c r="AV99" s="34"/>
+      <c r="AS99" s="29"/>
+      <c r="AT99" s="29"/>
+      <c r="AU99" s="29"/>
+      <c r="AV99" s="30"/>
       <c r="AW99" s="5"/>
       <c r="AY99" s="3"/>
-      <c r="AZ99" s="32" t="s">
+      <c r="AZ99" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="BA99" s="33"/>
-      <c r="BB99" s="33"/>
-      <c r="BC99" s="33"/>
-      <c r="BD99" s="34"/>
+      <c r="BA99" s="29"/>
+      <c r="BB99" s="29"/>
+      <c r="BC99" s="29"/>
+      <c r="BD99" s="30"/>
       <c r="BE99" s="4"/>
-      <c r="BF99" s="32" t="s">
+      <c r="BF99" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="BG99" s="33"/>
-      <c r="BH99" s="33"/>
-      <c r="BI99" s="33"/>
-      <c r="BJ99" s="34"/>
+      <c r="BG99" s="29"/>
+      <c r="BH99" s="29"/>
+      <c r="BI99" s="29"/>
+      <c r="BJ99" s="30"/>
       <c r="BK99" s="4"/>
       <c r="BL99" s="4"/>
       <c r="BM99" s="4"/>
@@ -12162,73 +12219,73 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="41" t="s">
+      <c r="F104" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="43"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="24"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="53" t="s">
+      <c r="L104" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="M104" s="42"/>
-      <c r="N104" s="42"/>
-      <c r="O104" s="42"/>
-      <c r="P104" s="43"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="24"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
-      <c r="T104" s="41" t="s">
+      <c r="T104" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="U104" s="42"/>
-      <c r="V104" s="42"/>
-      <c r="W104" s="42"/>
-      <c r="X104" s="43"/>
+      <c r="U104" s="23"/>
+      <c r="V104" s="23"/>
+      <c r="W104" s="23"/>
+      <c r="X104" s="24"/>
       <c r="Y104" s="4"/>
-      <c r="Z104" s="53" t="s">
+      <c r="Z104" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="AA104" s="42"/>
-      <c r="AB104" s="42"/>
-      <c r="AC104" s="42"/>
-      <c r="AD104" s="43"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="24"/>
       <c r="AE104" s="5"/>
       <c r="AG104" s="3"/>
-      <c r="AH104" s="41" t="s">
+      <c r="AH104" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="AI104" s="42"/>
-      <c r="AJ104" s="42"/>
-      <c r="AK104" s="42"/>
-      <c r="AL104" s="43"/>
+      <c r="AI104" s="23"/>
+      <c r="AJ104" s="23"/>
+      <c r="AK104" s="23"/>
+      <c r="AL104" s="24"/>
       <c r="AM104" s="4"/>
-      <c r="AN104" s="35" t="s">
+      <c r="AN104" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="AO104" s="36"/>
-      <c r="AP104" s="36"/>
-      <c r="AQ104" s="36"/>
-      <c r="AR104" s="37"/>
+      <c r="AO104" s="32"/>
+      <c r="AP104" s="32"/>
+      <c r="AQ104" s="32"/>
+      <c r="AR104" s="33"/>
       <c r="AS104" s="5"/>
       <c r="AU104" s="3"/>
-      <c r="AV104" s="41" t="s">
+      <c r="AV104" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="AW104" s="42"/>
-      <c r="AX104" s="42"/>
-      <c r="AY104" s="42"/>
-      <c r="AZ104" s="43"/>
+      <c r="AW104" s="23"/>
+      <c r="AX104" s="23"/>
+      <c r="AY104" s="23"/>
+      <c r="AZ104" s="24"/>
       <c r="BA104" s="4"/>
-      <c r="BB104" s="41" t="s">
+      <c r="BB104" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="BC104" s="42"/>
-      <c r="BD104" s="42"/>
-      <c r="BE104" s="42"/>
-      <c r="BF104" s="43"/>
+      <c r="BC104" s="23"/>
+      <c r="BD104" s="23"/>
+      <c r="BE104" s="23"/>
+      <c r="BF104" s="24"/>
       <c r="BG104" s="4"/>
       <c r="BH104" s="9" t="s">
         <v>467</v>
@@ -12299,13 +12356,13 @@
       <c r="AK105" s="4"/>
       <c r="AL105" s="4"/>
       <c r="AM105" s="4"/>
-      <c r="AN105" s="38" t="s">
+      <c r="AN105" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="AO105" s="39"/>
-      <c r="AP105" s="39"/>
-      <c r="AQ105" s="39"/>
-      <c r="AR105" s="40"/>
+      <c r="AO105" s="36"/>
+      <c r="AP105" s="36"/>
+      <c r="AQ105" s="36"/>
+      <c r="AR105" s="37"/>
       <c r="AS105" s="5"/>
       <c r="AU105" s="3"/>
       <c r="AV105" s="4"/>
@@ -12354,48 +12411,48 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="35" t="s">
+      <c r="F106" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="37"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="33"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="35" t="s">
+      <c r="L106" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-      <c r="P106" s="37"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="33"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
-      <c r="T106" s="53" t="s">
+      <c r="T106" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="U106" s="42"/>
-      <c r="V106" s="42"/>
-      <c r="W106" s="42"/>
-      <c r="X106" s="43"/>
+      <c r="U106" s="23"/>
+      <c r="V106" s="23"/>
+      <c r="W106" s="23"/>
+      <c r="X106" s="24"/>
       <c r="Y106" s="4"/>
-      <c r="Z106" s="35" t="s">
+      <c r="Z106" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="AA106" s="36"/>
-      <c r="AB106" s="36"/>
-      <c r="AC106" s="36"/>
-      <c r="AD106" s="37"/>
+      <c r="AA106" s="32"/>
+      <c r="AB106" s="32"/>
+      <c r="AC106" s="32"/>
+      <c r="AD106" s="33"/>
       <c r="AE106" s="5"/>
       <c r="AG106" s="3"/>
-      <c r="AH106" s="53" t="s">
+      <c r="AH106" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="AI106" s="42"/>
-      <c r="AJ106" s="42"/>
-      <c r="AK106" s="42"/>
-      <c r="AL106" s="43"/>
+      <c r="AI106" s="23"/>
+      <c r="AJ106" s="23"/>
+      <c r="AK106" s="23"/>
+      <c r="AL106" s="24"/>
       <c r="AM106" s="4"/>
       <c r="AN106" s="4"/>
       <c r="AO106" s="4"/>
@@ -12404,30 +12461,30 @@
       <c r="AR106" s="4"/>
       <c r="AS106" s="5"/>
       <c r="AU106" s="3"/>
-      <c r="AV106" s="41" t="s">
+      <c r="AV106" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="AW106" s="42"/>
-      <c r="AX106" s="42"/>
-      <c r="AY106" s="42"/>
-      <c r="AZ106" s="43"/>
+      <c r="AW106" s="23"/>
+      <c r="AX106" s="23"/>
+      <c r="AY106" s="23"/>
+      <c r="AZ106" s="24"/>
       <c r="BA106" s="4"/>
-      <c r="BB106" s="41" t="s">
+      <c r="BB106" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="BC106" s="42"/>
-      <c r="BD106" s="42"/>
-      <c r="BE106" s="42"/>
-      <c r="BF106" s="43"/>
+      <c r="BC106" s="23"/>
+      <c r="BD106" s="23"/>
+      <c r="BE106" s="23"/>
+      <c r="BF106" s="24"/>
       <c r="BG106" s="4"/>
       <c r="BH106" s="3"/>
-      <c r="BI106" s="41" t="s">
+      <c r="BI106" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="BJ106" s="42"/>
-      <c r="BK106" s="42"/>
-      <c r="BL106" s="42"/>
-      <c r="BM106" s="43"/>
+      <c r="BJ106" s="23"/>
+      <c r="BK106" s="23"/>
+      <c r="BL106" s="23"/>
+      <c r="BM106" s="24"/>
       <c r="BN106" s="5"/>
       <c r="BO106" s="4"/>
       <c r="BP106" s="4"/>
@@ -12456,42 +12513,42 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="38" t="s">
+      <c r="F107" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="40"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="37"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="38" t="s">
+      <c r="L107" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="M107" s="39"/>
-      <c r="N107" s="39"/>
-      <c r="O107" s="39"/>
-      <c r="P107" s="40"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="37"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="Y107" s="4"/>
-      <c r="Z107" s="38" t="s">
+      <c r="Z107" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="40"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="37"/>
       <c r="AE107" s="5"/>
       <c r="AG107" s="3"/>
       <c r="AM107" s="4"/>
-      <c r="AN107" s="35" t="s">
+      <c r="AN107" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="AO107" s="36"/>
-      <c r="AP107" s="36"/>
-      <c r="AQ107" s="36"/>
-      <c r="AR107" s="37"/>
+      <c r="AO107" s="32"/>
+      <c r="AP107" s="32"/>
+      <c r="AQ107" s="32"/>
+      <c r="AR107" s="33"/>
       <c r="AS107" s="5"/>
       <c r="AU107" s="3"/>
       <c r="AV107" s="4"/>
@@ -12554,13 +12611,13 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
-      <c r="T108" s="35" t="s">
+      <c r="T108" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="U108" s="36"/>
-      <c r="V108" s="36"/>
-      <c r="W108" s="36"/>
-      <c r="X108" s="37"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="33"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
@@ -12570,38 +12627,38 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="4"/>
       <c r="AG108" s="3"/>
-      <c r="AH108" s="53" t="s">
+      <c r="AH108" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="AI108" s="42"/>
-      <c r="AJ108" s="42"/>
-      <c r="AK108" s="42"/>
-      <c r="AL108" s="43"/>
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="24"/>
       <c r="AM108" s="4"/>
-      <c r="AN108" s="38" t="s">
+      <c r="AN108" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="AO108" s="39"/>
-      <c r="AP108" s="39"/>
-      <c r="AQ108" s="39"/>
-      <c r="AR108" s="40"/>
+      <c r="AO108" s="36"/>
+      <c r="AP108" s="36"/>
+      <c r="AQ108" s="36"/>
+      <c r="AR108" s="37"/>
       <c r="AS108" s="5"/>
       <c r="AU108" s="3"/>
-      <c r="AV108" s="41" t="s">
+      <c r="AV108" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="AW108" s="42"/>
-      <c r="AX108" s="42"/>
-      <c r="AY108" s="42"/>
-      <c r="AZ108" s="43"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="23"/>
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="24"/>
       <c r="BA108" s="4"/>
-      <c r="BB108" s="41" t="s">
+      <c r="BB108" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="BC108" s="42"/>
-      <c r="BD108" s="42"/>
-      <c r="BE108" s="42"/>
-      <c r="BF108" s="43"/>
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="24"/>
       <c r="BG108" s="4"/>
       <c r="BH108" s="6"/>
       <c r="BI108" s="7"/>
@@ -12637,39 +12694,39 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="35" t="s">
+      <c r="F109" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="37"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="33"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="35" t="s">
+      <c r="L109" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="M109" s="36"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="36"/>
-      <c r="P109" s="37"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="33"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
-      <c r="T109" s="38" t="s">
+      <c r="T109" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="U109" s="39"/>
-      <c r="V109" s="39"/>
-      <c r="W109" s="39"/>
-      <c r="X109" s="40"/>
+      <c r="U109" s="36"/>
+      <c r="V109" s="36"/>
+      <c r="W109" s="36"/>
+      <c r="X109" s="37"/>
       <c r="Y109" s="4"/>
-      <c r="Z109" s="35" t="s">
+      <c r="Z109" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="AA109" s="36"/>
-      <c r="AB109" s="36"/>
-      <c r="AC109" s="36"/>
-      <c r="AD109" s="37"/>
+      <c r="AA109" s="32"/>
+      <c r="AB109" s="32"/>
+      <c r="AC109" s="32"/>
+      <c r="AD109" s="33"/>
       <c r="AE109" s="5"/>
       <c r="AG109" s="3"/>
       <c r="AM109" s="4"/>
@@ -12726,21 +12783,21 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="38" t="s">
+      <c r="F110" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="40"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="37"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="38" t="s">
+      <c r="L110" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="M110" s="39"/>
-      <c r="N110" s="39"/>
-      <c r="O110" s="39"/>
-      <c r="P110" s="40"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="37"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
@@ -12750,40 +12807,40 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
-      <c r="Z110" s="38" t="s">
+      <c r="Z110" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="AA110" s="39"/>
-      <c r="AB110" s="39"/>
-      <c r="AC110" s="39"/>
-      <c r="AD110" s="40"/>
+      <c r="AA110" s="36"/>
+      <c r="AB110" s="36"/>
+      <c r="AC110" s="36"/>
+      <c r="AD110" s="37"/>
       <c r="AE110" s="5"/>
       <c r="AG110" s="3"/>
-      <c r="AH110" s="35" t="s">
+      <c r="AH110" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="AI110" s="36"/>
-      <c r="AJ110" s="36"/>
-      <c r="AK110" s="36"/>
-      <c r="AL110" s="37"/>
+      <c r="AI110" s="32"/>
+      <c r="AJ110" s="32"/>
+      <c r="AK110" s="32"/>
+      <c r="AL110" s="33"/>
       <c r="AM110" s="4"/>
       <c r="AS110" s="5"/>
       <c r="AU110" s="3"/>
-      <c r="AV110" s="41" t="s">
+      <c r="AV110" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="AW110" s="42"/>
-      <c r="AX110" s="42"/>
-      <c r="AY110" s="42"/>
-      <c r="AZ110" s="43"/>
+      <c r="AW110" s="23"/>
+      <c r="AX110" s="23"/>
+      <c r="AY110" s="23"/>
+      <c r="AZ110" s="24"/>
       <c r="BA110" s="4"/>
-      <c r="BB110" s="41" t="s">
+      <c r="BB110" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="BC110" s="42"/>
-      <c r="BD110" s="42"/>
-      <c r="BE110" s="42"/>
-      <c r="BF110" s="43"/>
+      <c r="BC110" s="23"/>
+      <c r="BD110" s="23"/>
+      <c r="BE110" s="23"/>
+      <c r="BF110" s="24"/>
       <c r="BG110" s="4"/>
       <c r="BH110" s="4"/>
       <c r="BI110" s="4"/>
@@ -12834,13 +12891,13 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
-      <c r="T111" s="35" t="s">
+      <c r="T111" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="U111" s="36"/>
-      <c r="V111" s="36"/>
-      <c r="W111" s="36"/>
-      <c r="X111" s="37"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="33"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
@@ -12849,13 +12906,13 @@
       <c r="AD111" s="4"/>
       <c r="AE111" s="5"/>
       <c r="AG111" s="3"/>
-      <c r="AH111" s="38" t="s">
+      <c r="AH111" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="AI111" s="39"/>
-      <c r="AJ111" s="39"/>
-      <c r="AK111" s="39"/>
-      <c r="AL111" s="40"/>
+      <c r="AI111" s="36"/>
+      <c r="AJ111" s="36"/>
+      <c r="AK111" s="36"/>
+      <c r="AL111" s="37"/>
       <c r="AM111" s="4"/>
       <c r="AS111" s="5"/>
       <c r="AU111" s="3"/>
@@ -12906,39 +12963,39 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="35" t="s">
+      <c r="F112" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="37"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="33"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="35" t="s">
+      <c r="L112" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="M112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
-      <c r="P112" s="37"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="33"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
-      <c r="T112" s="38" t="s">
+      <c r="T112" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="U112" s="39"/>
-      <c r="V112" s="39"/>
-      <c r="W112" s="39"/>
-      <c r="X112" s="40"/>
+      <c r="U112" s="36"/>
+      <c r="V112" s="36"/>
+      <c r="W112" s="36"/>
+      <c r="X112" s="37"/>
       <c r="Y112" s="4"/>
-      <c r="Z112" s="35" t="s">
+      <c r="Z112" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="AA112" s="36"/>
-      <c r="AB112" s="36"/>
-      <c r="AC112" s="36"/>
-      <c r="AD112" s="37"/>
+      <c r="AA112" s="32"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="32"/>
+      <c r="AD112" s="33"/>
       <c r="AE112" s="5"/>
       <c r="AG112" s="3"/>
       <c r="AS112" s="5"/>
@@ -12985,21 +13042,21 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="38" t="s">
+      <c r="F113" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="40"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="38" t="s">
+      <c r="L113" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="M113" s="39"/>
-      <c r="N113" s="39"/>
-      <c r="O113" s="39"/>
-      <c r="P113" s="40"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="37"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
@@ -13009,13 +13066,13 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
-      <c r="Z113" s="38" t="s">
+      <c r="Z113" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="AA113" s="39"/>
-      <c r="AB113" s="39"/>
-      <c r="AC113" s="39"/>
-      <c r="AD113" s="40"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="37"/>
       <c r="AE113" s="5"/>
       <c r="AG113" s="3"/>
       <c r="AS113" s="5"/>
@@ -13076,13 +13133,13 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
-      <c r="T114" s="35" t="s">
+      <c r="T114" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="U114" s="36"/>
-      <c r="V114" s="36"/>
-      <c r="W114" s="36"/>
-      <c r="X114" s="37"/>
+      <c r="U114" s="32"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="32"/>
+      <c r="X114" s="33"/>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
@@ -13135,13 +13192,13 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="35" t="s">
+      <c r="F115" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="37"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="33"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -13151,13 +13208,13 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
-      <c r="T115" s="38" t="s">
+      <c r="T115" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="U115" s="39"/>
-      <c r="V115" s="39"/>
-      <c r="W115" s="39"/>
-      <c r="X115" s="40"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="36"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="37"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
@@ -13210,13 +13267,13 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="38" t="s">
+      <c r="F116" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="40"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="37"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -14604,46 +14661,381 @@
     </row>
   </sheetData>
   <mergeCells count="452">
-    <mergeCell ref="BZ86:CD86"/>
-    <mergeCell ref="BT88:BX88"/>
-    <mergeCell ref="BZ88:CD88"/>
-    <mergeCell ref="BT89:BX89"/>
-    <mergeCell ref="BZ89:CD89"/>
-    <mergeCell ref="BF99:BJ99"/>
-    <mergeCell ref="BL86:BP86"/>
-    <mergeCell ref="BL87:BP87"/>
-    <mergeCell ref="BL89:BP89"/>
-    <mergeCell ref="BL90:BP90"/>
-    <mergeCell ref="BL92:BP92"/>
-    <mergeCell ref="AN107:AR107"/>
-    <mergeCell ref="AV110:AZ110"/>
-    <mergeCell ref="BB106:BF106"/>
-    <mergeCell ref="BB108:BF108"/>
-    <mergeCell ref="BB110:BF110"/>
-    <mergeCell ref="AH108:AL108"/>
-    <mergeCell ref="AH106:AL106"/>
-    <mergeCell ref="BP37:BT37"/>
-    <mergeCell ref="BP38:BT38"/>
-    <mergeCell ref="AN108:AR108"/>
-    <mergeCell ref="AV104:AZ104"/>
-    <mergeCell ref="AV106:AZ106"/>
-    <mergeCell ref="AV108:AZ108"/>
-    <mergeCell ref="BB104:BF104"/>
-    <mergeCell ref="BI106:BM106"/>
-    <mergeCell ref="AN104:AR104"/>
-    <mergeCell ref="AN105:AR105"/>
-    <mergeCell ref="BL96:BP96"/>
-    <mergeCell ref="BT86:BX86"/>
-    <mergeCell ref="T114:X114"/>
-    <mergeCell ref="T115:X115"/>
-    <mergeCell ref="Z112:AD112"/>
-    <mergeCell ref="Z113:AD113"/>
-    <mergeCell ref="AH104:AL104"/>
-    <mergeCell ref="T112:X112"/>
-    <mergeCell ref="Z110:AD110"/>
-    <mergeCell ref="F115:J115"/>
-    <mergeCell ref="AH110:AL110"/>
-    <mergeCell ref="AH111:AL111"/>
+    <mergeCell ref="BM6:BQ6"/>
+    <mergeCell ref="BS6:BW6"/>
+    <mergeCell ref="BY6:CC6"/>
+    <mergeCell ref="CE6:CI6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AI10:AM10"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AI8:AM8"/>
+    <mergeCell ref="AO8:AS8"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AI6:AM6"/>
+    <mergeCell ref="AU6:AY6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BG10:BK10"/>
+    <mergeCell ref="BM10:BQ10"/>
+    <mergeCell ref="BS10:BW10"/>
+    <mergeCell ref="BY10:CC10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="AU8:AY8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="BM8:BQ8"/>
+    <mergeCell ref="BS8:BW8"/>
+    <mergeCell ref="BY8:CC8"/>
+    <mergeCell ref="AO10:AS10"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AP19:AT19"/>
+    <mergeCell ref="AV19:AZ19"/>
+    <mergeCell ref="BB19:BF19"/>
+    <mergeCell ref="BN17:BR17"/>
+    <mergeCell ref="BT17:BX17"/>
+    <mergeCell ref="BZ17:CD17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BB17:BF17"/>
+    <mergeCell ref="BH17:BL17"/>
+    <mergeCell ref="AP17:AT17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="BC24:BG24"/>
+    <mergeCell ref="BI24:BM24"/>
+    <mergeCell ref="BO24:BS24"/>
+    <mergeCell ref="BU24:BY24"/>
+    <mergeCell ref="CA24:CE24"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="AK26:AO26"/>
+    <mergeCell ref="AQ26:AU26"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="AJ35:AN35"/>
+    <mergeCell ref="AK24:AO24"/>
+    <mergeCell ref="AQ24:AU24"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="AP35:AT35"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="BH35:BL35"/>
+    <mergeCell ref="BH36:BL36"/>
+    <mergeCell ref="AV38:AZ38"/>
+    <mergeCell ref="AV39:AZ39"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="X46:AB46"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AV44:AZ44"/>
+    <mergeCell ref="BB44:BF44"/>
+    <mergeCell ref="BH44:BL44"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="AJ46:AN46"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="AV35:AZ35"/>
+    <mergeCell ref="AV36:AZ36"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="R36:V36"/>
+    <mergeCell ref="X35:AB35"/>
+    <mergeCell ref="BN44:BR44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="BV38:BZ38"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="BV37:BZ37"/>
+    <mergeCell ref="BV35:BZ35"/>
+    <mergeCell ref="AD73:AH73"/>
+    <mergeCell ref="BH48:BL48"/>
+    <mergeCell ref="BN48:BR48"/>
+    <mergeCell ref="BT48:BX48"/>
+    <mergeCell ref="BZ48:CD48"/>
+    <mergeCell ref="X48:AB48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="AJ48:AN48"/>
+    <mergeCell ref="AP48:AT48"/>
+    <mergeCell ref="AV48:AZ48"/>
+    <mergeCell ref="BB48:BF48"/>
+    <mergeCell ref="BN46:BR46"/>
+    <mergeCell ref="BT46:BX46"/>
+    <mergeCell ref="BZ46:CD46"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="AR57:AV57"/>
+    <mergeCell ref="AX56:BB56"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="X56:AB56"/>
+    <mergeCell ref="X57:AB57"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="R65:V65"/>
+    <mergeCell ref="R66:V66"/>
+    <mergeCell ref="X65:AB65"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="AV46:AZ46"/>
+    <mergeCell ref="BB46:BF46"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="AP39:AT39"/>
+    <mergeCell ref="AJ37:AN37"/>
+    <mergeCell ref="L64:P64"/>
+    <mergeCell ref="X63:AB63"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="X44:AB44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="AJ44:AN44"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="AJ39:AN39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="X39:AB39"/>
+    <mergeCell ref="X37:AB37"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="AX59:BB59"/>
+    <mergeCell ref="AX57:BB57"/>
+    <mergeCell ref="CF44:CH44"/>
+    <mergeCell ref="CF45:CH45"/>
+    <mergeCell ref="BP35:BT35"/>
+    <mergeCell ref="L63:P63"/>
+    <mergeCell ref="BD54:BH54"/>
+    <mergeCell ref="BD56:BH56"/>
+    <mergeCell ref="BD57:BH57"/>
+    <mergeCell ref="CD35:CH35"/>
+    <mergeCell ref="BH46:BL46"/>
+    <mergeCell ref="BT44:BX44"/>
+    <mergeCell ref="BZ44:CD44"/>
+    <mergeCell ref="BH38:BL38"/>
+    <mergeCell ref="BH39:BL39"/>
+    <mergeCell ref="BB35:BF35"/>
+    <mergeCell ref="BB36:BF36"/>
+    <mergeCell ref="BB38:BF38"/>
+    <mergeCell ref="BB39:BF39"/>
+    <mergeCell ref="CD58:CH58"/>
+    <mergeCell ref="BX54:CB54"/>
+    <mergeCell ref="BX55:CB55"/>
+    <mergeCell ref="BX57:CB57"/>
+    <mergeCell ref="BX58:CB58"/>
+    <mergeCell ref="AJ54:AN54"/>
+    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="L80:P80"/>
+    <mergeCell ref="R76:V76"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="R72:V72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="R73:V73"/>
+    <mergeCell ref="R78:V78"/>
+    <mergeCell ref="R79:V79"/>
+    <mergeCell ref="X54:AB54"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="R75:V75"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="L74:P74"/>
+    <mergeCell ref="X72:AB72"/>
+    <mergeCell ref="X73:AB73"/>
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="X75:AB75"/>
+    <mergeCell ref="X76:AB76"/>
+    <mergeCell ref="X77:AB77"/>
+    <mergeCell ref="X78:AB78"/>
+    <mergeCell ref="AD72:AH72"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="AL65:AP65"/>
+    <mergeCell ref="AT65:AX65"/>
+    <mergeCell ref="BL65:BP65"/>
+    <mergeCell ref="BR59:BV59"/>
+    <mergeCell ref="BL60:BP60"/>
+    <mergeCell ref="BR54:BV54"/>
+    <mergeCell ref="BR56:BV56"/>
+    <mergeCell ref="BR57:BV57"/>
+    <mergeCell ref="CD54:CH54"/>
+    <mergeCell ref="CD55:CH55"/>
+    <mergeCell ref="CD57:CH57"/>
+    <mergeCell ref="BL54:BP54"/>
+    <mergeCell ref="BL56:BP56"/>
+    <mergeCell ref="BL58:BP58"/>
+    <mergeCell ref="BZ65:CD65"/>
+    <mergeCell ref="BR65:BV65"/>
+    <mergeCell ref="AZ65:BD65"/>
+    <mergeCell ref="BF65:BJ65"/>
+    <mergeCell ref="AX60:BB60"/>
+    <mergeCell ref="AR59:AV59"/>
+    <mergeCell ref="AR60:AV60"/>
+    <mergeCell ref="AX54:BB54"/>
+    <mergeCell ref="AR54:AV54"/>
+    <mergeCell ref="AR56:AV56"/>
+    <mergeCell ref="BZ67:CD67"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="AR77:AV77"/>
+    <mergeCell ref="AR74:AV74"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AR76:AV76"/>
+    <mergeCell ref="AR73:AV73"/>
+    <mergeCell ref="BL67:BP67"/>
+    <mergeCell ref="BL68:BP68"/>
+    <mergeCell ref="BR67:BV67"/>
+    <mergeCell ref="AT68:AX68"/>
+    <mergeCell ref="AZ67:BD67"/>
+    <mergeCell ref="AZ68:BD68"/>
+    <mergeCell ref="BF67:BJ67"/>
+    <mergeCell ref="BF68:BJ68"/>
+    <mergeCell ref="AL67:AP67"/>
+    <mergeCell ref="AL69:AP69"/>
+    <mergeCell ref="BZ68:CD68"/>
+    <mergeCell ref="BZ69:CD69"/>
+    <mergeCell ref="AL68:AP68"/>
+    <mergeCell ref="AT67:AX67"/>
+    <mergeCell ref="AD86:AH86"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="R88:V88"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="BL75:BP75"/>
+    <mergeCell ref="BL76:BP76"/>
+    <mergeCell ref="BL78:BP78"/>
+    <mergeCell ref="BL79:BP79"/>
+    <mergeCell ref="BF75:BJ75"/>
+    <mergeCell ref="BF76:BJ76"/>
+    <mergeCell ref="BF79:BJ79"/>
+    <mergeCell ref="AZ78:BD78"/>
+    <mergeCell ref="BF78:BJ78"/>
+    <mergeCell ref="AZ75:BD75"/>
+    <mergeCell ref="AZ76:BD76"/>
+    <mergeCell ref="AZ79:BD79"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="AD77:AH77"/>
+    <mergeCell ref="AD78:AH78"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="L86:P86"/>
+    <mergeCell ref="R86:V86"/>
+    <mergeCell ref="X86:AB86"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="AD91:AH91"/>
+    <mergeCell ref="AD92:AH92"/>
+    <mergeCell ref="AD94:AH94"/>
+    <mergeCell ref="AD95:AH95"/>
+    <mergeCell ref="X88:AB88"/>
+    <mergeCell ref="X89:AB89"/>
+    <mergeCell ref="X91:AB91"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="X94:AB94"/>
+    <mergeCell ref="X95:AB95"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="R91:V91"/>
+    <mergeCell ref="R92:V92"/>
+    <mergeCell ref="R94:V94"/>
+    <mergeCell ref="R95:V95"/>
+    <mergeCell ref="L88:P88"/>
+    <mergeCell ref="L89:P89"/>
+    <mergeCell ref="L91:P91"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="L94:P94"/>
+    <mergeCell ref="L95:P95"/>
+    <mergeCell ref="BZ73:CD73"/>
+    <mergeCell ref="AL86:AP86"/>
+    <mergeCell ref="AL88:AP88"/>
+    <mergeCell ref="AR86:AV86"/>
+    <mergeCell ref="AR87:AV87"/>
+    <mergeCell ref="BT73:BX73"/>
+    <mergeCell ref="BZ75:CD75"/>
+    <mergeCell ref="BZ76:CD76"/>
+    <mergeCell ref="BT75:BX75"/>
+    <mergeCell ref="BT76:BX76"/>
+    <mergeCell ref="BZ78:CD78"/>
+    <mergeCell ref="BZ79:CD79"/>
+    <mergeCell ref="BT78:BX78"/>
+    <mergeCell ref="BT79:BX79"/>
+    <mergeCell ref="AZ73:BD73"/>
+    <mergeCell ref="BF73:BJ73"/>
+    <mergeCell ref="BL73:BP73"/>
+    <mergeCell ref="AL99:AP99"/>
+    <mergeCell ref="AR98:AV98"/>
+    <mergeCell ref="AR99:AV99"/>
+    <mergeCell ref="AZ86:BD86"/>
+    <mergeCell ref="AZ88:BD88"/>
+    <mergeCell ref="AZ90:BD90"/>
+    <mergeCell ref="AZ92:BD92"/>
+    <mergeCell ref="AZ93:BD93"/>
+    <mergeCell ref="AZ95:BD95"/>
+    <mergeCell ref="AZ96:BD96"/>
+    <mergeCell ref="AL90:AP90"/>
+    <mergeCell ref="AL95:AP95"/>
+    <mergeCell ref="AR95:AV95"/>
+    <mergeCell ref="AR96:AV96"/>
+    <mergeCell ref="AL97:AP97"/>
     <mergeCell ref="F116:J116"/>
     <mergeCell ref="T104:X104"/>
     <mergeCell ref="Z104:AD104"/>
@@ -14668,394 +15060,59 @@
     <mergeCell ref="L106:P106"/>
     <mergeCell ref="L107:P107"/>
     <mergeCell ref="T106:X106"/>
+    <mergeCell ref="T114:X114"/>
+    <mergeCell ref="T115:X115"/>
+    <mergeCell ref="Z112:AD112"/>
+    <mergeCell ref="Z113:AD113"/>
+    <mergeCell ref="AH104:AL104"/>
+    <mergeCell ref="T112:X112"/>
+    <mergeCell ref="Z110:AD110"/>
+    <mergeCell ref="F115:J115"/>
+    <mergeCell ref="AH110:AL110"/>
+    <mergeCell ref="AH111:AL111"/>
+    <mergeCell ref="AN107:AR107"/>
+    <mergeCell ref="AV110:AZ110"/>
+    <mergeCell ref="BB106:BF106"/>
+    <mergeCell ref="BB108:BF108"/>
+    <mergeCell ref="BB110:BF110"/>
+    <mergeCell ref="AH108:AL108"/>
+    <mergeCell ref="AH106:AL106"/>
+    <mergeCell ref="BP37:BT37"/>
+    <mergeCell ref="BP38:BT38"/>
+    <mergeCell ref="AN108:AR108"/>
+    <mergeCell ref="AV104:AZ104"/>
+    <mergeCell ref="AV106:AZ106"/>
+    <mergeCell ref="AV108:AZ108"/>
+    <mergeCell ref="BB104:BF104"/>
+    <mergeCell ref="BI106:BM106"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AN105:AR105"/>
+    <mergeCell ref="BL96:BP96"/>
+    <mergeCell ref="BT86:BX86"/>
     <mergeCell ref="BL95:BP95"/>
     <mergeCell ref="AZ98:BD98"/>
     <mergeCell ref="AZ99:BD99"/>
     <mergeCell ref="BF86:BJ86"/>
     <mergeCell ref="BF87:BJ87"/>
+    <mergeCell ref="BZ86:CD86"/>
+    <mergeCell ref="BT88:BX88"/>
+    <mergeCell ref="BZ88:CD88"/>
+    <mergeCell ref="BT89:BX89"/>
+    <mergeCell ref="BZ89:CD89"/>
+    <mergeCell ref="BF99:BJ99"/>
+    <mergeCell ref="BL86:BP86"/>
+    <mergeCell ref="BL87:BP87"/>
+    <mergeCell ref="BL89:BP89"/>
+    <mergeCell ref="BL90:BP90"/>
+    <mergeCell ref="BL92:BP92"/>
     <mergeCell ref="BF89:BJ89"/>
     <mergeCell ref="BF90:BJ90"/>
     <mergeCell ref="BF93:BJ93"/>
     <mergeCell ref="BF95:BJ95"/>
     <mergeCell ref="BF96:BJ96"/>
     <mergeCell ref="BF98:BJ98"/>
-    <mergeCell ref="AL99:AP99"/>
-    <mergeCell ref="AR98:AV98"/>
-    <mergeCell ref="AR99:AV99"/>
-    <mergeCell ref="AZ86:BD86"/>
-    <mergeCell ref="AZ88:BD88"/>
-    <mergeCell ref="AZ90:BD90"/>
-    <mergeCell ref="AZ92:BD92"/>
-    <mergeCell ref="AZ93:BD93"/>
-    <mergeCell ref="AZ95:BD95"/>
-    <mergeCell ref="AZ96:BD96"/>
     <mergeCell ref="BF92:BJ92"/>
-    <mergeCell ref="AL90:AP90"/>
-    <mergeCell ref="AL95:AP95"/>
-    <mergeCell ref="AR95:AV95"/>
-    <mergeCell ref="AR96:AV96"/>
-    <mergeCell ref="AL97:AP97"/>
-    <mergeCell ref="BZ73:CD73"/>
-    <mergeCell ref="AL86:AP86"/>
-    <mergeCell ref="AL88:AP88"/>
-    <mergeCell ref="AR86:AV86"/>
-    <mergeCell ref="AR87:AV87"/>
-    <mergeCell ref="BT73:BX73"/>
-    <mergeCell ref="BZ75:CD75"/>
-    <mergeCell ref="BZ76:CD76"/>
-    <mergeCell ref="BT75:BX75"/>
-    <mergeCell ref="BT76:BX76"/>
-    <mergeCell ref="BZ78:CD78"/>
-    <mergeCell ref="BZ79:CD79"/>
-    <mergeCell ref="BT78:BX78"/>
-    <mergeCell ref="BT79:BX79"/>
-    <mergeCell ref="AZ73:BD73"/>
-    <mergeCell ref="BF73:BJ73"/>
-    <mergeCell ref="BL73:BP73"/>
     <mergeCell ref="BL93:BP93"/>
-    <mergeCell ref="F97:J97"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="AD91:AH91"/>
-    <mergeCell ref="AD92:AH92"/>
-    <mergeCell ref="AD94:AH94"/>
-    <mergeCell ref="AD95:AH95"/>
-    <mergeCell ref="X88:AB88"/>
-    <mergeCell ref="X89:AB89"/>
-    <mergeCell ref="X91:AB91"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="X94:AB94"/>
-    <mergeCell ref="X95:AB95"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="R91:V91"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="R94:V94"/>
-    <mergeCell ref="R95:V95"/>
-    <mergeCell ref="L88:P88"/>
-    <mergeCell ref="L89:P89"/>
-    <mergeCell ref="L91:P91"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="L94:P94"/>
-    <mergeCell ref="L95:P95"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="L86:P86"/>
-    <mergeCell ref="R86:V86"/>
-    <mergeCell ref="X86:AB86"/>
-    <mergeCell ref="AD86:AH86"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="R88:V88"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="BL75:BP75"/>
-    <mergeCell ref="BL76:BP76"/>
-    <mergeCell ref="BL78:BP78"/>
-    <mergeCell ref="BL79:BP79"/>
-    <mergeCell ref="BF75:BJ75"/>
-    <mergeCell ref="BF76:BJ76"/>
-    <mergeCell ref="BF79:BJ79"/>
-    <mergeCell ref="AZ78:BD78"/>
-    <mergeCell ref="BF78:BJ78"/>
-    <mergeCell ref="AZ75:BD75"/>
-    <mergeCell ref="AZ76:BD76"/>
-    <mergeCell ref="AZ79:BD79"/>
-    <mergeCell ref="L81:P81"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="L78:P78"/>
-    <mergeCell ref="BZ67:CD67"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="AR77:AV77"/>
-    <mergeCell ref="AR74:AV74"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AR76:AV76"/>
-    <mergeCell ref="AR73:AV73"/>
-    <mergeCell ref="BL67:BP67"/>
-    <mergeCell ref="BL68:BP68"/>
-    <mergeCell ref="BR67:BV67"/>
-    <mergeCell ref="AT68:AX68"/>
-    <mergeCell ref="AZ67:BD67"/>
-    <mergeCell ref="AZ68:BD68"/>
-    <mergeCell ref="BF67:BJ67"/>
-    <mergeCell ref="BF68:BJ68"/>
-    <mergeCell ref="AL67:AP67"/>
-    <mergeCell ref="AL69:AP69"/>
-    <mergeCell ref="BZ68:CD68"/>
-    <mergeCell ref="BZ69:CD69"/>
-    <mergeCell ref="AL65:AP65"/>
-    <mergeCell ref="AT65:AX65"/>
-    <mergeCell ref="BL65:BP65"/>
-    <mergeCell ref="BR59:BV59"/>
-    <mergeCell ref="BL60:BP60"/>
-    <mergeCell ref="BR54:BV54"/>
-    <mergeCell ref="BR56:BV56"/>
-    <mergeCell ref="BR57:BV57"/>
-    <mergeCell ref="CD54:CH54"/>
-    <mergeCell ref="CD55:CH55"/>
-    <mergeCell ref="CD57:CH57"/>
-    <mergeCell ref="BL54:BP54"/>
-    <mergeCell ref="BL56:BP56"/>
-    <mergeCell ref="BL58:BP58"/>
-    <mergeCell ref="BZ65:CD65"/>
-    <mergeCell ref="BR65:BV65"/>
-    <mergeCell ref="AZ65:BD65"/>
-    <mergeCell ref="BF65:BJ65"/>
-    <mergeCell ref="AL68:AP68"/>
-    <mergeCell ref="AT67:AX67"/>
-    <mergeCell ref="AD77:AH77"/>
-    <mergeCell ref="AD78:AH78"/>
-    <mergeCell ref="X72:AB72"/>
-    <mergeCell ref="X73:AB73"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="X75:AB75"/>
-    <mergeCell ref="X76:AB76"/>
-    <mergeCell ref="X77:AB77"/>
-    <mergeCell ref="X78:AB78"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="L76:P76"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="L80:P80"/>
-    <mergeCell ref="R76:V76"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="R72:V72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="R73:V73"/>
-    <mergeCell ref="R78:V78"/>
-    <mergeCell ref="R79:V79"/>
-    <mergeCell ref="X54:AB54"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="CF44:CH44"/>
-    <mergeCell ref="CF45:CH45"/>
-    <mergeCell ref="BP35:BT35"/>
-    <mergeCell ref="L63:P63"/>
-    <mergeCell ref="BD54:BH54"/>
-    <mergeCell ref="BD56:BH56"/>
-    <mergeCell ref="BD57:BH57"/>
-    <mergeCell ref="CD35:CH35"/>
-    <mergeCell ref="BH46:BL46"/>
-    <mergeCell ref="BT44:BX44"/>
-    <mergeCell ref="BZ44:CD44"/>
-    <mergeCell ref="BH38:BL38"/>
-    <mergeCell ref="BH39:BL39"/>
-    <mergeCell ref="BB35:BF35"/>
-    <mergeCell ref="BB36:BF36"/>
-    <mergeCell ref="BB38:BF38"/>
-    <mergeCell ref="BB39:BF39"/>
-    <mergeCell ref="CD58:CH58"/>
-    <mergeCell ref="BX54:CB54"/>
-    <mergeCell ref="BX55:CB55"/>
-    <mergeCell ref="BX57:CB57"/>
-    <mergeCell ref="BX58:CB58"/>
-    <mergeCell ref="AJ54:AN54"/>
-    <mergeCell ref="AJ55:AN55"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="AV46:AZ46"/>
-    <mergeCell ref="BB46:BF46"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="AP39:AT39"/>
-    <mergeCell ref="AJ37:AN37"/>
-    <mergeCell ref="L64:P64"/>
-    <mergeCell ref="X63:AB63"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="X44:AB44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="AJ44:AN44"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="AJ39:AN39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="X39:AB39"/>
-    <mergeCell ref="X37:AB37"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="AX59:BB59"/>
-    <mergeCell ref="AX57:BB57"/>
-    <mergeCell ref="AX60:BB60"/>
-    <mergeCell ref="AR59:AV59"/>
-    <mergeCell ref="AR60:AV60"/>
-    <mergeCell ref="AX54:BB54"/>
-    <mergeCell ref="AR54:AV54"/>
-    <mergeCell ref="AR56:AV56"/>
-    <mergeCell ref="AR57:AV57"/>
-    <mergeCell ref="AX56:BB56"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="L67:P67"/>
-    <mergeCell ref="R63:V63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="R75:V75"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="X56:AB56"/>
-    <mergeCell ref="X57:AB57"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="R65:V65"/>
-    <mergeCell ref="R66:V66"/>
-    <mergeCell ref="X65:AB65"/>
-    <mergeCell ref="X66:AB66"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="L74:P74"/>
-    <mergeCell ref="BN44:BR44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="BV38:BZ38"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="BV37:BZ37"/>
-    <mergeCell ref="BV35:BZ35"/>
-    <mergeCell ref="AD73:AH73"/>
-    <mergeCell ref="BH48:BL48"/>
-    <mergeCell ref="BN48:BR48"/>
-    <mergeCell ref="BT48:BX48"/>
-    <mergeCell ref="BZ48:CD48"/>
-    <mergeCell ref="X48:AB48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="AJ48:AN48"/>
-    <mergeCell ref="AP48:AT48"/>
-    <mergeCell ref="AV48:AZ48"/>
-    <mergeCell ref="BB48:BF48"/>
-    <mergeCell ref="BN46:BR46"/>
-    <mergeCell ref="BT46:BX46"/>
-    <mergeCell ref="BZ46:CD46"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="BH35:BL35"/>
-    <mergeCell ref="BH36:BL36"/>
-    <mergeCell ref="AV38:AZ38"/>
-    <mergeCell ref="AV39:AZ39"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="X46:AB46"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AV44:AZ44"/>
-    <mergeCell ref="BB44:BF44"/>
-    <mergeCell ref="BH44:BL44"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="AJ46:AN46"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="AV35:AZ35"/>
-    <mergeCell ref="AV36:AZ36"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="R36:V36"/>
-    <mergeCell ref="X35:AB35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="AJ35:AN35"/>
-    <mergeCell ref="AK24:AO24"/>
-    <mergeCell ref="AQ24:AU24"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="AP35:AT35"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="BC24:BG24"/>
-    <mergeCell ref="BI24:BM24"/>
-    <mergeCell ref="BO24:BS24"/>
-    <mergeCell ref="BU24:BY24"/>
-    <mergeCell ref="CA24:CE24"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="AK26:AO26"/>
-    <mergeCell ref="AQ26:AU26"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AP19:AT19"/>
-    <mergeCell ref="AV19:AZ19"/>
-    <mergeCell ref="BB19:BF19"/>
-    <mergeCell ref="BN17:BR17"/>
-    <mergeCell ref="BT17:BX17"/>
-    <mergeCell ref="BZ17:CD17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BB17:BF17"/>
-    <mergeCell ref="BH17:BL17"/>
-    <mergeCell ref="AP17:AT17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="AU10:AY10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BG10:BK10"/>
-    <mergeCell ref="BM10:BQ10"/>
-    <mergeCell ref="BS10:BW10"/>
-    <mergeCell ref="BY10:CC10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="AU8:AY8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="BM8:BQ8"/>
-    <mergeCell ref="BS8:BW8"/>
-    <mergeCell ref="BY8:CC8"/>
-    <mergeCell ref="AO10:AS10"/>
-    <mergeCell ref="CE6:CI6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AI10:AM10"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AI8:AM8"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AI6:AM6"/>
-    <mergeCell ref="AU6:AY6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BM6:BQ6"/>
-    <mergeCell ref="BS6:BW6"/>
-    <mergeCell ref="BY6:CC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15067,8 +15124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AX84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AF47" sqref="AF47"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AB59" sqref="AB59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
